--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -862,6 +862,21 @@
     <t>['29', '37']</t>
   </si>
   <si>
+    <t>['47', '69']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['2', '18', '31']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -914,9 +929,6 @@
   </si>
   <si>
     <t>['15', '55']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['45', '89']</t>
@@ -1102,9 +1114,6 @@
     <t>['6', '21', '48', '90+4']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['2']</t>
   </si>
   <si>
@@ -1133,6 +1142,15 @@
   </si>
   <si>
     <t>['15', '72']</t>
+  </si>
+  <si>
+    <t>['62', '90+5']</t>
+  </si>
+  <si>
+    <t>['90+12']</t>
+  </si>
+  <si>
+    <t>['39', '74', '76']</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK337"/>
+  <dimension ref="A1:BK345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1947,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2502,7 +2520,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2693,7 +2711,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2884,7 +2902,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3266,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3544,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT11">
         <v>1.08</v>
@@ -4030,7 +4048,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4412,7 +4430,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4502,7 +4520,7 @@
         <v>1.36</v>
       </c>
       <c r="AT16">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4693,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4884,7 +4902,7 @@
         <v>1.18</v>
       </c>
       <c r="AT18">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4985,7 +5003,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5072,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -5176,7 +5194,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5263,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT20">
         <v>1.85</v>
@@ -5457,7 +5475,7 @@
         <v>2.27</v>
       </c>
       <c r="AT21">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5749,7 +5767,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5839,7 +5857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6218,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT25">
         <v>0.82</v>
@@ -6322,7 +6340,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6412,7 +6430,7 @@
         <v>1.58</v>
       </c>
       <c r="AT26">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6513,7 +6531,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6600,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT27">
         <v>0.73</v>
@@ -6704,7 +6722,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6791,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6895,7 +6913,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6982,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT29">
         <v>0.73</v>
@@ -7086,7 +7104,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7850,7 +7868,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8041,7 +8059,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8131,7 +8149,7 @@
         <v>1.85</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -8892,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -9187,7 +9205,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9274,7 +9292,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9378,7 +9396,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9569,7 +9587,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9847,7 +9865,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT44">
         <v>0.73</v>
@@ -9951,7 +9969,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10229,7 +10247,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10423,7 +10441,7 @@
         <v>2.27</v>
       </c>
       <c r="AT47">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10524,7 +10542,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10993,10 +11011,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.84</v>
@@ -11375,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT52">
         <v>0.82</v>
@@ -11569,7 +11587,7 @@
         <v>1.85</v>
       </c>
       <c r="AT53">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>1.66</v>
@@ -11670,7 +11688,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11760,7 +11778,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.63</v>
@@ -12139,10 +12157,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -12243,7 +12261,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12333,7 +12351,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU57">
         <v>1.13</v>
@@ -12434,7 +12452,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12521,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -13198,7 +13216,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13288,7 +13306,7 @@
         <v>1.69</v>
       </c>
       <c r="AT62">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU62">
         <v>1.14</v>
@@ -13389,7 +13407,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13479,7 +13497,7 @@
         <v>1.31</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13962,7 +13980,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14049,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT66">
         <v>0.38</v>
@@ -14344,7 +14362,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14813,7 +14831,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT70">
         <v>1.23</v>
@@ -15195,10 +15213,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT72">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.44</v>
@@ -15299,7 +15317,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15386,10 +15404,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT73">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15768,7 +15786,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT75">
         <v>0.82</v>
@@ -15872,7 +15890,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16636,7 +16654,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16723,10 +16741,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT80">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU80">
         <v>1.91</v>
@@ -17018,7 +17036,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17108,7 +17126,7 @@
         <v>1.85</v>
       </c>
       <c r="AT82">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU82">
         <v>1.61</v>
@@ -17296,7 +17314,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT83">
         <v>1.08</v>
@@ -17400,7 +17418,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17681,7 +17699,7 @@
         <v>1.85</v>
       </c>
       <c r="AT85">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17782,7 +17800,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18546,7 +18564,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18636,7 +18654,7 @@
         <v>1.77</v>
       </c>
       <c r="AT90">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -19015,7 +19033,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT92">
         <v>1.23</v>
@@ -19206,7 +19224,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -19397,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19501,7 +19519,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19782,7 +19800,7 @@
         <v>1.31</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU96">
         <v>2.03</v>
@@ -20074,7 +20092,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20164,7 +20182,7 @@
         <v>1.31</v>
       </c>
       <c r="AT98">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU98">
         <v>1.35</v>
@@ -20456,7 +20474,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20543,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT100">
         <v>1.08</v>
@@ -20838,7 +20856,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21119,7 +21137,7 @@
         <v>1.69</v>
       </c>
       <c r="AT103">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -21220,7 +21238,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21498,7 +21516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT105">
         <v>1.08</v>
@@ -21602,7 +21620,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21689,10 +21707,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT106">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21793,7 +21811,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22175,7 +22193,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22262,7 +22280,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
         <v>1.85</v>
@@ -22456,7 +22474,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -22748,7 +22766,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22835,10 +22853,10 @@
         <v>0.33</v>
       </c>
       <c r="AS112">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT112">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU112">
         <v>1.67</v>
@@ -23220,7 +23238,7 @@
         <v>1.77</v>
       </c>
       <c r="AT114">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23981,7 +23999,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT118">
         <v>0.92</v>
@@ -24085,7 +24103,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24175,7 +24193,7 @@
         <v>1.54</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU119">
         <v>0.89</v>
@@ -24467,7 +24485,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24554,7 +24572,7 @@
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT121">
         <v>0.46</v>
@@ -24849,7 +24867,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24939,7 +24957,7 @@
         <v>1.38</v>
       </c>
       <c r="AT123">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -25231,7 +25249,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25321,7 +25339,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.92</v>
@@ -25509,7 +25527,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -26186,7 +26204,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26655,7 +26673,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>1</v>
@@ -26759,7 +26777,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26846,7 +26864,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
         <v>1.08</v>
@@ -26950,7 +26968,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27037,7 +27055,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT134">
         <v>1.08</v>
@@ -27141,7 +27159,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27231,7 +27249,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU135">
         <v>1.38</v>
@@ -27332,7 +27350,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27523,7 +27541,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27613,7 +27631,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27714,7 +27732,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27801,7 +27819,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27995,7 +28013,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU139">
         <v>1.19</v>
@@ -28096,7 +28114,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28183,7 +28201,7 @@
         <v>2.4</v>
       </c>
       <c r="AS140">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT140">
         <v>1.85</v>
@@ -28287,7 +28305,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28568,7 +28586,7 @@
         <v>1.54</v>
       </c>
       <c r="AT142">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU142">
         <v>0.85</v>
@@ -28669,7 +28687,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28950,7 +28968,7 @@
         <v>1.38</v>
       </c>
       <c r="AT144">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29051,7 +29069,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29141,7 +29159,7 @@
         <v>1.31</v>
       </c>
       <c r="AT145">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU145">
         <v>1.78</v>
@@ -29523,7 +29541,7 @@
         <v>2.23</v>
       </c>
       <c r="AT147">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU147">
         <v>1.55</v>
@@ -29711,7 +29729,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT148">
         <v>0.46</v>
@@ -29902,7 +29920,7 @@
         <v>0.4</v>
       </c>
       <c r="AS149">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT149">
         <v>0.85</v>
@@ -30388,7 +30406,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30579,7 +30597,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30669,7 +30687,7 @@
         <v>1.23</v>
       </c>
       <c r="AT153">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU153">
         <v>1.75</v>
@@ -30857,7 +30875,7 @@
         <v>0.2</v>
       </c>
       <c r="AS154">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT154">
         <v>0.6899999999999999</v>
@@ -31433,7 +31451,7 @@
         <v>1.85</v>
       </c>
       <c r="AT157">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31621,7 +31639,7 @@
         <v>0.67</v>
       </c>
       <c r="AS158">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -31725,7 +31743,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31812,7 +31830,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT159">
         <v>1.08</v>
@@ -32003,7 +32021,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT160">
         <v>1</v>
@@ -32770,7 +32788,7 @@
         <v>1.85</v>
       </c>
       <c r="AT164">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU164">
         <v>1.53</v>
@@ -33340,7 +33358,7 @@
         <v>0.67</v>
       </c>
       <c r="AS167">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT167">
         <v>0.38</v>
@@ -33444,7 +33462,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33534,7 +33552,7 @@
         <v>1.58</v>
       </c>
       <c r="AT168">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU168">
         <v>1.48</v>
@@ -33635,7 +33653,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33722,7 +33740,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT169">
         <v>1.23</v>
@@ -33826,7 +33844,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33916,7 +33934,7 @@
         <v>1.23</v>
       </c>
       <c r="AT170">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU170">
         <v>1.69</v>
@@ -34208,7 +34226,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34486,7 +34504,7 @@
         <v>0.83</v>
       </c>
       <c r="AS173">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT173">
         <v>0.85</v>
@@ -34590,7 +34608,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34871,7 +34889,7 @@
         <v>2.23</v>
       </c>
       <c r="AT175">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -34972,7 +34990,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35062,7 +35080,7 @@
         <v>2.38</v>
       </c>
       <c r="AT176">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU176">
         <v>1.54</v>
@@ -35444,7 +35462,7 @@
         <v>1.77</v>
       </c>
       <c r="AT178">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU178">
         <v>1.61</v>
@@ -35632,7 +35650,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT179">
         <v>0.75</v>
@@ -35736,7 +35754,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35826,7 +35844,7 @@
         <v>1.54</v>
       </c>
       <c r="AT180">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU180">
         <v>0.85</v>
@@ -35927,7 +35945,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36014,7 +36032,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT181">
         <v>0.92</v>
@@ -36118,7 +36136,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36500,7 +36518,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36590,7 +36608,7 @@
         <v>1.69</v>
       </c>
       <c r="AT184">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU184">
         <v>1.54</v>
@@ -36778,7 +36796,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT185">
         <v>1</v>
@@ -37160,7 +37178,7 @@
         <v>0.57</v>
       </c>
       <c r="AS187">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT187">
         <v>0.38</v>
@@ -37545,7 +37563,7 @@
         <v>1.31</v>
       </c>
       <c r="AT189">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU189">
         <v>1.28</v>
@@ -37733,7 +37751,7 @@
         <v>1.29</v>
       </c>
       <c r="AS190">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT190">
         <v>1</v>
@@ -38028,7 +38046,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38882,7 +38900,7 @@
         <v>1.85</v>
       </c>
       <c r="AT196">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU196">
         <v>1.52</v>
@@ -39261,7 +39279,7 @@
         <v>0.43</v>
       </c>
       <c r="AS198">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT198">
         <v>0.92</v>
@@ -39834,7 +39852,7 @@
         <v>1</v>
       </c>
       <c r="AS201">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT201">
         <v>0.92</v>
@@ -39938,7 +39956,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40219,7 +40237,7 @@
         <v>2.38</v>
       </c>
       <c r="AT203">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU203">
         <v>1.48</v>
@@ -40407,10 +40425,10 @@
         <v>1.17</v>
       </c>
       <c r="AS204">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU204">
         <v>1.86</v>
@@ -40601,7 +40619,7 @@
         <v>1.77</v>
       </c>
       <c r="AT205">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU205">
         <v>1.52</v>
@@ -40702,7 +40720,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41174,7 +41192,7 @@
         <v>2.23</v>
       </c>
       <c r="AT208">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU208">
         <v>1.4</v>
@@ -41275,7 +41293,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41362,10 +41380,10 @@
         <v>1.83</v>
       </c>
       <c r="AS209">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT209">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU209">
         <v>1.72</v>
@@ -41744,7 +41762,7 @@
         <v>1.25</v>
       </c>
       <c r="AS211">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT211">
         <v>1</v>
@@ -41848,7 +41866,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42039,7 +42057,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42230,7 +42248,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42320,7 +42338,7 @@
         <v>1.31</v>
       </c>
       <c r="AT214">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42893,7 +42911,7 @@
         <v>1.77</v>
       </c>
       <c r="AT217">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU217">
         <v>1.48</v>
@@ -43376,7 +43394,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43567,7 +43585,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43654,7 +43672,7 @@
         <v>1.13</v>
       </c>
       <c r="AS221">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT221">
         <v>1</v>
@@ -43758,7 +43776,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44036,7 +44054,7 @@
         <v>1.29</v>
       </c>
       <c r="AS223">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT223">
         <v>1.23</v>
@@ -44230,7 +44248,7 @@
         <v>1.31</v>
       </c>
       <c r="AT224">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU224">
         <v>1.26</v>
@@ -44609,7 +44627,7 @@
         <v>0.88</v>
       </c>
       <c r="AS226">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT226">
         <v>0.6899999999999999</v>
@@ -44803,7 +44821,7 @@
         <v>2.38</v>
       </c>
       <c r="AT227">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU227">
         <v>1.49</v>
@@ -45376,7 +45394,7 @@
         <v>1.91</v>
       </c>
       <c r="AT230">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU230">
         <v>1.95</v>
@@ -46137,10 +46155,10 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT234">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU234">
         <v>1.19</v>
@@ -46328,7 +46346,7 @@
         <v>0.63</v>
       </c>
       <c r="AS235">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT235">
         <v>0.46</v>
@@ -46710,10 +46728,10 @@
         <v>1</v>
       </c>
       <c r="AS237">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT237">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU237">
         <v>1.86</v>
@@ -47092,7 +47110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT239">
         <v>1</v>
@@ -47668,7 +47686,7 @@
         <v>1.54</v>
       </c>
       <c r="AT242">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU242">
         <v>1.12</v>
@@ -48533,7 +48551,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48724,7 +48742,7 @@
         <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="Q248">
         <v>7</v>
@@ -48811,7 +48829,7 @@
         <v>0.78</v>
       </c>
       <c r="AS248">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT248">
         <v>0.92</v>
@@ -49005,7 +49023,7 @@
         <v>1.31</v>
       </c>
       <c r="AT249">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU249">
         <v>1.47</v>
@@ -49196,7 +49214,7 @@
         <v>1.38</v>
       </c>
       <c r="AT250">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU250">
         <v>1.55</v>
@@ -49297,7 +49315,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49575,7 +49593,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT252">
         <v>0.85</v>
@@ -49769,7 +49787,7 @@
         <v>1.18</v>
       </c>
       <c r="AT253">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU253">
         <v>1.15</v>
@@ -49870,7 +49888,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50151,7 +50169,7 @@
         <v>1.91</v>
       </c>
       <c r="AT255">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU255">
         <v>1.95</v>
@@ -50252,7 +50270,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50342,7 +50360,7 @@
         <v>1.36</v>
       </c>
       <c r="AT256">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU256">
         <v>1.66</v>
@@ -50530,10 +50548,10 @@
         <v>0.71</v>
       </c>
       <c r="AS257">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT257">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU257">
         <v>1.23</v>
@@ -50634,7 +50652,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -51103,7 +51121,7 @@
         <v>0.63</v>
       </c>
       <c r="AS260">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT260">
         <v>0.73</v>
@@ -51294,7 +51312,7 @@
         <v>0.78</v>
       </c>
       <c r="AS261">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT261">
         <v>0.6899999999999999</v>
@@ -51676,7 +51694,7 @@
         <v>0.89</v>
       </c>
       <c r="AS263">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT263">
         <v>0.75</v>
@@ -52061,7 +52079,7 @@
         <v>1.54</v>
       </c>
       <c r="AT265">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU265">
         <v>1.15</v>
@@ -53308,7 +53326,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53690,7 +53708,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53971,7 +53989,7 @@
         <v>1.23</v>
       </c>
       <c r="AT275">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU275">
         <v>1.6</v>
@@ -54350,7 +54368,7 @@
         <v>0.6</v>
       </c>
       <c r="AS277">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT277">
         <v>0.46</v>
@@ -54454,7 +54472,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54732,7 +54750,7 @@
         <v>1.1</v>
       </c>
       <c r="AS279">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT279">
         <v>1.23</v>
@@ -54923,10 +54941,10 @@
         <v>0.63</v>
       </c>
       <c r="AS280">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT280">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU280">
         <v>1.71</v>
@@ -55114,10 +55132,10 @@
         <v>1.75</v>
       </c>
       <c r="AS281">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT281">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU281">
         <v>1.88</v>
@@ -55308,7 +55326,7 @@
         <v>1.77</v>
       </c>
       <c r="AT282">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU282">
         <v>1.52</v>
@@ -55600,7 +55618,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55690,7 +55708,7 @@
         <v>1.36</v>
       </c>
       <c r="AT284">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU284">
         <v>1.68</v>
@@ -55878,7 +55896,7 @@
         <v>0.78</v>
       </c>
       <c r="AS285">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT285">
         <v>1</v>
@@ -55982,7 +56000,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56069,7 +56087,7 @@
         <v>0.78</v>
       </c>
       <c r="AS286">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT286">
         <v>0.73</v>
@@ -56260,10 +56278,10 @@
         <v>1.11</v>
       </c>
       <c r="AS287">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT287">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56364,7 +56382,7 @@
         <v>149</v>
       </c>
       <c r="P288" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -56451,7 +56469,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT288">
         <v>0.85</v>
@@ -56555,7 +56573,7 @@
         <v>259</v>
       </c>
       <c r="P289" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56645,7 +56663,7 @@
         <v>1.91</v>
       </c>
       <c r="AT289">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU289">
         <v>1.93</v>
@@ -56833,7 +56851,7 @@
         <v>0.8</v>
       </c>
       <c r="AS290">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT290">
         <v>0.75</v>
@@ -56937,7 +56955,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57027,7 +57045,7 @@
         <v>2.27</v>
       </c>
       <c r="AT291">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU291">
         <v>1.43</v>
@@ -57128,7 +57146,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57218,7 +57236,7 @@
         <v>1.18</v>
       </c>
       <c r="AT292">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU292">
         <v>1.11</v>
@@ -57319,7 +57337,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57597,7 +57615,7 @@
         <v>0.8</v>
       </c>
       <c r="AS294">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT294">
         <v>0.92</v>
@@ -57788,7 +57806,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS295">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT295">
         <v>0.73</v>
@@ -57892,7 +57910,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58465,7 +58483,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58746,7 +58764,7 @@
         <v>2.23</v>
       </c>
       <c r="AT300">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU300">
         <v>1.44</v>
@@ -59038,7 +59056,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59420,7 +59438,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60375,7 +60393,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60656,7 +60674,7 @@
         <v>2.27</v>
       </c>
       <c r="AT310">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU310">
         <v>1.43</v>
@@ -60844,10 +60862,10 @@
         <v>1</v>
       </c>
       <c r="AS311">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT311">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU311">
         <v>1.56</v>
@@ -60948,7 +60966,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61229,7 +61247,7 @@
         <v>2.38</v>
       </c>
       <c r="AT313">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU313">
         <v>1.67</v>
@@ -61417,10 +61435,10 @@
         <v>1.3</v>
       </c>
       <c r="AS314">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT314">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU314">
         <v>1.64</v>
@@ -61608,7 +61626,7 @@
         <v>0.9</v>
       </c>
       <c r="AS315">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT315">
         <v>0.82</v>
@@ -61712,7 +61730,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -61802,7 +61820,7 @@
         <v>1.18</v>
       </c>
       <c r="AT316">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU316">
         <v>1.1</v>
@@ -61990,10 +62008,10 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT317">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU317">
         <v>1.59</v>
@@ -62094,7 +62112,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62181,10 +62199,10 @@
         <v>1.8</v>
       </c>
       <c r="AS318">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT318">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU318">
         <v>1.59</v>
@@ -62563,7 +62581,7 @@
         <v>0.73</v>
       </c>
       <c r="AS320">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT320">
         <v>0.92</v>
@@ -62667,7 +62685,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -62754,7 +62772,7 @@
         <v>0.8</v>
       </c>
       <c r="AS321">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT321">
         <v>1</v>
@@ -62945,7 +62963,7 @@
         <v>0.73</v>
       </c>
       <c r="AS322">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT322">
         <v>0.75</v>
@@ -64386,7 +64404,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65532,7 +65550,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65661,7 +65679,7 @@
         <v>5</v>
       </c>
       <c r="BG336">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH336">
         <v>4</v>
@@ -65673,7 +65691,7 @@
         <v>9</v>
       </c>
       <c r="BK336">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:63">
@@ -65865,6 +65883,1534 @@
       </c>
       <c r="BK337">
         <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:63">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>4554730</v>
+      </c>
+      <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338" t="s">
+        <v>64</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45121.79166666666</v>
+      </c>
+      <c r="F338">
+        <v>25</v>
+      </c>
+      <c r="G338" t="s">
+        <v>87</v>
+      </c>
+      <c r="H338" t="s">
+        <v>66</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>2</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>4</v>
+      </c>
+      <c r="O338" t="s">
+        <v>282</v>
+      </c>
+      <c r="P338" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q338">
+        <v>5</v>
+      </c>
+      <c r="R338">
+        <v>3</v>
+      </c>
+      <c r="S338">
+        <v>8</v>
+      </c>
+      <c r="T338">
+        <v>2.9</v>
+      </c>
+      <c r="U338">
+        <v>2.13</v>
+      </c>
+      <c r="V338">
+        <v>4.06</v>
+      </c>
+      <c r="W338">
+        <v>1.49</v>
+      </c>
+      <c r="X338">
+        <v>2.51</v>
+      </c>
+      <c r="Y338">
+        <v>3.39</v>
+      </c>
+      <c r="Z338">
+        <v>1.24</v>
+      </c>
+      <c r="AA338">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB338">
+        <v>1.06</v>
+      </c>
+      <c r="AC338">
+        <v>2.12</v>
+      </c>
+      <c r="AD338">
+        <v>3.38</v>
+      </c>
+      <c r="AE338">
+        <v>3.26</v>
+      </c>
+      <c r="AF338">
+        <v>1.07</v>
+      </c>
+      <c r="AG338">
+        <v>6.5</v>
+      </c>
+      <c r="AH338">
+        <v>1.33</v>
+      </c>
+      <c r="AI338">
+        <v>3</v>
+      </c>
+      <c r="AJ338">
+        <v>2.1</v>
+      </c>
+      <c r="AK338">
+        <v>1.65</v>
+      </c>
+      <c r="AL338">
+        <v>1.9</v>
+      </c>
+      <c r="AM338">
+        <v>1.86</v>
+      </c>
+      <c r="AN338">
+        <v>1.33</v>
+      </c>
+      <c r="AO338">
+        <v>1.33</v>
+      </c>
+      <c r="AP338">
+        <v>1.68</v>
+      </c>
+      <c r="AQ338">
+        <v>2.18</v>
+      </c>
+      <c r="AR338">
+        <v>1.55</v>
+      </c>
+      <c r="AS338">
+        <v>2.08</v>
+      </c>
+      <c r="AT338">
+        <v>1.5</v>
+      </c>
+      <c r="AU338">
+        <v>1.54</v>
+      </c>
+      <c r="AV338">
+        <v>1.37</v>
+      </c>
+      <c r="AW338">
+        <v>2.91</v>
+      </c>
+      <c r="AX338">
+        <v>1.41</v>
+      </c>
+      <c r="AY338">
+        <v>9</v>
+      </c>
+      <c r="AZ338">
+        <v>3.49</v>
+      </c>
+      <c r="BA338">
+        <v>1.28</v>
+      </c>
+      <c r="BB338">
+        <v>1.5</v>
+      </c>
+      <c r="BC338">
+        <v>1.93</v>
+      </c>
+      <c r="BD338">
+        <v>2.5</v>
+      </c>
+      <c r="BE338">
+        <v>3.45</v>
+      </c>
+      <c r="BF338">
+        <v>4</v>
+      </c>
+      <c r="BG338">
+        <v>6</v>
+      </c>
+      <c r="BH338">
+        <v>7</v>
+      </c>
+      <c r="BI338">
+        <v>5</v>
+      </c>
+      <c r="BJ338">
+        <v>11</v>
+      </c>
+      <c r="BK338">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:63">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>5019531</v>
+      </c>
+      <c r="C339" t="s">
+        <v>63</v>
+      </c>
+      <c r="D339" t="s">
+        <v>64</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45121.79166666666</v>
+      </c>
+      <c r="F339">
+        <v>25</v>
+      </c>
+      <c r="G339" t="s">
+        <v>82</v>
+      </c>
+      <c r="H339" t="s">
+        <v>77</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>2</v>
+      </c>
+      <c r="O339" t="s">
+        <v>283</v>
+      </c>
+      <c r="P339" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q339">
+        <v>4</v>
+      </c>
+      <c r="R339">
+        <v>14</v>
+      </c>
+      <c r="S339">
+        <v>18</v>
+      </c>
+      <c r="T339">
+        <v>3.52</v>
+      </c>
+      <c r="U339">
+        <v>1.93</v>
+      </c>
+      <c r="V339">
+        <v>3.99</v>
+      </c>
+      <c r="W339">
+        <v>1.62</v>
+      </c>
+      <c r="X339">
+        <v>2.32</v>
+      </c>
+      <c r="Y339">
+        <v>3.82</v>
+      </c>
+      <c r="Z339">
+        <v>1.24</v>
+      </c>
+      <c r="AA339">
+        <v>11</v>
+      </c>
+      <c r="AB339">
+        <v>1.02</v>
+      </c>
+      <c r="AC339">
+        <v>2.6</v>
+      </c>
+      <c r="AD339">
+        <v>2.86</v>
+      </c>
+      <c r="AE339">
+        <v>3.04</v>
+      </c>
+      <c r="AF339">
+        <v>1.1</v>
+      </c>
+      <c r="AG339">
+        <v>5.7</v>
+      </c>
+      <c r="AH339">
+        <v>1.52</v>
+      </c>
+      <c r="AI339">
+        <v>2.35</v>
+      </c>
+      <c r="AJ339">
+        <v>2.6</v>
+      </c>
+      <c r="AK339">
+        <v>1.42</v>
+      </c>
+      <c r="AL339">
+        <v>2.22</v>
+      </c>
+      <c r="AM339">
+        <v>1.63</v>
+      </c>
+      <c r="AN339">
+        <v>1.39</v>
+      </c>
+      <c r="AO339">
+        <v>1.39</v>
+      </c>
+      <c r="AP339">
+        <v>1.51</v>
+      </c>
+      <c r="AQ339">
+        <v>1.36</v>
+      </c>
+      <c r="AR339">
+        <v>0.73</v>
+      </c>
+      <c r="AS339">
+        <v>1.33</v>
+      </c>
+      <c r="AT339">
+        <v>0.75</v>
+      </c>
+      <c r="AU339">
+        <v>1.58</v>
+      </c>
+      <c r="AV339">
+        <v>1.1</v>
+      </c>
+      <c r="AW339">
+        <v>2.68</v>
+      </c>
+      <c r="AX339">
+        <v>2.05</v>
+      </c>
+      <c r="AY339">
+        <v>8</v>
+      </c>
+      <c r="AZ339">
+        <v>2</v>
+      </c>
+      <c r="BA339">
+        <v>1.28</v>
+      </c>
+      <c r="BB339">
+        <v>1.5</v>
+      </c>
+      <c r="BC339">
+        <v>1.93</v>
+      </c>
+      <c r="BD339">
+        <v>2.5</v>
+      </c>
+      <c r="BE339">
+        <v>3.45</v>
+      </c>
+      <c r="BF339">
+        <v>2</v>
+      </c>
+      <c r="BG339">
+        <v>5</v>
+      </c>
+      <c r="BH339">
+        <v>1</v>
+      </c>
+      <c r="BI339">
+        <v>11</v>
+      </c>
+      <c r="BJ339">
+        <v>3</v>
+      </c>
+      <c r="BK339">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:63">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>4554728</v>
+      </c>
+      <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340" t="s">
+        <v>64</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45121.89583333334</v>
+      </c>
+      <c r="F340">
+        <v>25</v>
+      </c>
+      <c r="G340" t="s">
+        <v>91</v>
+      </c>
+      <c r="H340" t="s">
+        <v>68</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
+        <v>96</v>
+      </c>
+      <c r="P340" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q340">
+        <v>5</v>
+      </c>
+      <c r="R340">
+        <v>4</v>
+      </c>
+      <c r="S340">
+        <v>9</v>
+      </c>
+      <c r="T340">
+        <v>3.5</v>
+      </c>
+      <c r="U340">
+        <v>1.96</v>
+      </c>
+      <c r="V340">
+        <v>3.3</v>
+      </c>
+      <c r="W340">
+        <v>1.51</v>
+      </c>
+      <c r="X340">
+        <v>2.35</v>
+      </c>
+      <c r="Y340">
+        <v>3.3</v>
+      </c>
+      <c r="Z340">
+        <v>1.29</v>
+      </c>
+      <c r="AA340">
+        <v>9.25</v>
+      </c>
+      <c r="AB340">
+        <v>1.05</v>
+      </c>
+      <c r="AC340">
+        <v>2.92</v>
+      </c>
+      <c r="AD340">
+        <v>3.1</v>
+      </c>
+      <c r="AE340">
+        <v>2.5</v>
+      </c>
+      <c r="AF340">
+        <v>1.08</v>
+      </c>
+      <c r="AG340">
+        <v>7.15</v>
+      </c>
+      <c r="AH340">
+        <v>1.46</v>
+      </c>
+      <c r="AI340">
+        <v>2.65</v>
+      </c>
+      <c r="AJ340">
+        <v>2.42</v>
+      </c>
+      <c r="AK340">
+        <v>1.54</v>
+      </c>
+      <c r="AL340">
+        <v>2.17</v>
+      </c>
+      <c r="AM340">
+        <v>1.66</v>
+      </c>
+      <c r="AN340">
+        <v>1.56</v>
+      </c>
+      <c r="AO340">
+        <v>1.37</v>
+      </c>
+      <c r="AP340">
+        <v>1.35</v>
+      </c>
+      <c r="AQ340">
+        <v>1.18</v>
+      </c>
+      <c r="AR340">
+        <v>1.91</v>
+      </c>
+      <c r="AS340">
+        <v>1.08</v>
+      </c>
+      <c r="AT340">
+        <v>2</v>
+      </c>
+      <c r="AU340">
+        <v>1.56</v>
+      </c>
+      <c r="AV340">
+        <v>1.36</v>
+      </c>
+      <c r="AW340">
+        <v>2.92</v>
+      </c>
+      <c r="AX340">
+        <v>1.91</v>
+      </c>
+      <c r="AY340">
+        <v>7.5</v>
+      </c>
+      <c r="AZ340">
+        <v>2.2</v>
+      </c>
+      <c r="BA340">
+        <v>1.32</v>
+      </c>
+      <c r="BB340">
+        <v>1.58</v>
+      </c>
+      <c r="BC340">
+        <v>2.02</v>
+      </c>
+      <c r="BD340">
+        <v>2.7</v>
+      </c>
+      <c r="BE340">
+        <v>3.8</v>
+      </c>
+      <c r="BF340">
+        <v>2</v>
+      </c>
+      <c r="BG340">
+        <v>4</v>
+      </c>
+      <c r="BH340">
+        <v>1</v>
+      </c>
+      <c r="BI340">
+        <v>8</v>
+      </c>
+      <c r="BJ340">
+        <v>3</v>
+      </c>
+      <c r="BK340">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:63">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>4554729</v>
+      </c>
+      <c r="C341" t="s">
+        <v>63</v>
+      </c>
+      <c r="D341" t="s">
+        <v>64</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45122.58333333334</v>
+      </c>
+      <c r="F341">
+        <v>25</v>
+      </c>
+      <c r="G341" t="s">
+        <v>89</v>
+      </c>
+      <c r="H341" t="s">
+        <v>71</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+      <c r="O341" t="s">
+        <v>96</v>
+      </c>
+      <c r="P341" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q341">
+        <v>5</v>
+      </c>
+      <c r="R341">
+        <v>2</v>
+      </c>
+      <c r="S341">
+        <v>7</v>
+      </c>
+      <c r="T341">
+        <v>2.82</v>
+      </c>
+      <c r="U341">
+        <v>1.94</v>
+      </c>
+      <c r="V341">
+        <v>4.66</v>
+      </c>
+      <c r="W341">
+        <v>1.55</v>
+      </c>
+      <c r="X341">
+        <v>2.25</v>
+      </c>
+      <c r="Y341">
+        <v>3.6</v>
+      </c>
+      <c r="Z341">
+        <v>1.25</v>
+      </c>
+      <c r="AA341">
+        <v>10.5</v>
+      </c>
+      <c r="AB341">
+        <v>1.04</v>
+      </c>
+      <c r="AC341">
+        <v>2.2</v>
+      </c>
+      <c r="AD341">
+        <v>3</v>
+      </c>
+      <c r="AE341">
+        <v>3.5</v>
+      </c>
+      <c r="AF341">
+        <v>1.09</v>
+      </c>
+      <c r="AG341">
+        <v>6.71</v>
+      </c>
+      <c r="AH341">
+        <v>1.51</v>
+      </c>
+      <c r="AI341">
+        <v>2.5</v>
+      </c>
+      <c r="AJ341">
+        <v>2.56</v>
+      </c>
+      <c r="AK341">
+        <v>1.48</v>
+      </c>
+      <c r="AL341">
+        <v>2.13</v>
+      </c>
+      <c r="AM341">
+        <v>1.68</v>
+      </c>
+      <c r="AN341">
+        <v>1.18</v>
+      </c>
+      <c r="AO341">
+        <v>1.37</v>
+      </c>
+      <c r="AP341">
+        <v>1.7</v>
+      </c>
+      <c r="AQ341">
+        <v>1.18</v>
+      </c>
+      <c r="AR341">
+        <v>0.91</v>
+      </c>
+      <c r="AS341">
+        <v>1.17</v>
+      </c>
+      <c r="AT341">
+        <v>0.92</v>
+      </c>
+      <c r="AU341">
+        <v>1.61</v>
+      </c>
+      <c r="AV341">
+        <v>1.19</v>
+      </c>
+      <c r="AW341">
+        <v>2.8</v>
+      </c>
+      <c r="AX341">
+        <v>1.51</v>
+      </c>
+      <c r="AY341">
+        <v>8.5</v>
+      </c>
+      <c r="AZ341">
+        <v>3.16</v>
+      </c>
+      <c r="BA341">
+        <v>1.22</v>
+      </c>
+      <c r="BB341">
+        <v>1.42</v>
+      </c>
+      <c r="BC341">
+        <v>1.83</v>
+      </c>
+      <c r="BD341">
+        <v>2.3</v>
+      </c>
+      <c r="BE341">
+        <v>3.1</v>
+      </c>
+      <c r="BF341">
+        <v>4</v>
+      </c>
+      <c r="BG341">
+        <v>4</v>
+      </c>
+      <c r="BH341">
+        <v>6</v>
+      </c>
+      <c r="BI341">
+        <v>1</v>
+      </c>
+      <c r="BJ341">
+        <v>10</v>
+      </c>
+      <c r="BK341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:63">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>4554736</v>
+      </c>
+      <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342" t="s">
+        <v>64</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F342">
+        <v>25</v>
+      </c>
+      <c r="G342" t="s">
+        <v>74</v>
+      </c>
+      <c r="H342" t="s">
+        <v>65</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>2</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>284</v>
+      </c>
+      <c r="P342" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q342">
+        <v>6</v>
+      </c>
+      <c r="R342">
+        <v>1</v>
+      </c>
+      <c r="S342">
+        <v>7</v>
+      </c>
+      <c r="T342">
+        <v>3</v>
+      </c>
+      <c r="U342">
+        <v>2</v>
+      </c>
+      <c r="V342">
+        <v>4</v>
+      </c>
+      <c r="W342">
+        <v>1.5</v>
+      </c>
+      <c r="X342">
+        <v>2.5</v>
+      </c>
+      <c r="Y342">
+        <v>3.4</v>
+      </c>
+      <c r="Z342">
+        <v>1.3</v>
+      </c>
+      <c r="AA342">
+        <v>10</v>
+      </c>
+      <c r="AB342">
+        <v>1.06</v>
+      </c>
+      <c r="AC342">
+        <v>2.2</v>
+      </c>
+      <c r="AD342">
+        <v>3</v>
+      </c>
+      <c r="AE342">
+        <v>3.1</v>
+      </c>
+      <c r="AF342">
+        <v>1.06</v>
+      </c>
+      <c r="AG342">
+        <v>8.09</v>
+      </c>
+      <c r="AH342">
+        <v>1.4</v>
+      </c>
+      <c r="AI342">
+        <v>2.85</v>
+      </c>
+      <c r="AJ342">
+        <v>2.25</v>
+      </c>
+      <c r="AK342">
+        <v>1.62</v>
+      </c>
+      <c r="AL342">
+        <v>1.95</v>
+      </c>
+      <c r="AM342">
+        <v>1.8</v>
+      </c>
+      <c r="AN342">
+        <v>1.32</v>
+      </c>
+      <c r="AO342">
+        <v>1.3</v>
+      </c>
+      <c r="AP342">
+        <v>1.68</v>
+      </c>
+      <c r="AQ342">
+        <v>1.58</v>
+      </c>
+      <c r="AR342">
+        <v>0.73</v>
+      </c>
+      <c r="AS342">
+        <v>1.54</v>
+      </c>
+      <c r="AT342">
+        <v>0.75</v>
+      </c>
+      <c r="AU342">
+        <v>1.58</v>
+      </c>
+      <c r="AV342">
+        <v>1.24</v>
+      </c>
+      <c r="AW342">
+        <v>2.82</v>
+      </c>
+      <c r="AX342">
+        <v>1.69</v>
+      </c>
+      <c r="AY342">
+        <v>8</v>
+      </c>
+      <c r="AZ342">
+        <v>2.63</v>
+      </c>
+      <c r="BA342">
+        <v>1.23</v>
+      </c>
+      <c r="BB342">
+        <v>1.44</v>
+      </c>
+      <c r="BC342">
+        <v>1.9</v>
+      </c>
+      <c r="BD342">
+        <v>2.35</v>
+      </c>
+      <c r="BE342">
+        <v>3.25</v>
+      </c>
+      <c r="BF342">
+        <v>7</v>
+      </c>
+      <c r="BG342">
+        <v>5</v>
+      </c>
+      <c r="BH342">
+        <v>8</v>
+      </c>
+      <c r="BI342">
+        <v>13</v>
+      </c>
+      <c r="BJ342">
+        <v>15</v>
+      </c>
+      <c r="BK342">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:63">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>4554735</v>
+      </c>
+      <c r="C343" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="F343">
+        <v>25</v>
+      </c>
+      <c r="G343" t="s">
+        <v>92</v>
+      </c>
+      <c r="H343" t="s">
+        <v>69</v>
+      </c>
+      <c r="I343">
+        <v>3</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>3</v>
+      </c>
+      <c r="L343">
+        <v>3</v>
+      </c>
+      <c r="M343">
+        <v>1</v>
+      </c>
+      <c r="N343">
+        <v>4</v>
+      </c>
+      <c r="O343" t="s">
+        <v>285</v>
+      </c>
+      <c r="P343" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q343">
+        <v>-1</v>
+      </c>
+      <c r="R343">
+        <v>-1</v>
+      </c>
+      <c r="S343">
+        <v>-1</v>
+      </c>
+      <c r="T343">
+        <v>2.05</v>
+      </c>
+      <c r="U343">
+        <v>2.15</v>
+      </c>
+      <c r="V343">
+        <v>7</v>
+      </c>
+      <c r="W343">
+        <v>1.44</v>
+      </c>
+      <c r="X343">
+        <v>2.55</v>
+      </c>
+      <c r="Y343">
+        <v>2.95</v>
+      </c>
+      <c r="Z343">
+        <v>1.35</v>
+      </c>
+      <c r="AA343">
+        <v>7.75</v>
+      </c>
+      <c r="AB343">
+        <v>1.07</v>
+      </c>
+      <c r="AC343">
+        <v>1.44</v>
+      </c>
+      <c r="AD343">
+        <v>4</v>
+      </c>
+      <c r="AE343">
+        <v>8.5</v>
+      </c>
+      <c r="AF343">
+        <v>1.06</v>
+      </c>
+      <c r="AG343">
+        <v>8.25</v>
+      </c>
+      <c r="AH343">
+        <v>1.35</v>
+      </c>
+      <c r="AI343">
+        <v>2.95</v>
+      </c>
+      <c r="AJ343">
+        <v>2</v>
+      </c>
+      <c r="AK343">
+        <v>1.8</v>
+      </c>
+      <c r="AL343">
+        <v>2.2</v>
+      </c>
+      <c r="AM343">
+        <v>1.62</v>
+      </c>
+      <c r="AN343">
+        <v>1.07</v>
+      </c>
+      <c r="AO343">
+        <v>1.19</v>
+      </c>
+      <c r="AP343">
+        <v>2.8</v>
+      </c>
+      <c r="AQ343">
+        <v>2.73</v>
+      </c>
+      <c r="AR343">
+        <v>1.45</v>
+      </c>
+      <c r="AS343">
+        <v>2.75</v>
+      </c>
+      <c r="AT343">
+        <v>1.33</v>
+      </c>
+      <c r="AU343">
+        <v>1.83</v>
+      </c>
+      <c r="AV343">
+        <v>1.5</v>
+      </c>
+      <c r="AW343">
+        <v>3.33</v>
+      </c>
+      <c r="AX343">
+        <v>1.26</v>
+      </c>
+      <c r="AY343">
+        <v>10</v>
+      </c>
+      <c r="AZ343">
+        <v>4.86</v>
+      </c>
+      <c r="BA343">
+        <v>1.27</v>
+      </c>
+      <c r="BB343">
+        <v>1.5</v>
+      </c>
+      <c r="BC343">
+        <v>2</v>
+      </c>
+      <c r="BD343">
+        <v>2.5</v>
+      </c>
+      <c r="BE343">
+        <v>3.5</v>
+      </c>
+      <c r="BF343">
+        <v>-1</v>
+      </c>
+      <c r="BG343">
+        <v>-1</v>
+      </c>
+      <c r="BH343">
+        <v>-1</v>
+      </c>
+      <c r="BI343">
+        <v>-1</v>
+      </c>
+      <c r="BJ343">
+        <v>-1</v>
+      </c>
+      <c r="BK343">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:63">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>4554734</v>
+      </c>
+      <c r="C344" t="s">
+        <v>63</v>
+      </c>
+      <c r="D344" t="s">
+        <v>64</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45123.58333333334</v>
+      </c>
+      <c r="F344">
+        <v>25</v>
+      </c>
+      <c r="G344" t="s">
+        <v>83</v>
+      </c>
+      <c r="H344" t="s">
+        <v>67</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>96</v>
+      </c>
+      <c r="P344" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q344">
+        <v>9</v>
+      </c>
+      <c r="R344">
+        <v>4</v>
+      </c>
+      <c r="S344">
+        <v>13</v>
+      </c>
+      <c r="T344">
+        <v>3.1</v>
+      </c>
+      <c r="U344">
+        <v>1.83</v>
+      </c>
+      <c r="V344">
+        <v>4.5</v>
+      </c>
+      <c r="W344">
+        <v>1.62</v>
+      </c>
+      <c r="X344">
+        <v>2.2</v>
+      </c>
+      <c r="Y344">
+        <v>4</v>
+      </c>
+      <c r="Z344">
+        <v>1.22</v>
+      </c>
+      <c r="AA344">
+        <v>15</v>
+      </c>
+      <c r="AB344">
+        <v>1.03</v>
+      </c>
+      <c r="AC344">
+        <v>2.1</v>
+      </c>
+      <c r="AD344">
+        <v>3</v>
+      </c>
+      <c r="AE344">
+        <v>3.25</v>
+      </c>
+      <c r="AF344">
+        <v>1.11</v>
+      </c>
+      <c r="AG344">
+        <v>6.18</v>
+      </c>
+      <c r="AH344">
+        <v>1.59</v>
+      </c>
+      <c r="AI344">
+        <v>2.29</v>
+      </c>
+      <c r="AJ344">
+        <v>2.88</v>
+      </c>
+      <c r="AK344">
+        <v>1.4</v>
+      </c>
+      <c r="AL344">
+        <v>2.38</v>
+      </c>
+      <c r="AM344">
+        <v>1.53</v>
+      </c>
+      <c r="AN344">
+        <v>1.28</v>
+      </c>
+      <c r="AO344">
+        <v>1.33</v>
+      </c>
+      <c r="AP344">
+        <v>1.68</v>
+      </c>
+      <c r="AQ344">
+        <v>1.91</v>
+      </c>
+      <c r="AR344">
+        <v>1.27</v>
+      </c>
+      <c r="AS344">
+        <v>1.75</v>
+      </c>
+      <c r="AT344">
+        <v>1.42</v>
+      </c>
+      <c r="AU344">
+        <v>1.24</v>
+      </c>
+      <c r="AV344">
+        <v>1.33</v>
+      </c>
+      <c r="AW344">
+        <v>2.57</v>
+      </c>
+      <c r="AX344">
+        <v>1.95</v>
+      </c>
+      <c r="AY344">
+        <v>7.5</v>
+      </c>
+      <c r="AZ344">
+        <v>2.1</v>
+      </c>
+      <c r="BA344">
+        <v>1.34</v>
+      </c>
+      <c r="BB344">
+        <v>1.63</v>
+      </c>
+      <c r="BC344">
+        <v>2.1</v>
+      </c>
+      <c r="BD344">
+        <v>2.9</v>
+      </c>
+      <c r="BE344">
+        <v>4.1</v>
+      </c>
+      <c r="BF344">
+        <v>10</v>
+      </c>
+      <c r="BG344">
+        <v>2</v>
+      </c>
+      <c r="BH344">
+        <v>6</v>
+      </c>
+      <c r="BI344">
+        <v>1</v>
+      </c>
+      <c r="BJ344">
+        <v>16</v>
+      </c>
+      <c r="BK344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:63">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>4554727</v>
+      </c>
+      <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45123.6875</v>
+      </c>
+      <c r="F345">
+        <v>25</v>
+      </c>
+      <c r="G345" t="s">
+        <v>90</v>
+      </c>
+      <c r="H345" t="s">
+        <v>75</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>3</v>
+      </c>
+      <c r="N345">
+        <v>4</v>
+      </c>
+      <c r="O345" t="s">
+        <v>286</v>
+      </c>
+      <c r="P345" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q345">
+        <v>11</v>
+      </c>
+      <c r="R345">
+        <v>4</v>
+      </c>
+      <c r="S345">
+        <v>15</v>
+      </c>
+      <c r="T345">
+        <v>4</v>
+      </c>
+      <c r="U345">
+        <v>1.95</v>
+      </c>
+      <c r="V345">
+        <v>3.2</v>
+      </c>
+      <c r="W345">
+        <v>1.57</v>
+      </c>
+      <c r="X345">
+        <v>2.25</v>
+      </c>
+      <c r="Y345">
+        <v>3.75</v>
+      </c>
+      <c r="Z345">
+        <v>1.25</v>
+      </c>
+      <c r="AA345">
+        <v>11</v>
+      </c>
+      <c r="AB345">
+        <v>1.05</v>
+      </c>
+      <c r="AC345">
+        <v>2.8</v>
+      </c>
+      <c r="AD345">
+        <v>3.2</v>
+      </c>
+      <c r="AE345">
+        <v>2.25</v>
+      </c>
+      <c r="AF345">
+        <v>1.08</v>
+      </c>
+      <c r="AG345">
+        <v>7.15</v>
+      </c>
+      <c r="AH345">
+        <v>1.47</v>
+      </c>
+      <c r="AI345">
+        <v>2.62</v>
+      </c>
+      <c r="AJ345">
+        <v>2.5</v>
+      </c>
+      <c r="AK345">
+        <v>1.5</v>
+      </c>
+      <c r="AL345">
+        <v>2.1</v>
+      </c>
+      <c r="AM345">
+        <v>1.67</v>
+      </c>
+      <c r="AN345">
+        <v>1.57</v>
+      </c>
+      <c r="AO345">
+        <v>1.35</v>
+      </c>
+      <c r="AP345">
+        <v>1.34</v>
+      </c>
+      <c r="AQ345">
+        <v>1.73</v>
+      </c>
+      <c r="AR345">
+        <v>1</v>
+      </c>
+      <c r="AS345">
+        <v>1.58</v>
+      </c>
+      <c r="AT345">
+        <v>1.17</v>
+      </c>
+      <c r="AU345">
+        <v>1.56</v>
+      </c>
+      <c r="AV345">
+        <v>1.07</v>
+      </c>
+      <c r="AW345">
+        <v>2.63</v>
+      </c>
+      <c r="AX345">
+        <v>2.1</v>
+      </c>
+      <c r="AY345">
+        <v>8</v>
+      </c>
+      <c r="AZ345">
+        <v>2</v>
+      </c>
+      <c r="BA345">
+        <v>1.23</v>
+      </c>
+      <c r="BB345">
+        <v>1.44</v>
+      </c>
+      <c r="BC345">
+        <v>1.9</v>
+      </c>
+      <c r="BD345">
+        <v>2.35</v>
+      </c>
+      <c r="BE345">
+        <v>3.25</v>
+      </c>
+      <c r="BF345">
+        <v>7</v>
+      </c>
+      <c r="BG345">
+        <v>6</v>
+      </c>
+      <c r="BH345">
+        <v>10</v>
+      </c>
+      <c r="BI345">
+        <v>2</v>
+      </c>
+      <c r="BJ345">
+        <v>17</v>
+      </c>
+      <c r="BK345">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -877,6 +877,9 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['45', '64']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1151,6 +1154,12 @@
   </si>
   <si>
     <t>['39', '74', '76']</t>
+  </si>
+  <si>
+    <t>['13', '58']</t>
+  </si>
+  <si>
+    <t>['64', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK345"/>
+  <dimension ref="A1:BK351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1947,7 +1956,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2419,7 +2428,7 @@
         <v>1.85</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2520,7 +2529,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2711,7 +2720,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2798,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT7">
         <v>1.85</v>
@@ -2902,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3284,7 +3293,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4048,7 +4057,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4430,7 +4439,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4517,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT16">
         <v>0.75</v>
@@ -4708,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT17">
         <v>0.75</v>
@@ -4899,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -5003,7 +5012,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5093,7 +5102,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5194,7 +5203,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5472,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT21">
         <v>1.42</v>
@@ -5663,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>1.08</v>
@@ -5767,7 +5776,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6239,7 +6248,7 @@
         <v>2.08</v>
       </c>
       <c r="AT25">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6340,7 +6349,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6531,7 +6540,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6621,7 +6630,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6722,7 +6731,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6913,7 +6922,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7003,7 +7012,7 @@
         <v>1.08</v>
       </c>
       <c r="AT29">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7104,7 +7113,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7382,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT31">
         <v>1.08</v>
@@ -7868,7 +7877,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8059,7 +8068,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8340,7 +8349,7 @@
         <v>1.31</v>
       </c>
       <c r="AT36">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -9205,7 +9214,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9587,7 +9596,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9868,7 +9877,7 @@
         <v>1.58</v>
       </c>
       <c r="AT44">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU44">
         <v>1.83</v>
@@ -9969,7 +9978,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10056,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
         <v>1.08</v>
@@ -10250,7 +10259,7 @@
         <v>1.08</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU46">
         <v>2.16</v>
@@ -10438,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT47">
         <v>0.75</v>
@@ -10542,7 +10551,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10629,7 +10638,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>1.85</v>
@@ -10820,7 +10829,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>1.08</v>
@@ -11202,10 +11211,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>0.67</v>
@@ -11396,7 +11405,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.84</v>
@@ -11688,7 +11697,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12261,7 +12270,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12452,7 +12461,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -13216,7 +13225,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13407,7 +13416,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13980,7 +13989,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14261,7 +14270,7 @@
         <v>1.31</v>
       </c>
       <c r="AT67">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU67">
         <v>2.03</v>
@@ -14362,7 +14371,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15022,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -15317,7 +15326,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15789,7 +15798,7 @@
         <v>1.58</v>
       </c>
       <c r="AT75">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15890,7 +15899,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15977,7 +15986,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT76">
         <v>1.85</v>
@@ -16171,7 +16180,7 @@
         <v>1.58</v>
       </c>
       <c r="AT77">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU77">
         <v>1.19</v>
@@ -16359,10 +16368,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU78">
         <v>0.82</v>
@@ -16553,7 +16562,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16654,7 +16663,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16932,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17036,7 +17045,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17418,7 +17427,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17505,7 +17514,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT84">
         <v>1.08</v>
@@ -17800,7 +17809,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17890,7 +17899,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>0.74</v>
@@ -18078,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT87">
         <v>0.38</v>
@@ -18564,7 +18573,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18842,7 +18851,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -19519,7 +19528,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20092,7 +20101,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20474,7 +20483,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20752,7 +20761,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20856,7 +20865,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20946,7 +20955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -21238,7 +21247,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21328,7 +21337,7 @@
         <v>1.58</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU104">
         <v>1.17</v>
@@ -21620,7 +21629,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21811,7 +21820,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21901,7 +21910,7 @@
         <v>1.85</v>
       </c>
       <c r="AT107">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU107">
         <v>1.64</v>
@@ -22092,7 +22101,7 @@
         <v>1.85</v>
       </c>
       <c r="AT108">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU108">
         <v>1.46</v>
@@ -22193,7 +22202,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22471,7 +22480,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT110">
         <v>1.42</v>
@@ -22662,7 +22671,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22766,7 +22775,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23426,7 +23435,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT115">
         <v>1</v>
@@ -24103,7 +24112,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24384,7 +24393,7 @@
         <v>2.23</v>
       </c>
       <c r="AT120">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24485,7 +24494,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24763,7 +24772,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT122">
         <v>1.23</v>
@@ -24867,7 +24876,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25249,7 +25258,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25718,7 +25727,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT127">
         <v>0.38</v>
@@ -25912,7 +25921,7 @@
         <v>1.69</v>
       </c>
       <c r="AT128">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU128">
         <v>1.47</v>
@@ -26100,7 +26109,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT129">
         <v>0.38</v>
@@ -26204,7 +26213,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26294,7 +26303,7 @@
         <v>1.31</v>
       </c>
       <c r="AT130">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU130">
         <v>1.37</v>
@@ -26485,7 +26494,7 @@
         <v>1.85</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26777,7 +26786,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26968,7 +26977,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27159,7 +27168,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27350,7 +27359,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27541,7 +27550,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27732,7 +27741,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28010,7 +28019,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT139">
         <v>0.75</v>
@@ -28114,7 +28123,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28305,7 +28314,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28395,7 +28404,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU141">
         <v>1.67</v>
@@ -28687,7 +28696,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28774,7 +28783,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>0.92</v>
@@ -29069,7 +29078,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29347,7 +29356,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT146">
         <v>1.23</v>
@@ -30305,7 +30314,7 @@
         <v>2.38</v>
       </c>
       <c r="AT151">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU151">
         <v>1.65</v>
@@ -30406,7 +30415,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30493,7 +30502,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30597,7 +30606,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31066,7 +31075,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT155">
         <v>1</v>
@@ -31260,7 +31269,7 @@
         <v>1.77</v>
       </c>
       <c r="AT156">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31743,7 +31752,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32215,7 +32224,7 @@
         <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32594,7 +32603,7 @@
         <v>2.5</v>
       </c>
       <c r="AS163">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT163">
         <v>1.85</v>
@@ -32979,7 +32988,7 @@
         <v>1.69</v>
       </c>
       <c r="AT165">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33462,7 +33471,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33653,7 +33662,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33844,7 +33853,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34122,7 +34131,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT171">
         <v>1</v>
@@ -34226,7 +34235,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34313,7 +34322,7 @@
         <v>0.5</v>
       </c>
       <c r="AS172">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT172">
         <v>0.92</v>
@@ -34608,7 +34617,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34695,7 +34704,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT174">
         <v>1</v>
@@ -34990,7 +34999,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35271,7 +35280,7 @@
         <v>1.38</v>
       </c>
       <c r="AT177">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35653,7 +35662,7 @@
         <v>2.75</v>
       </c>
       <c r="AT179">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU179">
         <v>1.8</v>
@@ -35754,7 +35763,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35945,7 +35954,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36136,7 +36145,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36223,7 +36232,7 @@
         <v>0.17</v>
       </c>
       <c r="AS182">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT182">
         <v>0.6899999999999999</v>
@@ -36414,7 +36423,7 @@
         <v>0.83</v>
       </c>
       <c r="AS183">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT183">
         <v>0.46</v>
@@ -36518,7 +36527,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36987,7 +36996,7 @@
         <v>0.71</v>
       </c>
       <c r="AS186">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT186">
         <v>1</v>
@@ -37945,7 +37954,7 @@
         <v>1.31</v>
       </c>
       <c r="AT191">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU191">
         <v>1.6</v>
@@ -38046,7 +38055,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38518,7 +38527,7 @@
         <v>1.77</v>
       </c>
       <c r="AT194">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU194">
         <v>1.4</v>
@@ -39091,7 +39100,7 @@
         <v>1.54</v>
       </c>
       <c r="AT197">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU197">
         <v>0.86</v>
@@ -39470,7 +39479,7 @@
         <v>0.71</v>
       </c>
       <c r="AS199">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT199">
         <v>0.46</v>
@@ -39664,7 +39673,7 @@
         <v>1.23</v>
       </c>
       <c r="AT200">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU200">
         <v>1.64</v>
@@ -39956,7 +39965,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40043,10 +40052,10 @@
         <v>1</v>
       </c>
       <c r="AS202">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT202">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU202">
         <v>1.92</v>
@@ -40720,7 +40729,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40807,7 +40816,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT206">
         <v>0.85</v>
@@ -40998,7 +41007,7 @@
         <v>0.57</v>
       </c>
       <c r="AS207">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT207">
         <v>0.6899999999999999</v>
@@ -41293,7 +41302,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41571,7 +41580,7 @@
         <v>0.86</v>
       </c>
       <c r="AS210">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT210">
         <v>1</v>
@@ -41866,7 +41875,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42057,7 +42066,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42248,7 +42257,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42526,7 +42535,7 @@
         <v>0.5</v>
       </c>
       <c r="AS215">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT215">
         <v>0.38</v>
@@ -42720,7 +42729,7 @@
         <v>1.38</v>
       </c>
       <c r="AT216">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU216">
         <v>1.49</v>
@@ -43394,7 +43403,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43585,7 +43594,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43776,7 +43785,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44436,10 +44445,10 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT225">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU225">
         <v>1.15</v>
@@ -45012,7 +45021,7 @@
         <v>1.77</v>
       </c>
       <c r="AT228">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU228">
         <v>1.56</v>
@@ -45200,7 +45209,7 @@
         <v>0.5</v>
       </c>
       <c r="AS229">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT229">
         <v>0.92</v>
@@ -45391,7 +45400,7 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT230">
         <v>1.17</v>
@@ -45585,7 +45594,7 @@
         <v>2.23</v>
       </c>
       <c r="AT231">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU231">
         <v>1.41</v>
@@ -45773,7 +45782,7 @@
         <v>0.75</v>
       </c>
       <c r="AS232">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT232">
         <v>0.85</v>
@@ -45964,7 +45973,7 @@
         <v>0.88</v>
       </c>
       <c r="AS233">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT233">
         <v>0.92</v>
@@ -46540,7 +46549,7 @@
         <v>1.23</v>
       </c>
       <c r="AT236">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU236">
         <v>1.63</v>
@@ -48447,7 +48456,7 @@
         <v>1.22</v>
       </c>
       <c r="AS246">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT246">
         <v>1</v>
@@ -48551,7 +48560,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -49315,7 +49324,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49784,7 +49793,7 @@
         <v>1.25</v>
       </c>
       <c r="AS253">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT253">
         <v>1.17</v>
@@ -49888,7 +49897,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49978,7 +49987,7 @@
         <v>1.77</v>
       </c>
       <c r="AT254">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU254">
         <v>1.5</v>
@@ -50166,7 +50175,7 @@
         <v>0.88</v>
       </c>
       <c r="AS255">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT255">
         <v>0.92</v>
@@ -50270,7 +50279,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50357,7 +50366,7 @@
         <v>1.88</v>
       </c>
       <c r="AS256">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT256">
         <v>2</v>
@@ -50652,7 +50661,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -50742,7 +50751,7 @@
         <v>2.38</v>
       </c>
       <c r="AT258">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU258">
         <v>1.61</v>
@@ -50930,7 +50939,7 @@
         <v>0.67</v>
       </c>
       <c r="AS259">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT259">
         <v>0.46</v>
@@ -51124,7 +51133,7 @@
         <v>1.54</v>
       </c>
       <c r="AT260">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU260">
         <v>1.77</v>
@@ -51506,7 +51515,7 @@
         <v>2.23</v>
       </c>
       <c r="AT262">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU262">
         <v>1.4</v>
@@ -51697,7 +51706,7 @@
         <v>2.08</v>
       </c>
       <c r="AT263">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU263">
         <v>1.56</v>
@@ -51885,7 +51894,7 @@
         <v>0.89</v>
       </c>
       <c r="AS264">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT264">
         <v>0.92</v>
@@ -53031,7 +53040,7 @@
         <v>1</v>
       </c>
       <c r="AS270">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT270">
         <v>0.92</v>
@@ -53326,7 +53335,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53708,7 +53717,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54472,7 +54481,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -55514,7 +55523,7 @@
         <v>0.7</v>
       </c>
       <c r="AS283">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT283">
         <v>0.6899999999999999</v>
@@ -55618,7 +55627,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55705,7 +55714,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS284">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT284">
         <v>0.75</v>
@@ -55899,7 +55908,7 @@
         <v>1.54</v>
       </c>
       <c r="AT285">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU285">
         <v>1.66</v>
@@ -56000,7 +56009,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56090,7 +56099,7 @@
         <v>2.75</v>
       </c>
       <c r="AT286">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU286">
         <v>1.73</v>
@@ -56660,7 +56669,7 @@
         <v>1.56</v>
       </c>
       <c r="AS289">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT289">
         <v>1.5</v>
@@ -56854,7 +56863,7 @@
         <v>1.17</v>
       </c>
       <c r="AT290">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU290">
         <v>1.6</v>
@@ -56955,7 +56964,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57042,7 +57051,7 @@
         <v>2</v>
       </c>
       <c r="AS291">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT291">
         <v>2</v>
@@ -57146,7 +57155,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57233,7 +57242,7 @@
         <v>0.78</v>
       </c>
       <c r="AS292">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT292">
         <v>0.92</v>
@@ -57337,7 +57346,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57427,7 +57436,7 @@
         <v>2.38</v>
       </c>
       <c r="AT293">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU293">
         <v>1.67</v>
@@ -57809,7 +57818,7 @@
         <v>1.75</v>
       </c>
       <c r="AT295">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU295">
         <v>1.25</v>
@@ -57910,7 +57919,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58483,7 +58492,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -59056,7 +59065,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59438,7 +59447,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60393,7 +60402,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60480,7 +60489,7 @@
         <v>0.73</v>
       </c>
       <c r="AS309">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT309">
         <v>0.6899999999999999</v>
@@ -60671,7 +60680,7 @@
         <v>0.5</v>
       </c>
       <c r="AS310">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT310">
         <v>0.75</v>
@@ -60966,7 +60975,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61053,10 +61062,10 @@
         <v>0.5</v>
       </c>
       <c r="AS312">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT312">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU312">
         <v>1.69</v>
@@ -61629,7 +61638,7 @@
         <v>2.75</v>
       </c>
       <c r="AT315">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU315">
         <v>1.81</v>
@@ -61730,7 +61739,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -61817,7 +61826,7 @@
         <v>1.4</v>
       </c>
       <c r="AS316">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT316">
         <v>1.5</v>
@@ -62112,7 +62121,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62390,10 +62399,10 @@
         <v>0.7</v>
       </c>
       <c r="AS319">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT319">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU319">
         <v>1.87</v>
@@ -62685,7 +62694,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -62775,7 +62784,7 @@
         <v>1.75</v>
       </c>
       <c r="AT321">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU321">
         <v>1.25</v>
@@ -62966,7 +62975,7 @@
         <v>1.58</v>
       </c>
       <c r="AT322">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU322">
         <v>1.58</v>
@@ -63154,7 +63163,7 @@
         <v>0.73</v>
       </c>
       <c r="AS323">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT323">
         <v>0.85</v>
@@ -64404,7 +64413,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65550,7 +65559,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65932,7 +65941,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -66123,7 +66132,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q339">
         <v>4</v>
@@ -66887,16 +66896,16 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q343">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R343">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S343">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T343">
         <v>2.05</v>
@@ -67013,22 +67022,22 @@
         <v>3.5</v>
       </c>
       <c r="BF343">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG343">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH343">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI343">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ343">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK343">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:63">
@@ -67078,7 +67087,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67269,7 +67278,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67411,6 +67420,1152 @@
       </c>
       <c r="BK345">
         <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:63">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>4554731</v>
+      </c>
+      <c r="C346" t="s">
+        <v>63</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45123.79166666666</v>
+      </c>
+      <c r="F346">
+        <v>25</v>
+      </c>
+      <c r="G346" t="s">
+        <v>84</v>
+      </c>
+      <c r="H346" t="s">
+        <v>78</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346">
+        <v>2</v>
+      </c>
+      <c r="L346">
+        <v>2</v>
+      </c>
+      <c r="M346">
+        <v>2</v>
+      </c>
+      <c r="N346">
+        <v>4</v>
+      </c>
+      <c r="O346" t="s">
+        <v>287</v>
+      </c>
+      <c r="P346" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q346">
+        <v>5</v>
+      </c>
+      <c r="R346">
+        <v>3</v>
+      </c>
+      <c r="S346">
+        <v>8</v>
+      </c>
+      <c r="T346">
+        <v>2.75</v>
+      </c>
+      <c r="U346">
+        <v>1.83</v>
+      </c>
+      <c r="V346">
+        <v>4.75</v>
+      </c>
+      <c r="W346">
+        <v>1.57</v>
+      </c>
+      <c r="X346">
+        <v>2.25</v>
+      </c>
+      <c r="Y346">
+        <v>3.8</v>
+      </c>
+      <c r="Z346">
+        <v>1.22</v>
+      </c>
+      <c r="AA346">
+        <v>9</v>
+      </c>
+      <c r="AB346">
+        <v>1.03</v>
+      </c>
+      <c r="AC346">
+        <v>1.95</v>
+      </c>
+      <c r="AD346">
+        <v>3.18</v>
+      </c>
+      <c r="AE346">
+        <v>4.33</v>
+      </c>
+      <c r="AF346">
+        <v>1.08</v>
+      </c>
+      <c r="AG346">
+        <v>6.2</v>
+      </c>
+      <c r="AH346">
+        <v>1.5</v>
+      </c>
+      <c r="AI346">
+        <v>2.4</v>
+      </c>
+      <c r="AJ346">
+        <v>2.7</v>
+      </c>
+      <c r="AK346">
+        <v>1.4</v>
+      </c>
+      <c r="AL346">
+        <v>2.35</v>
+      </c>
+      <c r="AM346">
+        <v>1.52</v>
+      </c>
+      <c r="AN346">
+        <v>1.22</v>
+      </c>
+      <c r="AO346">
+        <v>1.35</v>
+      </c>
+      <c r="AP346">
+        <v>1.77</v>
+      </c>
+      <c r="AQ346">
+        <v>2.27</v>
+      </c>
+      <c r="AR346">
+        <v>0.73</v>
+      </c>
+      <c r="AS346">
+        <v>2.17</v>
+      </c>
+      <c r="AT346">
+        <v>0.75</v>
+      </c>
+      <c r="AU346">
+        <v>1.46</v>
+      </c>
+      <c r="AV346">
+        <v>1.27</v>
+      </c>
+      <c r="AW346">
+        <v>2.73</v>
+      </c>
+      <c r="AX346">
+        <v>1.59</v>
+      </c>
+      <c r="AY346">
+        <v>8</v>
+      </c>
+      <c r="AZ346">
+        <v>2.9</v>
+      </c>
+      <c r="BA346">
+        <v>1.3</v>
+      </c>
+      <c r="BB346">
+        <v>1.57</v>
+      </c>
+      <c r="BC346">
+        <v>2</v>
+      </c>
+      <c r="BD346">
+        <v>2.7</v>
+      </c>
+      <c r="BE346">
+        <v>3.8</v>
+      </c>
+      <c r="BF346">
+        <v>7</v>
+      </c>
+      <c r="BG346">
+        <v>4</v>
+      </c>
+      <c r="BH346">
+        <v>8</v>
+      </c>
+      <c r="BI346">
+        <v>4</v>
+      </c>
+      <c r="BJ346">
+        <v>15</v>
+      </c>
+      <c r="BK346">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:63">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>4554733</v>
+      </c>
+      <c r="C347" t="s">
+        <v>63</v>
+      </c>
+      <c r="D347" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45123.89583333334</v>
+      </c>
+      <c r="F347">
+        <v>25</v>
+      </c>
+      <c r="G347" t="s">
+        <v>85</v>
+      </c>
+      <c r="H347" t="s">
+        <v>73</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>269</v>
+      </c>
+      <c r="P347" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q347">
+        <v>4</v>
+      </c>
+      <c r="R347">
+        <v>4</v>
+      </c>
+      <c r="S347">
+        <v>8</v>
+      </c>
+      <c r="T347">
+        <v>2.25</v>
+      </c>
+      <c r="U347">
+        <v>2.1</v>
+      </c>
+      <c r="V347">
+        <v>6.5</v>
+      </c>
+      <c r="W347">
+        <v>1.44</v>
+      </c>
+      <c r="X347">
+        <v>2.63</v>
+      </c>
+      <c r="Y347">
+        <v>3.4</v>
+      </c>
+      <c r="Z347">
+        <v>1.3</v>
+      </c>
+      <c r="AA347">
+        <v>10</v>
+      </c>
+      <c r="AB347">
+        <v>1.06</v>
+      </c>
+      <c r="AC347">
+        <v>1.6</v>
+      </c>
+      <c r="AD347">
+        <v>3.6</v>
+      </c>
+      <c r="AE347">
+        <v>6.5</v>
+      </c>
+      <c r="AF347">
+        <v>1.07</v>
+      </c>
+      <c r="AG347">
+        <v>7</v>
+      </c>
+      <c r="AH347">
+        <v>1.38</v>
+      </c>
+      <c r="AI347">
+        <v>2.8</v>
+      </c>
+      <c r="AJ347">
+        <v>2.2</v>
+      </c>
+      <c r="AK347">
+        <v>1.65</v>
+      </c>
+      <c r="AL347">
+        <v>2.2</v>
+      </c>
+      <c r="AM347">
+        <v>1.62</v>
+      </c>
+      <c r="AN347">
+        <v>1.12</v>
+      </c>
+      <c r="AO347">
+        <v>1.26</v>
+      </c>
+      <c r="AP347">
+        <v>2.34</v>
+      </c>
+      <c r="AQ347">
+        <v>1.91</v>
+      </c>
+      <c r="AR347">
+        <v>0.82</v>
+      </c>
+      <c r="AS347">
+        <v>2</v>
+      </c>
+      <c r="AT347">
+        <v>0.75</v>
+      </c>
+      <c r="AU347">
+        <v>1.86</v>
+      </c>
+      <c r="AV347">
+        <v>1.01</v>
+      </c>
+      <c r="AW347">
+        <v>2.87</v>
+      </c>
+      <c r="AX347">
+        <v>1.14</v>
+      </c>
+      <c r="AY347">
+        <v>7.75</v>
+      </c>
+      <c r="AZ347">
+        <v>6</v>
+      </c>
+      <c r="BA347">
+        <v>1.34</v>
+      </c>
+      <c r="BB347">
+        <v>1.63</v>
+      </c>
+      <c r="BC347">
+        <v>2.1</v>
+      </c>
+      <c r="BD347">
+        <v>2.9</v>
+      </c>
+      <c r="BE347">
+        <v>3.34</v>
+      </c>
+      <c r="BF347">
+        <v>7</v>
+      </c>
+      <c r="BG347">
+        <v>5</v>
+      </c>
+      <c r="BH347">
+        <v>8</v>
+      </c>
+      <c r="BI347">
+        <v>0</v>
+      </c>
+      <c r="BJ347">
+        <v>15</v>
+      </c>
+      <c r="BK347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:63">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>4554725</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348" t="s">
+        <v>64</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45123.89583333334</v>
+      </c>
+      <c r="F348">
+        <v>25</v>
+      </c>
+      <c r="G348" t="s">
+        <v>70</v>
+      </c>
+      <c r="H348" t="s">
+        <v>86</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
+        <v>96</v>
+      </c>
+      <c r="P348" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q348">
+        <v>4</v>
+      </c>
+      <c r="R348">
+        <v>2</v>
+      </c>
+      <c r="S348">
+        <v>6</v>
+      </c>
+      <c r="T348">
+        <v>3.25</v>
+      </c>
+      <c r="U348">
+        <v>1.91</v>
+      </c>
+      <c r="V348">
+        <v>4</v>
+      </c>
+      <c r="W348">
+        <v>1.57</v>
+      </c>
+      <c r="X348">
+        <v>2.25</v>
+      </c>
+      <c r="Y348">
+        <v>3.75</v>
+      </c>
+      <c r="Z348">
+        <v>1.25</v>
+      </c>
+      <c r="AA348">
+        <v>13</v>
+      </c>
+      <c r="AB348">
+        <v>1.04</v>
+      </c>
+      <c r="AC348">
+        <v>2.38</v>
+      </c>
+      <c r="AD348">
+        <v>3.25</v>
+      </c>
+      <c r="AE348">
+        <v>3.1</v>
+      </c>
+      <c r="AF348">
+        <v>1.07</v>
+      </c>
+      <c r="AG348">
+        <v>6.5</v>
+      </c>
+      <c r="AH348">
+        <v>1.5</v>
+      </c>
+      <c r="AI348">
+        <v>2.45</v>
+      </c>
+      <c r="AJ348">
+        <v>2.5</v>
+      </c>
+      <c r="AK348">
+        <v>1.5</v>
+      </c>
+      <c r="AL348">
+        <v>2.1</v>
+      </c>
+      <c r="AM348">
+        <v>1.67</v>
+      </c>
+      <c r="AN348">
+        <v>1.35</v>
+      </c>
+      <c r="AO348">
+        <v>1.3</v>
+      </c>
+      <c r="AP348">
+        <v>1.52</v>
+      </c>
+      <c r="AQ348">
+        <v>1.42</v>
+      </c>
+      <c r="AR348">
+        <v>0.75</v>
+      </c>
+      <c r="AS348">
+        <v>1.31</v>
+      </c>
+      <c r="AT348">
+        <v>0.92</v>
+      </c>
+      <c r="AU348">
+        <v>1.52</v>
+      </c>
+      <c r="AV348">
+        <v>1.09</v>
+      </c>
+      <c r="AW348">
+        <v>2.61</v>
+      </c>
+      <c r="AX348">
+        <v>1.86</v>
+      </c>
+      <c r="AY348">
+        <v>5.5</v>
+      </c>
+      <c r="AZ348">
+        <v>2.25</v>
+      </c>
+      <c r="BA348">
+        <v>1.23</v>
+      </c>
+      <c r="BB348">
+        <v>1.44</v>
+      </c>
+      <c r="BC348">
+        <v>1.95</v>
+      </c>
+      <c r="BD348">
+        <v>2.35</v>
+      </c>
+      <c r="BE348">
+        <v>3.25</v>
+      </c>
+      <c r="BF348">
+        <v>3</v>
+      </c>
+      <c r="BG348">
+        <v>4</v>
+      </c>
+      <c r="BH348">
+        <v>3</v>
+      </c>
+      <c r="BI348">
+        <v>5</v>
+      </c>
+      <c r="BJ348">
+        <v>6</v>
+      </c>
+      <c r="BK348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:63">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>4554732</v>
+      </c>
+      <c r="C349" t="s">
+        <v>63</v>
+      </c>
+      <c r="D349" t="s">
+        <v>64</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45124.75</v>
+      </c>
+      <c r="F349">
+        <v>25</v>
+      </c>
+      <c r="G349" t="s">
+        <v>79</v>
+      </c>
+      <c r="H349" t="s">
+        <v>76</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349">
+        <v>1</v>
+      </c>
+      <c r="O349" t="s">
+        <v>96</v>
+      </c>
+      <c r="P349" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q349">
+        <v>3</v>
+      </c>
+      <c r="R349">
+        <v>3</v>
+      </c>
+      <c r="S349">
+        <v>6</v>
+      </c>
+      <c r="T349">
+        <v>2.75</v>
+      </c>
+      <c r="U349">
+        <v>2</v>
+      </c>
+      <c r="V349">
+        <v>4.75</v>
+      </c>
+      <c r="W349">
+        <v>1.49</v>
+      </c>
+      <c r="X349">
+        <v>2.47</v>
+      </c>
+      <c r="Y349">
+        <v>3.4</v>
+      </c>
+      <c r="Z349">
+        <v>1.28</v>
+      </c>
+      <c r="AA349">
+        <v>9.5</v>
+      </c>
+      <c r="AB349">
+        <v>1.04</v>
+      </c>
+      <c r="AC349">
+        <v>1.95</v>
+      </c>
+      <c r="AD349">
+        <v>3.3</v>
+      </c>
+      <c r="AE349">
+        <v>4</v>
+      </c>
+      <c r="AF349">
+        <v>1.07</v>
+      </c>
+      <c r="AG349">
+        <v>7.77</v>
+      </c>
+      <c r="AH349">
+        <v>1.45</v>
+      </c>
+      <c r="AI349">
+        <v>2.69</v>
+      </c>
+      <c r="AJ349">
+        <v>2.35</v>
+      </c>
+      <c r="AK349">
+        <v>1.57</v>
+      </c>
+      <c r="AL349">
+        <v>2.06</v>
+      </c>
+      <c r="AM349">
+        <v>1.69</v>
+      </c>
+      <c r="AN349">
+        <v>1.25</v>
+      </c>
+      <c r="AO349">
+        <v>1.28</v>
+      </c>
+      <c r="AP349">
+        <v>1.85</v>
+      </c>
+      <c r="AQ349">
+        <v>1.36</v>
+      </c>
+      <c r="AR349">
+        <v>1</v>
+      </c>
+      <c r="AS349">
+        <v>1.25</v>
+      </c>
+      <c r="AT349">
+        <v>1.17</v>
+      </c>
+      <c r="AU349">
+        <v>1.75</v>
+      </c>
+      <c r="AV349">
+        <v>1.18</v>
+      </c>
+      <c r="AW349">
+        <v>2.93</v>
+      </c>
+      <c r="AX349">
+        <v>1.55</v>
+      </c>
+      <c r="AY349">
+        <v>8</v>
+      </c>
+      <c r="AZ349">
+        <v>3.02</v>
+      </c>
+      <c r="BA349">
+        <v>1.27</v>
+      </c>
+      <c r="BB349">
+        <v>1.5</v>
+      </c>
+      <c r="BC349">
+        <v>2</v>
+      </c>
+      <c r="BD349">
+        <v>2.5</v>
+      </c>
+      <c r="BE349">
+        <v>3.5</v>
+      </c>
+      <c r="BF349">
+        <v>4</v>
+      </c>
+      <c r="BG349">
+        <v>4</v>
+      </c>
+      <c r="BH349">
+        <v>10</v>
+      </c>
+      <c r="BI349">
+        <v>3</v>
+      </c>
+      <c r="BJ349">
+        <v>14</v>
+      </c>
+      <c r="BK349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:63">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>5019532</v>
+      </c>
+      <c r="C350" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350" t="s">
+        <v>64</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45124.75</v>
+      </c>
+      <c r="F350">
+        <v>25</v>
+      </c>
+      <c r="G350" t="s">
+        <v>81</v>
+      </c>
+      <c r="H350" t="s">
+        <v>72</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>2</v>
+      </c>
+      <c r="N350">
+        <v>2</v>
+      </c>
+      <c r="O350" t="s">
+        <v>96</v>
+      </c>
+      <c r="P350" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q350">
+        <v>4</v>
+      </c>
+      <c r="R350">
+        <v>2</v>
+      </c>
+      <c r="S350">
+        <v>6</v>
+      </c>
+      <c r="T350">
+        <v>3.75</v>
+      </c>
+      <c r="U350">
+        <v>1.91</v>
+      </c>
+      <c r="V350">
+        <v>3.5</v>
+      </c>
+      <c r="W350">
+        <v>1.62</v>
+      </c>
+      <c r="X350">
+        <v>2.2</v>
+      </c>
+      <c r="Y350">
+        <v>4</v>
+      </c>
+      <c r="Z350">
+        <v>1.22</v>
+      </c>
+      <c r="AA350">
+        <v>13</v>
+      </c>
+      <c r="AB350">
+        <v>1.04</v>
+      </c>
+      <c r="AC350">
+        <v>2.95</v>
+      </c>
+      <c r="AD350">
+        <v>2.95</v>
+      </c>
+      <c r="AE350">
+        <v>2.49</v>
+      </c>
+      <c r="AF350">
+        <v>1.1</v>
+      </c>
+      <c r="AG350">
+        <v>5.7</v>
+      </c>
+      <c r="AH350">
+        <v>1.5</v>
+      </c>
+      <c r="AI350">
+        <v>2.4</v>
+      </c>
+      <c r="AJ350">
+        <v>2.7</v>
+      </c>
+      <c r="AK350">
+        <v>1.4</v>
+      </c>
+      <c r="AL350">
+        <v>2.23</v>
+      </c>
+      <c r="AM350">
+        <v>1.63</v>
+      </c>
+      <c r="AN350">
+        <v>1.47</v>
+      </c>
+      <c r="AO350">
+        <v>1.38</v>
+      </c>
+      <c r="AP350">
+        <v>1.39</v>
+      </c>
+      <c r="AQ350">
+        <v>1.18</v>
+      </c>
+      <c r="AR350">
+        <v>0.73</v>
+      </c>
+      <c r="AS350">
+        <v>1.08</v>
+      </c>
+      <c r="AT350">
+        <v>0.92</v>
+      </c>
+      <c r="AU350">
+        <v>1.11</v>
+      </c>
+      <c r="AV350">
+        <v>1.22</v>
+      </c>
+      <c r="AW350">
+        <v>2.33</v>
+      </c>
+      <c r="AX350">
+        <v>2</v>
+      </c>
+      <c r="AY350">
+        <v>7.5</v>
+      </c>
+      <c r="AZ350">
+        <v>2.1</v>
+      </c>
+      <c r="BA350">
+        <v>1.3</v>
+      </c>
+      <c r="BB350">
+        <v>1.57</v>
+      </c>
+      <c r="BC350">
+        <v>1.98</v>
+      </c>
+      <c r="BD350">
+        <v>2.7</v>
+      </c>
+      <c r="BE350">
+        <v>3.8</v>
+      </c>
+      <c r="BF350">
+        <v>3</v>
+      </c>
+      <c r="BG350">
+        <v>4</v>
+      </c>
+      <c r="BH350">
+        <v>1</v>
+      </c>
+      <c r="BI350">
+        <v>3</v>
+      </c>
+      <c r="BJ350">
+        <v>4</v>
+      </c>
+      <c r="BK350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:63">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>4554726</v>
+      </c>
+      <c r="C351" t="s">
+        <v>63</v>
+      </c>
+      <c r="D351" t="s">
+        <v>64</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45124.85416666666</v>
+      </c>
+      <c r="F351">
+        <v>25</v>
+      </c>
+      <c r="G351" t="s">
+        <v>80</v>
+      </c>
+      <c r="H351" t="s">
+        <v>88</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+      <c r="O351" t="s">
+        <v>96</v>
+      </c>
+      <c r="P351" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q351">
+        <v>7</v>
+      </c>
+      <c r="R351">
+        <v>1</v>
+      </c>
+      <c r="S351">
+        <v>8</v>
+      </c>
+      <c r="T351">
+        <v>2.8</v>
+      </c>
+      <c r="U351">
+        <v>1.82</v>
+      </c>
+      <c r="V351">
+        <v>4.9</v>
+      </c>
+      <c r="W351">
+        <v>1.65</v>
+      </c>
+      <c r="X351">
+        <v>2.1</v>
+      </c>
+      <c r="Y351">
+        <v>3.9</v>
+      </c>
+      <c r="Z351">
+        <v>1.22</v>
+      </c>
+      <c r="AA351">
+        <v>14</v>
+      </c>
+      <c r="AB351">
+        <v>1.03</v>
+      </c>
+      <c r="AC351">
+        <v>1.97</v>
+      </c>
+      <c r="AD351">
+        <v>3.07</v>
+      </c>
+      <c r="AE351">
+        <v>3.9</v>
+      </c>
+      <c r="AF351">
+        <v>1.11</v>
+      </c>
+      <c r="AG351">
+        <v>6.5</v>
+      </c>
+      <c r="AH351">
+        <v>1.58</v>
+      </c>
+      <c r="AI351">
+        <v>2.25</v>
+      </c>
+      <c r="AJ351">
+        <v>2.75</v>
+      </c>
+      <c r="AK351">
+        <v>1.4</v>
+      </c>
+      <c r="AL351">
+        <v>2.4</v>
+      </c>
+      <c r="AM351">
+        <v>1.52</v>
+      </c>
+      <c r="AN351">
+        <v>1.24</v>
+      </c>
+      <c r="AO351">
+        <v>1.3</v>
+      </c>
+      <c r="AP351">
+        <v>1.75</v>
+      </c>
+      <c r="AQ351">
+        <v>2</v>
+      </c>
+      <c r="AR351">
+        <v>0.92</v>
+      </c>
+      <c r="AS351">
+        <v>1.92</v>
+      </c>
+      <c r="AT351">
+        <v>0.92</v>
+      </c>
+      <c r="AU351">
+        <v>1.19</v>
+      </c>
+      <c r="AV351">
+        <v>1.26</v>
+      </c>
+      <c r="AW351">
+        <v>2.45</v>
+      </c>
+      <c r="AX351">
+        <v>1.59</v>
+      </c>
+      <c r="AY351">
+        <v>8</v>
+      </c>
+      <c r="AZ351">
+        <v>2.9</v>
+      </c>
+      <c r="BA351">
+        <v>1.34</v>
+      </c>
+      <c r="BB351">
+        <v>1.63</v>
+      </c>
+      <c r="BC351">
+        <v>2.1</v>
+      </c>
+      <c r="BD351">
+        <v>2.9</v>
+      </c>
+      <c r="BE351">
+        <v>4.25</v>
+      </c>
+      <c r="BF351">
+        <v>6</v>
+      </c>
+      <c r="BG351">
+        <v>4</v>
+      </c>
+      <c r="BH351">
+        <v>6</v>
+      </c>
+      <c r="BI351">
+        <v>7</v>
+      </c>
+      <c r="BJ351">
+        <v>12</v>
+      </c>
+      <c r="BK351">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="390">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,18 @@
     <t>['45', '64']</t>
   </si>
   <si>
+    <t>['13', '20', '52', '78']</t>
+  </si>
+  <si>
+    <t>['11', '54', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '74', '85']</t>
+  </si>
+  <si>
+    <t>['3', '18']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1160,6 +1172,18 @@
   </si>
   <si>
     <t>['64', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '58']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['50', '78', '90+7']</t>
+  </si>
+  <si>
+    <t>['39', '59']</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1852,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1956,7 +1980,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2043,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT3">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2234,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT4">
         <v>0.38</v>
@@ -2425,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT5">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2529,7 +2553,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2616,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2720,7 +2744,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2810,7 +2834,7 @@
         <v>1.31</v>
       </c>
       <c r="AT7">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2911,7 +2935,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2998,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT8">
         <v>0.85</v>
@@ -3192,7 +3216,7 @@
         <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3293,7 +3317,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3574,7 +3598,7 @@
         <v>1.54</v>
       </c>
       <c r="AT11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4057,7 +4081,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4144,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT14">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4338,7 +4362,7 @@
         <v>1.31</v>
       </c>
       <c r="AT15">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4439,7 +4463,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -5012,7 +5036,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5203,7 +5227,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5293,7 +5317,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5776,7 +5800,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6349,7 +6373,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6436,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT26">
         <v>2</v>
@@ -6540,7 +6564,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6731,7 +6755,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6922,7 +6946,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7113,7 +7137,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7203,7 +7227,7 @@
         <v>1.23</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU30">
         <v>1.17</v>
@@ -7394,7 +7418,7 @@
         <v>1.31</v>
       </c>
       <c r="AT31">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1.53</v>
@@ -7582,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7773,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT33">
         <v>0.85</v>
@@ -7877,7 +7901,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7964,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT34">
         <v>0.92</v>
@@ -8068,7 +8092,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8155,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT35">
         <v>1.17</v>
@@ -8346,10 +8370,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT36">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8537,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT37">
         <v>0.38</v>
@@ -8731,7 +8755,7 @@
         <v>1.31</v>
       </c>
       <c r="AT38">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU38">
         <v>1.72</v>
@@ -8922,7 +8946,7 @@
         <v>2.75</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9113,7 +9137,7 @@
         <v>1.38</v>
       </c>
       <c r="AT40">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU40">
         <v>1.76</v>
@@ -9214,7 +9238,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9495,7 +9519,7 @@
         <v>1.54</v>
       </c>
       <c r="AT42">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU42">
         <v>0.67</v>
@@ -9596,7 +9620,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9683,7 +9707,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT43">
         <v>1.23</v>
@@ -9978,7 +10002,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10551,7 +10575,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10641,7 +10665,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU48">
         <v>2.98</v>
@@ -10832,7 +10856,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>2.25</v>
@@ -11697,7 +11721,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11975,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -12270,7 +12294,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12357,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT57">
         <v>0.75</v>
@@ -12461,7 +12485,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12739,7 +12763,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12930,10 +12954,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT60">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU60">
         <v>1.46</v>
@@ -13121,10 +13145,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU61">
         <v>2.1</v>
@@ -13225,7 +13249,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13312,7 +13336,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
         <v>2</v>
@@ -13416,7 +13440,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13503,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT63">
         <v>1.17</v>
@@ -13694,7 +13718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT64">
         <v>0.92</v>
@@ -13888,7 +13912,7 @@
         <v>1.23</v>
       </c>
       <c r="AT65">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU65">
         <v>2.06</v>
@@ -13989,7 +14013,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14270,7 +14294,7 @@
         <v>1.31</v>
       </c>
       <c r="AT67">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU67">
         <v>2.03</v>
@@ -14371,7 +14395,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14652,7 +14676,7 @@
         <v>1.54</v>
       </c>
       <c r="AT69">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU69">
         <v>0.49</v>
@@ -15034,7 +15058,7 @@
         <v>1.31</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU71">
         <v>1.42</v>
@@ -15326,7 +15350,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15604,7 +15628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15899,7 +15923,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15989,7 +16013,7 @@
         <v>2.17</v>
       </c>
       <c r="AT76">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -16177,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -16663,7 +16687,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16944,7 +16968,7 @@
         <v>1.25</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU81">
         <v>2.17</v>
@@ -17045,7 +17069,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17132,7 +17156,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT82">
         <v>0.75</v>
@@ -17427,7 +17451,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17517,7 +17541,7 @@
         <v>1.08</v>
       </c>
       <c r="AT84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.21</v>
@@ -17809,7 +17833,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17899,7 +17923,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU86">
         <v>0.74</v>
@@ -18469,10 +18493,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT89">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU89">
         <v>1.5</v>
@@ -18573,7 +18597,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18660,7 +18684,7 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT90">
         <v>2</v>
@@ -19236,7 +19260,7 @@
         <v>1.54</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU93">
         <v>1.84</v>
@@ -19528,7 +19552,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19615,10 +19639,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT95">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19997,10 +20021,10 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT97">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU97">
         <v>1.7</v>
@@ -20101,7 +20125,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20188,7 +20212,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT98">
         <v>0.92</v>
@@ -20483,7 +20507,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20865,7 +20889,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21143,7 +21167,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT103">
         <v>1.5</v>
@@ -21247,7 +21271,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21334,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT104">
         <v>1.17</v>
@@ -21528,7 +21552,7 @@
         <v>2.08</v>
       </c>
       <c r="AT105">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21629,7 +21653,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21820,7 +21844,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22098,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT108">
         <v>0.75</v>
@@ -22202,7 +22226,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22292,7 +22316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22674,7 +22698,7 @@
         <v>2.17</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU111">
         <v>1.37</v>
@@ -22775,7 +22799,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23053,7 +23077,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -23244,7 +23268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT114">
         <v>0.75</v>
@@ -23626,10 +23650,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT116">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU116">
         <v>1.68</v>
@@ -23817,7 +23841,7 @@
         <v>0.5</v>
       </c>
       <c r="AS117">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT117">
         <v>0.85</v>
@@ -24011,7 +24035,7 @@
         <v>2.75</v>
       </c>
       <c r="AT118">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -24112,7 +24136,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24390,10 +24414,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT120">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24494,7 +24518,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24584,7 +24608,7 @@
         <v>1.54</v>
       </c>
       <c r="AT121">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU121">
         <v>1.76</v>
@@ -24876,7 +24900,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25258,7 +25282,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25539,7 +25563,7 @@
         <v>1.75</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU126">
         <v>0.93</v>
@@ -25918,7 +25942,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT128">
         <v>0.92</v>
@@ -26213,7 +26237,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26300,7 +26324,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT130">
         <v>0.75</v>
@@ -26491,7 +26515,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT131">
         <v>1.17</v>
@@ -26685,7 +26709,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26786,7 +26810,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26977,7 +27001,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27067,7 +27091,7 @@
         <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -27168,7 +27192,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27255,7 +27279,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT135">
         <v>1.42</v>
@@ -27359,7 +27383,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27446,7 +27470,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27550,7 +27574,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27741,7 +27765,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28123,7 +28147,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28213,7 +28237,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28314,7 +28338,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28696,7 +28720,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28786,7 +28810,7 @@
         <v>2</v>
       </c>
       <c r="AT143">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU143">
         <v>1.86</v>
@@ -29078,7 +29102,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29547,7 +29571,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT147">
         <v>1.17</v>
@@ -29741,7 +29765,7 @@
         <v>1.75</v>
       </c>
       <c r="AT148">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU148">
         <v>1.09</v>
@@ -30120,7 +30144,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT150">
         <v>0.92</v>
@@ -30311,10 +30335,10 @@
         <v>1.4</v>
       </c>
       <c r="AS151">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT151">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU151">
         <v>1.65</v>
@@ -30415,7 +30439,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30606,7 +30630,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30887,7 +30911,7 @@
         <v>2.75</v>
       </c>
       <c r="AT154">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU154">
         <v>1.74</v>
@@ -31078,7 +31102,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU155">
         <v>1.79</v>
@@ -31266,7 +31290,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT156">
         <v>0.92</v>
@@ -31651,7 +31675,7 @@
         <v>1.08</v>
       </c>
       <c r="AT158">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU158">
         <v>1.37</v>
@@ -31752,7 +31776,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31842,7 +31866,7 @@
         <v>1.58</v>
       </c>
       <c r="AT159">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>1.6</v>
@@ -32221,7 +32245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS161">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT161">
         <v>1.17</v>
@@ -32606,7 +32630,7 @@
         <v>1.92</v>
       </c>
       <c r="AT163">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU163">
         <v>1.07</v>
@@ -32794,7 +32818,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT164">
         <v>1.42</v>
@@ -32985,7 +33009,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT165">
         <v>0.75</v>
@@ -33471,7 +33495,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33558,7 +33582,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT168">
         <v>0.75</v>
@@ -33662,7 +33686,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33853,7 +33877,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34134,7 +34158,7 @@
         <v>2.17</v>
       </c>
       <c r="AT171">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU171">
         <v>1.2</v>
@@ -34235,7 +34259,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34325,7 +34349,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU172">
         <v>1.13</v>
@@ -34617,7 +34641,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34895,7 +34919,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT175">
         <v>0.92</v>
@@ -34999,7 +35023,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35086,7 +35110,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT176">
         <v>1.17</v>
@@ -35468,7 +35492,7 @@
         <v>2.2</v>
       </c>
       <c r="AS178">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT178">
         <v>2</v>
@@ -35662,7 +35686,7 @@
         <v>2.75</v>
       </c>
       <c r="AT179">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU179">
         <v>1.8</v>
@@ -35763,7 +35787,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35954,7 +35978,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36145,7 +36169,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36235,7 +36259,7 @@
         <v>2</v>
       </c>
       <c r="AT182">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU182">
         <v>1.88</v>
@@ -36426,7 +36450,7 @@
         <v>1.25</v>
       </c>
       <c r="AT183">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU183">
         <v>1.74</v>
@@ -36527,7 +36551,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36614,7 +36638,7 @@
         <v>1.67</v>
       </c>
       <c r="AS184">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT184">
         <v>1.33</v>
@@ -36999,7 +37023,7 @@
         <v>1.92</v>
       </c>
       <c r="AT186">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU186">
         <v>1.09</v>
@@ -37378,10 +37402,10 @@
         <v>2.57</v>
       </c>
       <c r="AS188">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT188">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU188">
         <v>1.5</v>
@@ -37569,7 +37593,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT189">
         <v>1.42</v>
@@ -38055,7 +38079,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38524,7 +38548,7 @@
         <v>1.17</v>
       </c>
       <c r="AS194">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT194">
         <v>0.75</v>
@@ -38718,7 +38742,7 @@
         <v>1.33</v>
       </c>
       <c r="AT195">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU195">
         <v>1.38</v>
@@ -38906,7 +38930,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT196">
         <v>0.75</v>
@@ -39291,7 +39315,7 @@
         <v>2.08</v>
       </c>
       <c r="AT198">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU198">
         <v>1.41</v>
@@ -39482,7 +39506,7 @@
         <v>2.17</v>
       </c>
       <c r="AT199">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU199">
         <v>1.23</v>
@@ -39965,7 +39989,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40055,7 +40079,7 @@
         <v>2</v>
       </c>
       <c r="AT202">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU202">
         <v>1.92</v>
@@ -40243,7 +40267,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT203">
         <v>0.92</v>
@@ -40625,7 +40649,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT205">
         <v>0.75</v>
@@ -40729,7 +40753,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41010,7 +41034,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU207">
         <v>1.15</v>
@@ -41198,7 +41222,7 @@
         <v>2.17</v>
       </c>
       <c r="AS208">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT208">
         <v>1.5</v>
@@ -41302,7 +41326,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41583,7 +41607,7 @@
         <v>1.31</v>
       </c>
       <c r="AT210">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU210">
         <v>1.3</v>
@@ -41875,7 +41899,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -41962,10 +41986,10 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT212">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU212">
         <v>1.45</v>
@@ -42066,7 +42090,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42257,7 +42281,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42917,7 +42941,7 @@
         <v>1.86</v>
       </c>
       <c r="AS217">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT217">
         <v>1.33</v>
@@ -43108,7 +43132,7 @@
         <v>1</v>
       </c>
       <c r="AS218">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT218">
         <v>1.08</v>
@@ -43302,7 +43326,7 @@
         <v>1.85</v>
       </c>
       <c r="AT219">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU219">
         <v>1.59</v>
@@ -43403,7 +43427,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43490,10 +43514,10 @@
         <v>2.38</v>
       </c>
       <c r="AS220">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT220">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU220">
         <v>1.55</v>
@@ -43594,7 +43618,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43684,7 +43708,7 @@
         <v>1.17</v>
       </c>
       <c r="AT221">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU221">
         <v>1.54</v>
@@ -43785,7 +43809,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44254,7 +44278,7 @@
         <v>0.86</v>
       </c>
       <c r="AS224">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT224">
         <v>0.75</v>
@@ -44448,7 +44472,7 @@
         <v>1.08</v>
       </c>
       <c r="AT225">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU225">
         <v>1.15</v>
@@ -44639,7 +44663,7 @@
         <v>2.08</v>
       </c>
       <c r="AT226">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU226">
         <v>1.51</v>
@@ -44827,7 +44851,7 @@
         <v>2</v>
       </c>
       <c r="AS227">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT227">
         <v>1.5</v>
@@ -45018,7 +45042,7 @@
         <v>0.71</v>
       </c>
       <c r="AS228">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT228">
         <v>0.75</v>
@@ -45212,7 +45236,7 @@
         <v>1.31</v>
       </c>
       <c r="AT229">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU229">
         <v>1.45</v>
@@ -45591,7 +45615,7 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT231">
         <v>0.92</v>
@@ -46358,7 +46382,7 @@
         <v>1.33</v>
       </c>
       <c r="AT235">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU235">
         <v>1.66</v>
@@ -46928,7 +46952,7 @@
         <v>0.44</v>
       </c>
       <c r="AS238">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT238">
         <v>0.38</v>
@@ -47122,7 +47146,7 @@
         <v>1.58</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU239">
         <v>1.5</v>
@@ -47310,10 +47334,10 @@
         <v>1.44</v>
       </c>
       <c r="AS240">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT240">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU240">
         <v>1.51</v>
@@ -47883,7 +47907,7 @@
         <v>0.88</v>
       </c>
       <c r="AS243">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT243">
         <v>1.08</v>
@@ -48074,10 +48098,10 @@
         <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT244">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU244">
         <v>1.52</v>
@@ -48560,7 +48584,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48841,7 +48865,7 @@
         <v>1.08</v>
       </c>
       <c r="AT248">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU248">
         <v>1.3</v>
@@ -49324,7 +49348,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49411,10 +49435,10 @@
         <v>2.11</v>
       </c>
       <c r="AS251">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT251">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU251">
         <v>1.3</v>
@@ -49897,7 +49921,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49984,7 +50008,7 @@
         <v>0.88</v>
       </c>
       <c r="AS254">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT254">
         <v>1.17</v>
@@ -50279,7 +50303,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50661,7 +50685,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -50748,7 +50772,7 @@
         <v>0.88</v>
       </c>
       <c r="AS258">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT258">
         <v>0.92</v>
@@ -50942,7 +50966,7 @@
         <v>1.31</v>
       </c>
       <c r="AT259">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51324,7 +51348,7 @@
         <v>1.17</v>
       </c>
       <c r="AT261">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU261">
         <v>1.64</v>
@@ -51512,7 +51536,7 @@
         <v>0.88</v>
       </c>
       <c r="AS262">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT262">
         <v>0.75</v>
@@ -51706,7 +51730,7 @@
         <v>2.08</v>
       </c>
       <c r="AT263">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU263">
         <v>1.56</v>
@@ -52279,7 +52303,7 @@
         <v>1.33</v>
       </c>
       <c r="AT266">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU266">
         <v>1.48</v>
@@ -52467,7 +52491,7 @@
         <v>1</v>
       </c>
       <c r="AS267">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT267">
         <v>1</v>
@@ -52849,7 +52873,7 @@
         <v>0.4</v>
       </c>
       <c r="AS269">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT269">
         <v>0.38</v>
@@ -53043,7 +53067,7 @@
         <v>1.92</v>
       </c>
       <c r="AT270">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU270">
         <v>1.16</v>
@@ -53231,7 +53255,7 @@
         <v>1.11</v>
       </c>
       <c r="AS271">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT271">
         <v>1</v>
@@ -53335,7 +53359,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53425,7 +53449,7 @@
         <v>1.31</v>
       </c>
       <c r="AT272">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU272">
         <v>1.55</v>
@@ -53613,10 +53637,10 @@
         <v>0.9</v>
       </c>
       <c r="AS273">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT273">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU273">
         <v>1.32</v>
@@ -53717,7 +53741,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54186,10 +54210,10 @@
         <v>1.3</v>
       </c>
       <c r="AS276">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT276">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU276">
         <v>1.41</v>
@@ -54380,7 +54404,7 @@
         <v>1.58</v>
       </c>
       <c r="AT277">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU277">
         <v>1.61</v>
@@ -54481,7 +54505,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54568,7 +54592,7 @@
         <v>1.1</v>
       </c>
       <c r="AS278">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT278">
         <v>1</v>
@@ -55332,7 +55356,7 @@
         <v>1.33</v>
       </c>
       <c r="AS282">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT282">
         <v>1.42</v>
@@ -55526,7 +55550,7 @@
         <v>1.31</v>
       </c>
       <c r="AT283">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU283">
         <v>1.56</v>
@@ -55627,7 +55651,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -56009,7 +56033,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56863,7 +56887,7 @@
         <v>1.17</v>
       </c>
       <c r="AT290">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU290">
         <v>1.6</v>
@@ -56964,7 +56988,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57155,7 +57179,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57346,7 +57370,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57433,7 +57457,7 @@
         <v>0.89</v>
       </c>
       <c r="AS293">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT293">
         <v>0.75</v>
@@ -57919,7 +57943,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58006,7 +58030,7 @@
         <v>1.09</v>
       </c>
       <c r="AS296">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT296">
         <v>1.23</v>
@@ -58197,10 +58221,10 @@
         <v>1</v>
       </c>
       <c r="AS297">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT297">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU297">
         <v>1.5</v>
@@ -58388,7 +58412,7 @@
         <v>0.36</v>
       </c>
       <c r="AS298">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT298">
         <v>0.38</v>
@@ -58492,7 +58516,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58582,7 +58606,7 @@
         <v>1.54</v>
       </c>
       <c r="AT299">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU299">
         <v>1.15</v>
@@ -58770,7 +58794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS300">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT300">
         <v>0.75</v>
@@ -58961,7 +58985,7 @@
         <v>1.1</v>
       </c>
       <c r="AS301">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT301">
         <v>1</v>
@@ -59065,7 +59089,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59152,7 +59176,7 @@
         <v>1</v>
       </c>
       <c r="AS302">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT302">
         <v>1</v>
@@ -59346,7 +59370,7 @@
         <v>1.33</v>
       </c>
       <c r="AT303">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU303">
         <v>1.48</v>
@@ -59447,7 +59471,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59728,7 +59752,7 @@
         <v>1.38</v>
       </c>
       <c r="AT305">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU305">
         <v>1.53</v>
@@ -59919,7 +59943,7 @@
         <v>1.31</v>
       </c>
       <c r="AT306">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU306">
         <v>1.51</v>
@@ -60107,7 +60131,7 @@
         <v>0.91</v>
       </c>
       <c r="AS307">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT307">
         <v>1</v>
@@ -60301,7 +60325,7 @@
         <v>1.85</v>
       </c>
       <c r="AT308">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60402,7 +60426,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60492,7 +60516,7 @@
         <v>1.92</v>
       </c>
       <c r="AT309">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU309">
         <v>1.15</v>
@@ -60975,7 +60999,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61253,7 +61277,7 @@
         <v>1.5</v>
       </c>
       <c r="AS313">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT313">
         <v>1.33</v>
@@ -61739,7 +61763,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62121,7 +62145,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62694,7 +62718,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -62975,7 +62999,7 @@
         <v>1.58</v>
       </c>
       <c r="AT322">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU322">
         <v>1.58</v>
@@ -63354,7 +63378,7 @@
         <v>1.09</v>
       </c>
       <c r="AS324">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT324">
         <v>1.08</v>
@@ -63545,10 +63569,10 @@
         <v>1.92</v>
       </c>
       <c r="AS325">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT325">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU325">
         <v>1.41</v>
@@ -63927,10 +63951,10 @@
         <v>1.08</v>
       </c>
       <c r="AS327">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT327">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU327">
         <v>1.39</v>
@@ -64118,7 +64142,7 @@
         <v>1</v>
       </c>
       <c r="AS328">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT328">
         <v>1</v>
@@ -64413,7 +64437,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -64500,7 +64524,7 @@
         <v>1.25</v>
       </c>
       <c r="AS330">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT330">
         <v>1.23</v>
@@ -64694,7 +64718,7 @@
         <v>1.54</v>
       </c>
       <c r="AT331">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU331">
         <v>1.14</v>
@@ -64885,7 +64909,7 @@
         <v>1.23</v>
       </c>
       <c r="AT332">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU332">
         <v>1.5</v>
@@ -65076,7 +65100,7 @@
         <v>1.85</v>
       </c>
       <c r="AT333">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU333">
         <v>1.62</v>
@@ -65264,10 +65288,10 @@
         <v>0.92</v>
       </c>
       <c r="AS334">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT334">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU334">
         <v>1.5</v>
@@ -65455,7 +65479,7 @@
         <v>1.09</v>
       </c>
       <c r="AS335">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT335">
         <v>1</v>
@@ -65559,7 +65583,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65837,10 +65861,10 @@
         <v>0.75</v>
       </c>
       <c r="AS337">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT337">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU337">
         <v>1.47</v>
@@ -65941,7 +65965,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -66132,7 +66156,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q339">
         <v>4</v>
@@ -66896,7 +66920,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67087,7 +67111,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67278,7 +67302,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67469,7 +67493,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -67941,7 +67965,7 @@
         <v>1.31</v>
       </c>
       <c r="AT348">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU348">
         <v>1.52</v>
@@ -68233,7 +68257,7 @@
         <v>96</v>
       </c>
       <c r="P350" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q350">
         <v>4</v>
@@ -68566,6 +68590,1534 @@
       </c>
       <c r="BK351">
         <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:63">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>4554740</v>
+      </c>
+      <c r="C352" t="s">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>64</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45129.64583333334</v>
+      </c>
+      <c r="F352">
+        <v>26</v>
+      </c>
+      <c r="G352" t="s">
+        <v>67</v>
+      </c>
+      <c r="H352" t="s">
+        <v>85</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>2</v>
+      </c>
+      <c r="N352">
+        <v>2</v>
+      </c>
+      <c r="O352" t="s">
+        <v>96</v>
+      </c>
+      <c r="P352" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q352">
+        <v>2</v>
+      </c>
+      <c r="R352">
+        <v>4</v>
+      </c>
+      <c r="S352">
+        <v>6</v>
+      </c>
+      <c r="T352">
+        <v>3.25</v>
+      </c>
+      <c r="U352">
+        <v>1.83</v>
+      </c>
+      <c r="V352">
+        <v>4.33</v>
+      </c>
+      <c r="W352">
+        <v>1.62</v>
+      </c>
+      <c r="X352">
+        <v>2.2</v>
+      </c>
+      <c r="Y352">
+        <v>4</v>
+      </c>
+      <c r="Z352">
+        <v>1.22</v>
+      </c>
+      <c r="AA352">
+        <v>15</v>
+      </c>
+      <c r="AB352">
+        <v>1.03</v>
+      </c>
+      <c r="AC352">
+        <v>2.3</v>
+      </c>
+      <c r="AD352">
+        <v>2.88</v>
+      </c>
+      <c r="AE352">
+        <v>3.4</v>
+      </c>
+      <c r="AF352">
+        <v>1.12</v>
+      </c>
+      <c r="AG352">
+        <v>6.25</v>
+      </c>
+      <c r="AH352">
+        <v>1.6</v>
+      </c>
+      <c r="AI352">
+        <v>2.2</v>
+      </c>
+      <c r="AJ352">
+        <v>2.88</v>
+      </c>
+      <c r="AK352">
+        <v>1.4</v>
+      </c>
+      <c r="AL352">
+        <v>2.25</v>
+      </c>
+      <c r="AM352">
+        <v>1.57</v>
+      </c>
+      <c r="AN352">
+        <v>1.32</v>
+      </c>
+      <c r="AO352">
+        <v>1.35</v>
+      </c>
+      <c r="AP352">
+        <v>1.55</v>
+      </c>
+      <c r="AQ352">
+        <v>2.23</v>
+      </c>
+      <c r="AR352">
+        <v>1</v>
+      </c>
+      <c r="AS352">
+        <v>2.07</v>
+      </c>
+      <c r="AT352">
+        <v>1.14</v>
+      </c>
+      <c r="AU352">
+        <v>1.39</v>
+      </c>
+      <c r="AV352">
+        <v>1.43</v>
+      </c>
+      <c r="AW352">
+        <v>2.82</v>
+      </c>
+      <c r="AX352">
+        <v>1.75</v>
+      </c>
+      <c r="AY352">
+        <v>7.5</v>
+      </c>
+      <c r="AZ352">
+        <v>2.45</v>
+      </c>
+      <c r="BA352">
+        <v>1.38</v>
+      </c>
+      <c r="BB352">
+        <v>1.71</v>
+      </c>
+      <c r="BC352">
+        <v>2.17</v>
+      </c>
+      <c r="BD352">
+        <v>2.91</v>
+      </c>
+      <c r="BE352">
+        <v>4.15</v>
+      </c>
+      <c r="BF352">
+        <v>3</v>
+      </c>
+      <c r="BG352">
+        <v>8</v>
+      </c>
+      <c r="BH352">
+        <v>8</v>
+      </c>
+      <c r="BI352">
+        <v>2</v>
+      </c>
+      <c r="BJ352">
+        <v>11</v>
+      </c>
+      <c r="BK352">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:63">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>4554739</v>
+      </c>
+      <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353" t="s">
+        <v>64</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45129.75</v>
+      </c>
+      <c r="F353">
+        <v>26</v>
+      </c>
+      <c r="G353" t="s">
+        <v>69</v>
+      </c>
+      <c r="H353" t="s">
+        <v>83</v>
+      </c>
+      <c r="I353">
+        <v>2</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>2</v>
+      </c>
+      <c r="L353">
+        <v>4</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>4</v>
+      </c>
+      <c r="O353" t="s">
+        <v>288</v>
+      </c>
+      <c r="P353" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q353">
+        <v>6</v>
+      </c>
+      <c r="R353">
+        <v>1</v>
+      </c>
+      <c r="S353">
+        <v>7</v>
+      </c>
+      <c r="T353">
+        <v>2.5</v>
+      </c>
+      <c r="U353">
+        <v>2</v>
+      </c>
+      <c r="V353">
+        <v>6</v>
+      </c>
+      <c r="W353">
+        <v>1.53</v>
+      </c>
+      <c r="X353">
+        <v>2.38</v>
+      </c>
+      <c r="Y353">
+        <v>3.75</v>
+      </c>
+      <c r="Z353">
+        <v>1.25</v>
+      </c>
+      <c r="AA353">
+        <v>11</v>
+      </c>
+      <c r="AB353">
+        <v>1.05</v>
+      </c>
+      <c r="AC353">
+        <v>1.73</v>
+      </c>
+      <c r="AD353">
+        <v>3.4</v>
+      </c>
+      <c r="AE353">
+        <v>5</v>
+      </c>
+      <c r="AF353">
+        <v>1.09</v>
+      </c>
+      <c r="AG353">
+        <v>6</v>
+      </c>
+      <c r="AH353">
+        <v>1.48</v>
+      </c>
+      <c r="AI353">
+        <v>2.5</v>
+      </c>
+      <c r="AJ353">
+        <v>2.4</v>
+      </c>
+      <c r="AK353">
+        <v>1.53</v>
+      </c>
+      <c r="AL353">
+        <v>2.25</v>
+      </c>
+      <c r="AM353">
+        <v>1.57</v>
+      </c>
+      <c r="AN353">
+        <v>1.18</v>
+      </c>
+      <c r="AO353">
+        <v>1.3</v>
+      </c>
+      <c r="AP353">
+        <v>1.98</v>
+      </c>
+      <c r="AQ353">
+        <v>1.77</v>
+      </c>
+      <c r="AR353">
+        <v>1.08</v>
+      </c>
+      <c r="AS353">
+        <v>1.86</v>
+      </c>
+      <c r="AT353">
+        <v>1</v>
+      </c>
+      <c r="AU353">
+        <v>1.53</v>
+      </c>
+      <c r="AV353">
+        <v>1.27</v>
+      </c>
+      <c r="AW353">
+        <v>2.8</v>
+      </c>
+      <c r="AX353">
+        <v>1.41</v>
+      </c>
+      <c r="AY353">
+        <v>8.5</v>
+      </c>
+      <c r="AZ353">
+        <v>3.59</v>
+      </c>
+      <c r="BA353">
+        <v>1.27</v>
+      </c>
+      <c r="BB353">
+        <v>1.51</v>
+      </c>
+      <c r="BC353">
+        <v>1.9</v>
+      </c>
+      <c r="BD353">
+        <v>2.44</v>
+      </c>
+      <c r="BE353">
+        <v>3.28</v>
+      </c>
+      <c r="BF353">
+        <v>11</v>
+      </c>
+      <c r="BG353">
+        <v>0</v>
+      </c>
+      <c r="BH353">
+        <v>7</v>
+      </c>
+      <c r="BI353">
+        <v>3</v>
+      </c>
+      <c r="BJ353">
+        <v>18</v>
+      </c>
+      <c r="BK353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:63">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>4554745</v>
+      </c>
+      <c r="C354" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354" t="s">
+        <v>64</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45129.85416666666</v>
+      </c>
+      <c r="F354">
+        <v>26</v>
+      </c>
+      <c r="G354" t="s">
+        <v>71</v>
+      </c>
+      <c r="H354" t="s">
+        <v>91</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" t="s">
+        <v>96</v>
+      </c>
+      <c r="P354" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q354">
+        <v>4</v>
+      </c>
+      <c r="R354">
+        <v>2</v>
+      </c>
+      <c r="S354">
+        <v>6</v>
+      </c>
+      <c r="T354">
+        <v>2.95</v>
+      </c>
+      <c r="U354">
+        <v>1.8</v>
+      </c>
+      <c r="V354">
+        <v>4.33</v>
+      </c>
+      <c r="W354">
+        <v>1.63</v>
+      </c>
+      <c r="X354">
+        <v>2.1</v>
+      </c>
+      <c r="Y354">
+        <v>4</v>
+      </c>
+      <c r="Z354">
+        <v>1.21</v>
+      </c>
+      <c r="AA354">
+        <v>12.5</v>
+      </c>
+      <c r="AB354">
+        <v>1.03</v>
+      </c>
+      <c r="AC354">
+        <v>2.2</v>
+      </c>
+      <c r="AD354">
+        <v>2.95</v>
+      </c>
+      <c r="AE354">
+        <v>3.6</v>
+      </c>
+      <c r="AF354">
+        <v>1.13</v>
+      </c>
+      <c r="AG354">
+        <v>5.25</v>
+      </c>
+      <c r="AH354">
+        <v>1.61</v>
+      </c>
+      <c r="AI354">
+        <v>2.15</v>
+      </c>
+      <c r="AJ354">
+        <v>2.85</v>
+      </c>
+      <c r="AK354">
+        <v>1.37</v>
+      </c>
+      <c r="AL354">
+        <v>2.37</v>
+      </c>
+      <c r="AM354">
+        <v>1.5</v>
+      </c>
+      <c r="AN354">
+        <v>1.27</v>
+      </c>
+      <c r="AO354">
+        <v>1.38</v>
+      </c>
+      <c r="AP354">
+        <v>1.63</v>
+      </c>
+      <c r="AQ354">
+        <v>1.69</v>
+      </c>
+      <c r="AR354">
+        <v>0.46</v>
+      </c>
+      <c r="AS354">
+        <v>1.57</v>
+      </c>
+      <c r="AT354">
+        <v>0.64</v>
+      </c>
+      <c r="AU354">
+        <v>1.38</v>
+      </c>
+      <c r="AV354">
+        <v>1.25</v>
+      </c>
+      <c r="AW354">
+        <v>2.63</v>
+      </c>
+      <c r="AX354">
+        <v>1.85</v>
+      </c>
+      <c r="AY354">
+        <v>7.5</v>
+      </c>
+      <c r="AZ354">
+        <v>2.33</v>
+      </c>
+      <c r="BA354">
+        <v>1.33</v>
+      </c>
+      <c r="BB354">
+        <v>1.62</v>
+      </c>
+      <c r="BC354">
+        <v>2.08</v>
+      </c>
+      <c r="BD354">
+        <v>2.76</v>
+      </c>
+      <c r="BE354">
+        <v>3.74</v>
+      </c>
+      <c r="BF354">
+        <v>4</v>
+      </c>
+      <c r="BG354">
+        <v>4</v>
+      </c>
+      <c r="BH354">
+        <v>5</v>
+      </c>
+      <c r="BI354">
+        <v>4</v>
+      </c>
+      <c r="BJ354">
+        <v>9</v>
+      </c>
+      <c r="BK354">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:63">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>4554748</v>
+      </c>
+      <c r="C355" t="s">
+        <v>63</v>
+      </c>
+      <c r="D355" t="s">
+        <v>64</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45130.6875</v>
+      </c>
+      <c r="F355">
+        <v>26</v>
+      </c>
+      <c r="G355" t="s">
+        <v>88</v>
+      </c>
+      <c r="H355" t="s">
+        <v>86</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>93</v>
+      </c>
+      <c r="P355" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q355">
+        <v>2</v>
+      </c>
+      <c r="R355">
+        <v>6</v>
+      </c>
+      <c r="S355">
+        <v>8</v>
+      </c>
+      <c r="T355">
+        <v>3.2</v>
+      </c>
+      <c r="U355">
+        <v>1.91</v>
+      </c>
+      <c r="V355">
+        <v>4</v>
+      </c>
+      <c r="W355">
+        <v>1.57</v>
+      </c>
+      <c r="X355">
+        <v>2.25</v>
+      </c>
+      <c r="Y355">
+        <v>3.75</v>
+      </c>
+      <c r="Z355">
+        <v>1.25</v>
+      </c>
+      <c r="AA355">
+        <v>13</v>
+      </c>
+      <c r="AB355">
+        <v>1.04</v>
+      </c>
+      <c r="AC355">
+        <v>2.25</v>
+      </c>
+      <c r="AD355">
+        <v>3</v>
+      </c>
+      <c r="AE355">
+        <v>3.3</v>
+      </c>
+      <c r="AF355">
+        <v>1.1</v>
+      </c>
+      <c r="AG355">
+        <v>5.7</v>
+      </c>
+      <c r="AH355">
+        <v>1.49</v>
+      </c>
+      <c r="AI355">
+        <v>2.54</v>
+      </c>
+      <c r="AJ355">
+        <v>2.5</v>
+      </c>
+      <c r="AK355">
+        <v>1.5</v>
+      </c>
+      <c r="AL355">
+        <v>2.1</v>
+      </c>
+      <c r="AM355">
+        <v>1.67</v>
+      </c>
+      <c r="AN355">
+        <v>1.32</v>
+      </c>
+      <c r="AO355">
+        <v>1.35</v>
+      </c>
+      <c r="AP355">
+        <v>1.57</v>
+      </c>
+      <c r="AQ355">
+        <v>1.58</v>
+      </c>
+      <c r="AR355">
+        <v>0.92</v>
+      </c>
+      <c r="AS355">
+        <v>1.69</v>
+      </c>
+      <c r="AT355">
+        <v>0.86</v>
+      </c>
+      <c r="AU355">
+        <v>1.48</v>
+      </c>
+      <c r="AV355">
+        <v>1.09</v>
+      </c>
+      <c r="AW355">
+        <v>2.57</v>
+      </c>
+      <c r="AX355">
+        <v>1.82</v>
+      </c>
+      <c r="AY355">
+        <v>7.5</v>
+      </c>
+      <c r="AZ355">
+        <v>2.4</v>
+      </c>
+      <c r="BA355">
+        <v>1.36</v>
+      </c>
+      <c r="BB355">
+        <v>1.68</v>
+      </c>
+      <c r="BC355">
+        <v>2.12</v>
+      </c>
+      <c r="BD355">
+        <v>2.79</v>
+      </c>
+      <c r="BE355">
+        <v>3.98</v>
+      </c>
+      <c r="BF355">
+        <v>3</v>
+      </c>
+      <c r="BG355">
+        <v>6</v>
+      </c>
+      <c r="BH355">
+        <v>2</v>
+      </c>
+      <c r="BI355">
+        <v>5</v>
+      </c>
+      <c r="BJ355">
+        <v>5</v>
+      </c>
+      <c r="BK355">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:63">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>5019534</v>
+      </c>
+      <c r="C356" t="s">
+        <v>63</v>
+      </c>
+      <c r="D356" t="s">
+        <v>64</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45130.78125</v>
+      </c>
+      <c r="F356">
+        <v>26</v>
+      </c>
+      <c r="G356" t="s">
+        <v>66</v>
+      </c>
+      <c r="H356" t="s">
+        <v>82</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>3</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>289</v>
+      </c>
+      <c r="P356" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q356">
+        <v>10</v>
+      </c>
+      <c r="R356">
+        <v>2</v>
+      </c>
+      <c r="S356">
+        <v>12</v>
+      </c>
+      <c r="T356">
+        <v>2.4</v>
+      </c>
+      <c r="U356">
+        <v>2.1</v>
+      </c>
+      <c r="V356">
+        <v>5</v>
+      </c>
+      <c r="W356">
+        <v>1.44</v>
+      </c>
+      <c r="X356">
+        <v>2.63</v>
+      </c>
+      <c r="Y356">
+        <v>3</v>
+      </c>
+      <c r="Z356">
+        <v>1.36</v>
+      </c>
+      <c r="AA356">
+        <v>9</v>
+      </c>
+      <c r="AB356">
+        <v>1.07</v>
+      </c>
+      <c r="AC356">
+        <v>1.78</v>
+      </c>
+      <c r="AD356">
+        <v>3.47</v>
+      </c>
+      <c r="AE356">
+        <v>4.17</v>
+      </c>
+      <c r="AF356">
+        <v>1.04</v>
+      </c>
+      <c r="AG356">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH356">
+        <v>1.35</v>
+      </c>
+      <c r="AI356">
+        <v>3.14</v>
+      </c>
+      <c r="AJ356">
+        <v>2.05</v>
+      </c>
+      <c r="AK356">
+        <v>1.7</v>
+      </c>
+      <c r="AL356">
+        <v>1.95</v>
+      </c>
+      <c r="AM356">
+        <v>1.8</v>
+      </c>
+      <c r="AN356">
+        <v>1.2</v>
+      </c>
+      <c r="AO356">
+        <v>1.25</v>
+      </c>
+      <c r="AP356">
+        <v>2.05</v>
+      </c>
+      <c r="AQ356">
+        <v>1.77</v>
+      </c>
+      <c r="AR356">
+        <v>1</v>
+      </c>
+      <c r="AS356">
+        <v>1.86</v>
+      </c>
+      <c r="AT356">
+        <v>0.93</v>
+      </c>
+      <c r="AU356">
+        <v>1.47</v>
+      </c>
+      <c r="AV356">
+        <v>1.11</v>
+      </c>
+      <c r="AW356">
+        <v>2.58</v>
+      </c>
+      <c r="AX356">
+        <v>1.51</v>
+      </c>
+      <c r="AY356">
+        <v>8.5</v>
+      </c>
+      <c r="AZ356">
+        <v>3.16</v>
+      </c>
+      <c r="BA356">
+        <v>1.15</v>
+      </c>
+      <c r="BB356">
+        <v>1.31</v>
+      </c>
+      <c r="BC356">
+        <v>1.57</v>
+      </c>
+      <c r="BD356">
+        <v>1.97</v>
+      </c>
+      <c r="BE356">
+        <v>2.52</v>
+      </c>
+      <c r="BF356">
+        <v>13</v>
+      </c>
+      <c r="BG356">
+        <v>0</v>
+      </c>
+      <c r="BH356">
+        <v>5</v>
+      </c>
+      <c r="BI356">
+        <v>4</v>
+      </c>
+      <c r="BJ356">
+        <v>18</v>
+      </c>
+      <c r="BK356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:63">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>4554738</v>
+      </c>
+      <c r="C357" t="s">
+        <v>63</v>
+      </c>
+      <c r="D357" t="s">
+        <v>64</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45130.875</v>
+      </c>
+      <c r="F357">
+        <v>26</v>
+      </c>
+      <c r="G357" t="s">
+        <v>65</v>
+      </c>
+      <c r="H357" t="s">
+        <v>92</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>3</v>
+      </c>
+      <c r="M357">
+        <v>3</v>
+      </c>
+      <c r="N357">
+        <v>6</v>
+      </c>
+      <c r="O357" t="s">
+        <v>290</v>
+      </c>
+      <c r="P357" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q357">
+        <v>4</v>
+      </c>
+      <c r="R357">
+        <v>9</v>
+      </c>
+      <c r="S357">
+        <v>13</v>
+      </c>
+      <c r="T357">
+        <v>4</v>
+      </c>
+      <c r="U357">
+        <v>2.2</v>
+      </c>
+      <c r="V357">
+        <v>2.75</v>
+      </c>
+      <c r="W357">
+        <v>1.4</v>
+      </c>
+      <c r="X357">
+        <v>2.75</v>
+      </c>
+      <c r="Y357">
+        <v>2.75</v>
+      </c>
+      <c r="Z357">
+        <v>1.4</v>
+      </c>
+      <c r="AA357">
+        <v>8</v>
+      </c>
+      <c r="AB357">
+        <v>1.08</v>
+      </c>
+      <c r="AC357">
+        <v>3.5</v>
+      </c>
+      <c r="AD357">
+        <v>3.3</v>
+      </c>
+      <c r="AE357">
+        <v>2.05</v>
+      </c>
+      <c r="AF357">
+        <v>1.04</v>
+      </c>
+      <c r="AG357">
+        <v>10.06</v>
+      </c>
+      <c r="AH357">
+        <v>1.31</v>
+      </c>
+      <c r="AI357">
+        <v>3.32</v>
+      </c>
+      <c r="AJ357">
+        <v>1.95</v>
+      </c>
+      <c r="AK357">
+        <v>1.85</v>
+      </c>
+      <c r="AL357">
+        <v>1.75</v>
+      </c>
+      <c r="AM357">
+        <v>2</v>
+      </c>
+      <c r="AN357">
+        <v>1.75</v>
+      </c>
+      <c r="AO357">
+        <v>1.28</v>
+      </c>
+      <c r="AP357">
+        <v>1.32</v>
+      </c>
+      <c r="AQ357">
+        <v>2.38</v>
+      </c>
+      <c r="AR357">
+        <v>1.85</v>
+      </c>
+      <c r="AS357">
+        <v>2.29</v>
+      </c>
+      <c r="AT357">
+        <v>1.79</v>
+      </c>
+      <c r="AU357">
+        <v>1.64</v>
+      </c>
+      <c r="AV357">
+        <v>1.66</v>
+      </c>
+      <c r="AW357">
+        <v>3.3</v>
+      </c>
+      <c r="AX357">
+        <v>2.1</v>
+      </c>
+      <c r="AY357">
+        <v>8</v>
+      </c>
+      <c r="AZ357">
+        <v>1.91</v>
+      </c>
+      <c r="BA357">
+        <v>1.21</v>
+      </c>
+      <c r="BB357">
+        <v>1.4</v>
+      </c>
+      <c r="BC357">
+        <v>1.74</v>
+      </c>
+      <c r="BD357">
+        <v>2.13</v>
+      </c>
+      <c r="BE357">
+        <v>2.95</v>
+      </c>
+      <c r="BF357">
+        <v>6</v>
+      </c>
+      <c r="BG357">
+        <v>9</v>
+      </c>
+      <c r="BH357">
+        <v>8</v>
+      </c>
+      <c r="BI357">
+        <v>7</v>
+      </c>
+      <c r="BJ357">
+        <v>14</v>
+      </c>
+      <c r="BK357">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:63">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>4554744</v>
+      </c>
+      <c r="C358" t="s">
+        <v>63</v>
+      </c>
+      <c r="D358" t="s">
+        <v>64</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45131.6875</v>
+      </c>
+      <c r="F358">
+        <v>26</v>
+      </c>
+      <c r="G358" t="s">
+        <v>77</v>
+      </c>
+      <c r="H358" t="s">
+        <v>89</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+      <c r="O358" t="s">
+        <v>96</v>
+      </c>
+      <c r="P358" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q358">
+        <v>3</v>
+      </c>
+      <c r="R358">
+        <v>6</v>
+      </c>
+      <c r="S358">
+        <v>9</v>
+      </c>
+      <c r="T358">
+        <v>2.8</v>
+      </c>
+      <c r="U358">
+        <v>1.88</v>
+      </c>
+      <c r="V358">
+        <v>4.75</v>
+      </c>
+      <c r="W358">
+        <v>1.6</v>
+      </c>
+      <c r="X358">
+        <v>2.2</v>
+      </c>
+      <c r="Y358">
+        <v>3.6</v>
+      </c>
+      <c r="Z358">
+        <v>1.25</v>
+      </c>
+      <c r="AA358">
+        <v>14</v>
+      </c>
+      <c r="AB358">
+        <v>1.03</v>
+      </c>
+      <c r="AC358">
+        <v>2.05</v>
+      </c>
+      <c r="AD358">
+        <v>2.9</v>
+      </c>
+      <c r="AE358">
+        <v>4</v>
+      </c>
+      <c r="AF358">
+        <v>1.12</v>
+      </c>
+      <c r="AG358">
+        <v>6.25</v>
+      </c>
+      <c r="AH358">
+        <v>1.58</v>
+      </c>
+      <c r="AI358">
+        <v>2.2</v>
+      </c>
+      <c r="AJ358">
+        <v>2.8</v>
+      </c>
+      <c r="AK358">
+        <v>1.38</v>
+      </c>
+      <c r="AL358">
+        <v>2.25</v>
+      </c>
+      <c r="AM358">
+        <v>1.55</v>
+      </c>
+      <c r="AN358">
+        <v>1.25</v>
+      </c>
+      <c r="AO358">
+        <v>1.38</v>
+      </c>
+      <c r="AP358">
+        <v>1.75</v>
+      </c>
+      <c r="AQ358">
+        <v>1.31</v>
+      </c>
+      <c r="AR358">
+        <v>0.92</v>
+      </c>
+      <c r="AS358">
+        <v>1.29</v>
+      </c>
+      <c r="AT358">
+        <v>0.93</v>
+      </c>
+      <c r="AU358">
+        <v>1.28</v>
+      </c>
+      <c r="AV358">
+        <v>1.08</v>
+      </c>
+      <c r="AW358">
+        <v>2.36</v>
+      </c>
+      <c r="AX358">
+        <v>1.64</v>
+      </c>
+      <c r="AY358">
+        <v>8.5</v>
+      </c>
+      <c r="AZ358">
+        <v>2.64</v>
+      </c>
+      <c r="BA358">
+        <v>1.29</v>
+      </c>
+      <c r="BB358">
+        <v>1.56</v>
+      </c>
+      <c r="BC358">
+        <v>1.98</v>
+      </c>
+      <c r="BD358">
+        <v>2.58</v>
+      </c>
+      <c r="BE358">
+        <v>3.48</v>
+      </c>
+      <c r="BF358">
+        <v>0</v>
+      </c>
+      <c r="BG358">
+        <v>2</v>
+      </c>
+      <c r="BH358">
+        <v>2</v>
+      </c>
+      <c r="BI358">
+        <v>4</v>
+      </c>
+      <c r="BJ358">
+        <v>2</v>
+      </c>
+      <c r="BK358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:63">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>4554746</v>
+      </c>
+      <c r="C359" t="s">
+        <v>63</v>
+      </c>
+      <c r="D359" t="s">
+        <v>64</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45131.6875</v>
+      </c>
+      <c r="F359">
+        <v>26</v>
+      </c>
+      <c r="G359" t="s">
+        <v>68</v>
+      </c>
+      <c r="H359" t="s">
+        <v>90</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>3</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>4</v>
+      </c>
+      <c r="O359" t="s">
+        <v>291</v>
+      </c>
+      <c r="P359" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q359">
+        <v>6</v>
+      </c>
+      <c r="R359">
+        <v>7</v>
+      </c>
+      <c r="S359">
+        <v>13</v>
+      </c>
+      <c r="T359">
+        <v>2.15</v>
+      </c>
+      <c r="U359">
+        <v>2.25</v>
+      </c>
+      <c r="V359">
+        <v>6</v>
+      </c>
+      <c r="W359">
+        <v>1.4</v>
+      </c>
+      <c r="X359">
+        <v>2.78</v>
+      </c>
+      <c r="Y359">
+        <v>2.94</v>
+      </c>
+      <c r="Z359">
+        <v>1.36</v>
+      </c>
+      <c r="AA359">
+        <v>7.25</v>
+      </c>
+      <c r="AB359">
+        <v>1.07</v>
+      </c>
+      <c r="AC359">
+        <v>1.52</v>
+      </c>
+      <c r="AD359">
+        <v>4.05</v>
+      </c>
+      <c r="AE359">
+        <v>6.2</v>
+      </c>
+      <c r="AF359">
+        <v>1.04</v>
+      </c>
+      <c r="AG359">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH359">
+        <v>1.31</v>
+      </c>
+      <c r="AI359">
+        <v>3.32</v>
+      </c>
+      <c r="AJ359">
+        <v>1.97</v>
+      </c>
+      <c r="AK359">
+        <v>1.8</v>
+      </c>
+      <c r="AL359">
+        <v>2.04</v>
+      </c>
+      <c r="AM359">
+        <v>1.71</v>
+      </c>
+      <c r="AN359">
+        <v>1.11</v>
+      </c>
+      <c r="AO359">
+        <v>1.2</v>
+      </c>
+      <c r="AP359">
+        <v>2.5</v>
+      </c>
+      <c r="AQ359">
+        <v>1.85</v>
+      </c>
+      <c r="AR359">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS359">
+        <v>1.79</v>
+      </c>
+      <c r="AT359">
+        <v>0.71</v>
+      </c>
+      <c r="AU359">
+        <v>1.54</v>
+      </c>
+      <c r="AV359">
+        <v>1.31</v>
+      </c>
+      <c r="AW359">
+        <v>2.85</v>
+      </c>
+      <c r="AX359">
+        <v>1.41</v>
+      </c>
+      <c r="AY359">
+        <v>9.5</v>
+      </c>
+      <c r="AZ359">
+        <v>3.35</v>
+      </c>
+      <c r="BA359">
+        <v>1.18</v>
+      </c>
+      <c r="BB359">
+        <v>1.36</v>
+      </c>
+      <c r="BC359">
+        <v>1.65</v>
+      </c>
+      <c r="BD359">
+        <v>2.09</v>
+      </c>
+      <c r="BE359">
+        <v>2.72</v>
+      </c>
+      <c r="BF359">
+        <v>5</v>
+      </c>
+      <c r="BG359">
+        <v>8</v>
+      </c>
+      <c r="BH359">
+        <v>8</v>
+      </c>
+      <c r="BI359">
+        <v>5</v>
+      </c>
+      <c r="BJ359">
+        <v>13</v>
+      </c>
+      <c r="BK359">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="395">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -892,6 +892,18 @@
     <t>['3', '18']</t>
   </si>
   <si>
+    <t>['27', '85']</t>
+  </si>
+  <si>
+    <t>['40', '45+1', '57']</t>
+  </si>
+  <si>
+    <t>['21', '46']</t>
+  </si>
+  <si>
+    <t>['29', '90+4']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1184,6 +1196,9 @@
   </si>
   <si>
     <t>['39', '59']</t>
+  </si>
+  <si>
+    <t>['37', '65', '82']</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK359"/>
+  <dimension ref="A1:BK365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1980,7 +1995,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2261,7 +2276,7 @@
         <v>2.07</v>
       </c>
       <c r="AT4">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2553,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2643,7 +2658,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2744,7 +2759,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2935,7 +2950,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3025,7 +3040,7 @@
         <v>1.57</v>
       </c>
       <c r="AT8">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3213,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>0.93</v>
@@ -3317,7 +3332,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3404,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT10">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3595,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3786,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT12">
         <v>0.92</v>
@@ -3977,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4081,7 +4096,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4359,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT15">
         <v>0.93</v>
@@ -4463,7 +4478,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -5036,7 +5051,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5227,7 +5242,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5800,7 +5815,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6078,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU24">
         <v>1.71</v>
@@ -6373,7 +6388,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6564,7 +6579,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6755,7 +6770,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6946,7 +6961,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7137,7 +7152,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7224,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT30">
         <v>0.93</v>
@@ -7609,7 +7624,7 @@
         <v>2.07</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU32">
         <v>1.4</v>
@@ -7800,7 +7815,7 @@
         <v>1.86</v>
       </c>
       <c r="AT33">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU33">
         <v>1.74</v>
@@ -7901,7 +7916,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8092,7 +8107,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8564,7 +8579,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8752,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT38">
         <v>0.71</v>
@@ -9134,7 +9149,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
         <v>0.64</v>
@@ -9238,7 +9253,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9325,10 +9340,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9516,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
         <v>0.93</v>
@@ -9620,7 +9635,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9710,7 +9725,7 @@
         <v>1.86</v>
       </c>
       <c r="AT43">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.92</v>
@@ -10002,7 +10017,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10575,7 +10590,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11617,7 +11632,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT53">
         <v>0.92</v>
@@ -11721,7 +11736,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12002,7 +12017,7 @@
         <v>1.79</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55">
         <v>1.5</v>
@@ -12294,7 +12309,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12485,7 +12500,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12575,7 +12590,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU58">
         <v>0.67</v>
@@ -12766,7 +12781,7 @@
         <v>2.29</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU59">
         <v>2.03</v>
@@ -13249,7 +13264,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13440,7 +13455,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13909,7 +13924,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
         <v>0.64</v>
@@ -14013,7 +14028,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14103,7 +14118,7 @@
         <v>2.75</v>
       </c>
       <c r="AT66">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU66">
         <v>1.25</v>
@@ -14291,7 +14306,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT67">
         <v>0.86</v>
@@ -14395,7 +14410,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14482,10 +14497,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14673,7 +14688,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
         <v>0.71</v>
@@ -14864,10 +14879,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT70">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -15350,7 +15365,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15631,7 +15646,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>1.4</v>
@@ -15923,7 +15938,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16687,7 +16702,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17069,7 +17084,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17451,7 +17466,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17729,7 +17744,7 @@
         <v>3</v>
       </c>
       <c r="AS85">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT85">
         <v>1.5</v>
@@ -17833,7 +17848,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17920,7 +17935,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>0.86</v>
@@ -18114,7 +18129,7 @@
         <v>2</v>
       </c>
       <c r="AT87">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18302,7 +18317,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
         <v>0.92</v>
@@ -18597,7 +18612,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18878,7 +18893,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -19069,7 +19084,7 @@
         <v>1.75</v>
       </c>
       <c r="AT92">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU92">
         <v>0.97</v>
@@ -19257,7 +19272,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
         <v>0.93</v>
@@ -19451,7 +19466,7 @@
         <v>2.75</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU94">
         <v>1.81</v>
@@ -19552,7 +19567,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19830,7 +19845,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT96">
         <v>1.17</v>
@@ -20125,7 +20140,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20403,10 +20418,10 @@
         <v>0.33</v>
       </c>
       <c r="AS99">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT99">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU99">
         <v>1.88</v>
@@ -20507,7 +20522,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20788,7 +20803,7 @@
         <v>1.08</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU101">
         <v>1.12</v>
@@ -20889,7 +20904,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21271,7 +21286,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21653,7 +21668,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21844,7 +21859,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21931,7 +21946,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT107">
         <v>0.92</v>
@@ -22226,7 +22241,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22799,7 +22814,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23080,7 +23095,7 @@
         <v>1.29</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -23462,7 +23477,7 @@
         <v>2</v>
       </c>
       <c r="AT115">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU115">
         <v>1.94</v>
@@ -23844,7 +23859,7 @@
         <v>1.86</v>
       </c>
       <c r="AT117">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU117">
         <v>1.81</v>
@@ -24136,7 +24151,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24223,7 +24238,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT119">
         <v>1.17</v>
@@ -24518,7 +24533,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24605,7 +24620,7 @@
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT121">
         <v>0.64</v>
@@ -24799,7 +24814,7 @@
         <v>1.25</v>
       </c>
       <c r="AT122">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>1.77</v>
@@ -24900,7 +24915,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24987,7 +25002,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT123">
         <v>2</v>
@@ -25178,7 +25193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT124">
         <v>0.92</v>
@@ -25282,7 +25297,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25369,7 +25384,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT125">
         <v>0.92</v>
@@ -25754,7 +25769,7 @@
         <v>1.31</v>
       </c>
       <c r="AT127">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU127">
         <v>1.29</v>
@@ -26136,7 +26151,7 @@
         <v>2.17</v>
       </c>
       <c r="AT129">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU129">
         <v>1.27</v>
@@ -26237,7 +26252,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26810,7 +26825,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27001,7 +27016,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27192,7 +27207,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27383,7 +27398,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27473,7 +27488,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27574,7 +27589,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27765,7 +27780,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27855,7 +27870,7 @@
         <v>2.08</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU138">
         <v>1.49</v>
@@ -28147,7 +28162,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28338,7 +28353,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28425,7 +28440,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT141">
         <v>0.75</v>
@@ -28616,7 +28631,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT142">
         <v>0.92</v>
@@ -28720,7 +28735,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28998,7 +29013,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT144">
         <v>0.75</v>
@@ -29102,7 +29117,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29189,7 +29204,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT145">
         <v>1.5</v>
@@ -29383,7 +29398,7 @@
         <v>1.31</v>
       </c>
       <c r="AT146">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU146">
         <v>1.4</v>
@@ -29953,10 +29968,10 @@
         <v>0.4</v>
       </c>
       <c r="AS149">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT149">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU149">
         <v>1.77</v>
@@ -30439,7 +30454,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30529,7 +30544,7 @@
         <v>1.08</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU152">
         <v>1.17</v>
@@ -30630,7 +30645,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30717,7 +30732,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT153">
         <v>2</v>
@@ -31481,7 +31496,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT157">
         <v>1.33</v>
@@ -31776,7 +31791,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32057,7 +32072,7 @@
         <v>1.17</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU160">
         <v>1.48</v>
@@ -33200,10 +33215,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU166">
         <v>1.67</v>
@@ -33394,7 +33409,7 @@
         <v>1.33</v>
       </c>
       <c r="AT167">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU167">
         <v>1.79</v>
@@ -33495,7 +33510,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33686,7 +33701,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33776,7 +33791,7 @@
         <v>2.08</v>
       </c>
       <c r="AT169">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU169">
         <v>1.4</v>
@@ -33877,7 +33892,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33964,7 +33979,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT170">
         <v>0.75</v>
@@ -34259,7 +34274,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34540,7 +34555,7 @@
         <v>1.75</v>
       </c>
       <c r="AT173">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU173">
         <v>1.19</v>
@@ -34641,7 +34656,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34731,7 +34746,7 @@
         <v>1.31</v>
       </c>
       <c r="AT174">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -35023,7 +35038,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35301,7 +35316,7 @@
         <v>0.8</v>
       </c>
       <c r="AS177">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT177">
         <v>0.75</v>
@@ -35787,7 +35802,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35874,7 +35889,7 @@
         <v>2</v>
       </c>
       <c r="AS180">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
         <v>1.5</v>
@@ -35978,7 +35993,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36065,7 +36080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT181">
         <v>0.92</v>
@@ -36169,7 +36184,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36551,7 +36566,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36832,7 +36847,7 @@
         <v>1.33</v>
       </c>
       <c r="AT185">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU185">
         <v>1.75</v>
@@ -37214,7 +37229,7 @@
         <v>1.08</v>
       </c>
       <c r="AT187">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU187">
         <v>1.32</v>
@@ -37787,7 +37802,7 @@
         <v>1.58</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -37975,7 +37990,7 @@
         <v>0.83</v>
       </c>
       <c r="AS191">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT191">
         <v>1.17</v>
@@ -38079,7 +38094,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38166,10 +38181,10 @@
         <v>0.83</v>
       </c>
       <c r="AS192">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU192">
         <v>1.43</v>
@@ -38357,7 +38372,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT193">
         <v>1.08</v>
@@ -39121,7 +39136,7 @@
         <v>1.17</v>
       </c>
       <c r="AS197">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT197">
         <v>0.92</v>
@@ -39694,7 +39709,7 @@
         <v>0.83</v>
       </c>
       <c r="AS200">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT200">
         <v>0.75</v>
@@ -39989,7 +40004,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40753,7 +40768,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40843,7 +40858,7 @@
         <v>1.25</v>
       </c>
       <c r="AT206">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU206">
         <v>1.66</v>
@@ -41326,7 +41341,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41413,7 +41428,7 @@
         <v>1.83</v>
       </c>
       <c r="AS209">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT209">
         <v>2</v>
@@ -41798,7 +41813,7 @@
         <v>1.08</v>
       </c>
       <c r="AT211">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU211">
         <v>1.32</v>
@@ -41899,7 +41914,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42090,7 +42105,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42180,7 +42195,7 @@
         <v>1.33</v>
       </c>
       <c r="AT213">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU213">
         <v>1.42</v>
@@ -42281,7 +42296,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42368,7 +42383,7 @@
         <v>1.29</v>
       </c>
       <c r="AS214">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT214">
         <v>1.42</v>
@@ -42562,7 +42577,7 @@
         <v>1.92</v>
       </c>
       <c r="AT215">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU215">
         <v>1.1</v>
@@ -42750,7 +42765,7 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT216">
         <v>0.75</v>
@@ -43323,7 +43338,7 @@
         <v>1.63</v>
       </c>
       <c r="AS219">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -43427,7 +43442,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43618,7 +43633,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43809,7 +43824,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43896,10 +43911,10 @@
         <v>1.14</v>
       </c>
       <c r="AS222">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT222">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU222">
         <v>0.98</v>
@@ -44090,7 +44105,7 @@
         <v>1.58</v>
       </c>
       <c r="AT223">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU223">
         <v>1.53</v>
@@ -45809,7 +45824,7 @@
         <v>2.17</v>
       </c>
       <c r="AT232">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU232">
         <v>1.28</v>
@@ -46570,7 +46585,7 @@
         <v>0.86</v>
       </c>
       <c r="AS236">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT236">
         <v>1.17</v>
@@ -46955,7 +46970,7 @@
         <v>1.69</v>
       </c>
       <c r="AT238">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU238">
         <v>1.43</v>
@@ -47528,7 +47543,7 @@
         <v>1.33</v>
       </c>
       <c r="AT241">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU241">
         <v>1.44</v>
@@ -47716,7 +47731,7 @@
         <v>1.5</v>
       </c>
       <c r="AS242">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT242">
         <v>1.42</v>
@@ -48289,10 +48304,10 @@
         <v>1.11</v>
       </c>
       <c r="AS245">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT245">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU245">
         <v>1.67</v>
@@ -48483,7 +48498,7 @@
         <v>1.92</v>
       </c>
       <c r="AT246">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU246">
         <v>1.2</v>
@@ -48584,7 +48599,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48671,10 +48686,10 @@
         <v>1.13</v>
       </c>
       <c r="AS247">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT247">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU247">
         <v>1.61</v>
@@ -49053,7 +49068,7 @@
         <v>0.88</v>
       </c>
       <c r="AS249">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT249">
         <v>0.75</v>
@@ -49244,7 +49259,7 @@
         <v>1.75</v>
       </c>
       <c r="AS250">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT250">
         <v>1.33</v>
@@ -49348,7 +49363,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49629,7 +49644,7 @@
         <v>1.33</v>
       </c>
       <c r="AT252">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU252">
         <v>1.68</v>
@@ -49921,7 +49936,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50303,7 +50318,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50685,7 +50700,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -51154,7 +51169,7 @@
         <v>0.63</v>
       </c>
       <c r="AS260">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT260">
         <v>0.75</v>
@@ -52109,7 +52124,7 @@
         <v>0.78</v>
       </c>
       <c r="AS265">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT265">
         <v>0.75</v>
@@ -52494,7 +52509,7 @@
         <v>1.57</v>
       </c>
       <c r="AT267">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU267">
         <v>1.48</v>
@@ -52682,10 +52697,10 @@
         <v>1.11</v>
       </c>
       <c r="AS268">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT268">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU268">
         <v>1.63</v>
@@ -52876,7 +52891,7 @@
         <v>1.79</v>
       </c>
       <c r="AT269">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU269">
         <v>1.51</v>
@@ -53258,7 +53273,7 @@
         <v>2.07</v>
       </c>
       <c r="AT271">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU271">
         <v>1.41</v>
@@ -53359,7 +53374,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53446,7 +53461,7 @@
         <v>2</v>
       </c>
       <c r="AS272">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT272">
         <v>1.79</v>
@@ -53741,7 +53756,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53828,7 +53843,7 @@
         <v>0.89</v>
       </c>
       <c r="AS274">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT274">
         <v>1.08</v>
@@ -54019,7 +54034,7 @@
         <v>1.67</v>
       </c>
       <c r="AS275">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT275">
         <v>1.33</v>
@@ -54505,7 +54520,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54595,7 +54610,7 @@
         <v>1.69</v>
       </c>
       <c r="AT278">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU278">
         <v>1.51</v>
@@ -54786,7 +54801,7 @@
         <v>1.17</v>
       </c>
       <c r="AT279">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU279">
         <v>1.64</v>
@@ -54974,7 +54989,7 @@
         <v>0.63</v>
       </c>
       <c r="AS280">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT280">
         <v>0.75</v>
@@ -55651,7 +55666,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55929,7 +55944,7 @@
         <v>0.78</v>
       </c>
       <c r="AS285">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT285">
         <v>1.17</v>
@@ -56033,7 +56048,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56505,7 +56520,7 @@
         <v>1.08</v>
       </c>
       <c r="AT288">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU288">
         <v>1.44</v>
@@ -56988,7 +57003,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57179,7 +57194,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57370,7 +57385,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57943,7 +57958,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58033,7 +58048,7 @@
         <v>1.57</v>
       </c>
       <c r="AT296">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU296">
         <v>1.43</v>
@@ -58415,7 +58430,7 @@
         <v>1.29</v>
       </c>
       <c r="AT298">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU298">
         <v>1.29</v>
@@ -58516,7 +58531,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58603,7 +58618,7 @@
         <v>2.09</v>
       </c>
       <c r="AS299">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT299">
         <v>1.79</v>
@@ -58988,7 +59003,7 @@
         <v>1.86</v>
       </c>
       <c r="AT301">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU301">
         <v>1.49</v>
@@ -59089,7 +59104,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59179,7 +59194,7 @@
         <v>1.79</v>
       </c>
       <c r="AT302">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU302">
         <v>1.48</v>
@@ -59471,7 +59486,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59558,7 +59573,7 @@
         <v>0.9</v>
       </c>
       <c r="AS304">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT304">
         <v>1.08</v>
@@ -59749,7 +59764,7 @@
         <v>1.18</v>
       </c>
       <c r="AS305">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT305">
         <v>1</v>
@@ -59940,7 +59955,7 @@
         <v>1.09</v>
       </c>
       <c r="AS306">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT306">
         <v>1.14</v>
@@ -60134,7 +60149,7 @@
         <v>1.86</v>
       </c>
       <c r="AT307">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU307">
         <v>1.49</v>
@@ -60322,7 +60337,7 @@
         <v>1.18</v>
       </c>
       <c r="AS308">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT308">
         <v>0.93</v>
@@ -60426,7 +60441,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60999,7 +61014,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61468,7 +61483,7 @@
         <v>1.3</v>
       </c>
       <c r="AS314">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT314">
         <v>1.42</v>
@@ -61763,7 +61778,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62145,7 +62160,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62718,7 +62733,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -63190,7 +63205,7 @@
         <v>1.31</v>
       </c>
       <c r="AT323">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU323">
         <v>1.54</v>
@@ -63760,10 +63775,10 @@
         <v>0.83</v>
       </c>
       <c r="AS326">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT326">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU326">
         <v>1.53</v>
@@ -64145,7 +64160,7 @@
         <v>1.29</v>
       </c>
       <c r="AT328">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU328">
         <v>1.26</v>
@@ -64333,10 +64348,10 @@
         <v>0.33</v>
       </c>
       <c r="AS329">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT329">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU329">
         <v>1.5</v>
@@ -64437,7 +64452,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -64527,7 +64542,7 @@
         <v>1.86</v>
       </c>
       <c r="AT330">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU330">
         <v>1.47</v>
@@ -64715,7 +64730,7 @@
         <v>1</v>
       </c>
       <c r="AS331">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT331">
         <v>1.14</v>
@@ -64906,7 +64921,7 @@
         <v>1.08</v>
       </c>
       <c r="AS332">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT332">
         <v>1</v>
@@ -65097,7 +65112,7 @@
         <v>0.5</v>
       </c>
       <c r="AS333">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT333">
         <v>0.64</v>
@@ -65482,7 +65497,7 @@
         <v>2.29</v>
       </c>
       <c r="AT335">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU335">
         <v>1.65</v>
@@ -65583,7 +65598,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65673,7 +65688,7 @@
         <v>1.33</v>
       </c>
       <c r="AT336">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU336">
         <v>1.42</v>
@@ -65965,7 +65980,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -66156,7 +66171,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q339">
         <v>4</v>
@@ -66816,7 +66831,7 @@
         <v>0.73</v>
       </c>
       <c r="AS342">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT342">
         <v>0.75</v>
@@ -66920,7 +66935,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67111,7 +67126,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67302,7 +67317,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67493,7 +67508,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -68257,7 +68272,7 @@
         <v>96</v>
       </c>
       <c r="P350" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q350">
         <v>4</v>
@@ -68639,7 +68654,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69021,7 +69036,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69594,7 +69609,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69976,7 +69991,7 @@
         <v>291</v>
       </c>
       <c r="P359" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70118,6 +70133,1152 @@
       </c>
       <c r="BK359">
         <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:63">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>4554743</v>
+      </c>
+      <c r="C360" t="s">
+        <v>63</v>
+      </c>
+      <c r="D360" t="s">
+        <v>64</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45131.77083333334</v>
+      </c>
+      <c r="F360">
+        <v>26</v>
+      </c>
+      <c r="G360" t="s">
+        <v>78</v>
+      </c>
+      <c r="H360" t="s">
+        <v>87</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>2</v>
+      </c>
+      <c r="O360" t="s">
+        <v>292</v>
+      </c>
+      <c r="P360" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q360">
+        <v>5</v>
+      </c>
+      <c r="R360">
+        <v>5</v>
+      </c>
+      <c r="S360">
+        <v>10</v>
+      </c>
+      <c r="T360">
+        <v>3</v>
+      </c>
+      <c r="U360">
+        <v>1.9</v>
+      </c>
+      <c r="V360">
+        <v>4</v>
+      </c>
+      <c r="W360">
+        <v>1.55</v>
+      </c>
+      <c r="X360">
+        <v>2.35</v>
+      </c>
+      <c r="Y360">
+        <v>3.4</v>
+      </c>
+      <c r="Z360">
+        <v>1.27</v>
+      </c>
+      <c r="AA360">
+        <v>11</v>
+      </c>
+      <c r="AB360">
+        <v>1.05</v>
+      </c>
+      <c r="AC360">
+        <v>2.23</v>
+      </c>
+      <c r="AD360">
+        <v>3.03</v>
+      </c>
+      <c r="AE360">
+        <v>3.2</v>
+      </c>
+      <c r="AF360">
+        <v>1.09</v>
+      </c>
+      <c r="AG360">
+        <v>7.75</v>
+      </c>
+      <c r="AH360">
+        <v>1.45</v>
+      </c>
+      <c r="AI360">
+        <v>2.6</v>
+      </c>
+      <c r="AJ360">
+        <v>2.35</v>
+      </c>
+      <c r="AK360">
+        <v>1.52</v>
+      </c>
+      <c r="AL360">
+        <v>2.05</v>
+      </c>
+      <c r="AM360">
+        <v>1.7</v>
+      </c>
+      <c r="AN360">
+        <v>1.32</v>
+      </c>
+      <c r="AO360">
+        <v>1.32</v>
+      </c>
+      <c r="AP360">
+        <v>1.6</v>
+      </c>
+      <c r="AQ360">
+        <v>1.31</v>
+      </c>
+      <c r="AR360">
+        <v>1</v>
+      </c>
+      <c r="AS360">
+        <v>1.43</v>
+      </c>
+      <c r="AT360">
+        <v>0.93</v>
+      </c>
+      <c r="AU360">
+        <v>1.47</v>
+      </c>
+      <c r="AV360">
+        <v>1.34</v>
+      </c>
+      <c r="AW360">
+        <v>2.81</v>
+      </c>
+      <c r="AX360">
+        <v>1.75</v>
+      </c>
+      <c r="AY360">
+        <v>8</v>
+      </c>
+      <c r="AZ360">
+        <v>2.42</v>
+      </c>
+      <c r="BA360">
+        <v>1.28</v>
+      </c>
+      <c r="BB360">
+        <v>1.53</v>
+      </c>
+      <c r="BC360">
+        <v>1.93</v>
+      </c>
+      <c r="BD360">
+        <v>2.52</v>
+      </c>
+      <c r="BE360">
+        <v>3.42</v>
+      </c>
+      <c r="BF360">
+        <v>6</v>
+      </c>
+      <c r="BG360">
+        <v>3</v>
+      </c>
+      <c r="BH360">
+        <v>5</v>
+      </c>
+      <c r="BI360">
+        <v>7</v>
+      </c>
+      <c r="BJ360">
+        <v>11</v>
+      </c>
+      <c r="BK360">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:63">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>4554737</v>
+      </c>
+      <c r="C361" t="s">
+        <v>63</v>
+      </c>
+      <c r="D361" t="s">
+        <v>64</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45131.8125</v>
+      </c>
+      <c r="F361">
+        <v>26</v>
+      </c>
+      <c r="G361" t="s">
+        <v>74</v>
+      </c>
+      <c r="H361" t="s">
+        <v>70</v>
+      </c>
+      <c r="I361">
+        <v>2</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>3</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361">
+        <v>4</v>
+      </c>
+      <c r="O361" t="s">
+        <v>293</v>
+      </c>
+      <c r="P361" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q361">
+        <v>6</v>
+      </c>
+      <c r="R361">
+        <v>4</v>
+      </c>
+      <c r="S361">
+        <v>10</v>
+      </c>
+      <c r="T361">
+        <v>2.6</v>
+      </c>
+      <c r="U361">
+        <v>2.05</v>
+      </c>
+      <c r="V361">
+        <v>4.75</v>
+      </c>
+      <c r="W361">
+        <v>1.44</v>
+      </c>
+      <c r="X361">
+        <v>2.63</v>
+      </c>
+      <c r="Y361">
+        <v>3.25</v>
+      </c>
+      <c r="Z361">
+        <v>1.33</v>
+      </c>
+      <c r="AA361">
+        <v>10</v>
+      </c>
+      <c r="AB361">
+        <v>1.06</v>
+      </c>
+      <c r="AC361">
+        <v>1.85</v>
+      </c>
+      <c r="AD361">
+        <v>3.4</v>
+      </c>
+      <c r="AE361">
+        <v>4.2</v>
+      </c>
+      <c r="AF361">
+        <v>1.07</v>
+      </c>
+      <c r="AG361">
+        <v>7</v>
+      </c>
+      <c r="AH361">
+        <v>1.38</v>
+      </c>
+      <c r="AI361">
+        <v>2.8</v>
+      </c>
+      <c r="AJ361">
+        <v>2.2</v>
+      </c>
+      <c r="AK361">
+        <v>1.65</v>
+      </c>
+      <c r="AL361">
+        <v>2</v>
+      </c>
+      <c r="AM361">
+        <v>1.75</v>
+      </c>
+      <c r="AN361">
+        <v>1.25</v>
+      </c>
+      <c r="AO361">
+        <v>1.3</v>
+      </c>
+      <c r="AP361">
+        <v>1.88</v>
+      </c>
+      <c r="AQ361">
+        <v>1.54</v>
+      </c>
+      <c r="AR361">
+        <v>1</v>
+      </c>
+      <c r="AS361">
+        <v>1.64</v>
+      </c>
+      <c r="AT361">
+        <v>0.92</v>
+      </c>
+      <c r="AU361">
+        <v>1.59</v>
+      </c>
+      <c r="AV361">
+        <v>1.24</v>
+      </c>
+      <c r="AW361">
+        <v>2.83</v>
+      </c>
+      <c r="AX361">
+        <v>1.41</v>
+      </c>
+      <c r="AY361">
+        <v>9.5</v>
+      </c>
+      <c r="AZ361">
+        <v>3.31</v>
+      </c>
+      <c r="BA361">
+        <v>1.25</v>
+      </c>
+      <c r="BB361">
+        <v>1.49</v>
+      </c>
+      <c r="BC361">
+        <v>1.86</v>
+      </c>
+      <c r="BD361">
+        <v>2.36</v>
+      </c>
+      <c r="BE361">
+        <v>3.18</v>
+      </c>
+      <c r="BF361">
+        <v>7</v>
+      </c>
+      <c r="BG361">
+        <v>8</v>
+      </c>
+      <c r="BH361">
+        <v>5</v>
+      </c>
+      <c r="BI361">
+        <v>7</v>
+      </c>
+      <c r="BJ361">
+        <v>12</v>
+      </c>
+      <c r="BK361">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:63">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>4554747</v>
+      </c>
+      <c r="C362" t="s">
+        <v>63</v>
+      </c>
+      <c r="D362" t="s">
+        <v>64</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45131.86458333334</v>
+      </c>
+      <c r="F362">
+        <v>26</v>
+      </c>
+      <c r="G362" t="s">
+        <v>75</v>
+      </c>
+      <c r="H362" t="s">
+        <v>80</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>2</v>
+      </c>
+      <c r="M362">
+        <v>1</v>
+      </c>
+      <c r="N362">
+        <v>3</v>
+      </c>
+      <c r="O362" t="s">
+        <v>294</v>
+      </c>
+      <c r="P362" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q362">
+        <v>2</v>
+      </c>
+      <c r="R362">
+        <v>1</v>
+      </c>
+      <c r="S362">
+        <v>3</v>
+      </c>
+      <c r="T362">
+        <v>2.75</v>
+      </c>
+      <c r="U362">
+        <v>1.91</v>
+      </c>
+      <c r="V362">
+        <v>5.5</v>
+      </c>
+      <c r="W362">
+        <v>1.62</v>
+      </c>
+      <c r="X362">
+        <v>2.2</v>
+      </c>
+      <c r="Y362">
+        <v>4</v>
+      </c>
+      <c r="Z362">
+        <v>1.22</v>
+      </c>
+      <c r="AA362">
+        <v>13</v>
+      </c>
+      <c r="AB362">
+        <v>1.04</v>
+      </c>
+      <c r="AC362">
+        <v>1.91</v>
+      </c>
+      <c r="AD362">
+        <v>3.1</v>
+      </c>
+      <c r="AE362">
+        <v>4.5</v>
+      </c>
+      <c r="AF362">
+        <v>1.08</v>
+      </c>
+      <c r="AG362">
+        <v>6.2</v>
+      </c>
+      <c r="AH362">
+        <v>1.55</v>
+      </c>
+      <c r="AI362">
+        <v>2.3</v>
+      </c>
+      <c r="AJ362">
+        <v>2.88</v>
+      </c>
+      <c r="AK362">
+        <v>1.4</v>
+      </c>
+      <c r="AL362">
+        <v>2.5</v>
+      </c>
+      <c r="AM362">
+        <v>1.5</v>
+      </c>
+      <c r="AN362">
+        <v>1.22</v>
+      </c>
+      <c r="AO362">
+        <v>1.3</v>
+      </c>
+      <c r="AP362">
+        <v>1.82</v>
+      </c>
+      <c r="AQ362">
+        <v>1.85</v>
+      </c>
+      <c r="AR362">
+        <v>0.85</v>
+      </c>
+      <c r="AS362">
+        <v>1.93</v>
+      </c>
+      <c r="AT362">
+        <v>0.79</v>
+      </c>
+      <c r="AU362">
+        <v>1.63</v>
+      </c>
+      <c r="AV362">
+        <v>1.37</v>
+      </c>
+      <c r="AW362">
+        <v>3</v>
+      </c>
+      <c r="AX362">
+        <v>1.75</v>
+      </c>
+      <c r="AY362">
+        <v>8</v>
+      </c>
+      <c r="AZ362">
+        <v>2.42</v>
+      </c>
+      <c r="BA362">
+        <v>1.44</v>
+      </c>
+      <c r="BB362">
+        <v>1.8</v>
+      </c>
+      <c r="BC362">
+        <v>2.33</v>
+      </c>
+      <c r="BD362">
+        <v>3.14</v>
+      </c>
+      <c r="BE362">
+        <v>4.55</v>
+      </c>
+      <c r="BF362">
+        <v>2</v>
+      </c>
+      <c r="BG362">
+        <v>5</v>
+      </c>
+      <c r="BH362">
+        <v>2</v>
+      </c>
+      <c r="BI362">
+        <v>0</v>
+      </c>
+      <c r="BJ362">
+        <v>4</v>
+      </c>
+      <c r="BK362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:63">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>4554742</v>
+      </c>
+      <c r="C363" t="s">
+        <v>63</v>
+      </c>
+      <c r="D363" t="s">
+        <v>64</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45132.64583333334</v>
+      </c>
+      <c r="F363">
+        <v>26</v>
+      </c>
+      <c r="G363" t="s">
+        <v>76</v>
+      </c>
+      <c r="H363" t="s">
+        <v>81</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+      <c r="O363" t="s">
+        <v>96</v>
+      </c>
+      <c r="P363" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q363">
+        <v>5</v>
+      </c>
+      <c r="R363">
+        <v>4</v>
+      </c>
+      <c r="S363">
+        <v>9</v>
+      </c>
+      <c r="T363">
+        <v>2.6</v>
+      </c>
+      <c r="U363">
+        <v>1.95</v>
+      </c>
+      <c r="V363">
+        <v>5.5</v>
+      </c>
+      <c r="W363">
+        <v>1.53</v>
+      </c>
+      <c r="X363">
+        <v>2.38</v>
+      </c>
+      <c r="Y363">
+        <v>3.75</v>
+      </c>
+      <c r="Z363">
+        <v>1.25</v>
+      </c>
+      <c r="AA363">
+        <v>11</v>
+      </c>
+      <c r="AB363">
+        <v>1.05</v>
+      </c>
+      <c r="AC363">
+        <v>1.85</v>
+      </c>
+      <c r="AD363">
+        <v>3</v>
+      </c>
+      <c r="AE363">
+        <v>4.2</v>
+      </c>
+      <c r="AF363">
+        <v>1.09</v>
+      </c>
+      <c r="AG363">
+        <v>6.5</v>
+      </c>
+      <c r="AH363">
+        <v>1.5</v>
+      </c>
+      <c r="AI363">
+        <v>2.45</v>
+      </c>
+      <c r="AJ363">
+        <v>2.45</v>
+      </c>
+      <c r="AK363">
+        <v>1.5</v>
+      </c>
+      <c r="AL363">
+        <v>2.2</v>
+      </c>
+      <c r="AM363">
+        <v>1.62</v>
+      </c>
+      <c r="AN363">
+        <v>1.23</v>
+      </c>
+      <c r="AO363">
+        <v>1.33</v>
+      </c>
+      <c r="AP363">
+        <v>1.8</v>
+      </c>
+      <c r="AQ363">
+        <v>1.54</v>
+      </c>
+      <c r="AR363">
+        <v>0.38</v>
+      </c>
+      <c r="AS363">
+        <v>1.5</v>
+      </c>
+      <c r="AT363">
+        <v>0.43</v>
+      </c>
+      <c r="AU363">
+        <v>1.13</v>
+      </c>
+      <c r="AV363">
+        <v>1.08</v>
+      </c>
+      <c r="AW363">
+        <v>2.21</v>
+      </c>
+      <c r="AX363">
+        <v>1.74</v>
+      </c>
+      <c r="AY363">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ363">
+        <v>2.52</v>
+      </c>
+      <c r="BA363">
+        <v>1.3</v>
+      </c>
+      <c r="BB363">
+        <v>1.57</v>
+      </c>
+      <c r="BC363">
+        <v>2</v>
+      </c>
+      <c r="BD363">
+        <v>2.58</v>
+      </c>
+      <c r="BE363">
+        <v>3.48</v>
+      </c>
+      <c r="BF363">
+        <v>6</v>
+      </c>
+      <c r="BG363">
+        <v>8</v>
+      </c>
+      <c r="BH363">
+        <v>2</v>
+      </c>
+      <c r="BI363">
+        <v>5</v>
+      </c>
+      <c r="BJ363">
+        <v>8</v>
+      </c>
+      <c r="BK363">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:63">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>4554741</v>
+      </c>
+      <c r="C364" t="s">
+        <v>63</v>
+      </c>
+      <c r="D364" t="s">
+        <v>64</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45132.75</v>
+      </c>
+      <c r="F364">
+        <v>26</v>
+      </c>
+      <c r="G364" t="s">
+        <v>73</v>
+      </c>
+      <c r="H364" t="s">
+        <v>79</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>1</v>
+      </c>
+      <c r="K364">
+        <v>1</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>3</v>
+      </c>
+      <c r="N364">
+        <v>4</v>
+      </c>
+      <c r="O364" t="s">
+        <v>109</v>
+      </c>
+      <c r="P364" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q364">
+        <v>3</v>
+      </c>
+      <c r="R364">
+        <v>5</v>
+      </c>
+      <c r="S364">
+        <v>8</v>
+      </c>
+      <c r="T364">
+        <v>3.1</v>
+      </c>
+      <c r="U364">
+        <v>2.05</v>
+      </c>
+      <c r="V364">
+        <v>3.6</v>
+      </c>
+      <c r="W364">
+        <v>1.44</v>
+      </c>
+      <c r="X364">
+        <v>2.63</v>
+      </c>
+      <c r="Y364">
+        <v>3.25</v>
+      </c>
+      <c r="Z364">
+        <v>1.33</v>
+      </c>
+      <c r="AA364">
+        <v>10</v>
+      </c>
+      <c r="AB364">
+        <v>1.06</v>
+      </c>
+      <c r="AC364">
+        <v>2.35</v>
+      </c>
+      <c r="AD364">
+        <v>3</v>
+      </c>
+      <c r="AE364">
+        <v>2.8</v>
+      </c>
+      <c r="AF364">
+        <v>1.07</v>
+      </c>
+      <c r="AG364">
+        <v>7.75</v>
+      </c>
+      <c r="AH364">
+        <v>1.36</v>
+      </c>
+      <c r="AI364">
+        <v>2.87</v>
+      </c>
+      <c r="AJ364">
+        <v>2.1</v>
+      </c>
+      <c r="AK364">
+        <v>1.67</v>
+      </c>
+      <c r="AL364">
+        <v>1.91</v>
+      </c>
+      <c r="AM364">
+        <v>1.91</v>
+      </c>
+      <c r="AN364">
+        <v>1.38</v>
+      </c>
+      <c r="AO364">
+        <v>1.32</v>
+      </c>
+      <c r="AP364">
+        <v>1.55</v>
+      </c>
+      <c r="AQ364">
+        <v>1.23</v>
+      </c>
+      <c r="AR364">
+        <v>1</v>
+      </c>
+      <c r="AS364">
+        <v>1.14</v>
+      </c>
+      <c r="AT364">
+        <v>1.14</v>
+      </c>
+      <c r="AU364">
+        <v>1.49</v>
+      </c>
+      <c r="AV364">
+        <v>1.46</v>
+      </c>
+      <c r="AW364">
+        <v>2.95</v>
+      </c>
+      <c r="AX364">
+        <v>1.95</v>
+      </c>
+      <c r="AY364">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ364">
+        <v>2.15</v>
+      </c>
+      <c r="BA364">
+        <v>1.29</v>
+      </c>
+      <c r="BB364">
+        <v>1.56</v>
+      </c>
+      <c r="BC364">
+        <v>1.97</v>
+      </c>
+      <c r="BD364">
+        <v>2.58</v>
+      </c>
+      <c r="BE364">
+        <v>3.48</v>
+      </c>
+      <c r="BF364">
+        <v>6</v>
+      </c>
+      <c r="BG364">
+        <v>8</v>
+      </c>
+      <c r="BH364">
+        <v>4</v>
+      </c>
+      <c r="BI364">
+        <v>7</v>
+      </c>
+      <c r="BJ364">
+        <v>10</v>
+      </c>
+      <c r="BK364">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:63">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>5019533</v>
+      </c>
+      <c r="C365" t="s">
+        <v>63</v>
+      </c>
+      <c r="D365" t="s">
+        <v>64</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45132.85416666666</v>
+      </c>
+      <c r="F365">
+        <v>26</v>
+      </c>
+      <c r="G365" t="s">
+        <v>72</v>
+      </c>
+      <c r="H365" t="s">
+        <v>84</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>2</v>
+      </c>
+      <c r="L365">
+        <v>2</v>
+      </c>
+      <c r="M365">
+        <v>1</v>
+      </c>
+      <c r="N365">
+        <v>3</v>
+      </c>
+      <c r="O365" t="s">
+        <v>295</v>
+      </c>
+      <c r="P365" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q365">
+        <v>4</v>
+      </c>
+      <c r="R365">
+        <v>3</v>
+      </c>
+      <c r="S365">
+        <v>7</v>
+      </c>
+      <c r="T365">
+        <v>3.5</v>
+      </c>
+      <c r="U365">
+        <v>1.91</v>
+      </c>
+      <c r="V365">
+        <v>3.75</v>
+      </c>
+      <c r="W365">
+        <v>1.57</v>
+      </c>
+      <c r="X365">
+        <v>2.25</v>
+      </c>
+      <c r="Y365">
+        <v>3.75</v>
+      </c>
+      <c r="Z365">
+        <v>1.25</v>
+      </c>
+      <c r="AA365">
+        <v>13</v>
+      </c>
+      <c r="AB365">
+        <v>1.04</v>
+      </c>
+      <c r="AC365">
+        <v>2.77</v>
+      </c>
+      <c r="AD365">
+        <v>2.8</v>
+      </c>
+      <c r="AE365">
+        <v>2.9</v>
+      </c>
+      <c r="AF365">
+        <v>1.1</v>
+      </c>
+      <c r="AG365">
+        <v>6.39</v>
+      </c>
+      <c r="AH365">
+        <v>1.52</v>
+      </c>
+      <c r="AI365">
+        <v>2.35</v>
+      </c>
+      <c r="AJ365">
+        <v>2.59</v>
+      </c>
+      <c r="AK365">
+        <v>1.42</v>
+      </c>
+      <c r="AL365">
+        <v>2.1</v>
+      </c>
+      <c r="AM365">
+        <v>1.67</v>
+      </c>
+      <c r="AN365">
+        <v>1.44</v>
+      </c>
+      <c r="AO365">
+        <v>1.33</v>
+      </c>
+      <c r="AP365">
+        <v>1.47</v>
+      </c>
+      <c r="AQ365">
+        <v>1.38</v>
+      </c>
+      <c r="AR365">
+        <v>1.23</v>
+      </c>
+      <c r="AS365">
+        <v>1.5</v>
+      </c>
+      <c r="AT365">
+        <v>1.14</v>
+      </c>
+      <c r="AU365">
+        <v>1.54</v>
+      </c>
+      <c r="AV365">
+        <v>1.35</v>
+      </c>
+      <c r="AW365">
+        <v>2.89</v>
+      </c>
+      <c r="AX365">
+        <v>1.78</v>
+      </c>
+      <c r="AY365">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ365">
+        <v>2.45</v>
+      </c>
+      <c r="BA365">
+        <v>1.33</v>
+      </c>
+      <c r="BB365">
+        <v>1.64</v>
+      </c>
+      <c r="BC365">
+        <v>2.11</v>
+      </c>
+      <c r="BD365">
+        <v>2.76</v>
+      </c>
+      <c r="BE365">
+        <v>3.84</v>
+      </c>
+      <c r="BF365">
+        <v>6</v>
+      </c>
+      <c r="BG365">
+        <v>5</v>
+      </c>
+      <c r="BH365">
+        <v>3</v>
+      </c>
+      <c r="BI365">
+        <v>4</v>
+      </c>
+      <c r="BJ365">
+        <v>9</v>
+      </c>
+      <c r="BK365">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -904,6 +904,27 @@
     <t>['29', '90+4']</t>
   </si>
   <si>
+    <t>['74', '90+2']</t>
+  </si>
+  <si>
+    <t>['69', '88']</t>
+  </si>
+  <si>
+    <t>['23', '71']</t>
+  </si>
+  <si>
+    <t>['45', '90+1']</t>
+  </si>
+  <si>
+    <t>['36', '90+6']</t>
+  </si>
+  <si>
+    <t>['40', '60']</t>
+  </si>
+  <si>
+    <t>['28', '31', '35', '71']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1199,6 +1220,18 @@
   </si>
   <si>
     <t>['37', '65', '82']</t>
+  </si>
+  <si>
+    <t>['26', '54', '58']</t>
+  </si>
+  <si>
+    <t>['78', '84']</t>
+  </si>
+  <si>
+    <t>['72', '77']</t>
+  </si>
+  <si>
+    <t>['11', '74']</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK365"/>
+  <dimension ref="A1:BK379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1995,7 +2028,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2568,7 +2601,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2759,7 +2792,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2846,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT7">
         <v>1.79</v>
@@ -2950,7 +2983,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3332,7 +3365,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3804,7 +3837,7 @@
         <v>1.93</v>
       </c>
       <c r="AT12">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4096,7 +4129,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4478,7 +4511,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4565,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4756,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4947,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5051,7 +5084,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5138,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT19">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5242,7 +5275,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5329,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT20">
         <v>1.79</v>
@@ -5520,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT21">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5711,10 +5744,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5815,7 +5848,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5902,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT23">
         <v>0.92</v>
@@ -6284,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT25">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6388,7 +6421,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6478,7 +6511,7 @@
         <v>1.69</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6579,7 +6612,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6666,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT27">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6770,7 +6803,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6857,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6961,7 +6994,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7048,10 +7081,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT29">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7152,7 +7185,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7430,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -7916,7 +7949,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8006,7 +8039,7 @@
         <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU34">
         <v>1.36</v>
@@ -8107,7 +8140,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8197,7 +8230,7 @@
         <v>1.79</v>
       </c>
       <c r="AT35">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -8958,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT39">
         <v>1.14</v>
@@ -9253,7 +9286,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9635,7 +9668,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9913,10 +9946,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT44">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU44">
         <v>1.83</v>
@@ -10017,7 +10050,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10104,10 +10137,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT45">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -10295,10 +10328,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
+        <v>1.23</v>
+      </c>
+      <c r="AT46">
         <v>1.08</v>
-      </c>
-      <c r="AT46">
-        <v>1.17</v>
       </c>
       <c r="AU46">
         <v>2.16</v>
@@ -10486,10 +10519,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10590,7 +10623,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10677,7 +10710,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT48">
         <v>1.79</v>
@@ -10868,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -11059,10 +11092,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU50">
         <v>1.84</v>
@@ -11250,10 +11283,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT51">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU51">
         <v>0.67</v>
@@ -11441,10 +11474,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52">
         <v>1.84</v>
@@ -11736,7 +11769,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11823,10 +11856,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU54">
         <v>1.63</v>
@@ -12205,10 +12238,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT56">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -12309,7 +12342,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12399,7 +12432,7 @@
         <v>1.69</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU57">
         <v>1.13</v>
@@ -12500,7 +12533,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12587,7 +12620,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT58">
         <v>1.14</v>
@@ -13264,7 +13297,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13354,7 +13387,7 @@
         <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU62">
         <v>1.14</v>
@@ -13455,7 +13488,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13545,7 +13578,7 @@
         <v>1.29</v>
       </c>
       <c r="AT63">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13736,7 +13769,7 @@
         <v>1.86</v>
       </c>
       <c r="AT64">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU64">
         <v>1.26</v>
@@ -14028,7 +14061,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14115,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT66">
         <v>0.43</v>
@@ -14410,7 +14443,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15070,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT71">
         <v>1.14</v>
@@ -15261,10 +15294,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU72">
         <v>1.44</v>
@@ -15365,7 +15398,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15452,10 +15485,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT73">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15834,10 +15867,10 @@
         <v>0.5</v>
       </c>
       <c r="AS75">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15938,7 +15971,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16025,7 +16058,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT76">
         <v>1.79</v>
@@ -16219,7 +16252,7 @@
         <v>1.69</v>
       </c>
       <c r="AT77">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU77">
         <v>1.19</v>
@@ -16407,10 +16440,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>0.82</v>
@@ -16598,10 +16631,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16702,7 +16735,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16789,10 +16822,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT80">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.91</v>
@@ -16980,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT81">
         <v>1.14</v>
@@ -17084,7 +17117,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17174,7 +17207,7 @@
         <v>1.79</v>
       </c>
       <c r="AT82">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU82">
         <v>1.61</v>
@@ -17362,10 +17395,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT83">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -17466,7 +17499,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17553,7 +17586,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17747,7 +17780,7 @@
         <v>1.93</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17848,7 +17881,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18126,7 +18159,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT87">
         <v>0.43</v>
@@ -18320,7 +18353,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18612,7 +18645,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18702,7 +18735,7 @@
         <v>1.86</v>
       </c>
       <c r="AT90">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18890,7 +18923,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT91">
         <v>1.14</v>
@@ -19081,7 +19114,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT92">
         <v>1.14</v>
@@ -19463,7 +19496,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT94">
         <v>0.93</v>
@@ -19567,7 +19600,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19848,7 +19881,7 @@
         <v>1.43</v>
       </c>
       <c r="AT96">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU96">
         <v>2.03</v>
@@ -20140,7 +20173,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20522,7 +20555,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20609,10 +20642,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20800,7 +20833,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
         <v>1.14</v>
@@ -20904,7 +20937,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20991,10 +21024,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT102">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -21185,7 +21218,7 @@
         <v>1.57</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -21286,7 +21319,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21376,7 +21409,7 @@
         <v>1.69</v>
       </c>
       <c r="AT104">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU104">
         <v>1.17</v>
@@ -21564,7 +21597,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21668,7 +21701,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21755,10 +21788,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT106">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21859,7 +21892,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21949,7 +21982,7 @@
         <v>1.93</v>
       </c>
       <c r="AT107">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU107">
         <v>1.64</v>
@@ -22140,7 +22173,7 @@
         <v>1.79</v>
       </c>
       <c r="AT108">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU108">
         <v>1.46</v>
@@ -22241,7 +22274,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22328,7 +22361,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT109">
         <v>1.79</v>
@@ -22519,10 +22552,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT110">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -22710,7 +22743,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT111">
         <v>1.14</v>
@@ -22814,7 +22847,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22901,10 +22934,10 @@
         <v>0.33</v>
       </c>
       <c r="AS112">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT112">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU112">
         <v>1.67</v>
@@ -23286,7 +23319,7 @@
         <v>1.86</v>
       </c>
       <c r="AT114">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23474,7 +23507,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT115">
         <v>0.93</v>
@@ -24047,7 +24080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT118">
         <v>0.93</v>
@@ -24151,7 +24184,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24241,7 +24274,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU119">
         <v>0.89</v>
@@ -24533,7 +24566,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24811,7 +24844,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT122">
         <v>1.14</v>
@@ -24915,7 +24948,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25005,7 +25038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -25196,7 +25229,7 @@
         <v>1.14</v>
       </c>
       <c r="AT124">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU124">
         <v>1.76</v>
@@ -25297,7 +25330,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25575,7 +25608,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT126">
         <v>0.93</v>
@@ -25766,7 +25799,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT127">
         <v>0.43</v>
@@ -25960,7 +25993,7 @@
         <v>1.57</v>
       </c>
       <c r="AT128">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU128">
         <v>1.47</v>
@@ -26148,7 +26181,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT129">
         <v>0.43</v>
@@ -26252,7 +26285,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26342,7 +26375,7 @@
         <v>1.29</v>
       </c>
       <c r="AT130">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU130">
         <v>1.37</v>
@@ -26533,7 +26566,7 @@
         <v>1.79</v>
       </c>
       <c r="AT131">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26721,7 +26754,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT132">
         <v>1.14</v>
@@ -26825,7 +26858,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26912,10 +26945,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT133">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.55</v>
@@ -27016,7 +27049,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27103,7 +27136,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -27207,7 +27240,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27297,7 +27330,7 @@
         <v>1.69</v>
       </c>
       <c r="AT135">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU135">
         <v>1.38</v>
@@ -27398,7 +27431,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27589,7 +27622,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27676,10 +27709,10 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27780,7 +27813,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27867,7 +27900,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT138">
         <v>1.14</v>
@@ -28058,10 +28091,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT139">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU139">
         <v>1.19</v>
@@ -28162,7 +28195,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28249,7 +28282,7 @@
         <v>2.4</v>
       </c>
       <c r="AS140">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT140">
         <v>1.79</v>
@@ -28353,7 +28386,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28443,7 +28476,7 @@
         <v>1.93</v>
       </c>
       <c r="AT141">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU141">
         <v>1.67</v>
@@ -28735,7 +28768,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28822,7 +28855,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT143">
         <v>0.93</v>
@@ -29016,7 +29049,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29117,7 +29150,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29207,7 +29240,7 @@
         <v>1.43</v>
       </c>
       <c r="AT145">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU145">
         <v>1.78</v>
@@ -29395,7 +29428,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT146">
         <v>1.14</v>
@@ -29589,7 +29622,7 @@
         <v>2.07</v>
       </c>
       <c r="AT147">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU147">
         <v>1.55</v>
@@ -29777,7 +29810,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT148">
         <v>0.64</v>
@@ -30162,7 +30195,7 @@
         <v>1.86</v>
       </c>
       <c r="AT150">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU150">
         <v>1.74</v>
@@ -30454,7 +30487,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30541,7 +30574,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT152">
         <v>0.93</v>
@@ -30645,7 +30678,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30735,7 +30768,7 @@
         <v>1.14</v>
       </c>
       <c r="AT153">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU153">
         <v>1.75</v>
@@ -30923,7 +30956,7 @@
         <v>0.2</v>
       </c>
       <c r="AS154">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT154">
         <v>0.71</v>
@@ -31114,7 +31147,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT155">
         <v>0.93</v>
@@ -31308,7 +31341,7 @@
         <v>1.86</v>
       </c>
       <c r="AT156">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31499,7 +31532,7 @@
         <v>1.93</v>
       </c>
       <c r="AT157">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31687,7 +31720,7 @@
         <v>0.67</v>
       </c>
       <c r="AS158">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
         <v>1.14</v>
@@ -31791,7 +31824,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31878,7 +31911,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -32069,7 +32102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT160">
         <v>1.14</v>
@@ -32263,7 +32296,7 @@
         <v>1.29</v>
       </c>
       <c r="AT161">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32451,10 +32484,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT162">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32642,7 +32675,7 @@
         <v>2.5</v>
       </c>
       <c r="AS163">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT163">
         <v>1.79</v>
@@ -32836,7 +32869,7 @@
         <v>1.79</v>
       </c>
       <c r="AT164">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU164">
         <v>1.53</v>
@@ -33027,7 +33060,7 @@
         <v>1.57</v>
       </c>
       <c r="AT165">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33406,7 +33439,7 @@
         <v>0.67</v>
       </c>
       <c r="AS167">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT167">
         <v>0.43</v>
@@ -33510,7 +33543,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33600,7 +33633,7 @@
         <v>1.69</v>
       </c>
       <c r="AT168">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU168">
         <v>1.48</v>
@@ -33701,7 +33734,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33788,7 +33821,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT169">
         <v>1.14</v>
@@ -33892,7 +33925,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33982,7 +34015,7 @@
         <v>1.14</v>
       </c>
       <c r="AT170">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU170">
         <v>1.69</v>
@@ -34170,7 +34203,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT171">
         <v>0.93</v>
@@ -34274,7 +34307,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34361,7 +34394,7 @@
         <v>0.5</v>
       </c>
       <c r="AS172">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT172">
         <v>0.93</v>
@@ -34552,7 +34585,7 @@
         <v>0.83</v>
       </c>
       <c r="AS173">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT173">
         <v>0.79</v>
@@ -34656,7 +34689,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34743,7 +34776,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT174">
         <v>0.93</v>
@@ -35038,7 +35071,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35128,7 +35161,7 @@
         <v>2.29</v>
       </c>
       <c r="AT176">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU176">
         <v>1.54</v>
@@ -35319,7 +35352,7 @@
         <v>1.5</v>
       </c>
       <c r="AT177">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35510,7 +35543,7 @@
         <v>1.86</v>
       </c>
       <c r="AT178">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU178">
         <v>1.61</v>
@@ -35698,7 +35731,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT179">
         <v>0.86</v>
@@ -35802,7 +35835,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35892,7 +35925,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU180">
         <v>0.85</v>
@@ -35993,7 +36026,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36083,7 +36116,7 @@
         <v>1.64</v>
       </c>
       <c r="AT181">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU181">
         <v>1.71</v>
@@ -36184,7 +36217,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36271,7 +36304,7 @@
         <v>0.17</v>
       </c>
       <c r="AS182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT182">
         <v>0.71</v>
@@ -36462,7 +36495,7 @@
         <v>0.83</v>
       </c>
       <c r="AS183">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT183">
         <v>0.64</v>
@@ -36566,7 +36599,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36656,7 +36689,7 @@
         <v>1.57</v>
       </c>
       <c r="AT184">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU184">
         <v>1.54</v>
@@ -36844,7 +36877,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT185">
         <v>0.93</v>
@@ -37035,7 +37068,7 @@
         <v>0.71</v>
       </c>
       <c r="AS186">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT186">
         <v>1.14</v>
@@ -37226,7 +37259,7 @@
         <v>0.57</v>
       </c>
       <c r="AS187">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT187">
         <v>0.43</v>
@@ -37611,7 +37644,7 @@
         <v>1.29</v>
       </c>
       <c r="AT189">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU189">
         <v>1.28</v>
@@ -37799,7 +37832,7 @@
         <v>1.29</v>
       </c>
       <c r="AS190">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT190">
         <v>1.14</v>
@@ -37993,7 +38026,7 @@
         <v>1.43</v>
       </c>
       <c r="AT191">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU191">
         <v>1.6</v>
@@ -38094,7 +38127,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38375,7 +38408,7 @@
         <v>1.93</v>
       </c>
       <c r="AT193">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU193">
         <v>1.62</v>
@@ -38566,7 +38599,7 @@
         <v>1.86</v>
       </c>
       <c r="AT194">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU194">
         <v>1.4</v>
@@ -38754,7 +38787,7 @@
         <v>1.86</v>
       </c>
       <c r="AS195">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT195">
         <v>1</v>
@@ -38948,7 +38981,7 @@
         <v>1.79</v>
       </c>
       <c r="AT196">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU196">
         <v>1.52</v>
@@ -39139,7 +39172,7 @@
         <v>1.5</v>
       </c>
       <c r="AT197">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU197">
         <v>0.86</v>
@@ -39327,7 +39360,7 @@
         <v>0.43</v>
       </c>
       <c r="AS198">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT198">
         <v>0.93</v>
@@ -39518,7 +39551,7 @@
         <v>0.71</v>
       </c>
       <c r="AS199">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT199">
         <v>0.64</v>
@@ -39712,7 +39745,7 @@
         <v>1.14</v>
       </c>
       <c r="AT200">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU200">
         <v>1.64</v>
@@ -39900,10 +39933,10 @@
         <v>1</v>
       </c>
       <c r="AS201">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT201">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU201">
         <v>1.17</v>
@@ -40004,7 +40037,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40091,7 +40124,7 @@
         <v>1</v>
       </c>
       <c r="AS202">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT202">
         <v>0.86</v>
@@ -40473,10 +40506,10 @@
         <v>1.17</v>
       </c>
       <c r="AS204">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT204">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU204">
         <v>1.86</v>
@@ -40667,7 +40700,7 @@
         <v>1.86</v>
       </c>
       <c r="AT205">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU205">
         <v>1.52</v>
@@ -40768,7 +40801,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40855,7 +40888,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT206">
         <v>0.79</v>
@@ -41046,7 +41079,7 @@
         <v>0.57</v>
       </c>
       <c r="AS207">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT207">
         <v>0.71</v>
@@ -41240,7 +41273,7 @@
         <v>2.07</v>
       </c>
       <c r="AT208">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU208">
         <v>1.4</v>
@@ -41341,7 +41374,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41431,7 +41464,7 @@
         <v>1.64</v>
       </c>
       <c r="AT209">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU209">
         <v>1.72</v>
@@ -41619,7 +41652,7 @@
         <v>0.86</v>
       </c>
       <c r="AS210">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT210">
         <v>0.93</v>
@@ -41810,7 +41843,7 @@
         <v>1.25</v>
       </c>
       <c r="AS211">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT211">
         <v>0.93</v>
@@ -41914,7 +41947,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42105,7 +42138,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42192,7 +42225,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT213">
         <v>1.14</v>
@@ -42296,7 +42329,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42386,7 +42419,7 @@
         <v>1.43</v>
       </c>
       <c r="AT214">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42574,7 +42607,7 @@
         <v>0.5</v>
       </c>
       <c r="AS215">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT215">
         <v>0.43</v>
@@ -42768,7 +42801,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU216">
         <v>1.49</v>
@@ -42959,7 +42992,7 @@
         <v>1.86</v>
       </c>
       <c r="AT217">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU217">
         <v>1.48</v>
@@ -43150,7 +43183,7 @@
         <v>1.57</v>
       </c>
       <c r="AT218">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU218">
         <v>1.48</v>
@@ -43442,7 +43475,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43633,7 +43666,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43720,7 +43753,7 @@
         <v>1.13</v>
       </c>
       <c r="AS221">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT221">
         <v>0.93</v>
@@ -43824,7 +43857,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44102,7 +44135,7 @@
         <v>1.29</v>
       </c>
       <c r="AS223">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
         <v>1.14</v>
@@ -44296,7 +44329,7 @@
         <v>1.29</v>
       </c>
       <c r="AT224">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU224">
         <v>1.26</v>
@@ -44484,7 +44517,7 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT225">
         <v>0.86</v>
@@ -44675,7 +44708,7 @@
         <v>0.88</v>
       </c>
       <c r="AS226">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT226">
         <v>0.71</v>
@@ -44869,7 +44902,7 @@
         <v>2.29</v>
       </c>
       <c r="AT227">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU227">
         <v>1.49</v>
@@ -45060,7 +45093,7 @@
         <v>1.86</v>
       </c>
       <c r="AT228">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU228">
         <v>1.56</v>
@@ -45248,7 +45281,7 @@
         <v>0.5</v>
       </c>
       <c r="AS229">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT229">
         <v>0.93</v>
@@ -45439,10 +45472,10 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT230">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU230">
         <v>1.95</v>
@@ -45633,7 +45666,7 @@
         <v>2.07</v>
       </c>
       <c r="AT231">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU231">
         <v>1.41</v>
@@ -45821,7 +45854,7 @@
         <v>0.75</v>
       </c>
       <c r="AS232">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT232">
         <v>0.79</v>
@@ -46012,10 +46045,10 @@
         <v>0.88</v>
       </c>
       <c r="AS233">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT233">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU233">
         <v>1.58</v>
@@ -46203,10 +46236,10 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT234">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU234">
         <v>1.19</v>
@@ -46394,7 +46427,7 @@
         <v>0.63</v>
       </c>
       <c r="AS235">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT235">
         <v>0.64</v>
@@ -46588,7 +46621,7 @@
         <v>1.14</v>
       </c>
       <c r="AT236">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU236">
         <v>1.63</v>
@@ -46776,7 +46809,7 @@
         <v>1</v>
       </c>
       <c r="AS237">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT237">
         <v>0.92</v>
@@ -47158,7 +47191,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT239">
         <v>0.93</v>
@@ -47540,7 +47573,7 @@
         <v>1.13</v>
       </c>
       <c r="AS241">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT241">
         <v>1.14</v>
@@ -47734,7 +47767,7 @@
         <v>1.5</v>
       </c>
       <c r="AT242">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU242">
         <v>1.12</v>
@@ -47925,7 +47958,7 @@
         <v>1.86</v>
       </c>
       <c r="AT243">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU243">
         <v>1.42</v>
@@ -48495,7 +48528,7 @@
         <v>1.22</v>
       </c>
       <c r="AS246">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT246">
         <v>0.93</v>
@@ -48599,7 +48632,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48877,7 +48910,7 @@
         <v>0.78</v>
       </c>
       <c r="AS248">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT248">
         <v>0.93</v>
@@ -49071,7 +49104,7 @@
         <v>1.43</v>
       </c>
       <c r="AT249">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU249">
         <v>1.47</v>
@@ -49262,7 +49295,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU250">
         <v>1.55</v>
@@ -49363,7 +49396,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49641,7 +49674,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT252">
         <v>0.79</v>
@@ -49832,10 +49865,10 @@
         <v>1.25</v>
       </c>
       <c r="AS253">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT253">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU253">
         <v>1.15</v>
@@ -49936,7 +49969,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50026,7 +50059,7 @@
         <v>1.86</v>
       </c>
       <c r="AT254">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU254">
         <v>1.5</v>
@@ -50214,7 +50247,7 @@
         <v>0.88</v>
       </c>
       <c r="AS255">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT255">
         <v>0.92</v>
@@ -50318,7 +50351,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50405,10 +50438,10 @@
         <v>1.88</v>
       </c>
       <c r="AS256">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT256">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU256">
         <v>1.66</v>
@@ -50596,10 +50629,10 @@
         <v>0.71</v>
       </c>
       <c r="AS257">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT257">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU257">
         <v>1.23</v>
@@ -50700,7 +50733,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -50790,7 +50823,7 @@
         <v>2.29</v>
       </c>
       <c r="AT258">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU258">
         <v>1.61</v>
@@ -50978,7 +51011,7 @@
         <v>0.67</v>
       </c>
       <c r="AS259">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT259">
         <v>0.64</v>
@@ -51172,7 +51205,7 @@
         <v>1.64</v>
       </c>
       <c r="AT260">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU260">
         <v>1.77</v>
@@ -51360,7 +51393,7 @@
         <v>0.78</v>
       </c>
       <c r="AS261">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT261">
         <v>0.71</v>
@@ -51554,7 +51587,7 @@
         <v>2.07</v>
       </c>
       <c r="AT262">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU262">
         <v>1.4</v>
@@ -51742,7 +51775,7 @@
         <v>0.89</v>
       </c>
       <c r="AS263">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT263">
         <v>0.86</v>
@@ -51933,10 +51966,10 @@
         <v>0.89</v>
       </c>
       <c r="AS264">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT264">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU264">
         <v>1.31</v>
@@ -52127,7 +52160,7 @@
         <v>1.5</v>
       </c>
       <c r="AT265">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU265">
         <v>1.15</v>
@@ -52315,7 +52348,7 @@
         <v>1.3</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT266">
         <v>0.93</v>
@@ -53079,7 +53112,7 @@
         <v>1</v>
       </c>
       <c r="AS270">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT270">
         <v>0.93</v>
@@ -53374,7 +53407,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53756,7 +53789,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53846,7 +53879,7 @@
         <v>1.5</v>
       </c>
       <c r="AT274">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU274">
         <v>1.56</v>
@@ -54037,7 +54070,7 @@
         <v>1.14</v>
       </c>
       <c r="AT275">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU275">
         <v>1.6</v>
@@ -54416,7 +54449,7 @@
         <v>0.6</v>
       </c>
       <c r="AS277">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT277">
         <v>0.64</v>
@@ -54520,7 +54553,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54798,7 +54831,7 @@
         <v>1.1</v>
       </c>
       <c r="AS279">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT279">
         <v>1.14</v>
@@ -54992,7 +55025,7 @@
         <v>1.64</v>
       </c>
       <c r="AT280">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU280">
         <v>1.71</v>
@@ -55180,10 +55213,10 @@
         <v>1.75</v>
       </c>
       <c r="AS281">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT281">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU281">
         <v>1.88</v>
@@ -55374,7 +55407,7 @@
         <v>1.86</v>
       </c>
       <c r="AT282">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU282">
         <v>1.52</v>
@@ -55562,7 +55595,7 @@
         <v>0.7</v>
       </c>
       <c r="AS283">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT283">
         <v>0.71</v>
@@ -55666,7 +55699,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55753,10 +55786,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS284">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT284">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU284">
         <v>1.68</v>
@@ -55947,7 +55980,7 @@
         <v>1.64</v>
       </c>
       <c r="AT285">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU285">
         <v>1.66</v>
@@ -56048,7 +56081,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56135,10 +56168,10 @@
         <v>0.78</v>
       </c>
       <c r="AS286">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT286">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU286">
         <v>1.73</v>
@@ -56326,10 +56359,10 @@
         <v>1.11</v>
       </c>
       <c r="AS287">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT287">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56517,7 +56550,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT288">
         <v>0.79</v>
@@ -56708,10 +56741,10 @@
         <v>1.56</v>
       </c>
       <c r="AS289">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT289">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU289">
         <v>1.93</v>
@@ -56899,7 +56932,7 @@
         <v>0.8</v>
       </c>
       <c r="AS290">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT290">
         <v>0.86</v>
@@ -57003,7 +57036,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57090,10 +57123,10 @@
         <v>2</v>
       </c>
       <c r="AS291">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT291">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU291">
         <v>1.43</v>
@@ -57194,7 +57227,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57281,7 +57314,7 @@
         <v>0.78</v>
       </c>
       <c r="AS292">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT292">
         <v>0.92</v>
@@ -57385,7 +57418,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57475,7 +57508,7 @@
         <v>2.29</v>
       </c>
       <c r="AT293">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU293">
         <v>1.67</v>
@@ -57663,10 +57696,10 @@
         <v>0.8</v>
       </c>
       <c r="AS294">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT294">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU294">
         <v>1.58</v>
@@ -57854,10 +57887,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS295">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT295">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU295">
         <v>1.25</v>
@@ -57958,7 +57991,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58531,7 +58564,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58812,7 +58845,7 @@
         <v>2.07</v>
       </c>
       <c r="AT300">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU300">
         <v>1.44</v>
@@ -59104,7 +59137,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59382,7 +59415,7 @@
         <v>0.55</v>
       </c>
       <c r="AS303">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT303">
         <v>0.64</v>
@@ -59486,7 +59519,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59576,7 +59609,7 @@
         <v>1.14</v>
       </c>
       <c r="AT304">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU304">
         <v>1.55</v>
@@ -60441,7 +60474,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60528,7 +60561,7 @@
         <v>0.73</v>
       </c>
       <c r="AS309">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT309">
         <v>0.71</v>
@@ -60719,10 +60752,10 @@
         <v>0.5</v>
       </c>
       <c r="AS310">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT310">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU310">
         <v>1.43</v>
@@ -60910,7 +60943,7 @@
         <v>1</v>
       </c>
       <c r="AS311">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT311">
         <v>0.92</v>
@@ -61014,7 +61047,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61101,10 +61134,10 @@
         <v>0.5</v>
       </c>
       <c r="AS312">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT312">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU312">
         <v>1.69</v>
@@ -61295,7 +61328,7 @@
         <v>2.29</v>
       </c>
       <c r="AT313">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU313">
         <v>1.67</v>
@@ -61486,7 +61519,7 @@
         <v>1.64</v>
       </c>
       <c r="AT314">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU314">
         <v>1.64</v>
@@ -61674,10 +61707,10 @@
         <v>0.9</v>
       </c>
       <c r="AS315">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT315">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU315">
         <v>1.81</v>
@@ -61778,7 +61811,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -61865,10 +61898,10 @@
         <v>1.4</v>
       </c>
       <c r="AS316">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT316">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU316">
         <v>1.1</v>
@@ -62056,10 +62089,10 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT317">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU317">
         <v>1.59</v>
@@ -62160,7 +62193,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62247,10 +62280,10 @@
         <v>1.8</v>
       </c>
       <c r="AS318">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT318">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU318">
         <v>1.59</v>
@@ -62438,10 +62471,10 @@
         <v>0.7</v>
       </c>
       <c r="AS319">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT319">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU319">
         <v>1.87</v>
@@ -62629,10 +62662,10 @@
         <v>0.73</v>
       </c>
       <c r="AS320">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT320">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU320">
         <v>1.49</v>
@@ -62733,7 +62766,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -62820,10 +62853,10 @@
         <v>0.8</v>
       </c>
       <c r="AS321">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT321">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU321">
         <v>1.25</v>
@@ -63011,7 +63044,7 @@
         <v>0.73</v>
       </c>
       <c r="AS322">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT322">
         <v>0.86</v>
@@ -63202,7 +63235,7 @@
         <v>0.73</v>
       </c>
       <c r="AS323">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT323">
         <v>0.79</v>
@@ -63396,7 +63429,7 @@
         <v>1.86</v>
       </c>
       <c r="AT324">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU324">
         <v>1.57</v>
@@ -64452,7 +64485,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65598,7 +65631,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65685,7 +65718,7 @@
         <v>0.67</v>
       </c>
       <c r="AS336">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT336">
         <v>0.79</v>
@@ -65980,7 +66013,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -66067,10 +66100,10 @@
         <v>1.55</v>
       </c>
       <c r="AS338">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT338">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU338">
         <v>1.54</v>
@@ -66171,7 +66204,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q339">
         <v>4</v>
@@ -66258,10 +66291,10 @@
         <v>0.73</v>
       </c>
       <c r="AS339">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT339">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU339">
         <v>1.58</v>
@@ -66449,10 +66482,10 @@
         <v>1.91</v>
       </c>
       <c r="AS340">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT340">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU340">
         <v>1.56</v>
@@ -66640,7 +66673,7 @@
         <v>0.91</v>
       </c>
       <c r="AS341">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT341">
         <v>0.92</v>
@@ -66834,7 +66867,7 @@
         <v>1.64</v>
       </c>
       <c r="AT342">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU342">
         <v>1.58</v>
@@ -66935,7 +66968,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67022,10 +67055,10 @@
         <v>1.45</v>
       </c>
       <c r="AS343">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT343">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU343">
         <v>1.83</v>
@@ -67126,7 +67159,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67213,10 +67246,10 @@
         <v>1.27</v>
       </c>
       <c r="AS344">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT344">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU344">
         <v>1.24</v>
@@ -67317,7 +67350,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67404,10 +67437,10 @@
         <v>1</v>
       </c>
       <c r="AS345">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT345">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU345">
         <v>1.56</v>
@@ -67508,7 +67541,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -67595,10 +67628,10 @@
         <v>0.73</v>
       </c>
       <c r="AS346">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT346">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU346">
         <v>1.46</v>
@@ -67786,10 +67819,10 @@
         <v>0.82</v>
       </c>
       <c r="AS347">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT347">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU347">
         <v>1.86</v>
@@ -67977,7 +68010,7 @@
         <v>0.75</v>
       </c>
       <c r="AS348">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT348">
         <v>0.86</v>
@@ -68168,10 +68201,10 @@
         <v>1</v>
       </c>
       <c r="AS349">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT349">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU349">
         <v>1.75</v>
@@ -68272,7 +68305,7 @@
         <v>96</v>
       </c>
       <c r="P350" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q350">
         <v>4</v>
@@ -68359,10 +68392,10 @@
         <v>0.73</v>
       </c>
       <c r="AS350">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT350">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU350">
         <v>1.11</v>
@@ -68550,10 +68583,10 @@
         <v>0.92</v>
       </c>
       <c r="AS351">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT351">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU351">
         <v>1.19</v>
@@ -68654,7 +68687,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69036,7 +69069,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69609,7 +69642,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69991,7 +70024,7 @@
         <v>291</v>
       </c>
       <c r="P359" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q359">
         <v>6</v>
@@ -70946,7 +70979,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71279,6 +71312,2680 @@
       </c>
       <c r="BK365">
         <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:63">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>4554754</v>
+      </c>
+      <c r="C366" t="s">
+        <v>63</v>
+      </c>
+      <c r="D366" t="s">
+        <v>64</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45135.6875</v>
+      </c>
+      <c r="F366">
+        <v>27</v>
+      </c>
+      <c r="G366" t="s">
+        <v>89</v>
+      </c>
+      <c r="H366" t="s">
+        <v>66</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>2</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366" t="s">
+        <v>296</v>
+      </c>
+      <c r="P366" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q366">
+        <v>7</v>
+      </c>
+      <c r="R366">
+        <v>2</v>
+      </c>
+      <c r="S366">
+        <v>9</v>
+      </c>
+      <c r="T366">
+        <v>3.2</v>
+      </c>
+      <c r="U366">
+        <v>1.95</v>
+      </c>
+      <c r="V366">
+        <v>3.3</v>
+      </c>
+      <c r="W366">
+        <v>1.5</v>
+      </c>
+      <c r="X366">
+        <v>2.35</v>
+      </c>
+      <c r="Y366">
+        <v>3.3</v>
+      </c>
+      <c r="Z366">
+        <v>1.27</v>
+      </c>
+      <c r="AA366">
+        <v>9.5</v>
+      </c>
+      <c r="AB366">
+        <v>1.05</v>
+      </c>
+      <c r="AC366">
+        <v>2.5</v>
+      </c>
+      <c r="AD366">
+        <v>2.95</v>
+      </c>
+      <c r="AE366">
+        <v>2.85</v>
+      </c>
+      <c r="AF366">
+        <v>1.1</v>
+      </c>
+      <c r="AG366">
+        <v>5.7</v>
+      </c>
+      <c r="AH366">
+        <v>1.42</v>
+      </c>
+      <c r="AI366">
+        <v>2.6</v>
+      </c>
+      <c r="AJ366">
+        <v>2.45</v>
+      </c>
+      <c r="AK366">
+        <v>1.53</v>
+      </c>
+      <c r="AL366">
+        <v>2.05</v>
+      </c>
+      <c r="AM366">
+        <v>1.66</v>
+      </c>
+      <c r="AN366">
+        <v>1.39</v>
+      </c>
+      <c r="AO366">
+        <v>1.37</v>
+      </c>
+      <c r="AP366">
+        <v>1.47</v>
+      </c>
+      <c r="AQ366">
+        <v>1.17</v>
+      </c>
+      <c r="AR366">
+        <v>1.5</v>
+      </c>
+      <c r="AS366">
+        <v>1.31</v>
+      </c>
+      <c r="AT366">
+        <v>1.38</v>
+      </c>
+      <c r="AU366">
+        <v>1.6</v>
+      </c>
+      <c r="AV366">
+        <v>1.38</v>
+      </c>
+      <c r="AW366">
+        <v>2.98</v>
+      </c>
+      <c r="AX366">
+        <v>1.41</v>
+      </c>
+      <c r="AY366">
+        <v>9</v>
+      </c>
+      <c r="AZ366">
+        <v>3.58</v>
+      </c>
+      <c r="BA366">
+        <v>1.21</v>
+      </c>
+      <c r="BB366">
+        <v>1.42</v>
+      </c>
+      <c r="BC366">
+        <v>1.75</v>
+      </c>
+      <c r="BD366">
+        <v>2.19</v>
+      </c>
+      <c r="BE366">
+        <v>2.88</v>
+      </c>
+      <c r="BF366">
+        <v>6</v>
+      </c>
+      <c r="BG366">
+        <v>2</v>
+      </c>
+      <c r="BH366">
+        <v>7</v>
+      </c>
+      <c r="BI366">
+        <v>1</v>
+      </c>
+      <c r="BJ366">
+        <v>13</v>
+      </c>
+      <c r="BK366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:63">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>4554758</v>
+      </c>
+      <c r="C367" t="s">
+        <v>63</v>
+      </c>
+      <c r="D367" t="s">
+        <v>64</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45135.6875</v>
+      </c>
+      <c r="F367">
+        <v>27</v>
+      </c>
+      <c r="G367" t="s">
+        <v>85</v>
+      </c>
+      <c r="H367" t="s">
+        <v>69</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>2</v>
+      </c>
+      <c r="M367">
+        <v>3</v>
+      </c>
+      <c r="N367">
+        <v>5</v>
+      </c>
+      <c r="O367" t="s">
+        <v>297</v>
+      </c>
+      <c r="P367" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q367">
+        <v>6</v>
+      </c>
+      <c r="R367">
+        <v>5</v>
+      </c>
+      <c r="S367">
+        <v>11</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
+        <v>1.83</v>
+      </c>
+      <c r="V367">
+        <v>4</v>
+      </c>
+      <c r="W367">
+        <v>1.54</v>
+      </c>
+      <c r="X367">
+        <v>2.21</v>
+      </c>
+      <c r="Y367">
+        <v>3.55</v>
+      </c>
+      <c r="Z367">
+        <v>1.25</v>
+      </c>
+      <c r="AA367">
+        <v>11</v>
+      </c>
+      <c r="AB367">
+        <v>1.04</v>
+      </c>
+      <c r="AC367">
+        <v>2.15</v>
+      </c>
+      <c r="AD367">
+        <v>2.9</v>
+      </c>
+      <c r="AE367">
+        <v>3.6</v>
+      </c>
+      <c r="AF367">
+        <v>1.11</v>
+      </c>
+      <c r="AG367">
+        <v>5.75</v>
+      </c>
+      <c r="AH367">
+        <v>1.52</v>
+      </c>
+      <c r="AI367">
+        <v>2.35</v>
+      </c>
+      <c r="AJ367">
+        <v>2.55</v>
+      </c>
+      <c r="AK367">
+        <v>1.44</v>
+      </c>
+      <c r="AL367">
+        <v>2.15</v>
+      </c>
+      <c r="AM367">
+        <v>1.62</v>
+      </c>
+      <c r="AN367">
+        <v>1.3</v>
+      </c>
+      <c r="AO367">
+        <v>1.38</v>
+      </c>
+      <c r="AP367">
+        <v>1.58</v>
+      </c>
+      <c r="AQ367">
+        <v>2</v>
+      </c>
+      <c r="AR367">
+        <v>1.33</v>
+      </c>
+      <c r="AS367">
+        <v>1.85</v>
+      </c>
+      <c r="AT367">
+        <v>1.46</v>
+      </c>
+      <c r="AU367">
+        <v>1.85</v>
+      </c>
+      <c r="AV367">
+        <v>1.48</v>
+      </c>
+      <c r="AW367">
+        <v>3.33</v>
+      </c>
+      <c r="AX367">
+        <v>1.64</v>
+      </c>
+      <c r="AY367">
+        <v>8</v>
+      </c>
+      <c r="AZ367">
+        <v>2.77</v>
+      </c>
+      <c r="BA367">
+        <v>1.37</v>
+      </c>
+      <c r="BB367">
+        <v>1.68</v>
+      </c>
+      <c r="BC367">
+        <v>2.12</v>
+      </c>
+      <c r="BD367">
+        <v>2.84</v>
+      </c>
+      <c r="BE367">
+        <v>4</v>
+      </c>
+      <c r="BF367">
+        <v>7</v>
+      </c>
+      <c r="BG367">
+        <v>6</v>
+      </c>
+      <c r="BH367">
+        <v>7</v>
+      </c>
+      <c r="BI367">
+        <v>3</v>
+      </c>
+      <c r="BJ367">
+        <v>14</v>
+      </c>
+      <c r="BK367">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:63">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>4554759</v>
+      </c>
+      <c r="C368" t="s">
+        <v>63</v>
+      </c>
+      <c r="D368" t="s">
+        <v>64</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45135.79166666666</v>
+      </c>
+      <c r="F368">
+        <v>27</v>
+      </c>
+      <c r="G368" t="s">
+        <v>83</v>
+      </c>
+      <c r="H368" t="s">
+        <v>65</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+      <c r="O368" t="s">
+        <v>96</v>
+      </c>
+      <c r="P368" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q368">
+        <v>3</v>
+      </c>
+      <c r="R368">
+        <v>5</v>
+      </c>
+      <c r="S368">
+        <v>8</v>
+      </c>
+      <c r="T368">
+        <v>3.2</v>
+      </c>
+      <c r="U368">
+        <v>1.85</v>
+      </c>
+      <c r="V368">
+        <v>3.7</v>
+      </c>
+      <c r="W368">
+        <v>1.57</v>
+      </c>
+      <c r="X368">
+        <v>2.25</v>
+      </c>
+      <c r="Y368">
+        <v>3.6</v>
+      </c>
+      <c r="Z368">
+        <v>1.25</v>
+      </c>
+      <c r="AA368">
+        <v>10.5</v>
+      </c>
+      <c r="AB368">
+        <v>1.04</v>
+      </c>
+      <c r="AC368">
+        <v>2.4</v>
+      </c>
+      <c r="AD368">
+        <v>2.9</v>
+      </c>
+      <c r="AE368">
+        <v>3.2</v>
+      </c>
+      <c r="AF368">
+        <v>1.11</v>
+      </c>
+      <c r="AG368">
+        <v>6</v>
+      </c>
+      <c r="AH368">
+        <v>1.5</v>
+      </c>
+      <c r="AI368">
+        <v>2.4</v>
+      </c>
+      <c r="AJ368">
+        <v>2.5</v>
+      </c>
+      <c r="AK368">
+        <v>1.47</v>
+      </c>
+      <c r="AL368">
+        <v>2.1</v>
+      </c>
+      <c r="AM368">
+        <v>1.65</v>
+      </c>
+      <c r="AN368">
+        <v>1.33</v>
+      </c>
+      <c r="AO368">
+        <v>1.38</v>
+      </c>
+      <c r="AP368">
+        <v>1.53</v>
+      </c>
+      <c r="AQ368">
+        <v>1.75</v>
+      </c>
+      <c r="AR368">
+        <v>0.75</v>
+      </c>
+      <c r="AS368">
+        <v>1.69</v>
+      </c>
+      <c r="AT368">
+        <v>0.77</v>
+      </c>
+      <c r="AU368">
+        <v>1.32</v>
+      </c>
+      <c r="AV368">
+        <v>1.28</v>
+      </c>
+      <c r="AW368">
+        <v>2.6</v>
+      </c>
+      <c r="AX368">
+        <v>1.95</v>
+      </c>
+      <c r="AY368">
+        <v>8</v>
+      </c>
+      <c r="AZ368">
+        <v>2.1</v>
+      </c>
+      <c r="BA368">
+        <v>1.23</v>
+      </c>
+      <c r="BB368">
+        <v>1.44</v>
+      </c>
+      <c r="BC368">
+        <v>1.95</v>
+      </c>
+      <c r="BD368">
+        <v>2.35</v>
+      </c>
+      <c r="BE368">
+        <v>3.25</v>
+      </c>
+      <c r="BF368">
+        <v>3</v>
+      </c>
+      <c r="BG368">
+        <v>2</v>
+      </c>
+      <c r="BH368">
+        <v>10</v>
+      </c>
+      <c r="BI368">
+        <v>2</v>
+      </c>
+      <c r="BJ368">
+        <v>13</v>
+      </c>
+      <c r="BK368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:63">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>4554751</v>
+      </c>
+      <c r="C369" t="s">
+        <v>63</v>
+      </c>
+      <c r="D369" t="s">
+        <v>64</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45135.79166666666</v>
+      </c>
+      <c r="F369">
+        <v>27</v>
+      </c>
+      <c r="G369" t="s">
+        <v>80</v>
+      </c>
+      <c r="H369" t="s">
+        <v>68</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>1</v>
+      </c>
+      <c r="K369">
+        <v>2</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369">
+        <v>1</v>
+      </c>
+      <c r="N369">
+        <v>2</v>
+      </c>
+      <c r="O369" t="s">
+        <v>135</v>
+      </c>
+      <c r="P369" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q369">
+        <v>7</v>
+      </c>
+      <c r="R369">
+        <v>3</v>
+      </c>
+      <c r="S369">
+        <v>10</v>
+      </c>
+      <c r="T369">
+        <v>3.6</v>
+      </c>
+      <c r="U369">
+        <v>1.82</v>
+      </c>
+      <c r="V369">
+        <v>3.4</v>
+      </c>
+      <c r="W369">
+        <v>1.55</v>
+      </c>
+      <c r="X369">
+        <v>2.2</v>
+      </c>
+      <c r="Y369">
+        <v>3.7</v>
+      </c>
+      <c r="Z369">
+        <v>1.22</v>
+      </c>
+      <c r="AA369">
+        <v>11</v>
+      </c>
+      <c r="AB369">
+        <v>1.03</v>
+      </c>
+      <c r="AC369">
+        <v>2.87</v>
+      </c>
+      <c r="AD369">
+        <v>2.87</v>
+      </c>
+      <c r="AE369">
+        <v>2.65</v>
+      </c>
+      <c r="AF369">
+        <v>1.12</v>
+      </c>
+      <c r="AG369">
+        <v>5.75</v>
+      </c>
+      <c r="AH369">
+        <v>1.53</v>
+      </c>
+      <c r="AI369">
+        <v>2.3</v>
+      </c>
+      <c r="AJ369">
+        <v>2.6</v>
+      </c>
+      <c r="AK369">
+        <v>1.43</v>
+      </c>
+      <c r="AL369">
+        <v>2.15</v>
+      </c>
+      <c r="AM369">
+        <v>1.6</v>
+      </c>
+      <c r="AN369">
+        <v>1.46</v>
+      </c>
+      <c r="AO369">
+        <v>1.39</v>
+      </c>
+      <c r="AP369">
+        <v>1.39</v>
+      </c>
+      <c r="AQ369">
+        <v>1.92</v>
+      </c>
+      <c r="AR369">
+        <v>2</v>
+      </c>
+      <c r="AS369">
+        <v>1.85</v>
+      </c>
+      <c r="AT369">
+        <v>1.92</v>
+      </c>
+      <c r="AU369">
+        <v>1.22</v>
+      </c>
+      <c r="AV369">
+        <v>1.36</v>
+      </c>
+      <c r="AW369">
+        <v>2.58</v>
+      </c>
+      <c r="AX369">
+        <v>1.95</v>
+      </c>
+      <c r="AY369">
+        <v>7.5</v>
+      </c>
+      <c r="AZ369">
+        <v>2.1</v>
+      </c>
+      <c r="BA369">
+        <v>1.37</v>
+      </c>
+      <c r="BB369">
+        <v>1.68</v>
+      </c>
+      <c r="BC369">
+        <v>2.12</v>
+      </c>
+      <c r="BD369">
+        <v>2.84</v>
+      </c>
+      <c r="BE369">
+        <v>4</v>
+      </c>
+      <c r="BF369">
+        <v>5</v>
+      </c>
+      <c r="BG369">
+        <v>2</v>
+      </c>
+      <c r="BH369">
+        <v>11</v>
+      </c>
+      <c r="BI369">
+        <v>1</v>
+      </c>
+      <c r="BJ369">
+        <v>16</v>
+      </c>
+      <c r="BK369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:63">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>4554760</v>
+      </c>
+      <c r="C370" t="s">
+        <v>63</v>
+      </c>
+      <c r="D370" t="s">
+        <v>64</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45135.89583333334</v>
+      </c>
+      <c r="F370">
+        <v>27</v>
+      </c>
+      <c r="G370" t="s">
+        <v>92</v>
+      </c>
+      <c r="H370" t="s">
+        <v>74</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>2</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>3</v>
+      </c>
+      <c r="O370" t="s">
+        <v>298</v>
+      </c>
+      <c r="P370" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q370">
+        <v>7</v>
+      </c>
+      <c r="R370">
+        <v>5</v>
+      </c>
+      <c r="S370">
+        <v>12</v>
+      </c>
+      <c r="T370">
+        <v>1.93</v>
+      </c>
+      <c r="U370">
+        <v>2.3</v>
+      </c>
+      <c r="V370">
+        <v>6</v>
+      </c>
+      <c r="W370">
+        <v>1.31</v>
+      </c>
+      <c r="X370">
+        <v>3.19</v>
+      </c>
+      <c r="Y370">
+        <v>2.57</v>
+      </c>
+      <c r="Z370">
+        <v>1.46</v>
+      </c>
+      <c r="AA370">
+        <v>5.93</v>
+      </c>
+      <c r="AB370">
+        <v>1.1</v>
+      </c>
+      <c r="AC370">
+        <v>1.43</v>
+      </c>
+      <c r="AD370">
+        <v>4.5</v>
+      </c>
+      <c r="AE370">
+        <v>7</v>
+      </c>
+      <c r="AF370">
+        <v>1.03</v>
+      </c>
+      <c r="AG370">
+        <v>13</v>
+      </c>
+      <c r="AH370">
+        <v>1.23</v>
+      </c>
+      <c r="AI370">
+        <v>4.04</v>
+      </c>
+      <c r="AJ370">
+        <v>1.74</v>
+      </c>
+      <c r="AK370">
+        <v>2.04</v>
+      </c>
+      <c r="AL370">
+        <v>1.94</v>
+      </c>
+      <c r="AM370">
+        <v>1.79</v>
+      </c>
+      <c r="AN370">
+        <v>1.08</v>
+      </c>
+      <c r="AO370">
+        <v>1.16</v>
+      </c>
+      <c r="AP370">
+        <v>2.85</v>
+      </c>
+      <c r="AQ370">
+        <v>2.75</v>
+      </c>
+      <c r="AR370">
+        <v>1.08</v>
+      </c>
+      <c r="AS370">
+        <v>2.77</v>
+      </c>
+      <c r="AT370">
+        <v>1</v>
+      </c>
+      <c r="AU370">
+        <v>1.79</v>
+      </c>
+      <c r="AV370">
+        <v>1.33</v>
+      </c>
+      <c r="AW370">
+        <v>3.12</v>
+      </c>
+      <c r="AX370">
+        <v>1.34</v>
+      </c>
+      <c r="AY370">
+        <v>9.5</v>
+      </c>
+      <c r="AZ370">
+        <v>4.07</v>
+      </c>
+      <c r="BA370">
+        <v>1.27</v>
+      </c>
+      <c r="BB370">
+        <v>1.5</v>
+      </c>
+      <c r="BC370">
+        <v>2</v>
+      </c>
+      <c r="BD370">
+        <v>2.5</v>
+      </c>
+      <c r="BE370">
+        <v>3.5</v>
+      </c>
+      <c r="BF370">
+        <v>7</v>
+      </c>
+      <c r="BG370">
+        <v>5</v>
+      </c>
+      <c r="BH370">
+        <v>9</v>
+      </c>
+      <c r="BI370">
+        <v>2</v>
+      </c>
+      <c r="BJ370">
+        <v>16</v>
+      </c>
+      <c r="BK370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:63">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>4554749</v>
+      </c>
+      <c r="C371" t="s">
+        <v>63</v>
+      </c>
+      <c r="D371" t="s">
+        <v>64</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45136.60416666666</v>
+      </c>
+      <c r="F371">
+        <v>27</v>
+      </c>
+      <c r="G371" t="s">
+        <v>70</v>
+      </c>
+      <c r="H371" t="s">
+        <v>88</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>2</v>
+      </c>
+      <c r="N371">
+        <v>2</v>
+      </c>
+      <c r="O371" t="s">
+        <v>96</v>
+      </c>
+      <c r="P371" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q371">
+        <v>3</v>
+      </c>
+      <c r="R371">
+        <v>1</v>
+      </c>
+      <c r="S371">
+        <v>4</v>
+      </c>
+      <c r="T371">
+        <v>3.1</v>
+      </c>
+      <c r="U371">
+        <v>1.83</v>
+      </c>
+      <c r="V371">
+        <v>4</v>
+      </c>
+      <c r="W371">
+        <v>1.54</v>
+      </c>
+      <c r="X371">
+        <v>2.2</v>
+      </c>
+      <c r="Y371">
+        <v>3.55</v>
+      </c>
+      <c r="Z371">
+        <v>1.25</v>
+      </c>
+      <c r="AA371">
+        <v>10.75</v>
+      </c>
+      <c r="AB371">
+        <v>1.04</v>
+      </c>
+      <c r="AC371">
+        <v>2.35</v>
+      </c>
+      <c r="AD371">
+        <v>2.9</v>
+      </c>
+      <c r="AE371">
+        <v>3.25</v>
+      </c>
+      <c r="AF371">
+        <v>1.1</v>
+      </c>
+      <c r="AG371">
+        <v>6.75</v>
+      </c>
+      <c r="AH371">
+        <v>1.52</v>
+      </c>
+      <c r="AI371">
+        <v>2.35</v>
+      </c>
+      <c r="AJ371">
+        <v>2.55</v>
+      </c>
+      <c r="AK371">
+        <v>1.45</v>
+      </c>
+      <c r="AL371">
+        <v>2.15</v>
+      </c>
+      <c r="AM371">
+        <v>1.6</v>
+      </c>
+      <c r="AN371">
+        <v>1.32</v>
+      </c>
+      <c r="AO371">
+        <v>1.38</v>
+      </c>
+      <c r="AP371">
+        <v>1.55</v>
+      </c>
+      <c r="AQ371">
+        <v>1.31</v>
+      </c>
+      <c r="AR371">
+        <v>0.92</v>
+      </c>
+      <c r="AS371">
+        <v>1.21</v>
+      </c>
+      <c r="AT371">
+        <v>1.07</v>
+      </c>
+      <c r="AU371">
+        <v>1.47</v>
+      </c>
+      <c r="AV371">
+        <v>1.25</v>
+      </c>
+      <c r="AW371">
+        <v>2.72</v>
+      </c>
+      <c r="AX371">
+        <v>1.95</v>
+      </c>
+      <c r="AY371">
+        <v>8</v>
+      </c>
+      <c r="AZ371">
+        <v>2.1</v>
+      </c>
+      <c r="BA371">
+        <v>1.25</v>
+      </c>
+      <c r="BB371">
+        <v>1.47</v>
+      </c>
+      <c r="BC371">
+        <v>1.93</v>
+      </c>
+      <c r="BD371">
+        <v>2.45</v>
+      </c>
+      <c r="BE371">
+        <v>3.4</v>
+      </c>
+      <c r="BF371">
+        <v>4</v>
+      </c>
+      <c r="BG371">
+        <v>6</v>
+      </c>
+      <c r="BH371">
+        <v>4</v>
+      </c>
+      <c r="BI371">
+        <v>5</v>
+      </c>
+      <c r="BJ371">
+        <v>8</v>
+      </c>
+      <c r="BK371">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>5019535</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45136.625</v>
+      </c>
+      <c r="F372">
+        <v>27</v>
+      </c>
+      <c r="G372" t="s">
+        <v>82</v>
+      </c>
+      <c r="H372" t="s">
+        <v>78</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+      <c r="O372" t="s">
+        <v>96</v>
+      </c>
+      <c r="P372" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <v>4</v>
+      </c>
+      <c r="S372">
+        <v>4</v>
+      </c>
+      <c r="T372">
+        <v>3.15</v>
+      </c>
+      <c r="U372">
+        <v>1.76</v>
+      </c>
+      <c r="V372">
+        <v>3.7</v>
+      </c>
+      <c r="W372">
+        <v>1.58</v>
+      </c>
+      <c r="X372">
+        <v>2.13</v>
+      </c>
+      <c r="Y372">
+        <v>3.7</v>
+      </c>
+      <c r="Z372">
+        <v>1.23</v>
+      </c>
+      <c r="AA372">
+        <v>11</v>
+      </c>
+      <c r="AB372">
+        <v>1.03</v>
+      </c>
+      <c r="AC372">
+        <v>2.5</v>
+      </c>
+      <c r="AD372">
+        <v>2.65</v>
+      </c>
+      <c r="AE372">
+        <v>3.05</v>
+      </c>
+      <c r="AF372">
+        <v>1.11</v>
+      </c>
+      <c r="AG372">
+        <v>6</v>
+      </c>
+      <c r="AH372">
+        <v>1.54</v>
+      </c>
+      <c r="AI372">
+        <v>2.3</v>
+      </c>
+      <c r="AJ372">
+        <v>2.65</v>
+      </c>
+      <c r="AK372">
+        <v>1.41</v>
+      </c>
+      <c r="AL372">
+        <v>2.2</v>
+      </c>
+      <c r="AM372">
+        <v>1.57</v>
+      </c>
+      <c r="AN372">
+        <v>1.34</v>
+      </c>
+      <c r="AO372">
+        <v>1.43</v>
+      </c>
+      <c r="AP372">
+        <v>1.5</v>
+      </c>
+      <c r="AQ372">
+        <v>1.33</v>
+      </c>
+      <c r="AR372">
+        <v>0.75</v>
+      </c>
+      <c r="AS372">
+        <v>1.31</v>
+      </c>
+      <c r="AT372">
+        <v>0.77</v>
+      </c>
+      <c r="AU372">
+        <v>1.5</v>
+      </c>
+      <c r="AV372">
+        <v>1.24</v>
+      </c>
+      <c r="AW372">
+        <v>2.74</v>
+      </c>
+      <c r="AX372">
+        <v>1.95</v>
+      </c>
+      <c r="AY372">
+        <v>8</v>
+      </c>
+      <c r="AZ372">
+        <v>2.1</v>
+      </c>
+      <c r="BA372">
+        <v>1.23</v>
+      </c>
+      <c r="BB372">
+        <v>1.44</v>
+      </c>
+      <c r="BC372">
+        <v>1.83</v>
+      </c>
+      <c r="BD372">
+        <v>2.35</v>
+      </c>
+      <c r="BE372">
+        <v>3.25</v>
+      </c>
+      <c r="BF372">
+        <v>4</v>
+      </c>
+      <c r="BG372">
+        <v>3</v>
+      </c>
+      <c r="BH372">
+        <v>7</v>
+      </c>
+      <c r="BI372">
+        <v>5</v>
+      </c>
+      <c r="BJ372">
+        <v>11</v>
+      </c>
+      <c r="BK372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>4554750</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45136.70833333334</v>
+      </c>
+      <c r="F373">
+        <v>27</v>
+      </c>
+      <c r="G373" t="s">
+        <v>86</v>
+      </c>
+      <c r="H373" t="s">
+        <v>75</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>2</v>
+      </c>
+      <c r="N373">
+        <v>2</v>
+      </c>
+      <c r="O373" t="s">
+        <v>96</v>
+      </c>
+      <c r="P373" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q373">
+        <v>5</v>
+      </c>
+      <c r="R373">
+        <v>4</v>
+      </c>
+      <c r="S373">
+        <v>9</v>
+      </c>
+      <c r="T373">
+        <v>3.75</v>
+      </c>
+      <c r="U373">
+        <v>1.91</v>
+      </c>
+      <c r="V373">
+        <v>3.5</v>
+      </c>
+      <c r="W373">
+        <v>1.62</v>
+      </c>
+      <c r="X373">
+        <v>2.2</v>
+      </c>
+      <c r="Y373">
+        <v>4</v>
+      </c>
+      <c r="Z373">
+        <v>1.22</v>
+      </c>
+      <c r="AA373">
+        <v>13</v>
+      </c>
+      <c r="AB373">
+        <v>1.04</v>
+      </c>
+      <c r="AC373">
+        <v>2.7</v>
+      </c>
+      <c r="AD373">
+        <v>3</v>
+      </c>
+      <c r="AE373">
+        <v>2.45</v>
+      </c>
+      <c r="AF373">
+        <v>1.08</v>
+      </c>
+      <c r="AG373">
+        <v>6.25</v>
+      </c>
+      <c r="AH373">
+        <v>1.52</v>
+      </c>
+      <c r="AI373">
+        <v>2.35</v>
+      </c>
+      <c r="AJ373">
+        <v>2.7</v>
+      </c>
+      <c r="AK373">
+        <v>1.44</v>
+      </c>
+      <c r="AL373">
+        <v>2.2</v>
+      </c>
+      <c r="AM373">
+        <v>1.62</v>
+      </c>
+      <c r="AN373">
+        <v>1.42</v>
+      </c>
+      <c r="AO373">
+        <v>1.42</v>
+      </c>
+      <c r="AP373">
+        <v>1.32</v>
+      </c>
+      <c r="AQ373">
+        <v>1.33</v>
+      </c>
+      <c r="AR373">
+        <v>1.17</v>
+      </c>
+      <c r="AS373">
+        <v>1.23</v>
+      </c>
+      <c r="AT373">
+        <v>1.31</v>
+      </c>
+      <c r="AU373">
+        <v>1.4</v>
+      </c>
+      <c r="AV373">
+        <v>1.08</v>
+      </c>
+      <c r="AW373">
+        <v>2.48</v>
+      </c>
+      <c r="AX373">
+        <v>1.95</v>
+      </c>
+      <c r="AY373">
+        <v>7.5</v>
+      </c>
+      <c r="AZ373">
+        <v>2.1</v>
+      </c>
+      <c r="BA373">
+        <v>1.43</v>
+      </c>
+      <c r="BB373">
+        <v>1.88</v>
+      </c>
+      <c r="BC373">
+        <v>2.4</v>
+      </c>
+      <c r="BD373">
+        <v>3.4</v>
+      </c>
+      <c r="BE373">
+        <v>4.55</v>
+      </c>
+      <c r="BF373">
+        <v>6</v>
+      </c>
+      <c r="BG373">
+        <v>3</v>
+      </c>
+      <c r="BH373">
+        <v>4</v>
+      </c>
+      <c r="BI373">
+        <v>1</v>
+      </c>
+      <c r="BJ373">
+        <v>10</v>
+      </c>
+      <c r="BK373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>4554757</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45136.83333333334</v>
+      </c>
+      <c r="F374">
+        <v>27</v>
+      </c>
+      <c r="G374" t="s">
+        <v>79</v>
+      </c>
+      <c r="H374" t="s">
+        <v>67</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>2</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <v>2</v>
+      </c>
+      <c r="O374" t="s">
+        <v>299</v>
+      </c>
+      <c r="P374" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q374">
+        <v>3</v>
+      </c>
+      <c r="R374">
+        <v>1</v>
+      </c>
+      <c r="S374">
+        <v>4</v>
+      </c>
+      <c r="T374">
+        <v>3.75</v>
+      </c>
+      <c r="U374">
+        <v>1.91</v>
+      </c>
+      <c r="V374">
+        <v>3.5</v>
+      </c>
+      <c r="W374">
+        <v>1.62</v>
+      </c>
+      <c r="X374">
+        <v>2.2</v>
+      </c>
+      <c r="Y374">
+        <v>4</v>
+      </c>
+      <c r="Z374">
+        <v>1.22</v>
+      </c>
+      <c r="AA374">
+        <v>13</v>
+      </c>
+      <c r="AB374">
+        <v>1.04</v>
+      </c>
+      <c r="AC374">
+        <v>2.75</v>
+      </c>
+      <c r="AD374">
+        <v>2.8</v>
+      </c>
+      <c r="AE374">
+        <v>2.5</v>
+      </c>
+      <c r="AF374">
+        <v>1.09</v>
+      </c>
+      <c r="AG374">
+        <v>6</v>
+      </c>
+      <c r="AH374">
+        <v>1.52</v>
+      </c>
+      <c r="AI374">
+        <v>2.35</v>
+      </c>
+      <c r="AJ374">
+        <v>2.7</v>
+      </c>
+      <c r="AK374">
+        <v>1.44</v>
+      </c>
+      <c r="AL374">
+        <v>2.2</v>
+      </c>
+      <c r="AM374">
+        <v>1.62</v>
+      </c>
+      <c r="AN374">
+        <v>1.52</v>
+      </c>
+      <c r="AO374">
+        <v>1.35</v>
+      </c>
+      <c r="AP374">
+        <v>1.4</v>
+      </c>
+      <c r="AQ374">
+        <v>1.25</v>
+      </c>
+      <c r="AR374">
+        <v>1.42</v>
+      </c>
+      <c r="AS374">
+        <v>1.38</v>
+      </c>
+      <c r="AT374">
+        <v>1.31</v>
+      </c>
+      <c r="AU374">
+        <v>1.73</v>
+      </c>
+      <c r="AV374">
+        <v>1.27</v>
+      </c>
+      <c r="AW374">
+        <v>3</v>
+      </c>
+      <c r="AX374">
+        <v>2.4</v>
+      </c>
+      <c r="AY374">
+        <v>7.5</v>
+      </c>
+      <c r="AZ374">
+        <v>1.82</v>
+      </c>
+      <c r="BA374">
+        <v>1.38</v>
+      </c>
+      <c r="BB374">
+        <v>1.71</v>
+      </c>
+      <c r="BC374">
+        <v>2.25</v>
+      </c>
+      <c r="BD374">
+        <v>3.1</v>
+      </c>
+      <c r="BE374">
+        <v>3.74</v>
+      </c>
+      <c r="BF374">
+        <v>10</v>
+      </c>
+      <c r="BG374">
+        <v>4</v>
+      </c>
+      <c r="BH374">
+        <v>3</v>
+      </c>
+      <c r="BI374">
+        <v>2</v>
+      </c>
+      <c r="BJ374">
+        <v>13</v>
+      </c>
+      <c r="BK374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>4554756</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45137.625</v>
+      </c>
+      <c r="F375">
+        <v>27</v>
+      </c>
+      <c r="G375" t="s">
+        <v>81</v>
+      </c>
+      <c r="H375" t="s">
+        <v>73</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>1</v>
+      </c>
+      <c r="L375">
+        <v>2</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>2</v>
+      </c>
+      <c r="O375" t="s">
+        <v>300</v>
+      </c>
+      <c r="P375" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q375">
+        <v>7</v>
+      </c>
+      <c r="R375">
+        <v>7</v>
+      </c>
+      <c r="S375">
+        <v>14</v>
+      </c>
+      <c r="T375">
+        <v>3.75</v>
+      </c>
+      <c r="U375">
+        <v>1.9</v>
+      </c>
+      <c r="V375">
+        <v>3.5</v>
+      </c>
+      <c r="W375">
+        <v>1.53</v>
+      </c>
+      <c r="X375">
+        <v>2.3</v>
+      </c>
+      <c r="Y375">
+        <v>3.5</v>
+      </c>
+      <c r="Z375">
+        <v>1.26</v>
+      </c>
+      <c r="AA375">
+        <v>10</v>
+      </c>
+      <c r="AB375">
+        <v>1.05</v>
+      </c>
+      <c r="AC375">
+        <v>2.85</v>
+      </c>
+      <c r="AD375">
+        <v>3</v>
+      </c>
+      <c r="AE375">
+        <v>2.65</v>
+      </c>
+      <c r="AF375">
+        <v>1.09</v>
+      </c>
+      <c r="AG375">
+        <v>6.71</v>
+      </c>
+      <c r="AH375">
+        <v>1.52</v>
+      </c>
+      <c r="AI375">
+        <v>2.47</v>
+      </c>
+      <c r="AJ375">
+        <v>2.63</v>
+      </c>
+      <c r="AK375">
+        <v>1.46</v>
+      </c>
+      <c r="AL375">
+        <v>2.12</v>
+      </c>
+      <c r="AM375">
+        <v>1.66</v>
+      </c>
+      <c r="AN375">
+        <v>1.47</v>
+      </c>
+      <c r="AO375">
+        <v>1.33</v>
+      </c>
+      <c r="AP375">
+        <v>1.44</v>
+      </c>
+      <c r="AQ375">
+        <v>1.08</v>
+      </c>
+      <c r="AR375">
+        <v>0.75</v>
+      </c>
+      <c r="AS375">
+        <v>1.23</v>
+      </c>
+      <c r="AT375">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU375">
+        <v>1.09</v>
+      </c>
+      <c r="AV375">
+        <v>1</v>
+      </c>
+      <c r="AW375">
+        <v>2.09</v>
+      </c>
+      <c r="AX375">
+        <v>1.82</v>
+      </c>
+      <c r="AY375">
+        <v>7.5</v>
+      </c>
+      <c r="AZ375">
+        <v>2.4</v>
+      </c>
+      <c r="BA375">
+        <v>1.32</v>
+      </c>
+      <c r="BB375">
+        <v>1.6</v>
+      </c>
+      <c r="BC375">
+        <v>2.05</v>
+      </c>
+      <c r="BD375">
+        <v>2.8</v>
+      </c>
+      <c r="BE375">
+        <v>4</v>
+      </c>
+      <c r="BF375">
+        <v>6</v>
+      </c>
+      <c r="BG375">
+        <v>4</v>
+      </c>
+      <c r="BH375">
+        <v>13</v>
+      </c>
+      <c r="BI375">
+        <v>7</v>
+      </c>
+      <c r="BJ375">
+        <v>19</v>
+      </c>
+      <c r="BK375">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>4554755</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45137.625</v>
+      </c>
+      <c r="F376">
+        <v>27</v>
+      </c>
+      <c r="G376" t="s">
+        <v>84</v>
+      </c>
+      <c r="H376" t="s">
+        <v>76</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>1</v>
+      </c>
+      <c r="L376">
+        <v>2</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>2</v>
+      </c>
+      <c r="O376" t="s">
+        <v>301</v>
+      </c>
+      <c r="P376" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q376">
+        <v>5</v>
+      </c>
+      <c r="R376">
+        <v>8</v>
+      </c>
+      <c r="S376">
+        <v>13</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
+        <v>2</v>
+      </c>
+      <c r="V376">
+        <v>5.5</v>
+      </c>
+      <c r="W376">
+        <v>1.5</v>
+      </c>
+      <c r="X376">
+        <v>2.5</v>
+      </c>
+      <c r="Y376">
+        <v>3.5</v>
+      </c>
+      <c r="Z376">
+        <v>1.29</v>
+      </c>
+      <c r="AA376">
+        <v>11</v>
+      </c>
+      <c r="AB376">
+        <v>1.05</v>
+      </c>
+      <c r="AC376">
+        <v>1.73</v>
+      </c>
+      <c r="AD376">
+        <v>3.32</v>
+      </c>
+      <c r="AE376">
+        <v>4.75</v>
+      </c>
+      <c r="AF376">
+        <v>1.07</v>
+      </c>
+      <c r="AG376">
+        <v>7.61</v>
+      </c>
+      <c r="AH376">
+        <v>1.45</v>
+      </c>
+      <c r="AI376">
+        <v>2.66</v>
+      </c>
+      <c r="AJ376">
+        <v>2.35</v>
+      </c>
+      <c r="AK376">
+        <v>1.52</v>
+      </c>
+      <c r="AL376">
+        <v>2.2</v>
+      </c>
+      <c r="AM376">
+        <v>1.62</v>
+      </c>
+      <c r="AN376">
+        <v>1.17</v>
+      </c>
+      <c r="AO376">
+        <v>1.3</v>
+      </c>
+      <c r="AP376">
+        <v>2</v>
+      </c>
+      <c r="AQ376">
+        <v>2.17</v>
+      </c>
+      <c r="AR376">
+        <v>1.17</v>
+      </c>
+      <c r="AS376">
+        <v>2.23</v>
+      </c>
+      <c r="AT376">
+        <v>1.08</v>
+      </c>
+      <c r="AU376">
+        <v>1.5</v>
+      </c>
+      <c r="AV376">
+        <v>1.17</v>
+      </c>
+      <c r="AW376">
+        <v>2.67</v>
+      </c>
+      <c r="AX376">
+        <v>1.41</v>
+      </c>
+      <c r="AY376">
+        <v>8.5</v>
+      </c>
+      <c r="AZ376">
+        <v>3.51</v>
+      </c>
+      <c r="BA376">
+        <v>1.3</v>
+      </c>
+      <c r="BB376">
+        <v>1.57</v>
+      </c>
+      <c r="BC376">
+        <v>1.98</v>
+      </c>
+      <c r="BD376">
+        <v>2.7</v>
+      </c>
+      <c r="BE376">
+        <v>3.8</v>
+      </c>
+      <c r="BF376">
+        <v>6</v>
+      </c>
+      <c r="BG376">
+        <v>2</v>
+      </c>
+      <c r="BH376">
+        <v>2</v>
+      </c>
+      <c r="BI376">
+        <v>6</v>
+      </c>
+      <c r="BJ376">
+        <v>8</v>
+      </c>
+      <c r="BK376">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>4554752</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45137.72916666666</v>
+      </c>
+      <c r="F377">
+        <v>27</v>
+      </c>
+      <c r="G377" t="s">
+        <v>90</v>
+      </c>
+      <c r="H377" t="s">
+        <v>71</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>1</v>
+      </c>
+      <c r="M377">
+        <v>1</v>
+      </c>
+      <c r="N377">
+        <v>2</v>
+      </c>
+      <c r="O377" t="s">
+        <v>121</v>
+      </c>
+      <c r="P377" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q377">
+        <v>4</v>
+      </c>
+      <c r="R377">
+        <v>2</v>
+      </c>
+      <c r="S377">
+        <v>6</v>
+      </c>
+      <c r="T377">
+        <v>3.4</v>
+      </c>
+      <c r="U377">
+        <v>1.83</v>
+      </c>
+      <c r="V377">
+        <v>4</v>
+      </c>
+      <c r="W377">
+        <v>1.62</v>
+      </c>
+      <c r="X377">
+        <v>2.2</v>
+      </c>
+      <c r="Y377">
+        <v>4</v>
+      </c>
+      <c r="Z377">
+        <v>1.22</v>
+      </c>
+      <c r="AA377">
+        <v>13</v>
+      </c>
+      <c r="AB377">
+        <v>1.04</v>
+      </c>
+      <c r="AC377">
+        <v>2.35</v>
+      </c>
+      <c r="AD377">
+        <v>2.75</v>
+      </c>
+      <c r="AE377">
+        <v>3</v>
+      </c>
+      <c r="AF377">
+        <v>1.09</v>
+      </c>
+      <c r="AG377">
+        <v>5.8</v>
+      </c>
+      <c r="AH377">
+        <v>1.53</v>
+      </c>
+      <c r="AI377">
+        <v>2.35</v>
+      </c>
+      <c r="AJ377">
+        <v>2.69</v>
+      </c>
+      <c r="AK377">
+        <v>1.39</v>
+      </c>
+      <c r="AL377">
+        <v>2.25</v>
+      </c>
+      <c r="AM377">
+        <v>1.57</v>
+      </c>
+      <c r="AN377">
+        <v>1.33</v>
+      </c>
+      <c r="AO377">
+        <v>1.4</v>
+      </c>
+      <c r="AP377">
+        <v>1.53</v>
+      </c>
+      <c r="AQ377">
+        <v>1.58</v>
+      </c>
+      <c r="AR377">
+        <v>0.92</v>
+      </c>
+      <c r="AS377">
+        <v>1.54</v>
+      </c>
+      <c r="AT377">
+        <v>0.92</v>
+      </c>
+      <c r="AU377">
+        <v>1.59</v>
+      </c>
+      <c r="AV377">
+        <v>1.16</v>
+      </c>
+      <c r="AW377">
+        <v>2.75</v>
+      </c>
+      <c r="AX377">
+        <v>1.83</v>
+      </c>
+      <c r="AY377">
+        <v>8</v>
+      </c>
+      <c r="AZ377">
+        <v>2.2</v>
+      </c>
+      <c r="BA377">
+        <v>1.21</v>
+      </c>
+      <c r="BB377">
+        <v>1.4</v>
+      </c>
+      <c r="BC377">
+        <v>2</v>
+      </c>
+      <c r="BD377">
+        <v>2.2</v>
+      </c>
+      <c r="BE377">
+        <v>3</v>
+      </c>
+      <c r="BF377">
+        <v>5</v>
+      </c>
+      <c r="BG377">
+        <v>5</v>
+      </c>
+      <c r="BH377">
+        <v>6</v>
+      </c>
+      <c r="BI377">
+        <v>8</v>
+      </c>
+      <c r="BJ377">
+        <v>11</v>
+      </c>
+      <c r="BK377">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>4554753</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45137.72916666666</v>
+      </c>
+      <c r="F378">
+        <v>27</v>
+      </c>
+      <c r="G378" t="s">
+        <v>91</v>
+      </c>
+      <c r="H378" t="s">
+        <v>77</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="O378" t="s">
+        <v>209</v>
+      </c>
+      <c r="P378" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q378">
+        <v>2</v>
+      </c>
+      <c r="R378">
+        <v>1</v>
+      </c>
+      <c r="S378">
+        <v>3</v>
+      </c>
+      <c r="T378">
+        <v>3.6</v>
+      </c>
+      <c r="U378">
+        <v>1.83</v>
+      </c>
+      <c r="V378">
+        <v>3.75</v>
+      </c>
+      <c r="W378">
+        <v>1.67</v>
+      </c>
+      <c r="X378">
+        <v>2.1</v>
+      </c>
+      <c r="Y378">
+        <v>4.33</v>
+      </c>
+      <c r="Z378">
+        <v>1.2</v>
+      </c>
+      <c r="AA378">
+        <v>15</v>
+      </c>
+      <c r="AB378">
+        <v>1.03</v>
+      </c>
+      <c r="AC378">
+        <v>2.55</v>
+      </c>
+      <c r="AD378">
+        <v>2.8</v>
+      </c>
+      <c r="AE378">
+        <v>2.7</v>
+      </c>
+      <c r="AF378">
+        <v>1.13</v>
+      </c>
+      <c r="AG378">
+        <v>6</v>
+      </c>
+      <c r="AH378">
+        <v>1.58</v>
+      </c>
+      <c r="AI378">
+        <v>2.2</v>
+      </c>
+      <c r="AJ378">
+        <v>2.88</v>
+      </c>
+      <c r="AK378">
+        <v>1.4</v>
+      </c>
+      <c r="AL378">
+        <v>2.25</v>
+      </c>
+      <c r="AM378">
+        <v>1.57</v>
+      </c>
+      <c r="AN378">
+        <v>1.45</v>
+      </c>
+      <c r="AO378">
+        <v>1.42</v>
+      </c>
+      <c r="AP378">
+        <v>1.45</v>
+      </c>
+      <c r="AQ378">
+        <v>1.08</v>
+      </c>
+      <c r="AR378">
+        <v>0.75</v>
+      </c>
+      <c r="AS378">
+        <v>1.23</v>
+      </c>
+      <c r="AT378">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU378">
+        <v>1.49</v>
+      </c>
+      <c r="AV378">
+        <v>1.16</v>
+      </c>
+      <c r="AW378">
+        <v>2.65</v>
+      </c>
+      <c r="AX378">
+        <v>1.75</v>
+      </c>
+      <c r="AY378">
+        <v>7.5</v>
+      </c>
+      <c r="AZ378">
+        <v>2.53</v>
+      </c>
+      <c r="BA378">
+        <v>1.43</v>
+      </c>
+      <c r="BB378">
+        <v>1.95</v>
+      </c>
+      <c r="BC378">
+        <v>2.4</v>
+      </c>
+      <c r="BD378">
+        <v>3.4</v>
+      </c>
+      <c r="BE378">
+        <v>4.45</v>
+      </c>
+      <c r="BF378">
+        <v>6</v>
+      </c>
+      <c r="BG378">
+        <v>0</v>
+      </c>
+      <c r="BH378">
+        <v>1</v>
+      </c>
+      <c r="BI378">
+        <v>3</v>
+      </c>
+      <c r="BJ378">
+        <v>7</v>
+      </c>
+      <c r="BK378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>5019536</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45137.83333333334</v>
+      </c>
+      <c r="F379">
+        <v>27</v>
+      </c>
+      <c r="G379" t="s">
+        <v>87</v>
+      </c>
+      <c r="H379" t="s">
+        <v>72</v>
+      </c>
+      <c r="I379">
+        <v>3</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379">
+        <v>4</v>
+      </c>
+      <c r="L379">
+        <v>4</v>
+      </c>
+      <c r="M379">
+        <v>2</v>
+      </c>
+      <c r="N379">
+        <v>6</v>
+      </c>
+      <c r="O379" t="s">
+        <v>302</v>
+      </c>
+      <c r="P379" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q379">
+        <v>5</v>
+      </c>
+      <c r="R379">
+        <v>5</v>
+      </c>
+      <c r="S379">
+        <v>10</v>
+      </c>
+      <c r="T379">
+        <v>2.63</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
+        <v>5</v>
+      </c>
+      <c r="W379">
+        <v>1.53</v>
+      </c>
+      <c r="X379">
+        <v>2.38</v>
+      </c>
+      <c r="Y379">
+        <v>3.75</v>
+      </c>
+      <c r="Z379">
+        <v>1.25</v>
+      </c>
+      <c r="AA379">
+        <v>11</v>
+      </c>
+      <c r="AB379">
+        <v>1.05</v>
+      </c>
+      <c r="AC379">
+        <v>1.87</v>
+      </c>
+      <c r="AD379">
+        <v>3.2</v>
+      </c>
+      <c r="AE379">
+        <v>4.1</v>
+      </c>
+      <c r="AF379">
+        <v>1.08</v>
+      </c>
+      <c r="AG379">
+        <v>7.29</v>
+      </c>
+      <c r="AH379">
+        <v>1.47</v>
+      </c>
+      <c r="AI379">
+        <v>2.59</v>
+      </c>
+      <c r="AJ379">
+        <v>2.4</v>
+      </c>
+      <c r="AK379">
+        <v>1.5</v>
+      </c>
+      <c r="AL379">
+        <v>2.2</v>
+      </c>
+      <c r="AM379">
+        <v>1.62</v>
+      </c>
+      <c r="AN379">
+        <v>1.2</v>
+      </c>
+      <c r="AO379">
+        <v>1.32</v>
+      </c>
+      <c r="AP379">
+        <v>1.88</v>
+      </c>
+      <c r="AQ379">
+        <v>2.08</v>
+      </c>
+      <c r="AR379">
+        <v>0.92</v>
+      </c>
+      <c r="AS379">
+        <v>2.15</v>
+      </c>
+      <c r="AT379">
+        <v>0.85</v>
+      </c>
+      <c r="AU379">
+        <v>1.52</v>
+      </c>
+      <c r="AV379">
+        <v>1.2</v>
+      </c>
+      <c r="AW379">
+        <v>2.72</v>
+      </c>
+      <c r="AX379">
+        <v>1.45</v>
+      </c>
+      <c r="AY379">
+        <v>8.5</v>
+      </c>
+      <c r="AZ379">
+        <v>3.29</v>
+      </c>
+      <c r="BA379">
+        <v>1.32</v>
+      </c>
+      <c r="BB379">
+        <v>1.6</v>
+      </c>
+      <c r="BC379">
+        <v>2.05</v>
+      </c>
+      <c r="BD379">
+        <v>2.8</v>
+      </c>
+      <c r="BE379">
+        <v>4</v>
+      </c>
+      <c r="BF379">
+        <v>13</v>
+      </c>
+      <c r="BG379">
+        <v>5</v>
+      </c>
+      <c r="BH379">
+        <v>6</v>
+      </c>
+      <c r="BI379">
+        <v>2</v>
+      </c>
+      <c r="BJ379">
+        <v>19</v>
+      </c>
+      <c r="BK379">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -904,10 +904,10 @@
     <t>['29', '90+4']</t>
   </si>
   <si>
-    <t>['74', '90+2']</t>
+    <t>['69', '88']</t>
   </si>
   <si>
-    <t>['69', '88']</t>
+    <t>['74', '90+2']</t>
   </si>
   <si>
     <t>['23', '71']</t>
@@ -68072,7 +68072,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>4554732</v>
+        <v>5019532</v>
       </c>
       <c r="C349" t="s">
         <v>63</v>
@@ -68087,10 +68087,10 @@
         <v>25</v>
       </c>
       <c r="G349" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H349" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -68105,154 +68105,154 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O349" t="s">
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="Q349">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R349">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S349">
         <v>6</v>
       </c>
       <c r="T349">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U349">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V349">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="W349">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="X349">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="Y349">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Z349">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AA349">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AB349">
         <v>1.04</v>
       </c>
       <c r="AC349">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="AD349">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AE349">
-        <v>4</v>
+        <v>2.49</v>
       </c>
       <c r="AF349">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG349">
-        <v>7.77</v>
+        <v>5.7</v>
       </c>
       <c r="AH349">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AI349">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="AJ349">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AK349">
+        <v>1.4</v>
+      </c>
+      <c r="AL349">
+        <v>2.23</v>
+      </c>
+      <c r="AM349">
+        <v>1.63</v>
+      </c>
+      <c r="AN349">
+        <v>1.47</v>
+      </c>
+      <c r="AO349">
+        <v>1.38</v>
+      </c>
+      <c r="AP349">
+        <v>1.39</v>
+      </c>
+      <c r="AQ349">
+        <v>1.18</v>
+      </c>
+      <c r="AR349">
+        <v>0.73</v>
+      </c>
+      <c r="AS349">
+        <v>1.23</v>
+      </c>
+      <c r="AT349">
+        <v>0.85</v>
+      </c>
+      <c r="AU349">
+        <v>1.11</v>
+      </c>
+      <c r="AV349">
+        <v>1.22</v>
+      </c>
+      <c r="AW349">
+        <v>2.33</v>
+      </c>
+      <c r="AX349">
+        <v>2</v>
+      </c>
+      <c r="AY349">
+        <v>7.5</v>
+      </c>
+      <c r="AZ349">
+        <v>2.1</v>
+      </c>
+      <c r="BA349">
+        <v>1.3</v>
+      </c>
+      <c r="BB349">
         <v>1.57</v>
       </c>
-      <c r="AL349">
-        <v>2.06</v>
-      </c>
-      <c r="AM349">
-        <v>1.69</v>
-      </c>
-      <c r="AN349">
-        <v>1.25</v>
-      </c>
-      <c r="AO349">
-        <v>1.28</v>
-      </c>
-      <c r="AP349">
-        <v>1.85</v>
-      </c>
-      <c r="AQ349">
-        <v>1.36</v>
-      </c>
-      <c r="AR349">
-        <v>1</v>
-      </c>
-      <c r="AS349">
-        <v>1.38</v>
-      </c>
-      <c r="AT349">
-        <v>1.08</v>
-      </c>
-      <c r="AU349">
-        <v>1.75</v>
-      </c>
-      <c r="AV349">
-        <v>1.18</v>
-      </c>
-      <c r="AW349">
-        <v>2.93</v>
-      </c>
-      <c r="AX349">
-        <v>1.55</v>
-      </c>
-      <c r="AY349">
-        <v>8</v>
-      </c>
-      <c r="AZ349">
-        <v>3.02</v>
-      </c>
-      <c r="BA349">
-        <v>1.27</v>
-      </c>
-      <c r="BB349">
-        <v>1.5</v>
-      </c>
       <c r="BC349">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BD349">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE349">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BF349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG349">
         <v>4</v>
       </c>
       <c r="BH349">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BI349">
         <v>3</v>
       </c>
       <c r="BJ349">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BK349">
         <v>7</v>
@@ -68263,7 +68263,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>5019532</v>
+        <v>4554732</v>
       </c>
       <c r="C350" t="s">
         <v>63</v>
@@ -68278,10 +68278,10 @@
         <v>25</v>
       </c>
       <c r="G350" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H350" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I350">
         <v>0</v>
@@ -68296,154 +68296,154 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O350" t="s">
         <v>96</v>
       </c>
       <c r="P350" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="Q350">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S350">
         <v>6</v>
       </c>
       <c r="T350">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U350">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V350">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="W350">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="X350">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="Y350">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Z350">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AA350">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AB350">
         <v>1.04</v>
       </c>
       <c r="AC350">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="AD350">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AE350">
-        <v>2.49</v>
+        <v>4</v>
       </c>
       <c r="AF350">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AG350">
-        <v>5.7</v>
+        <v>7.77</v>
       </c>
       <c r="AH350">
+        <v>1.45</v>
+      </c>
+      <c r="AI350">
+        <v>2.69</v>
+      </c>
+      <c r="AJ350">
+        <v>2.35</v>
+      </c>
+      <c r="AK350">
+        <v>1.57</v>
+      </c>
+      <c r="AL350">
+        <v>2.06</v>
+      </c>
+      <c r="AM350">
+        <v>1.69</v>
+      </c>
+      <c r="AN350">
+        <v>1.25</v>
+      </c>
+      <c r="AO350">
+        <v>1.28</v>
+      </c>
+      <c r="AP350">
+        <v>1.85</v>
+      </c>
+      <c r="AQ350">
+        <v>1.36</v>
+      </c>
+      <c r="AR350">
+        <v>1</v>
+      </c>
+      <c r="AS350">
+        <v>1.38</v>
+      </c>
+      <c r="AT350">
+        <v>1.08</v>
+      </c>
+      <c r="AU350">
+        <v>1.75</v>
+      </c>
+      <c r="AV350">
+        <v>1.18</v>
+      </c>
+      <c r="AW350">
+        <v>2.93</v>
+      </c>
+      <c r="AX350">
+        <v>1.55</v>
+      </c>
+      <c r="AY350">
+        <v>8</v>
+      </c>
+      <c r="AZ350">
+        <v>3.02</v>
+      </c>
+      <c r="BA350">
+        <v>1.27</v>
+      </c>
+      <c r="BB350">
         <v>1.5</v>
       </c>
-      <c r="AI350">
-        <v>2.4</v>
-      </c>
-      <c r="AJ350">
-        <v>2.7</v>
-      </c>
-      <c r="AK350">
-        <v>1.4</v>
-      </c>
-      <c r="AL350">
-        <v>2.23</v>
-      </c>
-      <c r="AM350">
-        <v>1.63</v>
-      </c>
-      <c r="AN350">
-        <v>1.47</v>
-      </c>
-      <c r="AO350">
-        <v>1.38</v>
-      </c>
-      <c r="AP350">
-        <v>1.39</v>
-      </c>
-      <c r="AQ350">
-        <v>1.18</v>
-      </c>
-      <c r="AR350">
-        <v>0.73</v>
-      </c>
-      <c r="AS350">
-        <v>1.23</v>
-      </c>
-      <c r="AT350">
-        <v>0.85</v>
-      </c>
-      <c r="AU350">
-        <v>1.11</v>
-      </c>
-      <c r="AV350">
-        <v>1.22</v>
-      </c>
-      <c r="AW350">
-        <v>2.33</v>
-      </c>
-      <c r="AX350">
-        <v>2</v>
-      </c>
-      <c r="AY350">
-        <v>7.5</v>
-      </c>
-      <c r="AZ350">
-        <v>2.1</v>
-      </c>
-      <c r="BA350">
-        <v>1.3</v>
-      </c>
-      <c r="BB350">
-        <v>1.57</v>
-      </c>
       <c r="BC350">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD350">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE350">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG350">
         <v>4</v>
       </c>
       <c r="BH350">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BI350">
         <v>3</v>
       </c>
       <c r="BJ350">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BK350">
         <v>7</v>
@@ -69791,7 +69791,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>4554744</v>
+        <v>4554746</v>
       </c>
       <c r="C358" t="s">
         <v>63</v>
@@ -69806,175 +69806,175 @@
         <v>26</v>
       </c>
       <c r="G358" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H358" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K358">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L358">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M358">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N358">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O358" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="Q358">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R358">
+        <v>7</v>
+      </c>
+      <c r="S358">
+        <v>13</v>
+      </c>
+      <c r="T358">
+        <v>2.15</v>
+      </c>
+      <c r="U358">
+        <v>2.25</v>
+      </c>
+      <c r="V358">
         <v>6</v>
       </c>
-      <c r="S358">
-        <v>9</v>
-      </c>
-      <c r="T358">
-        <v>2.8</v>
-      </c>
-      <c r="U358">
-        <v>1.88</v>
-      </c>
-      <c r="V358">
-        <v>4.75</v>
-      </c>
       <c r="W358">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="X358">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="Y358">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="Z358">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AA358">
-        <v>14</v>
+        <v>7.25</v>
       </c>
       <c r="AB358">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AC358">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="AD358">
-        <v>2.9</v>
+        <v>4.05</v>
       </c>
       <c r="AE358">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="AF358">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AG358">
-        <v>6.25</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AH358">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="AI358">
-        <v>2.2</v>
+        <v>3.32</v>
       </c>
       <c r="AJ358">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="AK358">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AL358">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="AM358">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AN358">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO358">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AP358">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AQ358">
+        <v>1.85</v>
+      </c>
+      <c r="AR358">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS358">
+        <v>1.79</v>
+      </c>
+      <c r="AT358">
+        <v>0.71</v>
+      </c>
+      <c r="AU358">
+        <v>1.54</v>
+      </c>
+      <c r="AV358">
         <v>1.31</v>
       </c>
-      <c r="AR358">
-        <v>0.92</v>
-      </c>
-      <c r="AS358">
-        <v>1.29</v>
-      </c>
-      <c r="AT358">
-        <v>0.93</v>
-      </c>
-      <c r="AU358">
-        <v>1.28</v>
-      </c>
-      <c r="AV358">
-        <v>1.08</v>
-      </c>
       <c r="AW358">
-        <v>2.36</v>
+        <v>2.85</v>
       </c>
       <c r="AX358">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AY358">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ358">
-        <v>2.64</v>
+        <v>3.35</v>
       </c>
       <c r="BA358">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="BB358">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="BC358">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="BD358">
-        <v>2.58</v>
+        <v>2.09</v>
       </c>
       <c r="BE358">
-        <v>3.48</v>
+        <v>2.72</v>
       </c>
       <c r="BF358">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG358">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH358">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI358">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ358">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BK358">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:63">
@@ -69982,7 +69982,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>4554746</v>
+        <v>4554744</v>
       </c>
       <c r="C359" t="s">
         <v>63</v>
@@ -69997,175 +69997,175 @@
         <v>26</v>
       </c>
       <c r="G359" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H359" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359" t="s">
+        <v>96</v>
+      </c>
+      <c r="P359" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q359">
         <v>3</v>
       </c>
-      <c r="L359">
-        <v>2</v>
-      </c>
-      <c r="M359">
-        <v>2</v>
-      </c>
-      <c r="N359">
+      <c r="R359">
+        <v>6</v>
+      </c>
+      <c r="S359">
+        <v>9</v>
+      </c>
+      <c r="T359">
+        <v>2.8</v>
+      </c>
+      <c r="U359">
+        <v>1.88</v>
+      </c>
+      <c r="V359">
+        <v>4.75</v>
+      </c>
+      <c r="W359">
+        <v>1.6</v>
+      </c>
+      <c r="X359">
+        <v>2.2</v>
+      </c>
+      <c r="Y359">
+        <v>3.6</v>
+      </c>
+      <c r="Z359">
+        <v>1.25</v>
+      </c>
+      <c r="AA359">
+        <v>14</v>
+      </c>
+      <c r="AB359">
+        <v>1.03</v>
+      </c>
+      <c r="AC359">
+        <v>2.05</v>
+      </c>
+      <c r="AD359">
+        <v>2.9</v>
+      </c>
+      <c r="AE359">
         <v>4</v>
       </c>
-      <c r="O359" t="s">
-        <v>291</v>
-      </c>
-      <c r="P359" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q359">
+      <c r="AF359">
+        <v>1.12</v>
+      </c>
+      <c r="AG359">
+        <v>6.25</v>
+      </c>
+      <c r="AH359">
+        <v>1.58</v>
+      </c>
+      <c r="AI359">
+        <v>2.2</v>
+      </c>
+      <c r="AJ359">
+        <v>2.8</v>
+      </c>
+      <c r="AK359">
+        <v>1.38</v>
+      </c>
+      <c r="AL359">
+        <v>2.25</v>
+      </c>
+      <c r="AM359">
+        <v>1.55</v>
+      </c>
+      <c r="AN359">
+        <v>1.25</v>
+      </c>
+      <c r="AO359">
+        <v>1.38</v>
+      </c>
+      <c r="AP359">
+        <v>1.75</v>
+      </c>
+      <c r="AQ359">
+        <v>1.31</v>
+      </c>
+      <c r="AR359">
+        <v>0.92</v>
+      </c>
+      <c r="AS359">
+        <v>1.29</v>
+      </c>
+      <c r="AT359">
+        <v>0.93</v>
+      </c>
+      <c r="AU359">
+        <v>1.28</v>
+      </c>
+      <c r="AV359">
+        <v>1.08</v>
+      </c>
+      <c r="AW359">
+        <v>2.36</v>
+      </c>
+      <c r="AX359">
+        <v>1.64</v>
+      </c>
+      <c r="AY359">
+        <v>8.5</v>
+      </c>
+      <c r="AZ359">
+        <v>2.64</v>
+      </c>
+      <c r="BA359">
+        <v>1.29</v>
+      </c>
+      <c r="BB359">
+        <v>1.56</v>
+      </c>
+      <c r="BC359">
+        <v>1.98</v>
+      </c>
+      <c r="BD359">
+        <v>2.58</v>
+      </c>
+      <c r="BE359">
+        <v>3.48</v>
+      </c>
+      <c r="BF359">
+        <v>0</v>
+      </c>
+      <c r="BG359">
+        <v>2</v>
+      </c>
+      <c r="BH359">
+        <v>2</v>
+      </c>
+      <c r="BI359">
+        <v>4</v>
+      </c>
+      <c r="BJ359">
+        <v>2</v>
+      </c>
+      <c r="BK359">
         <v>6</v>
-      </c>
-      <c r="R359">
-        <v>7</v>
-      </c>
-      <c r="S359">
-        <v>13</v>
-      </c>
-      <c r="T359">
-        <v>2.15</v>
-      </c>
-      <c r="U359">
-        <v>2.25</v>
-      </c>
-      <c r="V359">
-        <v>6</v>
-      </c>
-      <c r="W359">
-        <v>1.4</v>
-      </c>
-      <c r="X359">
-        <v>2.78</v>
-      </c>
-      <c r="Y359">
-        <v>2.94</v>
-      </c>
-      <c r="Z359">
-        <v>1.36</v>
-      </c>
-      <c r="AA359">
-        <v>7.25</v>
-      </c>
-      <c r="AB359">
-        <v>1.07</v>
-      </c>
-      <c r="AC359">
-        <v>1.52</v>
-      </c>
-      <c r="AD359">
-        <v>4.05</v>
-      </c>
-      <c r="AE359">
-        <v>6.2</v>
-      </c>
-      <c r="AF359">
-        <v>1.04</v>
-      </c>
-      <c r="AG359">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AH359">
-        <v>1.31</v>
-      </c>
-      <c r="AI359">
-        <v>3.32</v>
-      </c>
-      <c r="AJ359">
-        <v>1.97</v>
-      </c>
-      <c r="AK359">
-        <v>1.8</v>
-      </c>
-      <c r="AL359">
-        <v>2.04</v>
-      </c>
-      <c r="AM359">
-        <v>1.71</v>
-      </c>
-      <c r="AN359">
-        <v>1.11</v>
-      </c>
-      <c r="AO359">
-        <v>1.2</v>
-      </c>
-      <c r="AP359">
-        <v>2.5</v>
-      </c>
-      <c r="AQ359">
-        <v>1.85</v>
-      </c>
-      <c r="AR359">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AS359">
-        <v>1.79</v>
-      </c>
-      <c r="AT359">
-        <v>0.71</v>
-      </c>
-      <c r="AU359">
-        <v>1.54</v>
-      </c>
-      <c r="AV359">
-        <v>1.31</v>
-      </c>
-      <c r="AW359">
-        <v>2.85</v>
-      </c>
-      <c r="AX359">
-        <v>1.41</v>
-      </c>
-      <c r="AY359">
-        <v>9.5</v>
-      </c>
-      <c r="AZ359">
-        <v>3.35</v>
-      </c>
-      <c r="BA359">
-        <v>1.18</v>
-      </c>
-      <c r="BB359">
-        <v>1.36</v>
-      </c>
-      <c r="BC359">
-        <v>1.65</v>
-      </c>
-      <c r="BD359">
-        <v>2.09</v>
-      </c>
-      <c r="BE359">
-        <v>2.72</v>
-      </c>
-      <c r="BF359">
-        <v>5</v>
-      </c>
-      <c r="BG359">
-        <v>8</v>
-      </c>
-      <c r="BH359">
-        <v>8</v>
-      </c>
-      <c r="BI359">
-        <v>5</v>
-      </c>
-      <c r="BJ359">
-        <v>13</v>
-      </c>
-      <c r="BK359">
-        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:63">
@@ -71319,7 +71319,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>4554754</v>
+        <v>4554758</v>
       </c>
       <c r="C366" t="s">
         <v>63</v>
@@ -71334,175 +71334,175 @@
         <v>27</v>
       </c>
       <c r="G366" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H366" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I366">
         <v>0</v>
       </c>
       <c r="J366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L366">
         <v>2</v>
       </c>
       <c r="M366">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N366">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O366" t="s">
         <v>296</v>
       </c>
       <c r="P366" t="s">
-        <v>96</v>
+        <v>402</v>
       </c>
       <c r="Q366">
+        <v>6</v>
+      </c>
+      <c r="R366">
+        <v>5</v>
+      </c>
+      <c r="S366">
+        <v>11</v>
+      </c>
+      <c r="T366">
+        <v>3</v>
+      </c>
+      <c r="U366">
+        <v>1.83</v>
+      </c>
+      <c r="V366">
+        <v>4</v>
+      </c>
+      <c r="W366">
+        <v>1.54</v>
+      </c>
+      <c r="X366">
+        <v>2.21</v>
+      </c>
+      <c r="Y366">
+        <v>3.55</v>
+      </c>
+      <c r="Z366">
+        <v>1.25</v>
+      </c>
+      <c r="AA366">
+        <v>11</v>
+      </c>
+      <c r="AB366">
+        <v>1.04</v>
+      </c>
+      <c r="AC366">
+        <v>2.15</v>
+      </c>
+      <c r="AD366">
+        <v>2.9</v>
+      </c>
+      <c r="AE366">
+        <v>3.6</v>
+      </c>
+      <c r="AF366">
+        <v>1.11</v>
+      </c>
+      <c r="AG366">
+        <v>5.75</v>
+      </c>
+      <c r="AH366">
+        <v>1.52</v>
+      </c>
+      <c r="AI366">
+        <v>2.35</v>
+      </c>
+      <c r="AJ366">
+        <v>2.55</v>
+      </c>
+      <c r="AK366">
+        <v>1.44</v>
+      </c>
+      <c r="AL366">
+        <v>2.15</v>
+      </c>
+      <c r="AM366">
+        <v>1.62</v>
+      </c>
+      <c r="AN366">
+        <v>1.3</v>
+      </c>
+      <c r="AO366">
+        <v>1.38</v>
+      </c>
+      <c r="AP366">
+        <v>1.58</v>
+      </c>
+      <c r="AQ366">
+        <v>2</v>
+      </c>
+      <c r="AR366">
+        <v>1.33</v>
+      </c>
+      <c r="AS366">
+        <v>1.85</v>
+      </c>
+      <c r="AT366">
+        <v>1.46</v>
+      </c>
+      <c r="AU366">
+        <v>1.85</v>
+      </c>
+      <c r="AV366">
+        <v>1.48</v>
+      </c>
+      <c r="AW366">
+        <v>3.33</v>
+      </c>
+      <c r="AX366">
+        <v>1.64</v>
+      </c>
+      <c r="AY366">
+        <v>8</v>
+      </c>
+      <c r="AZ366">
+        <v>2.77</v>
+      </c>
+      <c r="BA366">
+        <v>1.37</v>
+      </c>
+      <c r="BB366">
+        <v>1.68</v>
+      </c>
+      <c r="BC366">
+        <v>2.12</v>
+      </c>
+      <c r="BD366">
+        <v>2.84</v>
+      </c>
+      <c r="BE366">
+        <v>4</v>
+      </c>
+      <c r="BF366">
         <v>7</v>
       </c>
-      <c r="R366">
-        <v>2</v>
-      </c>
-      <c r="S366">
-        <v>9</v>
-      </c>
-      <c r="T366">
-        <v>3.2</v>
-      </c>
-      <c r="U366">
-        <v>1.95</v>
-      </c>
-      <c r="V366">
-        <v>3.3</v>
-      </c>
-      <c r="W366">
-        <v>1.5</v>
-      </c>
-      <c r="X366">
-        <v>2.35</v>
-      </c>
-      <c r="Y366">
-        <v>3.3</v>
-      </c>
-      <c r="Z366">
-        <v>1.27</v>
-      </c>
-      <c r="AA366">
-        <v>9.5</v>
-      </c>
-      <c r="AB366">
-        <v>1.05</v>
-      </c>
-      <c r="AC366">
-        <v>2.5</v>
-      </c>
-      <c r="AD366">
-        <v>2.95</v>
-      </c>
-      <c r="AE366">
-        <v>2.85</v>
-      </c>
-      <c r="AF366">
-        <v>1.1</v>
-      </c>
-      <c r="AG366">
-        <v>5.7</v>
-      </c>
-      <c r="AH366">
-        <v>1.42</v>
-      </c>
-      <c r="AI366">
-        <v>2.6</v>
-      </c>
-      <c r="AJ366">
-        <v>2.45</v>
-      </c>
-      <c r="AK366">
-        <v>1.53</v>
-      </c>
-      <c r="AL366">
-        <v>2.05</v>
-      </c>
-      <c r="AM366">
-        <v>1.66</v>
-      </c>
-      <c r="AN366">
-        <v>1.39</v>
-      </c>
-      <c r="AO366">
-        <v>1.37</v>
-      </c>
-      <c r="AP366">
-        <v>1.47</v>
-      </c>
-      <c r="AQ366">
-        <v>1.17</v>
-      </c>
-      <c r="AR366">
-        <v>1.5</v>
-      </c>
-      <c r="AS366">
-        <v>1.31</v>
-      </c>
-      <c r="AT366">
-        <v>1.38</v>
-      </c>
-      <c r="AU366">
-        <v>1.6</v>
-      </c>
-      <c r="AV366">
-        <v>1.38</v>
-      </c>
-      <c r="AW366">
-        <v>2.98</v>
-      </c>
-      <c r="AX366">
-        <v>1.41</v>
-      </c>
-      <c r="AY366">
-        <v>9</v>
-      </c>
-      <c r="AZ366">
-        <v>3.58</v>
-      </c>
-      <c r="BA366">
-        <v>1.21</v>
-      </c>
-      <c r="BB366">
-        <v>1.42</v>
-      </c>
-      <c r="BC366">
-        <v>1.75</v>
-      </c>
-      <c r="BD366">
-        <v>2.19</v>
-      </c>
-      <c r="BE366">
-        <v>2.88</v>
-      </c>
-      <c r="BF366">
+      <c r="BG366">
         <v>6</v>
-      </c>
-      <c r="BG366">
-        <v>2</v>
       </c>
       <c r="BH366">
         <v>7</v>
       </c>
       <c r="BI366">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ366">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK366">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:63">
@@ -71510,7 +71510,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>4554758</v>
+        <v>4554754</v>
       </c>
       <c r="C367" t="s">
         <v>63</v>
@@ -71525,175 +71525,175 @@
         <v>27</v>
       </c>
       <c r="G367" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H367" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L367">
         <v>2</v>
       </c>
       <c r="M367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N367">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O367" t="s">
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="Q367">
+        <v>7</v>
+      </c>
+      <c r="R367">
+        <v>2</v>
+      </c>
+      <c r="S367">
+        <v>9</v>
+      </c>
+      <c r="T367">
+        <v>3.2</v>
+      </c>
+      <c r="U367">
+        <v>1.95</v>
+      </c>
+      <c r="V367">
+        <v>3.3</v>
+      </c>
+      <c r="W367">
+        <v>1.5</v>
+      </c>
+      <c r="X367">
+        <v>2.35</v>
+      </c>
+      <c r="Y367">
+        <v>3.3</v>
+      </c>
+      <c r="Z367">
+        <v>1.27</v>
+      </c>
+      <c r="AA367">
+        <v>9.5</v>
+      </c>
+      <c r="AB367">
+        <v>1.05</v>
+      </c>
+      <c r="AC367">
+        <v>2.5</v>
+      </c>
+      <c r="AD367">
+        <v>2.95</v>
+      </c>
+      <c r="AE367">
+        <v>2.85</v>
+      </c>
+      <c r="AF367">
+        <v>1.1</v>
+      </c>
+      <c r="AG367">
+        <v>5.7</v>
+      </c>
+      <c r="AH367">
+        <v>1.42</v>
+      </c>
+      <c r="AI367">
+        <v>2.6</v>
+      </c>
+      <c r="AJ367">
+        <v>2.45</v>
+      </c>
+      <c r="AK367">
+        <v>1.53</v>
+      </c>
+      <c r="AL367">
+        <v>2.05</v>
+      </c>
+      <c r="AM367">
+        <v>1.66</v>
+      </c>
+      <c r="AN367">
+        <v>1.39</v>
+      </c>
+      <c r="AO367">
+        <v>1.37</v>
+      </c>
+      <c r="AP367">
+        <v>1.47</v>
+      </c>
+      <c r="AQ367">
+        <v>1.17</v>
+      </c>
+      <c r="AR367">
+        <v>1.5</v>
+      </c>
+      <c r="AS367">
+        <v>1.31</v>
+      </c>
+      <c r="AT367">
+        <v>1.38</v>
+      </c>
+      <c r="AU367">
+        <v>1.6</v>
+      </c>
+      <c r="AV367">
+        <v>1.38</v>
+      </c>
+      <c r="AW367">
+        <v>2.98</v>
+      </c>
+      <c r="AX367">
+        <v>1.41</v>
+      </c>
+      <c r="AY367">
+        <v>9</v>
+      </c>
+      <c r="AZ367">
+        <v>3.58</v>
+      </c>
+      <c r="BA367">
+        <v>1.21</v>
+      </c>
+      <c r="BB367">
+        <v>1.42</v>
+      </c>
+      <c r="BC367">
+        <v>1.75</v>
+      </c>
+      <c r="BD367">
+        <v>2.19</v>
+      </c>
+      <c r="BE367">
+        <v>2.88</v>
+      </c>
+      <c r="BF367">
         <v>6</v>
       </c>
-      <c r="R367">
-        <v>5</v>
-      </c>
-      <c r="S367">
-        <v>11</v>
-      </c>
-      <c r="T367">
-        <v>3</v>
-      </c>
-      <c r="U367">
-        <v>1.83</v>
-      </c>
-      <c r="V367">
-        <v>4</v>
-      </c>
-      <c r="W367">
-        <v>1.54</v>
-      </c>
-      <c r="X367">
-        <v>2.21</v>
-      </c>
-      <c r="Y367">
-        <v>3.55</v>
-      </c>
-      <c r="Z367">
-        <v>1.25</v>
-      </c>
-      <c r="AA367">
-        <v>11</v>
-      </c>
-      <c r="AB367">
-        <v>1.04</v>
-      </c>
-      <c r="AC367">
-        <v>2.15</v>
-      </c>
-      <c r="AD367">
-        <v>2.9</v>
-      </c>
-      <c r="AE367">
-        <v>3.6</v>
-      </c>
-      <c r="AF367">
-        <v>1.11</v>
-      </c>
-      <c r="AG367">
-        <v>5.75</v>
-      </c>
-      <c r="AH367">
-        <v>1.52</v>
-      </c>
-      <c r="AI367">
-        <v>2.35</v>
-      </c>
-      <c r="AJ367">
-        <v>2.55</v>
-      </c>
-      <c r="AK367">
-        <v>1.44</v>
-      </c>
-      <c r="AL367">
-        <v>2.15</v>
-      </c>
-      <c r="AM367">
-        <v>1.62</v>
-      </c>
-      <c r="AN367">
-        <v>1.3</v>
-      </c>
-      <c r="AO367">
-        <v>1.38</v>
-      </c>
-      <c r="AP367">
-        <v>1.58</v>
-      </c>
-      <c r="AQ367">
-        <v>2</v>
-      </c>
-      <c r="AR367">
-        <v>1.33</v>
-      </c>
-      <c r="AS367">
-        <v>1.85</v>
-      </c>
-      <c r="AT367">
-        <v>1.46</v>
-      </c>
-      <c r="AU367">
-        <v>1.85</v>
-      </c>
-      <c r="AV367">
-        <v>1.48</v>
-      </c>
-      <c r="AW367">
-        <v>3.33</v>
-      </c>
-      <c r="AX367">
-        <v>1.64</v>
-      </c>
-      <c r="AY367">
-        <v>8</v>
-      </c>
-      <c r="AZ367">
-        <v>2.77</v>
-      </c>
-      <c r="BA367">
-        <v>1.37</v>
-      </c>
-      <c r="BB367">
-        <v>1.68</v>
-      </c>
-      <c r="BC367">
-        <v>2.12</v>
-      </c>
-      <c r="BD367">
-        <v>2.84</v>
-      </c>
-      <c r="BE367">
-        <v>4</v>
-      </c>
-      <c r="BF367">
-        <v>7</v>
-      </c>
       <c r="BG367">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH367">
         <v>7</v>
       </c>
       <c r="BI367">
+        <v>1</v>
+      </c>
+      <c r="BJ367">
+        <v>13</v>
+      </c>
+      <c r="BK367">
         <v>3</v>
-      </c>
-      <c r="BJ367">
-        <v>14</v>
-      </c>
-      <c r="BK367">
-        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:63">
@@ -71701,7 +71701,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>4554759</v>
+        <v>4554751</v>
       </c>
       <c r="C368" t="s">
         <v>63</v>
@@ -71716,175 +71716,175 @@
         <v>27</v>
       </c>
       <c r="G368" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H368" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O368" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="P368" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="Q368">
+        <v>7</v>
+      </c>
+      <c r="R368">
         <v>3</v>
       </c>
-      <c r="R368">
-        <v>5</v>
-      </c>
       <c r="S368">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T368">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="U368">
+        <v>1.82</v>
+      </c>
+      <c r="V368">
+        <v>3.4</v>
+      </c>
+      <c r="W368">
+        <v>1.55</v>
+      </c>
+      <c r="X368">
+        <v>2.2</v>
+      </c>
+      <c r="Y368">
+        <v>3.7</v>
+      </c>
+      <c r="Z368">
+        <v>1.22</v>
+      </c>
+      <c r="AA368">
+        <v>11</v>
+      </c>
+      <c r="AB368">
+        <v>1.03</v>
+      </c>
+      <c r="AC368">
+        <v>2.87</v>
+      </c>
+      <c r="AD368">
+        <v>2.87</v>
+      </c>
+      <c r="AE368">
+        <v>2.65</v>
+      </c>
+      <c r="AF368">
+        <v>1.12</v>
+      </c>
+      <c r="AG368">
+        <v>5.75</v>
+      </c>
+      <c r="AH368">
+        <v>1.53</v>
+      </c>
+      <c r="AI368">
+        <v>2.3</v>
+      </c>
+      <c r="AJ368">
+        <v>2.6</v>
+      </c>
+      <c r="AK368">
+        <v>1.43</v>
+      </c>
+      <c r="AL368">
+        <v>2.15</v>
+      </c>
+      <c r="AM368">
+        <v>1.6</v>
+      </c>
+      <c r="AN368">
+        <v>1.46</v>
+      </c>
+      <c r="AO368">
+        <v>1.39</v>
+      </c>
+      <c r="AP368">
+        <v>1.39</v>
+      </c>
+      <c r="AQ368">
+        <v>1.92</v>
+      </c>
+      <c r="AR368">
+        <v>2</v>
+      </c>
+      <c r="AS368">
         <v>1.85</v>
       </c>
-      <c r="V368">
-        <v>3.7</v>
-      </c>
-      <c r="W368">
-        <v>1.57</v>
-      </c>
-      <c r="X368">
-        <v>2.25</v>
-      </c>
-      <c r="Y368">
-        <v>3.6</v>
-      </c>
-      <c r="Z368">
-        <v>1.25</v>
-      </c>
-      <c r="AA368">
-        <v>10.5</v>
-      </c>
-      <c r="AB368">
-        <v>1.04</v>
-      </c>
-      <c r="AC368">
-        <v>2.4</v>
-      </c>
-      <c r="AD368">
-        <v>2.9</v>
-      </c>
-      <c r="AE368">
-        <v>3.2</v>
-      </c>
-      <c r="AF368">
-        <v>1.11</v>
-      </c>
-      <c r="AG368">
-        <v>6</v>
-      </c>
-      <c r="AH368">
-        <v>1.5</v>
-      </c>
-      <c r="AI368">
-        <v>2.4</v>
-      </c>
-      <c r="AJ368">
-        <v>2.5</v>
-      </c>
-      <c r="AK368">
-        <v>1.47</v>
-      </c>
-      <c r="AL368">
-        <v>2.1</v>
-      </c>
-      <c r="AM368">
-        <v>1.65</v>
-      </c>
-      <c r="AN368">
-        <v>1.33</v>
-      </c>
-      <c r="AO368">
-        <v>1.38</v>
-      </c>
-      <c r="AP368">
-        <v>1.53</v>
-      </c>
-      <c r="AQ368">
-        <v>1.75</v>
-      </c>
-      <c r="AR368">
-        <v>0.75</v>
-      </c>
-      <c r="AS368">
-        <v>1.69</v>
-      </c>
       <c r="AT368">
-        <v>0.77</v>
+        <v>1.92</v>
       </c>
       <c r="AU368">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AV368">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AW368">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AX368">
         <v>1.95</v>
       </c>
       <c r="AY368">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ368">
         <v>2.1</v>
       </c>
       <c r="BA368">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="BB368">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="BC368">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="BD368">
-        <v>2.35</v>
+        <v>2.84</v>
       </c>
       <c r="BE368">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="BF368">
+        <v>5</v>
+      </c>
+      <c r="BG368">
+        <v>2</v>
+      </c>
+      <c r="BH368">
+        <v>11</v>
+      </c>
+      <c r="BI368">
+        <v>1</v>
+      </c>
+      <c r="BJ368">
+        <v>16</v>
+      </c>
+      <c r="BK368">
         <v>3</v>
-      </c>
-      <c r="BG368">
-        <v>2</v>
-      </c>
-      <c r="BH368">
-        <v>10</v>
-      </c>
-      <c r="BI368">
-        <v>2</v>
-      </c>
-      <c r="BJ368">
-        <v>13</v>
-      </c>
-      <c r="BK368">
-        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:63">
@@ -71892,7 +71892,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>4554751</v>
+        <v>4554759</v>
       </c>
       <c r="C369" t="s">
         <v>63</v>
@@ -71907,175 +71907,175 @@
         <v>27</v>
       </c>
       <c r="G369" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H369" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O369" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="P369" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="Q369">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R369">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S369">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T369">
+        <v>3.2</v>
+      </c>
+      <c r="U369">
+        <v>1.85</v>
+      </c>
+      <c r="V369">
+        <v>3.7</v>
+      </c>
+      <c r="W369">
+        <v>1.57</v>
+      </c>
+      <c r="X369">
+        <v>2.25</v>
+      </c>
+      <c r="Y369">
         <v>3.6</v>
       </c>
-      <c r="U369">
-        <v>1.82</v>
-      </c>
-      <c r="V369">
-        <v>3.4</v>
-      </c>
-      <c r="W369">
-        <v>1.55</v>
-      </c>
-      <c r="X369">
-        <v>2.2</v>
-      </c>
-      <c r="Y369">
-        <v>3.7</v>
-      </c>
       <c r="Z369">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AA369">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB369">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC369">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="AD369">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AE369">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="AF369">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AG369">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AH369">
+        <v>1.5</v>
+      </c>
+      <c r="AI369">
+        <v>2.4</v>
+      </c>
+      <c r="AJ369">
+        <v>2.5</v>
+      </c>
+      <c r="AK369">
+        <v>1.47</v>
+      </c>
+      <c r="AL369">
+        <v>2.1</v>
+      </c>
+      <c r="AM369">
+        <v>1.65</v>
+      </c>
+      <c r="AN369">
+        <v>1.33</v>
+      </c>
+      <c r="AO369">
+        <v>1.38</v>
+      </c>
+      <c r="AP369">
         <v>1.53</v>
       </c>
-      <c r="AI369">
-        <v>2.3</v>
-      </c>
-      <c r="AJ369">
+      <c r="AQ369">
+        <v>1.75</v>
+      </c>
+      <c r="AR369">
+        <v>0.75</v>
+      </c>
+      <c r="AS369">
+        <v>1.69</v>
+      </c>
+      <c r="AT369">
+        <v>0.77</v>
+      </c>
+      <c r="AU369">
+        <v>1.32</v>
+      </c>
+      <c r="AV369">
+        <v>1.28</v>
+      </c>
+      <c r="AW369">
         <v>2.6</v>
-      </c>
-      <c r="AK369">
-        <v>1.43</v>
-      </c>
-      <c r="AL369">
-        <v>2.15</v>
-      </c>
-      <c r="AM369">
-        <v>1.6</v>
-      </c>
-      <c r="AN369">
-        <v>1.46</v>
-      </c>
-      <c r="AO369">
-        <v>1.39</v>
-      </c>
-      <c r="AP369">
-        <v>1.39</v>
-      </c>
-      <c r="AQ369">
-        <v>1.92</v>
-      </c>
-      <c r="AR369">
-        <v>2</v>
-      </c>
-      <c r="AS369">
-        <v>1.85</v>
-      </c>
-      <c r="AT369">
-        <v>1.92</v>
-      </c>
-      <c r="AU369">
-        <v>1.22</v>
-      </c>
-      <c r="AV369">
-        <v>1.36</v>
-      </c>
-      <c r="AW369">
-        <v>2.58</v>
       </c>
       <c r="AX369">
         <v>1.95</v>
       </c>
       <c r="AY369">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ369">
         <v>2.1</v>
       </c>
       <c r="BA369">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="BB369">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="BC369">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="BD369">
-        <v>2.84</v>
+        <v>2.35</v>
       </c>
       <c r="BE369">
+        <v>3.25</v>
+      </c>
+      <c r="BF369">
+        <v>3</v>
+      </c>
+      <c r="BG369">
+        <v>2</v>
+      </c>
+      <c r="BH369">
+        <v>10</v>
+      </c>
+      <c r="BI369">
+        <v>2</v>
+      </c>
+      <c r="BJ369">
+        <v>13</v>
+      </c>
+      <c r="BK369">
         <v>4</v>
-      </c>
-      <c r="BF369">
-        <v>5</v>
-      </c>
-      <c r="BG369">
-        <v>2</v>
-      </c>
-      <c r="BH369">
-        <v>11</v>
-      </c>
-      <c r="BI369">
-        <v>1</v>
-      </c>
-      <c r="BJ369">
-        <v>16</v>
-      </c>
-      <c r="BK369">
-        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:63">
@@ -73420,7 +73420,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>4554752</v>
+        <v>4554753</v>
       </c>
       <c r="C377" t="s">
         <v>63</v>
@@ -73435,10 +73435,10 @@
         <v>27</v>
       </c>
       <c r="G377" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H377" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -73453,79 +73453,79 @@
         <v>1</v>
       </c>
       <c r="M377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O377" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="P377" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="Q377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S377">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T377">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U377">
         <v>1.83</v>
       </c>
       <c r="V377">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W377">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X377">
+        <v>2.1</v>
+      </c>
+      <c r="Y377">
+        <v>4.33</v>
+      </c>
+      <c r="Z377">
+        <v>1.2</v>
+      </c>
+      <c r="AA377">
+        <v>15</v>
+      </c>
+      <c r="AB377">
+        <v>1.03</v>
+      </c>
+      <c r="AC377">
+        <v>2.55</v>
+      </c>
+      <c r="AD377">
+        <v>2.8</v>
+      </c>
+      <c r="AE377">
+        <v>2.7</v>
+      </c>
+      <c r="AF377">
+        <v>1.13</v>
+      </c>
+      <c r="AG377">
+        <v>6</v>
+      </c>
+      <c r="AH377">
+        <v>1.58</v>
+      </c>
+      <c r="AI377">
         <v>2.2</v>
       </c>
-      <c r="Y377">
-        <v>4</v>
-      </c>
-      <c r="Z377">
-        <v>1.22</v>
-      </c>
-      <c r="AA377">
-        <v>13</v>
-      </c>
-      <c r="AB377">
-        <v>1.04</v>
-      </c>
-      <c r="AC377">
-        <v>2.35</v>
-      </c>
-      <c r="AD377">
-        <v>2.75</v>
-      </c>
-      <c r="AE377">
-        <v>3</v>
-      </c>
-      <c r="AF377">
-        <v>1.09</v>
-      </c>
-      <c r="AG377">
-        <v>5.8</v>
-      </c>
-      <c r="AH377">
-        <v>1.53</v>
-      </c>
-      <c r="AI377">
-        <v>2.35</v>
-      </c>
       <c r="AJ377">
-        <v>2.69</v>
+        <v>2.88</v>
       </c>
       <c r="AK377">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AL377">
         <v>2.25</v>
@@ -73534,76 +73534,76 @@
         <v>1.57</v>
       </c>
       <c r="AN377">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AO377">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AP377">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AQ377">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR377">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="AS377">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AT377">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU377">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AV377">
         <v>1.16</v>
       </c>
       <c r="AW377">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AX377">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AY377">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ377">
-        <v>2.2</v>
+        <v>2.53</v>
       </c>
       <c r="BA377">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="BB377">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="BC377">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BD377">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="BE377">
+        <v>4.45</v>
+      </c>
+      <c r="BF377">
+        <v>6</v>
+      </c>
+      <c r="BG377">
+        <v>0</v>
+      </c>
+      <c r="BH377">
+        <v>1</v>
+      </c>
+      <c r="BI377">
         <v>3</v>
       </c>
-      <c r="BF377">
-        <v>5</v>
-      </c>
-      <c r="BG377">
-        <v>5</v>
-      </c>
-      <c r="BH377">
-        <v>6</v>
-      </c>
-      <c r="BI377">
-        <v>8</v>
-      </c>
       <c r="BJ377">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK377">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:63">
@@ -73611,7 +73611,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>4554753</v>
+        <v>4554752</v>
       </c>
       <c r="C378" t="s">
         <v>63</v>
@@ -73626,10 +73626,10 @@
         <v>27</v>
       </c>
       <c r="G378" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H378" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I378">
         <v>1</v>
@@ -73644,79 +73644,79 @@
         <v>1</v>
       </c>
       <c r="M378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O378" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="P378" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="Q378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S378">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T378">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U378">
         <v>1.83</v>
       </c>
       <c r="V378">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W378">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X378">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y378">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Z378">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA378">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB378">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC378">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AD378">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AE378">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AF378">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AG378">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH378">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AI378">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AJ378">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="AK378">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AL378">
         <v>2.25</v>
@@ -73725,76 +73725,76 @@
         <v>1.57</v>
       </c>
       <c r="AN378">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AO378">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP378">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AQ378">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR378">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS378">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="AT378">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AU378">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AV378">
         <v>1.16</v>
       </c>
       <c r="AW378">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AX378">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AY378">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ378">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="BA378">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="BB378">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="BC378">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BD378">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="BE378">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="BF378">
+        <v>5</v>
+      </c>
+      <c r="BG378">
+        <v>5</v>
+      </c>
+      <c r="BH378">
         <v>6</v>
       </c>
-      <c r="BG378">
-        <v>0</v>
-      </c>
-      <c r="BH378">
-        <v>1</v>
-      </c>
       <c r="BI378">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ378">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK378">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -925,6 +925,9 @@
     <t>['28', '31', '35', '71']</t>
   </si>
   <si>
+    <t>['30', '62']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1172,9 +1175,6 @@
   </si>
   <si>
     <t>['11', '25']</t>
-  </si>
-  <si>
-    <t>['30', '62']</t>
   </si>
   <si>
     <t>['68', '69']</t>
@@ -1593,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK379"/>
+  <dimension ref="A1:BK380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2601,7 +2601,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2792,7 +2792,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2983,7 +2983,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4129,7 +4129,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4511,7 +4511,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4983,7 +4983,7 @@
         <v>1.23</v>
       </c>
       <c r="AT18">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5275,7 +5275,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT20">
         <v>1.79</v>
@@ -5848,7 +5848,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6421,7 +6421,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6612,7 +6612,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6803,7 +6803,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6994,7 +6994,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7185,7 +7185,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7949,7 +7949,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8140,7 +8140,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -9286,7 +9286,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9668,7 +9668,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -10050,7 +10050,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10623,7 +10623,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11095,7 +11095,7 @@
         <v>2.15</v>
       </c>
       <c r="AT50">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU50">
         <v>1.84</v>
@@ -11769,7 +11769,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12342,7 +12342,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12533,7 +12533,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12620,7 +12620,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT58">
         <v>1.14</v>
@@ -13297,7 +13297,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13488,7 +13488,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14061,7 +14061,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14443,7 +14443,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15297,7 +15297,7 @@
         <v>1.31</v>
       </c>
       <c r="AT72">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU72">
         <v>1.44</v>
@@ -15398,7 +15398,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15971,7 +15971,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16735,7 +16735,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17117,7 +17117,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17499,7 +17499,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17881,7 +17881,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18645,7 +18645,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19114,7 +19114,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT92">
         <v>1.14</v>
@@ -19600,7 +19600,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20173,7 +20173,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20555,7 +20555,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20937,7 +20937,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21319,7 +21319,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21701,7 +21701,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21791,7 +21791,7 @@
         <v>1.54</v>
       </c>
       <c r="AT106">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21892,7 +21892,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22274,7 +22274,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -24184,7 +24184,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24948,7 +24948,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25330,7 +25330,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25608,7 +25608,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT126">
         <v>0.93</v>
@@ -26285,7 +26285,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26858,7 +26858,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27049,7 +27049,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27240,7 +27240,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27431,7 +27431,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27622,7 +27622,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27712,7 +27712,7 @@
         <v>1.23</v>
       </c>
       <c r="AT137">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27813,7 +27813,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28195,7 +28195,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28386,7 +28386,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28768,7 +28768,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29150,7 +29150,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29810,7 +29810,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT148">
         <v>0.64</v>
@@ -30487,7 +30487,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30678,7 +30678,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31532,7 +31532,7 @@
         <v>1.93</v>
       </c>
       <c r="AT157">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31824,7 +31824,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -33543,7 +33543,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33734,7 +33734,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33925,7 +33925,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34307,7 +34307,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34585,7 +34585,7 @@
         <v>0.83</v>
       </c>
       <c r="AS173">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT173">
         <v>0.79</v>
@@ -34689,7 +34689,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35071,7 +35071,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35835,7 +35835,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36026,7 +36026,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36217,7 +36217,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36599,7 +36599,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36689,7 +36689,7 @@
         <v>1.57</v>
       </c>
       <c r="AT184">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU184">
         <v>1.54</v>
@@ -38127,7 +38127,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -39933,7 +39933,7 @@
         <v>1</v>
       </c>
       <c r="AS201">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT201">
         <v>1.07</v>
@@ -40037,7 +40037,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40801,7 +40801,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41374,7 +41374,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41947,7 +41947,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42138,7 +42138,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42329,7 +42329,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42992,7 +42992,7 @@
         <v>1.86</v>
       </c>
       <c r="AT217">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU217">
         <v>1.48</v>
@@ -43475,7 +43475,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43666,7 +43666,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43857,7 +43857,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -46236,7 +46236,7 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT234">
         <v>1.92</v>
@@ -48632,7 +48632,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -49295,7 +49295,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU250">
         <v>1.55</v>
@@ -49396,7 +49396,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49969,7 +49969,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50351,7 +50351,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50629,7 +50629,7 @@
         <v>0.71</v>
       </c>
       <c r="AS257">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT257">
         <v>0.6899999999999999</v>
@@ -50733,7 +50733,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -53407,7 +53407,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53789,7 +53789,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54070,7 +54070,7 @@
         <v>1.14</v>
       </c>
       <c r="AT275">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU275">
         <v>1.6</v>
@@ -54553,7 +54553,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -55699,7 +55699,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -56081,7 +56081,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -57036,7 +57036,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57227,7 +57227,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57418,7 +57418,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57887,7 +57887,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS295">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT295">
         <v>0.77</v>
@@ -57991,7 +57991,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58564,7 +58564,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -59137,7 +59137,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59519,7 +59519,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60474,7 +60474,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -61047,7 +61047,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61328,7 +61328,7 @@
         <v>2.29</v>
       </c>
       <c r="AT313">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU313">
         <v>1.67</v>
@@ -62853,7 +62853,7 @@
         <v>0.8</v>
       </c>
       <c r="AS321">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT321">
         <v>1.08</v>
@@ -66968,7 +66968,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67058,7 +67058,7 @@
         <v>2.77</v>
       </c>
       <c r="AT343">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU343">
         <v>1.83</v>
@@ -67159,7 +67159,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67246,7 +67246,7 @@
         <v>1.27</v>
       </c>
       <c r="AS344">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT344">
         <v>1.31</v>
@@ -71451,7 +71451,7 @@
         <v>1.85</v>
       </c>
       <c r="AT366">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU366">
         <v>1.85</v>
@@ -72021,7 +72021,7 @@
         <v>0.75</v>
       </c>
       <c r="AS369">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT369">
         <v>0.77</v>
@@ -73986,6 +73986,197 @@
       </c>
       <c r="BK379">
         <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>4554771</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45155.8125</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380" t="s">
+        <v>83</v>
+      </c>
+      <c r="H380" t="s">
+        <v>69</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>1</v>
+      </c>
+      <c r="L380">
+        <v>2</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>3</v>
+      </c>
+      <c r="O380" t="s">
+        <v>303</v>
+      </c>
+      <c r="P380" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q380">
+        <v>6</v>
+      </c>
+      <c r="R380">
+        <v>2</v>
+      </c>
+      <c r="S380">
+        <v>8</v>
+      </c>
+      <c r="T380">
+        <v>3.75</v>
+      </c>
+      <c r="U380">
+        <v>1.91</v>
+      </c>
+      <c r="V380">
+        <v>3.5</v>
+      </c>
+      <c r="W380">
+        <v>1.62</v>
+      </c>
+      <c r="X380">
+        <v>2.2</v>
+      </c>
+      <c r="Y380">
+        <v>4</v>
+      </c>
+      <c r="Z380">
+        <v>1.22</v>
+      </c>
+      <c r="AA380">
+        <v>13</v>
+      </c>
+      <c r="AB380">
+        <v>1.04</v>
+      </c>
+      <c r="AC380">
+        <v>2.8</v>
+      </c>
+      <c r="AD380">
+        <v>3.2</v>
+      </c>
+      <c r="AE380">
+        <v>2.45</v>
+      </c>
+      <c r="AF380">
+        <v>1.08</v>
+      </c>
+      <c r="AG380">
+        <v>6.15</v>
+      </c>
+      <c r="AH380">
+        <v>1.57</v>
+      </c>
+      <c r="AI380">
+        <v>2.43</v>
+      </c>
+      <c r="AJ380">
+        <v>2.7</v>
+      </c>
+      <c r="AK380">
+        <v>1.44</v>
+      </c>
+      <c r="AL380">
+        <v>2.25</v>
+      </c>
+      <c r="AM380">
+        <v>1.57</v>
+      </c>
+      <c r="AN380">
+        <v>1.49</v>
+      </c>
+      <c r="AO380">
+        <v>1.37</v>
+      </c>
+      <c r="AP380">
+        <v>1.42</v>
+      </c>
+      <c r="AQ380">
+        <v>1.69</v>
+      </c>
+      <c r="AR380">
+        <v>1.46</v>
+      </c>
+      <c r="AS380">
+        <v>1.79</v>
+      </c>
+      <c r="AT380">
+        <v>1.36</v>
+      </c>
+      <c r="AU380">
+        <v>1.34</v>
+      </c>
+      <c r="AV380">
+        <v>1.46</v>
+      </c>
+      <c r="AW380">
+        <v>2.8</v>
+      </c>
+      <c r="AX380">
+        <v>2.05</v>
+      </c>
+      <c r="AY380">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ380">
+        <v>2.04</v>
+      </c>
+      <c r="BA380">
+        <v>1.4</v>
+      </c>
+      <c r="BB380">
+        <v>1.66</v>
+      </c>
+      <c r="BC380">
+        <v>2.03</v>
+      </c>
+      <c r="BD380">
+        <v>2.69</v>
+      </c>
+      <c r="BE380">
+        <v>4.4</v>
+      </c>
+      <c r="BF380">
+        <v>6</v>
+      </c>
+      <c r="BG380">
+        <v>4</v>
+      </c>
+      <c r="BH380">
+        <v>8</v>
+      </c>
+      <c r="BI380">
+        <v>5</v>
+      </c>
+      <c r="BJ380">
+        <v>14</v>
+      </c>
+      <c r="BK380">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -862,10 +862,10 @@
     <t>['29', '37']</t>
   </si>
   <si>
-    <t>['47', '69']</t>
+    <t>['90+10']</t>
   </si>
   <si>
-    <t>['90+10']</t>
+    <t>['47', '69']</t>
   </si>
   <si>
     <t>['22']</t>
@@ -904,10 +904,10 @@
     <t>['29', '90+4']</t>
   </si>
   <si>
-    <t>['69', '88']</t>
+    <t>['74', '90+2']</t>
   </si>
   <si>
-    <t>['74', '90+2']</t>
+    <t>['69', '88']</t>
   </si>
   <si>
     <t>['23', '71']</t>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>['30', '62']</t>
+  </si>
+  <si>
+    <t>['28', '55', '90+4']</t>
   </si>
   <si>
     <t>['7', '43', '82', '86']</t>
@@ -1192,10 +1195,10 @@
     <t>['15', '72']</t>
   </si>
   <si>
-    <t>['62', '90+5']</t>
+    <t>['90+12']</t>
   </si>
   <si>
-    <t>['90+12']</t>
+    <t>['62', '90+5']</t>
   </si>
   <si>
     <t>['39', '74', '76']</t>
@@ -1593,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK380"/>
+  <dimension ref="A1:BK382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2031,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2601,7 +2604,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2792,7 +2795,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2983,7 +2986,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3365,7 +3368,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3834,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1.07</v>
@@ -4129,7 +4132,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4511,7 +4514,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -5084,7 +5087,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5275,7 +5278,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5848,7 +5851,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5938,7 +5941,7 @@
         <v>1.23</v>
       </c>
       <c r="AT23">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6126,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>0.92</v>
@@ -6421,7 +6424,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6612,7 +6615,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6699,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT27">
         <v>0.85</v>
@@ -6803,7 +6806,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6994,7 +6997,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7185,7 +7188,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7949,7 +7952,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8140,7 +8143,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -9286,7 +9289,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9668,7 +9671,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -10050,7 +10053,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10623,7 +10626,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11474,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT52">
         <v>0.6899999999999999</v>
@@ -11665,10 +11668,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU53">
         <v>1.66</v>
@@ -11769,7 +11772,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12342,7 +12345,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12533,7 +12536,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -13297,7 +13300,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13488,7 +13491,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14061,7 +14064,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14443,7 +14446,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15294,7 +15297,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT72">
         <v>1.36</v>
@@ -15398,7 +15401,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15971,7 +15974,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16735,7 +16738,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17117,7 +17120,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17499,7 +17502,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17777,7 +17780,7 @@
         <v>3</v>
       </c>
       <c r="AS85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>1.38</v>
@@ -17881,7 +17884,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18645,7 +18648,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19600,7 +19603,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20173,7 +20176,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20263,7 +20266,7 @@
         <v>1.29</v>
       </c>
       <c r="AT98">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU98">
         <v>1.35</v>
@@ -20555,7 +20558,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20642,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20937,7 +20940,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21319,7 +21322,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21701,7 +21704,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21892,7 +21895,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21979,7 +21982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT107">
         <v>0.85</v>
@@ -22274,7 +22277,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22847,7 +22850,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -24184,7 +24187,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24566,7 +24569,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24948,7 +24951,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25330,7 +25333,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25420,7 +25423,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU125">
         <v>1.92</v>
@@ -26285,7 +26288,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26858,7 +26861,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27049,7 +27052,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27136,7 +27139,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -27240,7 +27243,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27431,7 +27434,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27622,7 +27625,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27813,7 +27816,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28195,7 +28198,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28386,7 +28389,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28473,7 +28476,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <v>0.6899999999999999</v>
@@ -28667,7 +28670,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU142">
         <v>0.85</v>
@@ -28768,7 +28771,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29150,7 +29153,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -30487,7 +30490,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30678,7 +30681,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31529,7 +31532,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT157">
         <v>1.36</v>
@@ -31824,7 +31827,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32102,7 +32105,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT160">
         <v>1.14</v>
@@ -33543,7 +33546,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33734,7 +33737,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33925,7 +33928,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34307,7 +34310,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34689,7 +34692,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34970,7 +34973,7 @@
         <v>2.07</v>
       </c>
       <c r="AT175">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -35071,7 +35074,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35835,7 +35838,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36026,7 +36029,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36217,7 +36220,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36599,7 +36602,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -38127,7 +38130,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38405,7 +38408,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT193">
         <v>1</v>
@@ -40037,7 +40040,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40318,7 +40321,7 @@
         <v>2.29</v>
       </c>
       <c r="AT203">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU203">
         <v>1.48</v>
@@ -40801,7 +40804,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41374,7 +41377,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41947,7 +41950,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42138,7 +42141,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42329,7 +42332,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -43371,7 +43374,7 @@
         <v>1.63</v>
       </c>
       <c r="AS219">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -43475,7 +43478,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43666,7 +43669,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43753,7 +43756,7 @@
         <v>1.13</v>
       </c>
       <c r="AS221">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT221">
         <v>0.93</v>
@@ -43857,7 +43860,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -46812,7 +46815,7 @@
         <v>2.77</v>
       </c>
       <c r="AT237">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU237">
         <v>1.86</v>
@@ -48337,7 +48340,7 @@
         <v>1.11</v>
       </c>
       <c r="AS245">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT245">
         <v>1.14</v>
@@ -48632,7 +48635,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -49396,7 +49399,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49969,7 +49972,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50250,7 +50253,7 @@
         <v>1.85</v>
       </c>
       <c r="AT255">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU255">
         <v>1.95</v>
@@ -50351,7 +50354,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50733,7 +50736,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -51393,7 +51396,7 @@
         <v>0.78</v>
       </c>
       <c r="AS261">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT261">
         <v>0.71</v>
@@ -52730,7 +52733,7 @@
         <v>1.11</v>
       </c>
       <c r="AS268">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT268">
         <v>1.14</v>
@@ -53407,7 +53410,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53789,7 +53792,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54553,7 +54556,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54831,7 +54834,7 @@
         <v>1.1</v>
       </c>
       <c r="AS279">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT279">
         <v>1.14</v>
@@ -55699,7 +55702,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -56081,7 +56084,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56932,7 +56935,7 @@
         <v>0.8</v>
       </c>
       <c r="AS290">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT290">
         <v>0.86</v>
@@ -57036,7 +57039,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57227,7 +57230,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57317,7 +57320,7 @@
         <v>1.23</v>
       </c>
       <c r="AT292">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU292">
         <v>1.11</v>
@@ -57418,7 +57421,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57991,7 +57994,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58564,7 +58567,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -59137,7 +59140,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59519,7 +59522,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60370,7 +60373,7 @@
         <v>1.18</v>
       </c>
       <c r="AS308">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT308">
         <v>0.93</v>
@@ -60474,7 +60477,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60946,7 +60949,7 @@
         <v>2.15</v>
       </c>
       <c r="AT311">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU311">
         <v>1.56</v>
@@ -61811,7 +61814,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62089,7 +62092,7 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT317">
         <v>1.31</v>
@@ -62193,7 +62196,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62766,7 +62769,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -64485,7 +64488,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65145,7 +65148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS333">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT333">
         <v>0.64</v>
@@ -65631,7 +65634,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65971,7 +65974,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>4554730</v>
+        <v>5019531</v>
       </c>
       <c r="C338" t="s">
         <v>63</v>
@@ -65986,10 +65989,10 @@
         <v>25</v>
       </c>
       <c r="G338" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H338" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -66001,127 +66004,127 @@
         <v>0</v>
       </c>
       <c r="L338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O338" t="s">
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q338">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R338">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S338">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T338">
-        <v>2.9</v>
+        <v>3.52</v>
       </c>
       <c r="U338">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="V338">
-        <v>4.06</v>
+        <v>3.99</v>
       </c>
       <c r="W338">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="X338">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="Y338">
-        <v>3.39</v>
+        <v>3.82</v>
       </c>
       <c r="Z338">
         <v>1.24</v>
       </c>
       <c r="AA338">
-        <v>8.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="AB338">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AC338">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="AD338">
-        <v>3.38</v>
+        <v>2.86</v>
       </c>
       <c r="AE338">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="AF338">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG338">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AH338">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AI338">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="AJ338">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AK338">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AL338">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="AM338">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AN338">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AO338">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AP338">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AQ338">
-        <v>2.18</v>
+        <v>1.36</v>
       </c>
       <c r="AR338">
-        <v>1.55</v>
+        <v>0.73</v>
       </c>
       <c r="AS338">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="AT338">
-        <v>1.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU338">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AV338">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AW338">
-        <v>2.91</v>
+        <v>2.68</v>
       </c>
       <c r="AX338">
-        <v>1.41</v>
+        <v>2.05</v>
       </c>
       <c r="AY338">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ338">
-        <v>3.49</v>
+        <v>2</v>
       </c>
       <c r="BA338">
         <v>1.28</v>
@@ -66139,22 +66142,22 @@
         <v>3.45</v>
       </c>
       <c r="BF338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG338">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH338">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI338">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ338">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BK338">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:63">
@@ -66162,7 +66165,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>5019531</v>
+        <v>4554730</v>
       </c>
       <c r="C339" t="s">
         <v>63</v>
@@ -66177,10 +66180,10 @@
         <v>25</v>
       </c>
       <c r="G339" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H339" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -66192,127 +66195,127 @@
         <v>0</v>
       </c>
       <c r="L339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O339" t="s">
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q339">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R339">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S339">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T339">
-        <v>3.52</v>
+        <v>2.9</v>
       </c>
       <c r="U339">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="V339">
-        <v>3.99</v>
+        <v>4.06</v>
       </c>
       <c r="W339">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="X339">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="Y339">
-        <v>3.82</v>
+        <v>3.39</v>
       </c>
       <c r="Z339">
         <v>1.24</v>
       </c>
       <c r="AA339">
-        <v>11</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB339">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AC339">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="AD339">
-        <v>2.86</v>
+        <v>3.38</v>
       </c>
       <c r="AE339">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="AF339">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AG339">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AH339">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AI339">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="AJ339">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AK339">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AL339">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="AM339">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="AN339">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AO339">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AP339">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AQ339">
-        <v>1.36</v>
+        <v>2.18</v>
       </c>
       <c r="AR339">
-        <v>0.73</v>
+        <v>1.55</v>
       </c>
       <c r="AS339">
-        <v>1.31</v>
+        <v>2.15</v>
       </c>
       <c r="AT339">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AU339">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AV339">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AW339">
-        <v>2.68</v>
+        <v>2.91</v>
       </c>
       <c r="AX339">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="AY339">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ339">
-        <v>2</v>
+        <v>3.49</v>
       </c>
       <c r="BA339">
         <v>1.28</v>
@@ -66330,22 +66333,22 @@
         <v>3.45</v>
       </c>
       <c r="BF339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG339">
+        <v>6</v>
+      </c>
+      <c r="BH339">
+        <v>7</v>
+      </c>
+      <c r="BI339">
         <v>5</v>
       </c>
-      <c r="BH339">
-        <v>1</v>
-      </c>
-      <c r="BI339">
+      <c r="BJ339">
         <v>11</v>
       </c>
-      <c r="BJ339">
-        <v>3</v>
-      </c>
       <c r="BK339">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:63">
@@ -66673,10 +66676,10 @@
         <v>0.91</v>
       </c>
       <c r="AS341">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT341">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU341">
         <v>1.61</v>
@@ -66968,7 +66971,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67159,7 +67162,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67350,7 +67353,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67541,7 +67544,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -68114,7 +68117,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68687,7 +68690,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69069,7 +69072,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69642,7 +69645,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69833,7 +69836,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70684,7 +70687,7 @@
         <v>0.85</v>
       </c>
       <c r="AS362">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT362">
         <v>0.79</v>
@@ -70979,7 +70982,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71319,7 +71322,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>4554758</v>
+        <v>4554754</v>
       </c>
       <c r="C366" t="s">
         <v>63</v>
@@ -71334,175 +71337,175 @@
         <v>27</v>
       </c>
       <c r="G366" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H366" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I366">
         <v>0</v>
       </c>
       <c r="J366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L366">
         <v>2</v>
       </c>
       <c r="M366">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N366">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O366" t="s">
         <v>296</v>
       </c>
       <c r="P366" t="s">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="Q366">
+        <v>7</v>
+      </c>
+      <c r="R366">
+        <v>2</v>
+      </c>
+      <c r="S366">
+        <v>9</v>
+      </c>
+      <c r="T366">
+        <v>3.2</v>
+      </c>
+      <c r="U366">
+        <v>1.95</v>
+      </c>
+      <c r="V366">
+        <v>3.3</v>
+      </c>
+      <c r="W366">
+        <v>1.5</v>
+      </c>
+      <c r="X366">
+        <v>2.35</v>
+      </c>
+      <c r="Y366">
+        <v>3.3</v>
+      </c>
+      <c r="Z366">
+        <v>1.27</v>
+      </c>
+      <c r="AA366">
+        <v>9.5</v>
+      </c>
+      <c r="AB366">
+        <v>1.05</v>
+      </c>
+      <c r="AC366">
+        <v>2.5</v>
+      </c>
+      <c r="AD366">
+        <v>2.95</v>
+      </c>
+      <c r="AE366">
+        <v>2.85</v>
+      </c>
+      <c r="AF366">
+        <v>1.1</v>
+      </c>
+      <c r="AG366">
+        <v>5.7</v>
+      </c>
+      <c r="AH366">
+        <v>1.42</v>
+      </c>
+      <c r="AI366">
+        <v>2.6</v>
+      </c>
+      <c r="AJ366">
+        <v>2.45</v>
+      </c>
+      <c r="AK366">
+        <v>1.53</v>
+      </c>
+      <c r="AL366">
+        <v>2.05</v>
+      </c>
+      <c r="AM366">
+        <v>1.66</v>
+      </c>
+      <c r="AN366">
+        <v>1.39</v>
+      </c>
+      <c r="AO366">
+        <v>1.37</v>
+      </c>
+      <c r="AP366">
+        <v>1.47</v>
+      </c>
+      <c r="AQ366">
+        <v>1.17</v>
+      </c>
+      <c r="AR366">
+        <v>1.5</v>
+      </c>
+      <c r="AS366">
+        <v>1.29</v>
+      </c>
+      <c r="AT366">
+        <v>1.38</v>
+      </c>
+      <c r="AU366">
+        <v>1.6</v>
+      </c>
+      <c r="AV366">
+        <v>1.38</v>
+      </c>
+      <c r="AW366">
+        <v>2.98</v>
+      </c>
+      <c r="AX366">
+        <v>1.41</v>
+      </c>
+      <c r="AY366">
+        <v>9</v>
+      </c>
+      <c r="AZ366">
+        <v>3.58</v>
+      </c>
+      <c r="BA366">
+        <v>1.21</v>
+      </c>
+      <c r="BB366">
+        <v>1.42</v>
+      </c>
+      <c r="BC366">
+        <v>1.75</v>
+      </c>
+      <c r="BD366">
+        <v>2.19</v>
+      </c>
+      <c r="BE366">
+        <v>2.88</v>
+      </c>
+      <c r="BF366">
         <v>6</v>
       </c>
-      <c r="R366">
-        <v>5</v>
-      </c>
-      <c r="S366">
-        <v>11</v>
-      </c>
-      <c r="T366">
-        <v>3</v>
-      </c>
-      <c r="U366">
-        <v>1.83</v>
-      </c>
-      <c r="V366">
-        <v>4</v>
-      </c>
-      <c r="W366">
-        <v>1.54</v>
-      </c>
-      <c r="X366">
-        <v>2.21</v>
-      </c>
-      <c r="Y366">
-        <v>3.55</v>
-      </c>
-      <c r="Z366">
-        <v>1.25</v>
-      </c>
-      <c r="AA366">
-        <v>11</v>
-      </c>
-      <c r="AB366">
-        <v>1.04</v>
-      </c>
-      <c r="AC366">
-        <v>2.15</v>
-      </c>
-      <c r="AD366">
-        <v>2.9</v>
-      </c>
-      <c r="AE366">
-        <v>3.6</v>
-      </c>
-      <c r="AF366">
-        <v>1.11</v>
-      </c>
-      <c r="AG366">
-        <v>5.75</v>
-      </c>
-      <c r="AH366">
-        <v>1.52</v>
-      </c>
-      <c r="AI366">
-        <v>2.35</v>
-      </c>
-      <c r="AJ366">
-        <v>2.55</v>
-      </c>
-      <c r="AK366">
-        <v>1.44</v>
-      </c>
-      <c r="AL366">
-        <v>2.15</v>
-      </c>
-      <c r="AM366">
-        <v>1.62</v>
-      </c>
-      <c r="AN366">
-        <v>1.3</v>
-      </c>
-      <c r="AO366">
-        <v>1.38</v>
-      </c>
-      <c r="AP366">
-        <v>1.58</v>
-      </c>
-      <c r="AQ366">
-        <v>2</v>
-      </c>
-      <c r="AR366">
-        <v>1.33</v>
-      </c>
-      <c r="AS366">
-        <v>1.85</v>
-      </c>
-      <c r="AT366">
-        <v>1.36</v>
-      </c>
-      <c r="AU366">
-        <v>1.85</v>
-      </c>
-      <c r="AV366">
-        <v>1.48</v>
-      </c>
-      <c r="AW366">
-        <v>3.33</v>
-      </c>
-      <c r="AX366">
-        <v>1.64</v>
-      </c>
-      <c r="AY366">
-        <v>8</v>
-      </c>
-      <c r="AZ366">
-        <v>2.77</v>
-      </c>
-      <c r="BA366">
-        <v>1.37</v>
-      </c>
-      <c r="BB366">
-        <v>1.68</v>
-      </c>
-      <c r="BC366">
-        <v>2.12</v>
-      </c>
-      <c r="BD366">
-        <v>2.84</v>
-      </c>
-      <c r="BE366">
-        <v>4</v>
-      </c>
-      <c r="BF366">
-        <v>7</v>
-      </c>
       <c r="BG366">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH366">
         <v>7</v>
       </c>
       <c r="BI366">
+        <v>1</v>
+      </c>
+      <c r="BJ366">
+        <v>13</v>
+      </c>
+      <c r="BK366">
         <v>3</v>
-      </c>
-      <c r="BJ366">
-        <v>14</v>
-      </c>
-      <c r="BK366">
-        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:63">
@@ -71510,7 +71513,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>4554754</v>
+        <v>4554758</v>
       </c>
       <c r="C367" t="s">
         <v>63</v>
@@ -71525,175 +71528,175 @@
         <v>27</v>
       </c>
       <c r="G367" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H367" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L367">
         <v>2</v>
       </c>
       <c r="M367">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N367">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O367" t="s">
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>96</v>
+        <v>403</v>
       </c>
       <c r="Q367">
+        <v>6</v>
+      </c>
+      <c r="R367">
+        <v>5</v>
+      </c>
+      <c r="S367">
+        <v>11</v>
+      </c>
+      <c r="T367">
+        <v>3</v>
+      </c>
+      <c r="U367">
+        <v>1.83</v>
+      </c>
+      <c r="V367">
+        <v>4</v>
+      </c>
+      <c r="W367">
+        <v>1.54</v>
+      </c>
+      <c r="X367">
+        <v>2.21</v>
+      </c>
+      <c r="Y367">
+        <v>3.55</v>
+      </c>
+      <c r="Z367">
+        <v>1.25</v>
+      </c>
+      <c r="AA367">
+        <v>11</v>
+      </c>
+      <c r="AB367">
+        <v>1.04</v>
+      </c>
+      <c r="AC367">
+        <v>2.15</v>
+      </c>
+      <c r="AD367">
+        <v>2.9</v>
+      </c>
+      <c r="AE367">
+        <v>3.6</v>
+      </c>
+      <c r="AF367">
+        <v>1.11</v>
+      </c>
+      <c r="AG367">
+        <v>5.75</v>
+      </c>
+      <c r="AH367">
+        <v>1.52</v>
+      </c>
+      <c r="AI367">
+        <v>2.35</v>
+      </c>
+      <c r="AJ367">
+        <v>2.55</v>
+      </c>
+      <c r="AK367">
+        <v>1.44</v>
+      </c>
+      <c r="AL367">
+        <v>2.15</v>
+      </c>
+      <c r="AM367">
+        <v>1.62</v>
+      </c>
+      <c r="AN367">
+        <v>1.3</v>
+      </c>
+      <c r="AO367">
+        <v>1.38</v>
+      </c>
+      <c r="AP367">
+        <v>1.58</v>
+      </c>
+      <c r="AQ367">
+        <v>2</v>
+      </c>
+      <c r="AR367">
+        <v>1.33</v>
+      </c>
+      <c r="AS367">
+        <v>1.85</v>
+      </c>
+      <c r="AT367">
+        <v>1.36</v>
+      </c>
+      <c r="AU367">
+        <v>1.85</v>
+      </c>
+      <c r="AV367">
+        <v>1.48</v>
+      </c>
+      <c r="AW367">
+        <v>3.33</v>
+      </c>
+      <c r="AX367">
+        <v>1.64</v>
+      </c>
+      <c r="AY367">
+        <v>8</v>
+      </c>
+      <c r="AZ367">
+        <v>2.77</v>
+      </c>
+      <c r="BA367">
+        <v>1.37</v>
+      </c>
+      <c r="BB367">
+        <v>1.68</v>
+      </c>
+      <c r="BC367">
+        <v>2.12</v>
+      </c>
+      <c r="BD367">
+        <v>2.84</v>
+      </c>
+      <c r="BE367">
+        <v>4</v>
+      </c>
+      <c r="BF367">
         <v>7</v>
       </c>
-      <c r="R367">
-        <v>2</v>
-      </c>
-      <c r="S367">
-        <v>9</v>
-      </c>
-      <c r="T367">
-        <v>3.2</v>
-      </c>
-      <c r="U367">
-        <v>1.95</v>
-      </c>
-      <c r="V367">
-        <v>3.3</v>
-      </c>
-      <c r="W367">
-        <v>1.5</v>
-      </c>
-      <c r="X367">
-        <v>2.35</v>
-      </c>
-      <c r="Y367">
-        <v>3.3</v>
-      </c>
-      <c r="Z367">
-        <v>1.27</v>
-      </c>
-      <c r="AA367">
-        <v>9.5</v>
-      </c>
-      <c r="AB367">
-        <v>1.05</v>
-      </c>
-      <c r="AC367">
-        <v>2.5</v>
-      </c>
-      <c r="AD367">
-        <v>2.95</v>
-      </c>
-      <c r="AE367">
-        <v>2.85</v>
-      </c>
-      <c r="AF367">
-        <v>1.1</v>
-      </c>
-      <c r="AG367">
-        <v>5.7</v>
-      </c>
-      <c r="AH367">
-        <v>1.42</v>
-      </c>
-      <c r="AI367">
-        <v>2.6</v>
-      </c>
-      <c r="AJ367">
-        <v>2.45</v>
-      </c>
-      <c r="AK367">
-        <v>1.53</v>
-      </c>
-      <c r="AL367">
-        <v>2.05</v>
-      </c>
-      <c r="AM367">
-        <v>1.66</v>
-      </c>
-      <c r="AN367">
-        <v>1.39</v>
-      </c>
-      <c r="AO367">
-        <v>1.37</v>
-      </c>
-      <c r="AP367">
-        <v>1.47</v>
-      </c>
-      <c r="AQ367">
-        <v>1.17</v>
-      </c>
-      <c r="AR367">
-        <v>1.5</v>
-      </c>
-      <c r="AS367">
-        <v>1.31</v>
-      </c>
-      <c r="AT367">
-        <v>1.38</v>
-      </c>
-      <c r="AU367">
-        <v>1.6</v>
-      </c>
-      <c r="AV367">
-        <v>1.38</v>
-      </c>
-      <c r="AW367">
-        <v>2.98</v>
-      </c>
-      <c r="AX367">
-        <v>1.41</v>
-      </c>
-      <c r="AY367">
-        <v>9</v>
-      </c>
-      <c r="AZ367">
-        <v>3.58</v>
-      </c>
-      <c r="BA367">
-        <v>1.21</v>
-      </c>
-      <c r="BB367">
-        <v>1.42</v>
-      </c>
-      <c r="BC367">
-        <v>1.75</v>
-      </c>
-      <c r="BD367">
-        <v>2.19</v>
-      </c>
-      <c r="BE367">
-        <v>2.88</v>
-      </c>
-      <c r="BF367">
+      <c r="BG367">
         <v>6</v>
-      </c>
-      <c r="BG367">
-        <v>2</v>
       </c>
       <c r="BH367">
         <v>7</v>
       </c>
       <c r="BI367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ367">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK367">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:63">
@@ -71701,7 +71704,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>4554751</v>
+        <v>4554759</v>
       </c>
       <c r="C368" t="s">
         <v>63</v>
@@ -71716,175 +71719,175 @@
         <v>27</v>
       </c>
       <c r="G368" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H368" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O368" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="P368" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="Q368">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R368">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S368">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T368">
+        <v>3.2</v>
+      </c>
+      <c r="U368">
+        <v>1.85</v>
+      </c>
+      <c r="V368">
+        <v>3.7</v>
+      </c>
+      <c r="W368">
+        <v>1.57</v>
+      </c>
+      <c r="X368">
+        <v>2.25</v>
+      </c>
+      <c r="Y368">
         <v>3.6</v>
       </c>
-      <c r="U368">
-        <v>1.82</v>
-      </c>
-      <c r="V368">
-        <v>3.4</v>
-      </c>
-      <c r="W368">
-        <v>1.55</v>
-      </c>
-      <c r="X368">
-        <v>2.2</v>
-      </c>
-      <c r="Y368">
-        <v>3.7</v>
-      </c>
       <c r="Z368">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AA368">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB368">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC368">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="AD368">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AE368">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="AF368">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AG368">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AH368">
+        <v>1.5</v>
+      </c>
+      <c r="AI368">
+        <v>2.4</v>
+      </c>
+      <c r="AJ368">
+        <v>2.5</v>
+      </c>
+      <c r="AK368">
+        <v>1.47</v>
+      </c>
+      <c r="AL368">
+        <v>2.1</v>
+      </c>
+      <c r="AM368">
+        <v>1.65</v>
+      </c>
+      <c r="AN368">
+        <v>1.33</v>
+      </c>
+      <c r="AO368">
+        <v>1.38</v>
+      </c>
+      <c r="AP368">
         <v>1.53</v>
       </c>
-      <c r="AI368">
-        <v>2.3</v>
-      </c>
-      <c r="AJ368">
+      <c r="AQ368">
+        <v>1.75</v>
+      </c>
+      <c r="AR368">
+        <v>0.75</v>
+      </c>
+      <c r="AS368">
+        <v>1.79</v>
+      </c>
+      <c r="AT368">
+        <v>0.77</v>
+      </c>
+      <c r="AU368">
+        <v>1.32</v>
+      </c>
+      <c r="AV368">
+        <v>1.28</v>
+      </c>
+      <c r="AW368">
         <v>2.6</v>
-      </c>
-      <c r="AK368">
-        <v>1.43</v>
-      </c>
-      <c r="AL368">
-        <v>2.15</v>
-      </c>
-      <c r="AM368">
-        <v>1.6</v>
-      </c>
-      <c r="AN368">
-        <v>1.46</v>
-      </c>
-      <c r="AO368">
-        <v>1.39</v>
-      </c>
-      <c r="AP368">
-        <v>1.39</v>
-      </c>
-      <c r="AQ368">
-        <v>1.92</v>
-      </c>
-      <c r="AR368">
-        <v>2</v>
-      </c>
-      <c r="AS368">
-        <v>1.85</v>
-      </c>
-      <c r="AT368">
-        <v>1.92</v>
-      </c>
-      <c r="AU368">
-        <v>1.22</v>
-      </c>
-      <c r="AV368">
-        <v>1.36</v>
-      </c>
-      <c r="AW368">
-        <v>2.58</v>
       </c>
       <c r="AX368">
         <v>1.95</v>
       </c>
       <c r="AY368">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ368">
         <v>2.1</v>
       </c>
       <c r="BA368">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="BB368">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="BC368">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="BD368">
-        <v>2.84</v>
+        <v>2.35</v>
       </c>
       <c r="BE368">
+        <v>3.25</v>
+      </c>
+      <c r="BF368">
+        <v>3</v>
+      </c>
+      <c r="BG368">
+        <v>2</v>
+      </c>
+      <c r="BH368">
+        <v>10</v>
+      </c>
+      <c r="BI368">
+        <v>2</v>
+      </c>
+      <c r="BJ368">
+        <v>13</v>
+      </c>
+      <c r="BK368">
         <v>4</v>
-      </c>
-      <c r="BF368">
-        <v>5</v>
-      </c>
-      <c r="BG368">
-        <v>2</v>
-      </c>
-      <c r="BH368">
-        <v>11</v>
-      </c>
-      <c r="BI368">
-        <v>1</v>
-      </c>
-      <c r="BJ368">
-        <v>16</v>
-      </c>
-      <c r="BK368">
-        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:63">
@@ -71892,7 +71895,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>4554759</v>
+        <v>4554751</v>
       </c>
       <c r="C369" t="s">
         <v>63</v>
@@ -71907,175 +71910,175 @@
         <v>27</v>
       </c>
       <c r="G369" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H369" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O369" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="P369" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="Q369">
+        <v>7</v>
+      </c>
+      <c r="R369">
         <v>3</v>
       </c>
-      <c r="R369">
-        <v>5</v>
-      </c>
       <c r="S369">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T369">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="U369">
+        <v>1.82</v>
+      </c>
+      <c r="V369">
+        <v>3.4</v>
+      </c>
+      <c r="W369">
+        <v>1.55</v>
+      </c>
+      <c r="X369">
+        <v>2.2</v>
+      </c>
+      <c r="Y369">
+        <v>3.7</v>
+      </c>
+      <c r="Z369">
+        <v>1.22</v>
+      </c>
+      <c r="AA369">
+        <v>11</v>
+      </c>
+      <c r="AB369">
+        <v>1.03</v>
+      </c>
+      <c r="AC369">
+        <v>2.87</v>
+      </c>
+      <c r="AD369">
+        <v>2.87</v>
+      </c>
+      <c r="AE369">
+        <v>2.65</v>
+      </c>
+      <c r="AF369">
+        <v>1.12</v>
+      </c>
+      <c r="AG369">
+        <v>5.75</v>
+      </c>
+      <c r="AH369">
+        <v>1.53</v>
+      </c>
+      <c r="AI369">
+        <v>2.3</v>
+      </c>
+      <c r="AJ369">
+        <v>2.6</v>
+      </c>
+      <c r="AK369">
+        <v>1.43</v>
+      </c>
+      <c r="AL369">
+        <v>2.15</v>
+      </c>
+      <c r="AM369">
+        <v>1.6</v>
+      </c>
+      <c r="AN369">
+        <v>1.46</v>
+      </c>
+      <c r="AO369">
+        <v>1.39</v>
+      </c>
+      <c r="AP369">
+        <v>1.39</v>
+      </c>
+      <c r="AQ369">
+        <v>1.92</v>
+      </c>
+      <c r="AR369">
+        <v>2</v>
+      </c>
+      <c r="AS369">
         <v>1.85</v>
       </c>
-      <c r="V369">
-        <v>3.7</v>
-      </c>
-      <c r="W369">
-        <v>1.57</v>
-      </c>
-      <c r="X369">
-        <v>2.25</v>
-      </c>
-      <c r="Y369">
-        <v>3.6</v>
-      </c>
-      <c r="Z369">
-        <v>1.25</v>
-      </c>
-      <c r="AA369">
-        <v>10.5</v>
-      </c>
-      <c r="AB369">
-        <v>1.04</v>
-      </c>
-      <c r="AC369">
-        <v>2.4</v>
-      </c>
-      <c r="AD369">
-        <v>2.9</v>
-      </c>
-      <c r="AE369">
-        <v>3.2</v>
-      </c>
-      <c r="AF369">
-        <v>1.11</v>
-      </c>
-      <c r="AG369">
-        <v>6</v>
-      </c>
-      <c r="AH369">
-        <v>1.5</v>
-      </c>
-      <c r="AI369">
-        <v>2.4</v>
-      </c>
-      <c r="AJ369">
-        <v>2.5</v>
-      </c>
-      <c r="AK369">
-        <v>1.47</v>
-      </c>
-      <c r="AL369">
-        <v>2.1</v>
-      </c>
-      <c r="AM369">
-        <v>1.65</v>
-      </c>
-      <c r="AN369">
-        <v>1.33</v>
-      </c>
-      <c r="AO369">
-        <v>1.38</v>
-      </c>
-      <c r="AP369">
-        <v>1.53</v>
-      </c>
-      <c r="AQ369">
-        <v>1.75</v>
-      </c>
-      <c r="AR369">
-        <v>0.75</v>
-      </c>
-      <c r="AS369">
-        <v>1.79</v>
-      </c>
       <c r="AT369">
-        <v>0.77</v>
+        <v>1.92</v>
       </c>
       <c r="AU369">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AV369">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AW369">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="AX369">
         <v>1.95</v>
       </c>
       <c r="AY369">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ369">
         <v>2.1</v>
       </c>
       <c r="BA369">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="BB369">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="BC369">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="BD369">
-        <v>2.35</v>
+        <v>2.84</v>
       </c>
       <c r="BE369">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="BF369">
+        <v>5</v>
+      </c>
+      <c r="BG369">
+        <v>2</v>
+      </c>
+      <c r="BH369">
+        <v>11</v>
+      </c>
+      <c r="BI369">
+        <v>1</v>
+      </c>
+      <c r="BJ369">
+        <v>16</v>
+      </c>
+      <c r="BK369">
         <v>3</v>
-      </c>
-      <c r="BG369">
-        <v>2</v>
-      </c>
-      <c r="BH369">
-        <v>10</v>
-      </c>
-      <c r="BI369">
-        <v>2</v>
-      </c>
-      <c r="BJ369">
-        <v>13</v>
-      </c>
-      <c r="BK369">
-        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:63">
@@ -72316,7 +72319,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72698,7 +72701,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -73420,7 +73423,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>4554753</v>
+        <v>4554752</v>
       </c>
       <c r="C377" t="s">
         <v>63</v>
@@ -73435,10 +73438,10 @@
         <v>27</v>
       </c>
       <c r="G377" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H377" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -73453,79 +73456,79 @@
         <v>1</v>
       </c>
       <c r="M377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O377" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="P377" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="Q377">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S377">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T377">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U377">
         <v>1.83</v>
       </c>
       <c r="V377">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W377">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X377">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y377">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Z377">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA377">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB377">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC377">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AD377">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AE377">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AF377">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AG377">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH377">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AI377">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AJ377">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="AK377">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AL377">
         <v>2.25</v>
@@ -73534,76 +73537,76 @@
         <v>1.57</v>
       </c>
       <c r="AN377">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AO377">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP377">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AQ377">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR377">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS377">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="AT377">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU377">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AV377">
         <v>1.16</v>
       </c>
       <c r="AW377">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AX377">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AY377">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ377">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="BA377">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="BB377">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="BC377">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BD377">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="BE377">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="BF377">
+        <v>5</v>
+      </c>
+      <c r="BG377">
+        <v>5</v>
+      </c>
+      <c r="BH377">
         <v>6</v>
       </c>
-      <c r="BG377">
-        <v>0</v>
-      </c>
-      <c r="BH377">
-        <v>1</v>
-      </c>
       <c r="BI377">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ377">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK377">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:63">
@@ -73611,7 +73614,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>4554752</v>
+        <v>4554753</v>
       </c>
       <c r="C378" t="s">
         <v>63</v>
@@ -73626,10 +73629,10 @@
         <v>27</v>
       </c>
       <c r="G378" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H378" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I378">
         <v>1</v>
@@ -73644,79 +73647,79 @@
         <v>1</v>
       </c>
       <c r="M378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O378" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="P378" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="Q378">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S378">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T378">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U378">
         <v>1.83</v>
       </c>
       <c r="V378">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W378">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X378">
+        <v>2.1</v>
+      </c>
+      <c r="Y378">
+        <v>4.33</v>
+      </c>
+      <c r="Z378">
+        <v>1.2</v>
+      </c>
+      <c r="AA378">
+        <v>15</v>
+      </c>
+      <c r="AB378">
+        <v>1.03</v>
+      </c>
+      <c r="AC378">
+        <v>2.55</v>
+      </c>
+      <c r="AD378">
+        <v>2.8</v>
+      </c>
+      <c r="AE378">
+        <v>2.7</v>
+      </c>
+      <c r="AF378">
+        <v>1.13</v>
+      </c>
+      <c r="AG378">
+        <v>6</v>
+      </c>
+      <c r="AH378">
+        <v>1.58</v>
+      </c>
+      <c r="AI378">
         <v>2.2</v>
       </c>
-      <c r="Y378">
-        <v>4</v>
-      </c>
-      <c r="Z378">
-        <v>1.22</v>
-      </c>
-      <c r="AA378">
-        <v>13</v>
-      </c>
-      <c r="AB378">
-        <v>1.04</v>
-      </c>
-      <c r="AC378">
-        <v>2.35</v>
-      </c>
-      <c r="AD378">
-        <v>2.75</v>
-      </c>
-      <c r="AE378">
-        <v>3</v>
-      </c>
-      <c r="AF378">
-        <v>1.09</v>
-      </c>
-      <c r="AG378">
-        <v>5.8</v>
-      </c>
-      <c r="AH378">
-        <v>1.53</v>
-      </c>
-      <c r="AI378">
-        <v>2.35</v>
-      </c>
       <c r="AJ378">
-        <v>2.69</v>
+        <v>2.88</v>
       </c>
       <c r="AK378">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AL378">
         <v>2.25</v>
@@ -73725,76 +73728,76 @@
         <v>1.57</v>
       </c>
       <c r="AN378">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AO378">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AP378">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AQ378">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR378">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="AS378">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AT378">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU378">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AV378">
         <v>1.16</v>
       </c>
       <c r="AW378">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AX378">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AY378">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ378">
-        <v>2.2</v>
+        <v>2.53</v>
       </c>
       <c r="BA378">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="BB378">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="BC378">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BD378">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="BE378">
+        <v>4.45</v>
+      </c>
+      <c r="BF378">
+        <v>6</v>
+      </c>
+      <c r="BG378">
+        <v>0</v>
+      </c>
+      <c r="BH378">
+        <v>1</v>
+      </c>
+      <c r="BI378">
         <v>3</v>
       </c>
-      <c r="BF378">
-        <v>5</v>
-      </c>
-      <c r="BG378">
-        <v>5</v>
-      </c>
-      <c r="BH378">
-        <v>6</v>
-      </c>
-      <c r="BI378">
-        <v>8</v>
-      </c>
       <c r="BJ378">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK378">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:63">
@@ -73844,7 +73847,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -74177,6 +74180,388 @@
       </c>
       <c r="BK380">
         <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>4554772</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45156.79166666666</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>89</v>
+      </c>
+      <c r="H381" t="s">
+        <v>74</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>1</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381" t="s">
+        <v>95</v>
+      </c>
+      <c r="P381" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q381">
+        <v>6</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381">
+        <v>8</v>
+      </c>
+      <c r="T381">
+        <v>3.2</v>
+      </c>
+      <c r="U381">
+        <v>1.95</v>
+      </c>
+      <c r="V381">
+        <v>4</v>
+      </c>
+      <c r="W381">
+        <v>1.53</v>
+      </c>
+      <c r="X381">
+        <v>2.38</v>
+      </c>
+      <c r="Y381">
+        <v>3.5</v>
+      </c>
+      <c r="Z381">
+        <v>1.29</v>
+      </c>
+      <c r="AA381">
+        <v>11</v>
+      </c>
+      <c r="AB381">
+        <v>1.05</v>
+      </c>
+      <c r="AC381">
+        <v>2.4</v>
+      </c>
+      <c r="AD381">
+        <v>3.1</v>
+      </c>
+      <c r="AE381">
+        <v>3.1</v>
+      </c>
+      <c r="AF381">
+        <v>1.08</v>
+      </c>
+      <c r="AG381">
+        <v>6.5</v>
+      </c>
+      <c r="AH381">
+        <v>1.44</v>
+      </c>
+      <c r="AI381">
+        <v>2.6</v>
+      </c>
+      <c r="AJ381">
+        <v>2.4</v>
+      </c>
+      <c r="AK381">
+        <v>1.53</v>
+      </c>
+      <c r="AL381">
+        <v>2</v>
+      </c>
+      <c r="AM381">
+        <v>1.73</v>
+      </c>
+      <c r="AN381">
+        <v>1.43</v>
+      </c>
+      <c r="AO381">
+        <v>1.38</v>
+      </c>
+      <c r="AP381">
+        <v>1.5</v>
+      </c>
+      <c r="AQ381">
+        <v>1.31</v>
+      </c>
+      <c r="AR381">
+        <v>1</v>
+      </c>
+      <c r="AS381">
+        <v>1.29</v>
+      </c>
+      <c r="AT381">
+        <v>1</v>
+      </c>
+      <c r="AU381">
+        <v>1.6</v>
+      </c>
+      <c r="AV381">
+        <v>1.31</v>
+      </c>
+      <c r="AW381">
+        <v>2.91</v>
+      </c>
+      <c r="AX381">
+        <v>1.62</v>
+      </c>
+      <c r="AY381">
+        <v>7.5</v>
+      </c>
+      <c r="AZ381">
+        <v>2.88</v>
+      </c>
+      <c r="BA381">
+        <v>1.29</v>
+      </c>
+      <c r="BB381">
+        <v>1.58</v>
+      </c>
+      <c r="BC381">
+        <v>1.93</v>
+      </c>
+      <c r="BD381">
+        <v>2.4</v>
+      </c>
+      <c r="BE381">
+        <v>3.5</v>
+      </c>
+      <c r="BF381">
+        <v>8</v>
+      </c>
+      <c r="BG381">
+        <v>4</v>
+      </c>
+      <c r="BH381">
+        <v>7</v>
+      </c>
+      <c r="BI381">
+        <v>7</v>
+      </c>
+      <c r="BJ381">
+        <v>15</v>
+      </c>
+      <c r="BK381">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:63">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>4554767</v>
+      </c>
+      <c r="C382" t="s">
+        <v>63</v>
+      </c>
+      <c r="D382" t="s">
+        <v>64</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45156.875</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382" t="s">
+        <v>75</v>
+      </c>
+      <c r="H382" t="s">
+        <v>71</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>1</v>
+      </c>
+      <c r="L382">
+        <v>3</v>
+      </c>
+      <c r="M382">
+        <v>1</v>
+      </c>
+      <c r="N382">
+        <v>4</v>
+      </c>
+      <c r="O382" t="s">
+        <v>304</v>
+      </c>
+      <c r="P382" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q382">
+        <v>5</v>
+      </c>
+      <c r="R382">
+        <v>4</v>
+      </c>
+      <c r="S382">
+        <v>9</v>
+      </c>
+      <c r="T382">
+        <v>2.38</v>
+      </c>
+      <c r="U382">
+        <v>2</v>
+      </c>
+      <c r="V382">
+        <v>6.5</v>
+      </c>
+      <c r="W382">
+        <v>1.57</v>
+      </c>
+      <c r="X382">
+        <v>2.25</v>
+      </c>
+      <c r="Y382">
+        <v>3.75</v>
+      </c>
+      <c r="Z382">
+        <v>1.25</v>
+      </c>
+      <c r="AA382">
+        <v>11</v>
+      </c>
+      <c r="AB382">
+        <v>1.05</v>
+      </c>
+      <c r="AC382">
+        <v>1.67</v>
+      </c>
+      <c r="AD382">
+        <v>3.5</v>
+      </c>
+      <c r="AE382">
+        <v>5.5</v>
+      </c>
+      <c r="AF382">
+        <v>1.08</v>
+      </c>
+      <c r="AG382">
+        <v>7.29</v>
+      </c>
+      <c r="AH382">
+        <v>1.5</v>
+      </c>
+      <c r="AI382">
+        <v>2.5</v>
+      </c>
+      <c r="AJ382">
+        <v>2.5</v>
+      </c>
+      <c r="AK382">
+        <v>1.5</v>
+      </c>
+      <c r="AL382">
+        <v>2.5</v>
+      </c>
+      <c r="AM382">
+        <v>1.5</v>
+      </c>
+      <c r="AN382">
+        <v>1.12</v>
+      </c>
+      <c r="AO382">
+        <v>1.25</v>
+      </c>
+      <c r="AP382">
+        <v>2.25</v>
+      </c>
+      <c r="AQ382">
+        <v>1.93</v>
+      </c>
+      <c r="AR382">
+        <v>0.92</v>
+      </c>
+      <c r="AS382">
+        <v>2</v>
+      </c>
+      <c r="AT382">
+        <v>0.86</v>
+      </c>
+      <c r="AU382">
+        <v>1.56</v>
+      </c>
+      <c r="AV382">
+        <v>1.19</v>
+      </c>
+      <c r="AW382">
+        <v>2.75</v>
+      </c>
+      <c r="AX382">
+        <v>1.43</v>
+      </c>
+      <c r="AY382">
+        <v>7.5</v>
+      </c>
+      <c r="AZ382">
+        <v>3.75</v>
+      </c>
+      <c r="BA382">
+        <v>1.43</v>
+      </c>
+      <c r="BB382">
+        <v>1.67</v>
+      </c>
+      <c r="BC382">
+        <v>2.1</v>
+      </c>
+      <c r="BD382">
+        <v>2.63</v>
+      </c>
+      <c r="BE382">
+        <v>5.1</v>
+      </c>
+      <c r="BF382">
+        <v>4</v>
+      </c>
+      <c r="BG382">
+        <v>6</v>
+      </c>
+      <c r="BH382">
+        <v>5</v>
+      </c>
+      <c r="BI382">
+        <v>7</v>
+      </c>
+      <c r="BJ382">
+        <v>9</v>
+      </c>
+      <c r="BK382">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="412">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -931,6 +931,15 @@
     <t>['28', '55', '90+4']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['23', '63']</t>
+  </si>
+  <si>
+    <t>['11', '44', '57']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1235,6 +1244,12 @@
   </si>
   <si>
     <t>['11', '74']</t>
+  </si>
+  <si>
+    <t>['17', '84', '88']</t>
+  </si>
+  <si>
+    <t>['27', '41']</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK382"/>
+  <dimension ref="A1:BK390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1927,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT2">
         <v>1.14</v>
@@ -2031,7 +2046,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2604,7 +2619,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2694,7 +2709,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2795,7 +2810,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2885,7 +2900,7 @@
         <v>1.21</v>
       </c>
       <c r="AT7">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2986,7 +3001,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3368,7 +3383,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4132,7 +4147,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4219,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT14">
         <v>0.71</v>
@@ -4514,7 +4529,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4983,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT18">
         <v>1.36</v>
@@ -5087,7 +5102,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5174,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5278,7 +5293,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5368,7 +5383,7 @@
         <v>1.79</v>
       </c>
       <c r="AT20">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5556,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT21">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5747,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5851,7 +5866,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5938,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
         <v>0.86</v>
@@ -6323,7 +6338,7 @@
         <v>2.15</v>
       </c>
       <c r="AT25">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6424,7 +6439,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6514,7 +6529,7 @@
         <v>1.69</v>
       </c>
       <c r="AT26">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6615,7 +6630,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6705,7 +6720,7 @@
         <v>1.29</v>
       </c>
       <c r="AT27">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6806,7 +6821,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6893,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT28">
         <v>1.38</v>
@@ -6997,7 +7012,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7188,7 +7203,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7952,7 +7967,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8143,7 +8158,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8421,7 +8436,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
         <v>0.86</v>
@@ -8612,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT37">
         <v>0.43</v>
@@ -9289,7 +9304,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9379,7 +9394,7 @@
         <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9671,7 +9686,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9949,10 +9964,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.83</v>
@@ -10053,7 +10068,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10140,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -10334,7 +10349,7 @@
         <v>1.23</v>
       </c>
       <c r="AT46">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>2.16</v>
@@ -10522,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT47">
         <v>0.77</v>
@@ -10626,7 +10641,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10716,7 +10731,7 @@
         <v>1.38</v>
       </c>
       <c r="AT48">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU48">
         <v>2.98</v>
@@ -10904,7 +10919,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -11480,7 +11495,7 @@
         <v>1.29</v>
       </c>
       <c r="AT52">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU52">
         <v>1.84</v>
@@ -11772,7 +11787,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11859,7 +11874,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT54">
         <v>1.38</v>
@@ -12241,10 +12256,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -12345,7 +12360,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12536,7 +12551,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12626,7 +12641,7 @@
         <v>1.79</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU58">
         <v>0.67</v>
@@ -12814,7 +12829,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT59">
         <v>0.93</v>
@@ -13300,7 +13315,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13390,7 +13405,7 @@
         <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU62">
         <v>1.14</v>
@@ -13491,7 +13506,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13578,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
         <v>1.31</v>
@@ -14064,7 +14079,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14446,7 +14461,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15401,7 +15416,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15488,7 +15503,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT73">
         <v>0.77</v>
@@ -15870,10 +15885,10 @@
         <v>0.5</v>
       </c>
       <c r="AS75">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT75">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15974,7 +15989,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16061,10 +16076,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT76">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -16446,7 +16461,7 @@
         <v>1.85</v>
       </c>
       <c r="AT78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>0.82</v>
@@ -16634,10 +16649,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT79">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16738,7 +16753,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16828,7 +16843,7 @@
         <v>1.23</v>
       </c>
       <c r="AT80">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU80">
         <v>1.91</v>
@@ -17120,7 +17135,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17502,7 +17517,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17589,7 +17604,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17884,7 +17899,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18162,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT87">
         <v>0.43</v>
@@ -18648,7 +18663,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18738,7 +18753,7 @@
         <v>1.86</v>
       </c>
       <c r="AT90">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18929,7 +18944,7 @@
         <v>1.21</v>
       </c>
       <c r="AT91">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -19603,7 +19618,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20072,7 +20087,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT97">
         <v>0.93</v>
@@ -20176,7 +20191,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20263,7 +20278,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT98">
         <v>0.86</v>
@@ -20558,7 +20573,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20836,10 +20851,10 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU101">
         <v>1.12</v>
@@ -20940,7 +20955,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21027,10 +21042,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT102">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -21322,7 +21337,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21412,7 +21427,7 @@
         <v>1.69</v>
       </c>
       <c r="AT104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.17</v>
@@ -21704,7 +21719,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21791,7 +21806,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT106">
         <v>1.36</v>
@@ -21895,7 +21910,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21985,7 +22000,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.64</v>
@@ -22277,7 +22292,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22364,10 +22379,10 @@
         <v>2.25</v>
       </c>
       <c r="AS109">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT109">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22558,7 +22573,7 @@
         <v>1.85</v>
       </c>
       <c r="AT110">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -22746,7 +22761,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT111">
         <v>1.14</v>
@@ -22850,7 +22865,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23128,7 +23143,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT113">
         <v>0.92</v>
@@ -23510,7 +23525,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT115">
         <v>0.93</v>
@@ -23701,7 +23716,7 @@
         <v>0.25</v>
       </c>
       <c r="AS116">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT116">
         <v>0.71</v>
@@ -24187,7 +24202,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24569,7 +24584,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24951,7 +24966,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25041,7 +25056,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -25333,7 +25348,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25996,7 +26011,7 @@
         <v>1.57</v>
       </c>
       <c r="AT128">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.47</v>
@@ -26184,7 +26199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT129">
         <v>0.43</v>
@@ -26288,7 +26303,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26375,7 +26390,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT130">
         <v>0.77</v>
@@ -26569,7 +26584,7 @@
         <v>1.79</v>
       </c>
       <c r="AT131">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26757,7 +26772,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT132">
         <v>1.14</v>
@@ -26861,7 +26876,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26948,7 +26963,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -27052,7 +27067,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27243,7 +27258,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27333,7 +27348,7 @@
         <v>1.69</v>
       </c>
       <c r="AT135">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU135">
         <v>1.38</v>
@@ -27434,7 +27449,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27625,7 +27640,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27712,7 +27727,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT137">
         <v>1.36</v>
@@ -27816,7 +27831,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27906,7 +27921,7 @@
         <v>2.15</v>
       </c>
       <c r="AT138">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU138">
         <v>1.49</v>
@@ -28198,7 +28213,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28288,7 +28303,7 @@
         <v>1.23</v>
       </c>
       <c r="AT140">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28389,7 +28404,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28479,7 +28494,7 @@
         <v>2</v>
       </c>
       <c r="AT141">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU141">
         <v>1.67</v>
@@ -28771,7 +28786,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28858,7 +28873,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT143">
         <v>0.93</v>
@@ -29153,7 +29168,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -30386,7 +30401,7 @@
         <v>1.4</v>
       </c>
       <c r="AS151">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT151">
         <v>0.86</v>
@@ -30490,7 +30505,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30577,7 +30592,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT152">
         <v>0.93</v>
@@ -30681,7 +30696,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30771,7 +30786,7 @@
         <v>1.14</v>
       </c>
       <c r="AT153">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU153">
         <v>1.75</v>
@@ -31344,7 +31359,7 @@
         <v>1.86</v>
       </c>
       <c r="AT156">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31827,7 +31842,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31914,7 +31929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -32108,7 +32123,7 @@
         <v>1.29</v>
       </c>
       <c r="AT160">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU160">
         <v>1.48</v>
@@ -32296,10 +32311,10 @@
         <v>0.8</v>
       </c>
       <c r="AS161">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32487,7 +32502,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT162">
         <v>1</v>
@@ -32681,7 +32696,7 @@
         <v>1.85</v>
       </c>
       <c r="AT163">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU163">
         <v>1.07</v>
@@ -32872,7 +32887,7 @@
         <v>1.79</v>
       </c>
       <c r="AT164">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU164">
         <v>1.53</v>
@@ -33063,7 +33078,7 @@
         <v>1.57</v>
       </c>
       <c r="AT165">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33442,7 +33457,7 @@
         <v>0.67</v>
       </c>
       <c r="AS167">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT167">
         <v>0.43</v>
@@ -33546,7 +33561,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33737,7 +33752,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33928,7 +33943,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34206,7 +34221,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT171">
         <v>0.93</v>
@@ -34310,7 +34325,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34397,7 +34412,7 @@
         <v>0.5</v>
       </c>
       <c r="AS172">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT172">
         <v>0.93</v>
@@ -34692,7 +34707,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35074,7 +35089,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35161,7 +35176,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT176">
         <v>1.31</v>
@@ -35546,7 +35561,7 @@
         <v>1.86</v>
       </c>
       <c r="AT178">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU178">
         <v>1.61</v>
@@ -35838,7 +35853,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36029,7 +36044,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36220,7 +36235,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36307,7 +36322,7 @@
         <v>0.17</v>
       </c>
       <c r="AS182">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT182">
         <v>0.71</v>
@@ -36602,7 +36617,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36880,7 +36895,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT185">
         <v>0.93</v>
@@ -37456,7 +37471,7 @@
         <v>1.69</v>
       </c>
       <c r="AT188">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU188">
         <v>1.5</v>
@@ -37644,10 +37659,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT189">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU189">
         <v>1.28</v>
@@ -37835,10 +37850,10 @@
         <v>1.29</v>
       </c>
       <c r="AS190">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT190">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -38029,7 +38044,7 @@
         <v>1.43</v>
       </c>
       <c r="AT191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.6</v>
@@ -38130,7 +38145,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38602,7 +38617,7 @@
         <v>1.86</v>
       </c>
       <c r="AT194">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU194">
         <v>1.4</v>
@@ -38790,7 +38805,7 @@
         <v>1.86</v>
       </c>
       <c r="AS195">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT195">
         <v>1</v>
@@ -39175,7 +39190,7 @@
         <v>1.5</v>
       </c>
       <c r="AT197">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU197">
         <v>0.86</v>
@@ -39554,7 +39569,7 @@
         <v>0.71</v>
       </c>
       <c r="AS199">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT199">
         <v>0.64</v>
@@ -40040,7 +40055,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40127,7 +40142,7 @@
         <v>1</v>
       </c>
       <c r="AS202">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT202">
         <v>0.86</v>
@@ -40318,7 +40333,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT203">
         <v>0.86</v>
@@ -40804,7 +40819,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41082,7 +41097,7 @@
         <v>0.57</v>
       </c>
       <c r="AS207">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT207">
         <v>0.71</v>
@@ -41377,7 +41392,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41467,7 +41482,7 @@
         <v>1.64</v>
       </c>
       <c r="AT209">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU209">
         <v>1.72</v>
@@ -41950,7 +41965,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42141,7 +42156,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42228,10 +42243,10 @@
         <v>1.25</v>
       </c>
       <c r="AS213">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT213">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU213">
         <v>1.42</v>
@@ -42332,7 +42347,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42422,7 +42437,7 @@
         <v>1.43</v>
       </c>
       <c r="AT214">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42804,7 +42819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU216">
         <v>1.49</v>
@@ -43478,7 +43493,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43568,7 +43583,7 @@
         <v>1.79</v>
       </c>
       <c r="AT220">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU220">
         <v>1.55</v>
@@ -43669,7 +43684,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43860,7 +43875,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44138,7 +44153,7 @@
         <v>1.29</v>
       </c>
       <c r="AS223">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT223">
         <v>1.14</v>
@@ -44329,7 +44344,7 @@
         <v>0.86</v>
       </c>
       <c r="AS224">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT224">
         <v>0.77</v>
@@ -44520,7 +44535,7 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT225">
         <v>0.86</v>
@@ -44902,7 +44917,7 @@
         <v>2</v>
       </c>
       <c r="AS227">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT227">
         <v>1.38</v>
@@ -45475,7 +45490,7 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT230">
         <v>1.31</v>
@@ -45669,7 +45684,7 @@
         <v>2.07</v>
       </c>
       <c r="AT231">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU231">
         <v>1.41</v>
@@ -45857,7 +45872,7 @@
         <v>0.75</v>
       </c>
       <c r="AS232">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT232">
         <v>0.79</v>
@@ -46242,7 +46257,7 @@
         <v>1.79</v>
       </c>
       <c r="AT234">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU234">
         <v>1.19</v>
@@ -46430,7 +46445,7 @@
         <v>0.63</v>
       </c>
       <c r="AS235">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT235">
         <v>0.64</v>
@@ -46624,7 +46639,7 @@
         <v>1.14</v>
       </c>
       <c r="AT236">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU236">
         <v>1.63</v>
@@ -47194,7 +47209,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT239">
         <v>0.93</v>
@@ -47576,7 +47591,7 @@
         <v>1.13</v>
       </c>
       <c r="AS241">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT241">
         <v>1.14</v>
@@ -47770,7 +47785,7 @@
         <v>1.5</v>
       </c>
       <c r="AT242">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU242">
         <v>1.12</v>
@@ -48343,7 +48358,7 @@
         <v>2</v>
       </c>
       <c r="AT245">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU245">
         <v>1.67</v>
@@ -48635,7 +48650,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -49399,7 +49414,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49486,10 +49501,10 @@
         <v>2.11</v>
       </c>
       <c r="AS251">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT251">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU251">
         <v>1.3</v>
@@ -49677,7 +49692,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT252">
         <v>0.79</v>
@@ -49868,7 +49883,7 @@
         <v>1.25</v>
       </c>
       <c r="AS253">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT253">
         <v>1.31</v>
@@ -49972,7 +49987,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50062,7 +50077,7 @@
         <v>1.86</v>
       </c>
       <c r="AT254">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU254">
         <v>1.5</v>
@@ -50250,7 +50265,7 @@
         <v>0.88</v>
       </c>
       <c r="AS255">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT255">
         <v>0.86</v>
@@ -50354,7 +50369,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50444,7 +50459,7 @@
         <v>1.38</v>
       </c>
       <c r="AT256">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU256">
         <v>1.66</v>
@@ -50736,7 +50751,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -50823,10 +50838,10 @@
         <v>0.88</v>
       </c>
       <c r="AS258">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT258">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU258">
         <v>1.61</v>
@@ -51590,7 +51605,7 @@
         <v>2.07</v>
       </c>
       <c r="AT262">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU262">
         <v>1.4</v>
@@ -51969,7 +51984,7 @@
         <v>0.89</v>
       </c>
       <c r="AS264">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT264">
         <v>1.07</v>
@@ -52351,7 +52366,7 @@
         <v>1.3</v>
       </c>
       <c r="AS266">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT266">
         <v>0.93</v>
@@ -52545,7 +52560,7 @@
         <v>1.57</v>
       </c>
       <c r="AT267">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU267">
         <v>1.48</v>
@@ -53410,7 +53425,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53500,7 +53515,7 @@
         <v>1.43</v>
       </c>
       <c r="AT272">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU272">
         <v>1.55</v>
@@ -53688,7 +53703,7 @@
         <v>0.9</v>
       </c>
       <c r="AS273">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT273">
         <v>1.14</v>
@@ -53792,7 +53807,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54452,7 +54467,7 @@
         <v>0.6</v>
       </c>
       <c r="AS277">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT277">
         <v>0.64</v>
@@ -54556,7 +54571,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -55410,7 +55425,7 @@
         <v>1.86</v>
       </c>
       <c r="AT282">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU282">
         <v>1.52</v>
@@ -55702,7 +55717,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55983,7 +55998,7 @@
         <v>1.64</v>
       </c>
       <c r="AT285">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU285">
         <v>1.66</v>
@@ -56084,7 +56099,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56174,7 +56189,7 @@
         <v>2.77</v>
       </c>
       <c r="AT286">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU286">
         <v>1.73</v>
@@ -56744,7 +56759,7 @@
         <v>1.56</v>
       </c>
       <c r="AS289">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT289">
         <v>1.38</v>
@@ -57039,7 +57054,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57126,10 +57141,10 @@
         <v>2</v>
       </c>
       <c r="AS291">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT291">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU291">
         <v>1.43</v>
@@ -57230,7 +57245,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57317,7 +57332,7 @@
         <v>0.78</v>
       </c>
       <c r="AS292">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT292">
         <v>0.86</v>
@@ -57421,7 +57436,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57508,10 +57523,10 @@
         <v>0.89</v>
       </c>
       <c r="AS293">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT293">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU293">
         <v>1.67</v>
@@ -57699,7 +57714,7 @@
         <v>0.8</v>
       </c>
       <c r="AS294">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT294">
         <v>1.07</v>
@@ -57994,7 +58009,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58463,7 +58478,7 @@
         <v>0.36</v>
       </c>
       <c r="AS298">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT298">
         <v>0.43</v>
@@ -58567,7 +58582,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58657,7 +58672,7 @@
         <v>1.5</v>
       </c>
       <c r="AT299">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU299">
         <v>1.15</v>
@@ -59140,7 +59155,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59418,7 +59433,7 @@
         <v>0.55</v>
       </c>
       <c r="AS303">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT303">
         <v>0.64</v>
@@ -59522,7 +59537,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60185,7 +60200,7 @@
         <v>1.86</v>
       </c>
       <c r="AT307">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU307">
         <v>1.49</v>
@@ -60477,7 +60492,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60755,7 +60770,7 @@
         <v>0.5</v>
       </c>
       <c r="AS310">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT310">
         <v>0.6899999999999999</v>
@@ -61328,7 +61343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS313">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT313">
         <v>1.36</v>
@@ -61522,7 +61537,7 @@
         <v>1.64</v>
       </c>
       <c r="AT314">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU314">
         <v>1.64</v>
@@ -61713,7 +61728,7 @@
         <v>2.77</v>
       </c>
       <c r="AT315">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU315">
         <v>1.81</v>
@@ -61814,7 +61829,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -61901,7 +61916,7 @@
         <v>1.4</v>
       </c>
       <c r="AS316">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT316">
         <v>1.38</v>
@@ -62196,7 +62211,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62283,10 +62298,10 @@
         <v>1.8</v>
       </c>
       <c r="AS318">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT318">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU318">
         <v>1.59</v>
@@ -62474,10 +62489,10 @@
         <v>0.7</v>
       </c>
       <c r="AS319">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT319">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU319">
         <v>1.87</v>
@@ -62769,7 +62784,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -62859,7 +62874,7 @@
         <v>1.79</v>
       </c>
       <c r="AT321">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU321">
         <v>1.25</v>
@@ -63047,7 +63062,7 @@
         <v>0.73</v>
       </c>
       <c r="AS322">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT322">
         <v>0.86</v>
@@ -63623,7 +63638,7 @@
         <v>2.07</v>
       </c>
       <c r="AT325">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU325">
         <v>1.41</v>
@@ -63814,7 +63829,7 @@
         <v>1.5</v>
       </c>
       <c r="AT326">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU326">
         <v>1.53</v>
@@ -64193,7 +64208,7 @@
         <v>1</v>
       </c>
       <c r="AS328">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT328">
         <v>0.93</v>
@@ -64488,7 +64503,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65530,7 +65545,7 @@
         <v>1.09</v>
       </c>
       <c r="AS335">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT335">
         <v>0.92</v>
@@ -65634,7 +65649,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65721,7 +65736,7 @@
         <v>0.67</v>
       </c>
       <c r="AS336">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT336">
         <v>0.79</v>
@@ -66016,7 +66031,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -66103,7 +66118,7 @@
         <v>0.73</v>
       </c>
       <c r="AS338">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT338">
         <v>0.6899999999999999</v>
@@ -66207,7 +66222,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q339">
         <v>5</v>
@@ -66488,7 +66503,7 @@
         <v>1.23</v>
       </c>
       <c r="AT340">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU340">
         <v>1.56</v>
@@ -66971,7 +66986,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67162,7 +67177,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67252,7 +67267,7 @@
         <v>1.79</v>
       </c>
       <c r="AT344">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU344">
         <v>1.24</v>
@@ -67353,7 +67368,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67440,7 +67455,7 @@
         <v>1</v>
       </c>
       <c r="AS345">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT345">
         <v>1.31</v>
@@ -67544,7 +67559,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -67631,7 +67646,7 @@
         <v>0.73</v>
       </c>
       <c r="AS346">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT346">
         <v>0.77</v>
@@ -67822,10 +67837,10 @@
         <v>0.82</v>
       </c>
       <c r="AS347">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT347">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU347">
         <v>1.86</v>
@@ -68117,7 +68132,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68204,10 +68219,10 @@
         <v>0.73</v>
       </c>
       <c r="AS349">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT349">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU349">
         <v>1.11</v>
@@ -68398,7 +68413,7 @@
         <v>1.38</v>
       </c>
       <c r="AT350">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU350">
         <v>1.75</v>
@@ -68690,7 +68705,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69072,7 +69087,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69645,7 +69660,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69732,10 +69747,10 @@
         <v>1.85</v>
       </c>
       <c r="AS357">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT357">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AU357">
         <v>1.64</v>
@@ -69836,7 +69851,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70114,7 +70129,7 @@
         <v>0.92</v>
       </c>
       <c r="AS359">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT359">
         <v>0.93</v>
@@ -70982,7 +70997,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71072,7 +71087,7 @@
         <v>1.14</v>
       </c>
       <c r="AT364">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU364">
         <v>1.49</v>
@@ -71555,7 +71570,7 @@
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -71642,7 +71657,7 @@
         <v>1.33</v>
       </c>
       <c r="AS367">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT367">
         <v>1.36</v>
@@ -72027,7 +72042,7 @@
         <v>1.85</v>
       </c>
       <c r="AT369">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU369">
         <v>1.22</v>
@@ -72319,7 +72334,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72597,7 +72612,7 @@
         <v>0.75</v>
       </c>
       <c r="AS372">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT372">
         <v>0.77</v>
@@ -72701,7 +72716,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -72788,7 +72803,7 @@
         <v>1.17</v>
       </c>
       <c r="AS373">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT373">
         <v>1.31</v>
@@ -72982,7 +72997,7 @@
         <v>1.38</v>
       </c>
       <c r="AT374">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU374">
         <v>1.73</v>
@@ -73170,10 +73185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS375">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT375">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU375">
         <v>1.09</v>
@@ -73361,10 +73376,10 @@
         <v>1.17</v>
       </c>
       <c r="AS376">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT376">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU376">
         <v>1.5</v>
@@ -73552,7 +73567,7 @@
         <v>0.92</v>
       </c>
       <c r="AS377">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT377">
         <v>0.86</v>
@@ -73847,7 +73862,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -73937,7 +73952,7 @@
         <v>2.15</v>
       </c>
       <c r="AT379">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU379">
         <v>1.52</v>
@@ -74562,6 +74577,1534 @@
       </c>
       <c r="BK382">
         <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:63">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>4554766</v>
+      </c>
+      <c r="C383" t="s">
+        <v>63</v>
+      </c>
+      <c r="D383" t="s">
+        <v>64</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45157.6875</v>
+      </c>
+      <c r="F383">
+        <v>1</v>
+      </c>
+      <c r="G383" t="s">
+        <v>86</v>
+      </c>
+      <c r="H383" t="s">
+        <v>73</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>1</v>
+      </c>
+      <c r="N383">
+        <v>1</v>
+      </c>
+      <c r="O383" t="s">
+        <v>96</v>
+      </c>
+      <c r="P383" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q383">
+        <v>9</v>
+      </c>
+      <c r="R383">
+        <v>5</v>
+      </c>
+      <c r="S383">
+        <v>14</v>
+      </c>
+      <c r="T383">
+        <v>2.75</v>
+      </c>
+      <c r="U383">
+        <v>1.95</v>
+      </c>
+      <c r="V383">
+        <v>5</v>
+      </c>
+      <c r="W383">
+        <v>1.53</v>
+      </c>
+      <c r="X383">
+        <v>2.38</v>
+      </c>
+      <c r="Y383">
+        <v>3.75</v>
+      </c>
+      <c r="Z383">
+        <v>1.25</v>
+      </c>
+      <c r="AA383">
+        <v>11</v>
+      </c>
+      <c r="AB383">
+        <v>1.05</v>
+      </c>
+      <c r="AC383">
+        <v>1.95</v>
+      </c>
+      <c r="AD383">
+        <v>3.2</v>
+      </c>
+      <c r="AE383">
+        <v>4.2</v>
+      </c>
+      <c r="AF383">
+        <v>1.08</v>
+      </c>
+      <c r="AG383">
+        <v>7.29</v>
+      </c>
+      <c r="AH383">
+        <v>1.47</v>
+      </c>
+      <c r="AI383">
+        <v>2.59</v>
+      </c>
+      <c r="AJ383">
+        <v>2.5</v>
+      </c>
+      <c r="AK383">
+        <v>1.5</v>
+      </c>
+      <c r="AL383">
+        <v>2.2</v>
+      </c>
+      <c r="AM383">
+        <v>1.62</v>
+      </c>
+      <c r="AN383">
+        <v>1.25</v>
+      </c>
+      <c r="AO383">
+        <v>1.33</v>
+      </c>
+      <c r="AP383">
+        <v>1.83</v>
+      </c>
+      <c r="AQ383">
+        <v>1.23</v>
+      </c>
+      <c r="AR383">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS383">
+        <v>1.14</v>
+      </c>
+      <c r="AT383">
+        <v>0.86</v>
+      </c>
+      <c r="AU383">
+        <v>1.4</v>
+      </c>
+      <c r="AV383">
+        <v>1.02</v>
+      </c>
+      <c r="AW383">
+        <v>2.42</v>
+      </c>
+      <c r="AX383">
+        <v>1.32</v>
+      </c>
+      <c r="AY383">
+        <v>7.5</v>
+      </c>
+      <c r="AZ383">
+        <v>3.6</v>
+      </c>
+      <c r="BA383">
+        <v>1.36</v>
+      </c>
+      <c r="BB383">
+        <v>1.68</v>
+      </c>
+      <c r="BC383">
+        <v>2.07</v>
+      </c>
+      <c r="BD383">
+        <v>2.6</v>
+      </c>
+      <c r="BE383">
+        <v>4</v>
+      </c>
+      <c r="BF383">
+        <v>4</v>
+      </c>
+      <c r="BG383">
+        <v>7</v>
+      </c>
+      <c r="BH383">
+        <v>4</v>
+      </c>
+      <c r="BI383">
+        <v>4</v>
+      </c>
+      <c r="BJ383">
+        <v>8</v>
+      </c>
+      <c r="BK383">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:63">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>4554765</v>
+      </c>
+      <c r="C384" t="s">
+        <v>63</v>
+      </c>
+      <c r="D384" t="s">
+        <v>64</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45157.79166666666</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384" t="s">
+        <v>90</v>
+      </c>
+      <c r="H384" t="s">
+        <v>68</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384">
+        <v>1</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="M384">
+        <v>3</v>
+      </c>
+      <c r="N384">
+        <v>3</v>
+      </c>
+      <c r="O384" t="s">
+        <v>96</v>
+      </c>
+      <c r="P384" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q384">
+        <v>4</v>
+      </c>
+      <c r="R384">
+        <v>6</v>
+      </c>
+      <c r="S384">
+        <v>10</v>
+      </c>
+      <c r="T384">
+        <v>4.33</v>
+      </c>
+      <c r="U384">
+        <v>2.1</v>
+      </c>
+      <c r="V384">
+        <v>2.75</v>
+      </c>
+      <c r="W384">
+        <v>1.44</v>
+      </c>
+      <c r="X384">
+        <v>2.63</v>
+      </c>
+      <c r="Y384">
+        <v>3.25</v>
+      </c>
+      <c r="Z384">
+        <v>1.33</v>
+      </c>
+      <c r="AA384">
+        <v>9</v>
+      </c>
+      <c r="AB384">
+        <v>1.07</v>
+      </c>
+      <c r="AC384">
+        <v>3.6</v>
+      </c>
+      <c r="AD384">
+        <v>3.5</v>
+      </c>
+      <c r="AE384">
+        <v>2</v>
+      </c>
+      <c r="AF384">
+        <v>1.04</v>
+      </c>
+      <c r="AG384">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH384">
+        <v>1.34</v>
+      </c>
+      <c r="AI384">
+        <v>3.14</v>
+      </c>
+      <c r="AJ384">
+        <v>2.1</v>
+      </c>
+      <c r="AK384">
+        <v>1.7</v>
+      </c>
+      <c r="AL384">
+        <v>1.91</v>
+      </c>
+      <c r="AM384">
+        <v>1.8</v>
+      </c>
+      <c r="AN384">
+        <v>1.83</v>
+      </c>
+      <c r="AO384">
+        <v>1.25</v>
+      </c>
+      <c r="AP384">
+        <v>1.28</v>
+      </c>
+      <c r="AQ384">
+        <v>1.54</v>
+      </c>
+      <c r="AR384">
+        <v>1.92</v>
+      </c>
+      <c r="AS384">
+        <v>1.43</v>
+      </c>
+      <c r="AT384">
+        <v>2</v>
+      </c>
+      <c r="AU384">
+        <v>1.57</v>
+      </c>
+      <c r="AV384">
+        <v>1.3</v>
+      </c>
+      <c r="AW384">
+        <v>2.87</v>
+      </c>
+      <c r="AX384">
+        <v>2.1</v>
+      </c>
+      <c r="AY384">
+        <v>8.9</v>
+      </c>
+      <c r="AZ384">
+        <v>1.95</v>
+      </c>
+      <c r="BA384">
+        <v>1.19</v>
+      </c>
+      <c r="BB384">
+        <v>1.4</v>
+      </c>
+      <c r="BC384">
+        <v>1.74</v>
+      </c>
+      <c r="BD384">
+        <v>2.13</v>
+      </c>
+      <c r="BE384">
+        <v>2.6</v>
+      </c>
+      <c r="BF384">
+        <v>3</v>
+      </c>
+      <c r="BG384">
+        <v>5</v>
+      </c>
+      <c r="BH384">
+        <v>3</v>
+      </c>
+      <c r="BI384">
+        <v>8</v>
+      </c>
+      <c r="BJ384">
+        <v>6</v>
+      </c>
+      <c r="BK384">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:63">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>4554761</v>
+      </c>
+      <c r="C385" t="s">
+        <v>63</v>
+      </c>
+      <c r="D385" t="s">
+        <v>64</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45157.875</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385" t="s">
+        <v>77</v>
+      </c>
+      <c r="H385" t="s">
+        <v>76</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>1</v>
+      </c>
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385">
+        <v>1</v>
+      </c>
+      <c r="O385" t="s">
+        <v>305</v>
+      </c>
+      <c r="P385" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q385">
+        <v>8</v>
+      </c>
+      <c r="R385">
+        <v>4</v>
+      </c>
+      <c r="S385">
+        <v>12</v>
+      </c>
+      <c r="T385">
+        <v>2.75</v>
+      </c>
+      <c r="U385">
+        <v>2</v>
+      </c>
+      <c r="V385">
+        <v>4.5</v>
+      </c>
+      <c r="W385">
+        <v>1.5</v>
+      </c>
+      <c r="X385">
+        <v>2.5</v>
+      </c>
+      <c r="Y385">
+        <v>3.4</v>
+      </c>
+      <c r="Z385">
+        <v>1.3</v>
+      </c>
+      <c r="AA385">
+        <v>10</v>
+      </c>
+      <c r="AB385">
+        <v>1.06</v>
+      </c>
+      <c r="AC385">
+        <v>2</v>
+      </c>
+      <c r="AD385">
+        <v>3.3</v>
+      </c>
+      <c r="AE385">
+        <v>3.75</v>
+      </c>
+      <c r="AF385">
+        <v>1.08</v>
+      </c>
+      <c r="AG385">
+        <v>6.5</v>
+      </c>
+      <c r="AH385">
+        <v>1.44</v>
+      </c>
+      <c r="AI385">
+        <v>2.6</v>
+      </c>
+      <c r="AJ385">
+        <v>2.3</v>
+      </c>
+      <c r="AK385">
+        <v>1.6</v>
+      </c>
+      <c r="AL385">
+        <v>2</v>
+      </c>
+      <c r="AM385">
+        <v>1.73</v>
+      </c>
+      <c r="AN385">
+        <v>1.25</v>
+      </c>
+      <c r="AO385">
+        <v>1.28</v>
+      </c>
+      <c r="AP385">
+        <v>1.8</v>
+      </c>
+      <c r="AQ385">
+        <v>1.29</v>
+      </c>
+      <c r="AR385">
+        <v>1.08</v>
+      </c>
+      <c r="AS385">
+        <v>1.4</v>
+      </c>
+      <c r="AT385">
+        <v>1</v>
+      </c>
+      <c r="AU385">
+        <v>1.22</v>
+      </c>
+      <c r="AV385">
+        <v>1.16</v>
+      </c>
+      <c r="AW385">
+        <v>2.38</v>
+      </c>
+      <c r="AX385">
+        <v>1.6</v>
+      </c>
+      <c r="AY385">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ385">
+        <v>2.83</v>
+      </c>
+      <c r="BA385">
+        <v>1.5</v>
+      </c>
+      <c r="BB385">
+        <v>1.84</v>
+      </c>
+      <c r="BC385">
+        <v>2.32</v>
+      </c>
+      <c r="BD385">
+        <v>3.2</v>
+      </c>
+      <c r="BE385">
+        <v>4.7</v>
+      </c>
+      <c r="BF385">
+        <v>4</v>
+      </c>
+      <c r="BG385">
+        <v>2</v>
+      </c>
+      <c r="BH385">
+        <v>6</v>
+      </c>
+      <c r="BI385">
+        <v>2</v>
+      </c>
+      <c r="BJ385">
+        <v>10</v>
+      </c>
+      <c r="BK385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:63">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>5019537</v>
+      </c>
+      <c r="C386" t="s">
+        <v>63</v>
+      </c>
+      <c r="D386" t="s">
+        <v>64</v>
+      </c>
+      <c r="E386" s="2">
+        <v>45158.58333333334</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386" t="s">
+        <v>81</v>
+      </c>
+      <c r="H386" t="s">
+        <v>72</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386">
+        <v>1</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>1</v>
+      </c>
+      <c r="N386">
+        <v>1</v>
+      </c>
+      <c r="O386" t="s">
+        <v>96</v>
+      </c>
+      <c r="P386" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q386">
+        <v>7</v>
+      </c>
+      <c r="R386">
+        <v>2</v>
+      </c>
+      <c r="S386">
+        <v>9</v>
+      </c>
+      <c r="T386">
+        <v>4</v>
+      </c>
+      <c r="U386">
+        <v>1.82</v>
+      </c>
+      <c r="V386">
+        <v>3.2</v>
+      </c>
+      <c r="W386">
+        <v>1.62</v>
+      </c>
+      <c r="X386">
+        <v>2.22</v>
+      </c>
+      <c r="Y386">
+        <v>3.92</v>
+      </c>
+      <c r="Z386">
+        <v>1.23</v>
+      </c>
+      <c r="AA386">
+        <v>11</v>
+      </c>
+      <c r="AB386">
+        <v>1.01</v>
+      </c>
+      <c r="AC386">
+        <v>3.3</v>
+      </c>
+      <c r="AD386">
+        <v>3.08</v>
+      </c>
+      <c r="AE386">
+        <v>2.46</v>
+      </c>
+      <c r="AF386">
+        <v>1.13</v>
+      </c>
+      <c r="AG386">
+        <v>6.45</v>
+      </c>
+      <c r="AH386">
+        <v>1.57</v>
+      </c>
+      <c r="AI386">
+        <v>2.41</v>
+      </c>
+      <c r="AJ386">
+        <v>2.78</v>
+      </c>
+      <c r="AK386">
+        <v>1.45</v>
+      </c>
+      <c r="AL386">
+        <v>2.25</v>
+      </c>
+      <c r="AM386">
+        <v>1.62</v>
+      </c>
+      <c r="AN386">
+        <v>1.55</v>
+      </c>
+      <c r="AO386">
+        <v>1.39</v>
+      </c>
+      <c r="AP386">
+        <v>1.35</v>
+      </c>
+      <c r="AQ386">
+        <v>1.23</v>
+      </c>
+      <c r="AR386">
+        <v>0.85</v>
+      </c>
+      <c r="AS386">
+        <v>1.14</v>
+      </c>
+      <c r="AT386">
+        <v>1</v>
+      </c>
+      <c r="AU386">
+        <v>1.15</v>
+      </c>
+      <c r="AV386">
+        <v>1.19</v>
+      </c>
+      <c r="AW386">
+        <v>2.34</v>
+      </c>
+      <c r="AX386">
+        <v>2.08</v>
+      </c>
+      <c r="AY386">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ386">
+        <v>2.03</v>
+      </c>
+      <c r="BA386">
+        <v>1.4</v>
+      </c>
+      <c r="BB386">
+        <v>1.79</v>
+      </c>
+      <c r="BC386">
+        <v>2.23</v>
+      </c>
+      <c r="BD386">
+        <v>3.1</v>
+      </c>
+      <c r="BE386">
+        <v>4.4</v>
+      </c>
+      <c r="BF386">
+        <v>3</v>
+      </c>
+      <c r="BG386">
+        <v>4</v>
+      </c>
+      <c r="BH386">
+        <v>8</v>
+      </c>
+      <c r="BI386">
+        <v>5</v>
+      </c>
+      <c r="BJ386">
+        <v>11</v>
+      </c>
+      <c r="BK386">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:63">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>5019538</v>
+      </c>
+      <c r="C387" t="s">
+        <v>63</v>
+      </c>
+      <c r="D387" t="s">
+        <v>64</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387" t="s">
+        <v>82</v>
+      </c>
+      <c r="H387" t="s">
+        <v>79</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
+      </c>
+      <c r="L387">
+        <v>2</v>
+      </c>
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>2</v>
+      </c>
+      <c r="O387" t="s">
+        <v>306</v>
+      </c>
+      <c r="P387" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q387">
+        <v>2</v>
+      </c>
+      <c r="R387">
+        <v>2</v>
+      </c>
+      <c r="S387">
+        <v>4</v>
+      </c>
+      <c r="T387">
+        <v>3.4</v>
+      </c>
+      <c r="U387">
+        <v>2</v>
+      </c>
+      <c r="V387">
+        <v>3.6</v>
+      </c>
+      <c r="W387">
+        <v>1.5</v>
+      </c>
+      <c r="X387">
+        <v>2.5</v>
+      </c>
+      <c r="Y387">
+        <v>3.5</v>
+      </c>
+      <c r="Z387">
+        <v>1.29</v>
+      </c>
+      <c r="AA387">
+        <v>11</v>
+      </c>
+      <c r="AB387">
+        <v>1.05</v>
+      </c>
+      <c r="AC387">
+        <v>2.5</v>
+      </c>
+      <c r="AD387">
+        <v>3.2</v>
+      </c>
+      <c r="AE387">
+        <v>2.8</v>
+      </c>
+      <c r="AF387">
+        <v>1.06</v>
+      </c>
+      <c r="AG387">
+        <v>6.8</v>
+      </c>
+      <c r="AH387">
+        <v>1.43</v>
+      </c>
+      <c r="AI387">
+        <v>2.57</v>
+      </c>
+      <c r="AJ387">
+        <v>2.35</v>
+      </c>
+      <c r="AK387">
+        <v>1.57</v>
+      </c>
+      <c r="AL387">
+        <v>2</v>
+      </c>
+      <c r="AM387">
+        <v>1.73</v>
+      </c>
+      <c r="AN387">
+        <v>1.43</v>
+      </c>
+      <c r="AO387">
+        <v>1.36</v>
+      </c>
+      <c r="AP387">
+        <v>1.49</v>
+      </c>
+      <c r="AQ387">
+        <v>1.31</v>
+      </c>
+      <c r="AR387">
+        <v>1.14</v>
+      </c>
+      <c r="AS387">
+        <v>1.43</v>
+      </c>
+      <c r="AT387">
+        <v>1.07</v>
+      </c>
+      <c r="AU387">
+        <v>1.48</v>
+      </c>
+      <c r="AV387">
+        <v>1.49</v>
+      </c>
+      <c r="AW387">
+        <v>2.97</v>
+      </c>
+      <c r="AX387">
+        <v>2.26</v>
+      </c>
+      <c r="AY387">
+        <v>9.1</v>
+      </c>
+      <c r="AZ387">
+        <v>1.85</v>
+      </c>
+      <c r="BA387">
+        <v>1.21</v>
+      </c>
+      <c r="BB387">
+        <v>1.38</v>
+      </c>
+      <c r="BC387">
+        <v>1.73</v>
+      </c>
+      <c r="BD387">
+        <v>2.12</v>
+      </c>
+      <c r="BE387">
+        <v>2.85</v>
+      </c>
+      <c r="BF387">
+        <v>4</v>
+      </c>
+      <c r="BG387">
+        <v>3</v>
+      </c>
+      <c r="BH387">
+        <v>2</v>
+      </c>
+      <c r="BI387">
+        <v>10</v>
+      </c>
+      <c r="BJ387">
+        <v>6</v>
+      </c>
+      <c r="BK387">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:63">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>4554763</v>
+      </c>
+      <c r="C388" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45158.67708333334</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388" t="s">
+        <v>65</v>
+      </c>
+      <c r="H388" t="s">
+        <v>88</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+      <c r="O388" t="s">
+        <v>96</v>
+      </c>
+      <c r="P388" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q388">
+        <v>4</v>
+      </c>
+      <c r="R388">
+        <v>4</v>
+      </c>
+      <c r="S388">
+        <v>8</v>
+      </c>
+      <c r="T388">
+        <v>2.88</v>
+      </c>
+      <c r="U388">
+        <v>2</v>
+      </c>
+      <c r="V388">
+        <v>4.33</v>
+      </c>
+      <c r="W388">
+        <v>1.53</v>
+      </c>
+      <c r="X388">
+        <v>2.38</v>
+      </c>
+      <c r="Y388">
+        <v>3.5</v>
+      </c>
+      <c r="Z388">
+        <v>1.29</v>
+      </c>
+      <c r="AA388">
+        <v>11</v>
+      </c>
+      <c r="AB388">
+        <v>1.05</v>
+      </c>
+      <c r="AC388">
+        <v>2.1</v>
+      </c>
+      <c r="AD388">
+        <v>3.25</v>
+      </c>
+      <c r="AE388">
+        <v>3.5</v>
+      </c>
+      <c r="AF388">
+        <v>1.06</v>
+      </c>
+      <c r="AG388">
+        <v>6.8</v>
+      </c>
+      <c r="AH388">
+        <v>1.44</v>
+      </c>
+      <c r="AI388">
+        <v>2.54</v>
+      </c>
+      <c r="AJ388">
+        <v>2.35</v>
+      </c>
+      <c r="AK388">
+        <v>1.57</v>
+      </c>
+      <c r="AL388">
+        <v>2.1</v>
+      </c>
+      <c r="AM388">
+        <v>1.67</v>
+      </c>
+      <c r="AN388">
+        <v>1.29</v>
+      </c>
+      <c r="AO388">
+        <v>1.34</v>
+      </c>
+      <c r="AP388">
+        <v>1.7</v>
+      </c>
+      <c r="AQ388">
+        <v>2.29</v>
+      </c>
+      <c r="AR388">
+        <v>1.07</v>
+      </c>
+      <c r="AS388">
+        <v>2.2</v>
+      </c>
+      <c r="AT388">
+        <v>1.07</v>
+      </c>
+      <c r="AU388">
+        <v>1.63</v>
+      </c>
+      <c r="AV388">
+        <v>1.26</v>
+      </c>
+      <c r="AW388">
+        <v>2.89</v>
+      </c>
+      <c r="AX388">
+        <v>1.71</v>
+      </c>
+      <c r="AY388">
+        <v>8.9</v>
+      </c>
+      <c r="AZ388">
+        <v>2.52</v>
+      </c>
+      <c r="BA388">
+        <v>1.27</v>
+      </c>
+      <c r="BB388">
+        <v>1.57</v>
+      </c>
+      <c r="BC388">
+        <v>1.93</v>
+      </c>
+      <c r="BD388">
+        <v>2.38</v>
+      </c>
+      <c r="BE388">
+        <v>3.3</v>
+      </c>
+      <c r="BF388">
+        <v>3</v>
+      </c>
+      <c r="BG388">
+        <v>2</v>
+      </c>
+      <c r="BH388">
+        <v>8</v>
+      </c>
+      <c r="BI388">
+        <v>3</v>
+      </c>
+      <c r="BJ388">
+        <v>11</v>
+      </c>
+      <c r="BK388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:63">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>4554770</v>
+      </c>
+      <c r="C389" t="s">
+        <v>63</v>
+      </c>
+      <c r="D389" t="s">
+        <v>64</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45158.77083333334</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389" t="s">
+        <v>84</v>
+      </c>
+      <c r="H389" t="s">
+        <v>67</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>1</v>
+      </c>
+      <c r="N389">
+        <v>1</v>
+      </c>
+      <c r="O389" t="s">
+        <v>96</v>
+      </c>
+      <c r="P389" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q389">
+        <v>3</v>
+      </c>
+      <c r="R389">
+        <v>3</v>
+      </c>
+      <c r="S389">
+        <v>6</v>
+      </c>
+      <c r="T389">
+        <v>3.1</v>
+      </c>
+      <c r="U389">
+        <v>1.83</v>
+      </c>
+      <c r="V389">
+        <v>4.75</v>
+      </c>
+      <c r="W389">
+        <v>1.67</v>
+      </c>
+      <c r="X389">
+        <v>2.1</v>
+      </c>
+      <c r="Y389">
+        <v>4.33</v>
+      </c>
+      <c r="Z389">
+        <v>1.2</v>
+      </c>
+      <c r="AA389">
+        <v>15</v>
+      </c>
+      <c r="AB389">
+        <v>1.03</v>
+      </c>
+      <c r="AC389">
+        <v>2.25</v>
+      </c>
+      <c r="AD389">
+        <v>3</v>
+      </c>
+      <c r="AE389">
+        <v>3.5</v>
+      </c>
+      <c r="AF389">
+        <v>1.11</v>
+      </c>
+      <c r="AG389">
+        <v>5.35</v>
+      </c>
+      <c r="AH389">
+        <v>1.64</v>
+      </c>
+      <c r="AI389">
+        <v>2.3</v>
+      </c>
+      <c r="AJ389">
+        <v>3.1</v>
+      </c>
+      <c r="AK389">
+        <v>1.36</v>
+      </c>
+      <c r="AL389">
+        <v>2.38</v>
+      </c>
+      <c r="AM389">
+        <v>1.53</v>
+      </c>
+      <c r="AN389">
+        <v>1.26</v>
+      </c>
+      <c r="AO389">
+        <v>1.4</v>
+      </c>
+      <c r="AP389">
+        <v>1.67</v>
+      </c>
+      <c r="AQ389">
+        <v>2.23</v>
+      </c>
+      <c r="AR389">
+        <v>1.31</v>
+      </c>
+      <c r="AS389">
+        <v>2.07</v>
+      </c>
+      <c r="AT389">
+        <v>1.43</v>
+      </c>
+      <c r="AU389">
+        <v>1.47</v>
+      </c>
+      <c r="AV389">
+        <v>1.23</v>
+      </c>
+      <c r="AW389">
+        <v>2.7</v>
+      </c>
+      <c r="AX389">
+        <v>1.6</v>
+      </c>
+      <c r="AY389">
+        <v>5.75</v>
+      </c>
+      <c r="AZ389">
+        <v>2.75</v>
+      </c>
+      <c r="BA389">
+        <v>1.5</v>
+      </c>
+      <c r="BB389">
+        <v>1.7</v>
+      </c>
+      <c r="BC389">
+        <v>2.09</v>
+      </c>
+      <c r="BD389">
+        <v>2.8</v>
+      </c>
+      <c r="BE389">
+        <v>4.2</v>
+      </c>
+      <c r="BF389">
+        <v>7</v>
+      </c>
+      <c r="BG389">
+        <v>4</v>
+      </c>
+      <c r="BH389">
+        <v>7</v>
+      </c>
+      <c r="BI389">
+        <v>5</v>
+      </c>
+      <c r="BJ389">
+        <v>14</v>
+      </c>
+      <c r="BK389">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:63">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>4554762</v>
+      </c>
+      <c r="C390" t="s">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s">
+        <v>64</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45158.875</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390" t="s">
+        <v>85</v>
+      </c>
+      <c r="H390" t="s">
+        <v>92</v>
+      </c>
+      <c r="I390">
+        <v>2</v>
+      </c>
+      <c r="J390">
+        <v>2</v>
+      </c>
+      <c r="K390">
+        <v>4</v>
+      </c>
+      <c r="L390">
+        <v>3</v>
+      </c>
+      <c r="M390">
+        <v>2</v>
+      </c>
+      <c r="N390">
+        <v>5</v>
+      </c>
+      <c r="O390" t="s">
+        <v>307</v>
+      </c>
+      <c r="P390" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q390">
+        <v>9</v>
+      </c>
+      <c r="R390">
+        <v>7</v>
+      </c>
+      <c r="S390">
+        <v>16</v>
+      </c>
+      <c r="T390">
+        <v>3.75</v>
+      </c>
+      <c r="U390">
+        <v>2.1</v>
+      </c>
+      <c r="V390">
+        <v>2.88</v>
+      </c>
+      <c r="W390">
+        <v>1.44</v>
+      </c>
+      <c r="X390">
+        <v>2.63</v>
+      </c>
+      <c r="Y390">
+        <v>3.25</v>
+      </c>
+      <c r="Z390">
+        <v>1.33</v>
+      </c>
+      <c r="AA390">
+        <v>9</v>
+      </c>
+      <c r="AB390">
+        <v>1.07</v>
+      </c>
+      <c r="AC390">
+        <v>3.25</v>
+      </c>
+      <c r="AD390">
+        <v>3.3</v>
+      </c>
+      <c r="AE390">
+        <v>2.2</v>
+      </c>
+      <c r="AF390">
+        <v>1.06</v>
+      </c>
+      <c r="AG390">
+        <v>7.2</v>
+      </c>
+      <c r="AH390">
+        <v>1.32</v>
+      </c>
+      <c r="AI390">
+        <v>3.1</v>
+      </c>
+      <c r="AJ390">
+        <v>2.05</v>
+      </c>
+      <c r="AK390">
+        <v>1.75</v>
+      </c>
+      <c r="AL390">
+        <v>1.83</v>
+      </c>
+      <c r="AM390">
+        <v>1.83</v>
+      </c>
+      <c r="AN390">
+        <v>1.64</v>
+      </c>
+      <c r="AO390">
+        <v>1.35</v>
+      </c>
+      <c r="AP390">
+        <v>1.38</v>
+      </c>
+      <c r="AQ390">
+        <v>1.85</v>
+      </c>
+      <c r="AR390">
+        <v>1.79</v>
+      </c>
+      <c r="AS390">
+        <v>1.93</v>
+      </c>
+      <c r="AT390">
+        <v>1.67</v>
+      </c>
+      <c r="AU390">
+        <v>1.85</v>
+      </c>
+      <c r="AV390">
+        <v>1.69</v>
+      </c>
+      <c r="AW390">
+        <v>3.54</v>
+      </c>
+      <c r="AX390">
+        <v>1.95</v>
+      </c>
+      <c r="AY390">
+        <v>5.75</v>
+      </c>
+      <c r="AZ390">
+        <v>2.15</v>
+      </c>
+      <c r="BA390">
+        <v>1.33</v>
+      </c>
+      <c r="BB390">
+        <v>1.66</v>
+      </c>
+      <c r="BC390">
+        <v>2.1</v>
+      </c>
+      <c r="BD390">
+        <v>2.65</v>
+      </c>
+      <c r="BE390">
+        <v>3.8</v>
+      </c>
+      <c r="BF390">
+        <v>6</v>
+      </c>
+      <c r="BG390">
+        <v>8</v>
+      </c>
+      <c r="BH390">
+        <v>5</v>
+      </c>
+      <c r="BI390">
+        <v>3</v>
+      </c>
+      <c r="BJ390">
+        <v>11</v>
+      </c>
+      <c r="BK390">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="414">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -940,6 +940,12 @@
     <t>['11', '44', '57']</t>
   </si>
   <si>
+    <t>['74', '88']</t>
+  </si>
+  <si>
+    <t>['35', '82']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1611,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK390"/>
+  <dimension ref="A1:BK392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2046,7 +2052,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2619,7 +2625,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2810,7 +2816,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3001,7 +3007,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3383,7 +3389,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4147,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4529,7 +4535,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4807,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT17">
         <v>0.6899999999999999</v>
@@ -5102,7 +5108,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5293,7 +5299,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5866,7 +5872,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6147,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU24">
         <v>1.71</v>
@@ -6439,7 +6445,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6630,7 +6636,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6821,7 +6827,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7012,7 +7018,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7099,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT29">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7203,7 +7209,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7967,7 +7973,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8158,7 +8164,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -9304,7 +9310,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9686,7 +9692,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -10068,7 +10074,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10346,7 +10352,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10641,7 +10647,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11301,10 +11307,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT51">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU51">
         <v>0.67</v>
@@ -11787,7 +11793,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12068,7 +12074,7 @@
         <v>1.79</v>
       </c>
       <c r="AT55">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU55">
         <v>1.5</v>
@@ -12360,7 +12366,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12551,7 +12557,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -13315,7 +13321,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13506,7 +13512,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14079,7 +14085,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14461,7 +14467,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15416,7 +15422,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15697,7 +15703,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU74">
         <v>1.4</v>
@@ -15989,7 +15995,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16270,7 +16276,7 @@
         <v>1.69</v>
       </c>
       <c r="AT77">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU77">
         <v>1.19</v>
@@ -16458,7 +16464,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16753,7 +16759,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16840,7 +16846,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
         <v>1.43</v>
@@ -17135,7 +17141,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17517,7 +17523,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17899,7 +17905,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18663,7 +18669,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19618,7 +19624,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20191,7 +20197,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20573,7 +20579,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20955,7 +20961,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21337,7 +21343,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21719,7 +21725,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21910,7 +21916,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22191,7 +22197,7 @@
         <v>1.79</v>
       </c>
       <c r="AT108">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU108">
         <v>1.46</v>
@@ -22292,7 +22298,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22570,7 +22576,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT110">
         <v>1.43</v>
@@ -22865,7 +22871,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22952,7 +22958,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT112">
         <v>0.77</v>
@@ -23146,7 +23152,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -24202,7 +24208,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24584,7 +24590,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24966,7 +24972,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25348,7 +25354,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26303,7 +26309,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26393,7 +26399,7 @@
         <v>1.4</v>
       </c>
       <c r="AT130">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU130">
         <v>1.37</v>
@@ -26876,7 +26882,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27067,7 +27073,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27258,7 +27264,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27449,7 +27455,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27539,7 +27545,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27640,7 +27646,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27831,7 +27837,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28109,7 +28115,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT139">
         <v>0.77</v>
@@ -28213,7 +28219,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28300,7 +28306,7 @@
         <v>2.4</v>
       </c>
       <c r="AS140">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT140">
         <v>1.67</v>
@@ -28404,7 +28410,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28786,7 +28792,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29168,7 +29174,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -30505,7 +30511,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30696,7 +30702,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31738,7 +31744,7 @@
         <v>0.67</v>
       </c>
       <c r="AS158">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT158">
         <v>1.14</v>
@@ -31842,7 +31848,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32693,7 +32699,7 @@
         <v>2.5</v>
       </c>
       <c r="AS163">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT163">
         <v>1.67</v>
@@ -33269,7 +33275,7 @@
         <v>1.43</v>
       </c>
       <c r="AT166">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU166">
         <v>1.67</v>
@@ -33561,7 +33567,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33752,7 +33758,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33943,7 +33949,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34325,7 +34331,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34707,7 +34713,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35089,7 +35095,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35370,7 +35376,7 @@
         <v>1.5</v>
       </c>
       <c r="AT177">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35853,7 +35859,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36044,7 +36050,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36235,7 +36241,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36617,7 +36623,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37086,7 +37092,7 @@
         <v>0.71</v>
       </c>
       <c r="AS186">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT186">
         <v>1.14</v>
@@ -37277,7 +37283,7 @@
         <v>0.57</v>
       </c>
       <c r="AS187">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT187">
         <v>0.43</v>
@@ -38145,7 +38151,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38235,7 +38241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU192">
         <v>1.43</v>
@@ -39763,7 +39769,7 @@
         <v>1.14</v>
       </c>
       <c r="AT200">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU200">
         <v>1.64</v>
@@ -40055,7 +40061,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40819,7 +40825,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41392,7 +41398,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41861,7 +41867,7 @@
         <v>1.25</v>
       </c>
       <c r="AS211">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT211">
         <v>0.93</v>
@@ -41965,7 +41971,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42156,7 +42162,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42347,7 +42353,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42625,7 +42631,7 @@
         <v>0.5</v>
       </c>
       <c r="AS215">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT215">
         <v>0.43</v>
@@ -43493,7 +43499,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43684,7 +43690,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43875,7 +43881,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43965,7 +43971,7 @@
         <v>1.5</v>
       </c>
       <c r="AT222">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU222">
         <v>0.98</v>
@@ -45111,7 +45117,7 @@
         <v>1.86</v>
       </c>
       <c r="AT228">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU228">
         <v>1.56</v>
@@ -48546,7 +48552,7 @@
         <v>1.22</v>
       </c>
       <c r="AS246">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT246">
         <v>0.93</v>
@@ -48650,7 +48656,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48740,7 +48746,7 @@
         <v>1.14</v>
       </c>
       <c r="AT247">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU247">
         <v>1.61</v>
@@ -48928,7 +48934,7 @@
         <v>0.78</v>
       </c>
       <c r="AS248">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT248">
         <v>0.93</v>
@@ -49414,7 +49420,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49987,7 +49993,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50369,7 +50375,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50751,7 +50757,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -51223,7 +51229,7 @@
         <v>1.64</v>
       </c>
       <c r="AT260">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU260">
         <v>1.77</v>
@@ -53130,7 +53136,7 @@
         <v>1</v>
       </c>
       <c r="AS270">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT270">
         <v>0.93</v>
@@ -53324,7 +53330,7 @@
         <v>2.07</v>
       </c>
       <c r="AT271">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU271">
         <v>1.41</v>
@@ -53425,7 +53431,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53807,7 +53813,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54571,7 +54577,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -55717,7 +55723,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -56099,7 +56105,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56568,7 +56574,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT288">
         <v>0.79</v>
@@ -57054,7 +57060,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57245,7 +57251,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57436,7 +57442,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57908,7 +57914,7 @@
         <v>1.79</v>
       </c>
       <c r="AT295">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU295">
         <v>1.25</v>
@@ -58009,7 +58015,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58582,7 +58588,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -59054,7 +59060,7 @@
         <v>1.86</v>
       </c>
       <c r="AT301">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU301">
         <v>1.49</v>
@@ -59155,7 +59161,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59537,7 +59543,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60492,7 +60498,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60579,7 +60585,7 @@
         <v>0.73</v>
       </c>
       <c r="AS309">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT309">
         <v>0.71</v>
@@ -61155,7 +61161,7 @@
         <v>1.38</v>
       </c>
       <c r="AT312">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU312">
         <v>1.69</v>
@@ -61829,7 +61835,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62211,7 +62217,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62680,7 +62686,7 @@
         <v>0.73</v>
       </c>
       <c r="AS320">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT320">
         <v>1.07</v>
@@ -62784,7 +62790,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -64503,7 +64509,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65548,7 +65554,7 @@
         <v>2.2</v>
       </c>
       <c r="AT335">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU335">
         <v>1.65</v>
@@ -65649,7 +65655,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -66031,7 +66037,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -66222,7 +66228,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q339">
         <v>5</v>
@@ -66500,7 +66506,7 @@
         <v>1.91</v>
       </c>
       <c r="AS340">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT340">
         <v>2</v>
@@ -66986,7 +66992,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67177,7 +67183,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67368,7 +67374,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67559,7 +67565,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -67649,7 +67655,7 @@
         <v>2.07</v>
       </c>
       <c r="AT346">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU346">
         <v>1.46</v>
@@ -68132,7 +68138,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68601,7 +68607,7 @@
         <v>0.92</v>
       </c>
       <c r="AS351">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT351">
         <v>1.07</v>
@@ -68705,7 +68711,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69087,7 +69093,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69660,7 +69666,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69851,7 +69857,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70514,7 +70520,7 @@
         <v>1.64</v>
       </c>
       <c r="AT361">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU361">
         <v>1.59</v>
@@ -70997,7 +71003,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71570,7 +71576,7 @@
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -72039,7 +72045,7 @@
         <v>2</v>
       </c>
       <c r="AS369">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT369">
         <v>2</v>
@@ -72334,7 +72340,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72615,7 +72621,7 @@
         <v>1.43</v>
       </c>
       <c r="AT372">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU372">
         <v>1.5</v>
@@ -72716,7 +72722,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -73758,7 +73764,7 @@
         <v>0.75</v>
       </c>
       <c r="AS378">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT378">
         <v>0.6899999999999999</v>
@@ -73862,7 +73868,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -74817,7 +74823,7 @@
         <v>96</v>
       </c>
       <c r="P384" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q384">
         <v>4</v>
@@ -75963,7 +75969,7 @@
         <v>307</v>
       </c>
       <c r="P390" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q390">
         <v>9</v>
@@ -76105,6 +76111,388 @@
       </c>
       <c r="BK390">
         <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:63">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>4554764</v>
+      </c>
+      <c r="C391" t="s">
+        <v>63</v>
+      </c>
+      <c r="D391" t="s">
+        <v>64</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45159.75</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391" t="s">
+        <v>91</v>
+      </c>
+      <c r="H391" t="s">
+        <v>78</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>2</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>2</v>
+      </c>
+      <c r="O391" t="s">
+        <v>308</v>
+      </c>
+      <c r="P391" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q391">
+        <v>4</v>
+      </c>
+      <c r="R391">
+        <v>1</v>
+      </c>
+      <c r="S391">
+        <v>5</v>
+      </c>
+      <c r="T391">
+        <v>3.4</v>
+      </c>
+      <c r="U391">
+        <v>1.83</v>
+      </c>
+      <c r="V391">
+        <v>4</v>
+      </c>
+      <c r="W391">
+        <v>1.67</v>
+      </c>
+      <c r="X391">
+        <v>2.1</v>
+      </c>
+      <c r="Y391">
+        <v>4.33</v>
+      </c>
+      <c r="Z391">
+        <v>1.2</v>
+      </c>
+      <c r="AA391">
+        <v>15</v>
+      </c>
+      <c r="AB391">
+        <v>1.03</v>
+      </c>
+      <c r="AC391">
+        <v>2.45</v>
+      </c>
+      <c r="AD391">
+        <v>3</v>
+      </c>
+      <c r="AE391">
+        <v>3.1</v>
+      </c>
+      <c r="AF391">
+        <v>1.1</v>
+      </c>
+      <c r="AG391">
+        <v>5.7</v>
+      </c>
+      <c r="AH391">
+        <v>1.57</v>
+      </c>
+      <c r="AI391">
+        <v>2.25</v>
+      </c>
+      <c r="AJ391">
+        <v>2.88</v>
+      </c>
+      <c r="AK391">
+        <v>1.4</v>
+      </c>
+      <c r="AL391">
+        <v>2.38</v>
+      </c>
+      <c r="AM391">
+        <v>1.53</v>
+      </c>
+      <c r="AN391">
+        <v>1.32</v>
+      </c>
+      <c r="AO391">
+        <v>1.39</v>
+      </c>
+      <c r="AP391">
+        <v>1.59</v>
+      </c>
+      <c r="AQ391">
+        <v>1.23</v>
+      </c>
+      <c r="AR391">
+        <v>0.77</v>
+      </c>
+      <c r="AS391">
+        <v>1.36</v>
+      </c>
+      <c r="AT391">
+        <v>0.71</v>
+      </c>
+      <c r="AU391">
+        <v>1.48</v>
+      </c>
+      <c r="AV391">
+        <v>1.23</v>
+      </c>
+      <c r="AW391">
+        <v>2.71</v>
+      </c>
+      <c r="AX391">
+        <v>1.7</v>
+      </c>
+      <c r="AY391">
+        <v>8.4</v>
+      </c>
+      <c r="AZ391">
+        <v>2.59</v>
+      </c>
+      <c r="BA391">
+        <v>1.55</v>
+      </c>
+      <c r="BB391">
+        <v>1.97</v>
+      </c>
+      <c r="BC391">
+        <v>2.52</v>
+      </c>
+      <c r="BD391">
+        <v>3.4</v>
+      </c>
+      <c r="BE391">
+        <v>5</v>
+      </c>
+      <c r="BF391">
+        <v>6</v>
+      </c>
+      <c r="BG391">
+        <v>2</v>
+      </c>
+      <c r="BH391">
+        <v>6</v>
+      </c>
+      <c r="BI391">
+        <v>0</v>
+      </c>
+      <c r="BJ391">
+        <v>12</v>
+      </c>
+      <c r="BK391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:63">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>4554769</v>
+      </c>
+      <c r="C392" t="s">
+        <v>63</v>
+      </c>
+      <c r="D392" t="s">
+        <v>64</v>
+      </c>
+      <c r="E392" s="2">
+        <v>45159.85416666666</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+      <c r="G392" t="s">
+        <v>80</v>
+      </c>
+      <c r="H392" t="s">
+        <v>70</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>2</v>
+      </c>
+      <c r="O392" t="s">
+        <v>309</v>
+      </c>
+      <c r="P392" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q392">
+        <v>9</v>
+      </c>
+      <c r="R392">
+        <v>2</v>
+      </c>
+      <c r="S392">
+        <v>11</v>
+      </c>
+      <c r="T392">
+        <v>3.27</v>
+      </c>
+      <c r="U392">
+        <v>1.85</v>
+      </c>
+      <c r="V392">
+        <v>4.2</v>
+      </c>
+      <c r="W392">
+        <v>1.61</v>
+      </c>
+      <c r="X392">
+        <v>2.24</v>
+      </c>
+      <c r="Y392">
+        <v>3.82</v>
+      </c>
+      <c r="Z392">
+        <v>1.24</v>
+      </c>
+      <c r="AA392">
+        <v>10</v>
+      </c>
+      <c r="AB392">
+        <v>1.02</v>
+      </c>
+      <c r="AC392">
+        <v>2.35</v>
+      </c>
+      <c r="AD392">
+        <v>3.15</v>
+      </c>
+      <c r="AE392">
+        <v>3.25</v>
+      </c>
+      <c r="AF392">
+        <v>1.11</v>
+      </c>
+      <c r="AG392">
+        <v>7</v>
+      </c>
+      <c r="AH392">
+        <v>1.56</v>
+      </c>
+      <c r="AI392">
+        <v>2.48</v>
+      </c>
+      <c r="AJ392">
+        <v>2.8</v>
+      </c>
+      <c r="AK392">
+        <v>1.45</v>
+      </c>
+      <c r="AL392">
+        <v>2.19</v>
+      </c>
+      <c r="AM392">
+        <v>1.64</v>
+      </c>
+      <c r="AN392">
+        <v>1.36</v>
+      </c>
+      <c r="AO392">
+        <v>1.39</v>
+      </c>
+      <c r="AP392">
+        <v>1.53</v>
+      </c>
+      <c r="AQ392">
+        <v>1.85</v>
+      </c>
+      <c r="AR392">
+        <v>0.92</v>
+      </c>
+      <c r="AS392">
+        <v>1.93</v>
+      </c>
+      <c r="AT392">
+        <v>0.86</v>
+      </c>
+      <c r="AU392">
+        <v>1.26</v>
+      </c>
+      <c r="AV392">
+        <v>1.28</v>
+      </c>
+      <c r="AW392">
+        <v>2.54</v>
+      </c>
+      <c r="AX392">
+        <v>1.62</v>
+      </c>
+      <c r="AY392">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ392">
+        <v>2.6</v>
+      </c>
+      <c r="BA392">
+        <v>1.4</v>
+      </c>
+      <c r="BB392">
+        <v>1.7</v>
+      </c>
+      <c r="BC392">
+        <v>2.23</v>
+      </c>
+      <c r="BD392">
+        <v>3</v>
+      </c>
+      <c r="BE392">
+        <v>4.2</v>
+      </c>
+      <c r="BF392">
+        <v>6</v>
+      </c>
+      <c r="BG392">
+        <v>2</v>
+      </c>
+      <c r="BH392">
+        <v>4</v>
+      </c>
+      <c r="BI392">
+        <v>3</v>
+      </c>
+      <c r="BJ392">
+        <v>10</v>
+      </c>
+      <c r="BK392">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="422">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -946,6 +946,21 @@
     <t>['35', '82']</t>
   </si>
   <si>
+    <t>['7', '71', '78']</t>
+  </si>
+  <si>
+    <t>['14', '27']</t>
+  </si>
+  <si>
+    <t>['45+3', '90+4']</t>
+  </si>
+  <si>
+    <t>['41', '88']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1198,9 +1213,6 @@
     <t>['68', '69']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['9', '62']</t>
   </si>
   <si>
@@ -1256,6 +1268,18 @@
   </si>
   <si>
     <t>['27', '41']</t>
+  </si>
+  <si>
+    <t>['1', '32']</t>
+  </si>
+  <si>
+    <t>['55', '61']</t>
+  </si>
+  <si>
+    <t>['49', '57', '64']</t>
+  </si>
+  <si>
+    <t>['6', '12']</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK392"/>
+  <dimension ref="A1:BK399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1951,7 +1975,7 @@
         <v>2.2</v>
       </c>
       <c r="AT2">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2052,7 +2076,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2142,7 +2166,7 @@
         <v>1.86</v>
       </c>
       <c r="AT3">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2330,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.43</v>
@@ -2521,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT5">
         <v>0.86</v>
@@ -2625,7 +2649,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2712,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT6">
         <v>1.07</v>
@@ -2816,7 +2840,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3007,7 +3031,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3389,7 +3413,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3476,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT10">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4153,7 +4177,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4243,7 +4267,7 @@
         <v>1.4</v>
       </c>
       <c r="AT14">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4434,7 +4458,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4535,7 +4559,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4622,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT16">
         <v>0.77</v>
@@ -4813,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.6899999999999999</v>
@@ -5004,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
         <v>1.36</v>
@@ -5108,7 +5132,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5299,7 +5323,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5771,7 +5795,7 @@
         <v>1.93</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5872,7 +5896,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6445,7 +6469,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6636,7 +6660,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6827,7 +6851,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7018,7 +7042,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7209,7 +7233,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7296,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
         <v>0.93</v>
@@ -7678,7 +7702,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT32">
         <v>0.93</v>
@@ -7973,7 +7997,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8164,7 +8188,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8251,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT35">
         <v>1.31</v>
@@ -8827,7 +8851,7 @@
         <v>1.43</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>1.72</v>
@@ -9018,7 +9042,7 @@
         <v>2.77</v>
       </c>
       <c r="AT39">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9209,7 +9233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU40">
         <v>1.76</v>
@@ -9310,7 +9334,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9591,7 +9615,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU42">
         <v>0.67</v>
@@ -9692,7 +9716,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9779,10 +9803,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU43">
         <v>1.92</v>
@@ -10074,7 +10098,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10161,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -10647,7 +10671,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10734,7 +10758,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT48">
         <v>1.67</v>
@@ -11307,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>0.71</v>
@@ -11793,7 +11817,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12071,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT55">
         <v>0.86</v>
@@ -12366,7 +12390,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12557,7 +12581,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -13026,10 +13050,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU60">
         <v>1.46</v>
@@ -13217,7 +13241,7 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT61">
         <v>0.93</v>
@@ -13321,7 +13345,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13512,7 +13536,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13981,10 +14005,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU65">
         <v>2.06</v>
@@ -14085,7 +14109,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14467,7 +14491,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14748,7 +14772,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU69">
         <v>0.49</v>
@@ -14939,7 +14963,7 @@
         <v>1.64</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -15130,7 +15154,7 @@
         <v>1.21</v>
       </c>
       <c r="AT71">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU71">
         <v>1.42</v>
@@ -15422,7 +15446,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15995,7 +16019,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16464,7 +16488,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16759,7 +16783,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17037,10 +17061,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT81">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU81">
         <v>2.17</v>
@@ -17141,7 +17165,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17228,7 +17252,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT82">
         <v>0.6899999999999999</v>
@@ -17422,7 +17446,7 @@
         <v>2.15</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -17523,7 +17547,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17610,7 +17634,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17905,7 +17929,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18565,10 +18589,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT89">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU89">
         <v>1.5</v>
@@ -18669,7 +18693,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19141,7 +19165,7 @@
         <v>1.79</v>
       </c>
       <c r="AT92">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU92">
         <v>0.97</v>
@@ -19624,7 +19648,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19711,10 +19735,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT95">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -20096,7 +20120,7 @@
         <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU97">
         <v>1.7</v>
@@ -20197,7 +20221,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20475,7 +20499,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT99">
         <v>0.79</v>
@@ -20579,7 +20603,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20669,7 +20693,7 @@
         <v>1.29</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20857,7 +20881,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
         <v>1.07</v>
@@ -20961,7 +20985,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21343,7 +21367,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21725,7 +21749,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21916,7 +21940,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22194,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT108">
         <v>0.71</v>
@@ -22298,7 +22322,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22576,7 +22600,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>1.43</v>
@@ -22770,7 +22794,7 @@
         <v>2.07</v>
       </c>
       <c r="AT111">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU111">
         <v>1.37</v>
@@ -22871,7 +22895,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23725,7 +23749,7 @@
         <v>2.2</v>
       </c>
       <c r="AT116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU116">
         <v>1.68</v>
@@ -23913,7 +23937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS117">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT117">
         <v>0.79</v>
@@ -24107,7 +24131,7 @@
         <v>2.77</v>
       </c>
       <c r="AT118">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU118">
         <v>1.71</v>
@@ -24208,7 +24232,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24486,7 +24510,7 @@
         <v>1.5</v>
       </c>
       <c r="AS120">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT120">
         <v>0.86</v>
@@ -24590,7 +24614,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24680,7 +24704,7 @@
         <v>1.64</v>
       </c>
       <c r="AT121">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU121">
         <v>1.76</v>
@@ -24868,10 +24892,10 @@
         <v>1.75</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT122">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU122">
         <v>1.77</v>
@@ -24972,7 +24996,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25250,7 +25274,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT124">
         <v>1.07</v>
@@ -25354,7 +25378,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26309,7 +26333,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26587,7 +26611,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26781,7 +26805,7 @@
         <v>1.43</v>
       </c>
       <c r="AT132">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26882,7 +26906,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26972,7 +26996,7 @@
         <v>1.43</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU133">
         <v>1.55</v>
@@ -27073,7 +27097,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27264,7 +27288,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27455,7 +27479,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27646,7 +27670,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27837,7 +27861,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28115,7 +28139,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT139">
         <v>0.77</v>
@@ -28219,7 +28243,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28410,7 +28434,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28792,7 +28816,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28882,7 +28906,7 @@
         <v>1.93</v>
       </c>
       <c r="AT143">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU143">
         <v>1.86</v>
@@ -29174,7 +29198,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29455,7 +29479,7 @@
         <v>1.21</v>
       </c>
       <c r="AT146">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU146">
         <v>1.4</v>
@@ -29643,7 +29667,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT147">
         <v>1.31</v>
@@ -29837,7 +29861,7 @@
         <v>1.79</v>
       </c>
       <c r="AT148">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU148">
         <v>1.09</v>
@@ -30216,7 +30240,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT150">
         <v>1.07</v>
@@ -30511,7 +30535,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30598,7 +30622,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT152">
         <v>0.93</v>
@@ -30702,7 +30726,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30789,7 +30813,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT153">
         <v>2</v>
@@ -30983,7 +31007,7 @@
         <v>2.77</v>
       </c>
       <c r="AT154">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU154">
         <v>1.74</v>
@@ -31171,7 +31195,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT155">
         <v>0.93</v>
@@ -31747,7 +31771,7 @@
         <v>1.36</v>
       </c>
       <c r="AT158">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU158">
         <v>1.37</v>
@@ -31848,7 +31872,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32511,7 +32535,7 @@
         <v>1.14</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32699,7 +32723,7 @@
         <v>2.5</v>
       </c>
       <c r="AS163">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT163">
         <v>1.67</v>
@@ -32890,7 +32914,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT164">
         <v>1.43</v>
@@ -33567,7 +33591,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33758,7 +33782,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33848,7 +33872,7 @@
         <v>2.15</v>
       </c>
       <c r="AT169">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU169">
         <v>1.4</v>
@@ -33949,7 +33973,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34036,7 +34060,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT170">
         <v>0.6899999999999999</v>
@@ -34331,7 +34355,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34418,10 +34442,10 @@
         <v>0.5</v>
       </c>
       <c r="AS172">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT172">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU172">
         <v>1.13</v>
@@ -34713,7 +34737,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34991,7 +35015,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT175">
         <v>0.86</v>
@@ -35095,7 +35119,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35564,7 +35588,7 @@
         <v>2.2</v>
       </c>
       <c r="AS178">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT178">
         <v>2</v>
@@ -35859,7 +35883,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36050,7 +36074,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36241,7 +36265,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36331,7 +36355,7 @@
         <v>1.93</v>
       </c>
       <c r="AT182">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU182">
         <v>1.88</v>
@@ -36519,10 +36543,10 @@
         <v>0.83</v>
       </c>
       <c r="AS183">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT183">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU183">
         <v>1.74</v>
@@ -36623,7 +36647,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37092,10 +37116,10 @@
         <v>0.71</v>
       </c>
       <c r="AS186">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT186">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU186">
         <v>1.09</v>
@@ -38151,7 +38175,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38432,7 +38456,7 @@
         <v>2</v>
       </c>
       <c r="AT193">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU193">
         <v>1.62</v>
@@ -39002,7 +39026,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT196">
         <v>0.77</v>
@@ -39387,7 +39411,7 @@
         <v>2.15</v>
       </c>
       <c r="AT198">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU198">
         <v>1.41</v>
@@ -39578,7 +39602,7 @@
         <v>2.07</v>
       </c>
       <c r="AT199">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU199">
         <v>1.23</v>
@@ -39766,7 +39790,7 @@
         <v>0.83</v>
       </c>
       <c r="AS200">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT200">
         <v>0.71</v>
@@ -40061,7 +40085,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40721,7 +40745,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT205">
         <v>0.6899999999999999</v>
@@ -40825,7 +40849,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40912,7 +40936,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT206">
         <v>0.79</v>
@@ -41103,10 +41127,10 @@
         <v>0.57</v>
       </c>
       <c r="AS207">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT207">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU207">
         <v>1.15</v>
@@ -41294,7 +41318,7 @@
         <v>2.17</v>
       </c>
       <c r="AS208">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT208">
         <v>1.38</v>
@@ -41398,7 +41422,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41971,7 +41995,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42061,7 +42085,7 @@
         <v>1.69</v>
       </c>
       <c r="AT212">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU212">
         <v>1.45</v>
@@ -42162,7 +42186,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42353,7 +42377,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42631,7 +42655,7 @@
         <v>0.5</v>
       </c>
       <c r="AS215">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT215">
         <v>0.43</v>
@@ -43207,7 +43231,7 @@
         <v>1.57</v>
       </c>
       <c r="AT218">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU218">
         <v>1.48</v>
@@ -43499,7 +43523,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43586,7 +43610,7 @@
         <v>2.38</v>
       </c>
       <c r="AS220">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT220">
         <v>1.67</v>
@@ -43690,7 +43714,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43881,7 +43905,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44162,7 +44186,7 @@
         <v>1.43</v>
       </c>
       <c r="AT223">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU223">
         <v>1.53</v>
@@ -44541,7 +44565,7 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT225">
         <v>0.86</v>
@@ -44735,7 +44759,7 @@
         <v>2.15</v>
       </c>
       <c r="AT226">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU226">
         <v>1.51</v>
@@ -45114,7 +45138,7 @@
         <v>0.71</v>
       </c>
       <c r="AS228">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT228">
         <v>0.71</v>
@@ -45308,7 +45332,7 @@
         <v>1.21</v>
       </c>
       <c r="AT229">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU229">
         <v>1.45</v>
@@ -45687,7 +45711,7 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT231">
         <v>1</v>
@@ -46069,7 +46093,7 @@
         <v>0.88</v>
       </c>
       <c r="AS233">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT233">
         <v>1.07</v>
@@ -46454,7 +46478,7 @@
         <v>1.43</v>
       </c>
       <c r="AT235">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU235">
         <v>1.66</v>
@@ -46642,7 +46666,7 @@
         <v>0.86</v>
       </c>
       <c r="AS236">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -47600,7 +47624,7 @@
         <v>1.14</v>
       </c>
       <c r="AT241">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU241">
         <v>1.44</v>
@@ -47982,7 +48006,7 @@
         <v>1.86</v>
       </c>
       <c r="AT243">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU243">
         <v>1.42</v>
@@ -48170,10 +48194,10 @@
         <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT244">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU244">
         <v>1.52</v>
@@ -48552,7 +48576,7 @@
         <v>1.22</v>
       </c>
       <c r="AS246">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT246">
         <v>0.93</v>
@@ -48656,7 +48680,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48743,7 +48767,7 @@
         <v>1.13</v>
       </c>
       <c r="AS247">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT247">
         <v>0.86</v>
@@ -48937,7 +48961,7 @@
         <v>1.36</v>
       </c>
       <c r="AT248">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU248">
         <v>1.3</v>
@@ -49420,7 +49444,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49889,7 +49913,7 @@
         <v>1.25</v>
       </c>
       <c r="AS253">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT253">
         <v>1.31</v>
@@ -49993,7 +50017,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50080,7 +50104,7 @@
         <v>0.88</v>
       </c>
       <c r="AS254">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT254">
         <v>1</v>
@@ -50375,7 +50399,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50462,7 +50486,7 @@
         <v>1.88</v>
       </c>
       <c r="AS256">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT256">
         <v>2</v>
@@ -50757,7 +50781,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -51038,7 +51062,7 @@
         <v>1.21</v>
       </c>
       <c r="AT259">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51420,7 +51444,7 @@
         <v>1.29</v>
       </c>
       <c r="AT261">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU261">
         <v>1.64</v>
@@ -51608,7 +51632,7 @@
         <v>0.88</v>
       </c>
       <c r="AS262">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT262">
         <v>0.86</v>
@@ -52757,7 +52781,7 @@
         <v>2</v>
       </c>
       <c r="AT268">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU268">
         <v>1.63</v>
@@ -52945,7 +52969,7 @@
         <v>0.4</v>
       </c>
       <c r="AS269">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT269">
         <v>0.43</v>
@@ -53136,10 +53160,10 @@
         <v>1</v>
       </c>
       <c r="AS270">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT270">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU270">
         <v>1.16</v>
@@ -53327,7 +53351,7 @@
         <v>1.11</v>
       </c>
       <c r="AS271">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT271">
         <v>0.86</v>
@@ -53431,7 +53455,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53712,7 +53736,7 @@
         <v>1.4</v>
       </c>
       <c r="AT273">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU273">
         <v>1.32</v>
@@ -53813,7 +53837,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53903,7 +53927,7 @@
         <v>1.5</v>
       </c>
       <c r="AT274">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU274">
         <v>1.56</v>
@@ -54091,7 +54115,7 @@
         <v>1.67</v>
       </c>
       <c r="AS275">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT275">
         <v>1.36</v>
@@ -54476,7 +54500,7 @@
         <v>1.43</v>
       </c>
       <c r="AT277">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU277">
         <v>1.61</v>
@@ -54577,7 +54601,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54858,7 +54882,7 @@
         <v>1.29</v>
       </c>
       <c r="AT279">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU279">
         <v>1.64</v>
@@ -55428,7 +55452,7 @@
         <v>1.33</v>
       </c>
       <c r="AS282">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT282">
         <v>1.43</v>
@@ -55622,7 +55646,7 @@
         <v>1.21</v>
       </c>
       <c r="AT283">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU283">
         <v>1.56</v>
@@ -55723,7 +55747,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55810,7 +55834,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS284">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT284">
         <v>0.6899999999999999</v>
@@ -56105,7 +56129,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -57060,7 +57084,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57251,7 +57275,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57338,7 +57362,7 @@
         <v>0.78</v>
       </c>
       <c r="AS292">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT292">
         <v>0.86</v>
@@ -57442,7 +57466,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -58015,7 +58039,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58105,7 +58129,7 @@
         <v>1.57</v>
       </c>
       <c r="AT296">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU296">
         <v>1.43</v>
@@ -58296,7 +58320,7 @@
         <v>1.69</v>
       </c>
       <c r="AT297">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU297">
         <v>1.5</v>
@@ -58588,7 +58612,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58866,7 +58890,7 @@
         <v>0.8</v>
       </c>
       <c r="AS300">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT300">
         <v>0.77</v>
@@ -59057,7 +59081,7 @@
         <v>1.1</v>
       </c>
       <c r="AS301">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT301">
         <v>0.86</v>
@@ -59161,7 +59185,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59248,7 +59272,7 @@
         <v>1</v>
       </c>
       <c r="AS302">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT302">
         <v>0.93</v>
@@ -59442,7 +59466,7 @@
         <v>1.14</v>
       </c>
       <c r="AT303">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU303">
         <v>1.48</v>
@@ -59543,7 +59567,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59630,10 +59654,10 @@
         <v>0.9</v>
       </c>
       <c r="AS304">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT304">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU304">
         <v>1.55</v>
@@ -60015,7 +60039,7 @@
         <v>1.43</v>
       </c>
       <c r="AT306">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU306">
         <v>1.51</v>
@@ -60498,7 +60522,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60585,10 +60609,10 @@
         <v>0.73</v>
       </c>
       <c r="AS309">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT309">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU309">
         <v>1.15</v>
@@ -61158,7 +61182,7 @@
         <v>0.5</v>
       </c>
       <c r="AS312">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT312">
         <v>0.71</v>
@@ -61835,7 +61859,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -61922,7 +61946,7 @@
         <v>1.4</v>
       </c>
       <c r="AS316">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT316">
         <v>1.38</v>
@@ -62217,7 +62241,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62790,7 +62814,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -63450,10 +63474,10 @@
         <v>1.09</v>
       </c>
       <c r="AS324">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT324">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU324">
         <v>1.57</v>
@@ -63641,7 +63665,7 @@
         <v>1.92</v>
       </c>
       <c r="AS325">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT325">
         <v>1.67</v>
@@ -64509,7 +64533,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -64599,7 +64623,7 @@
         <v>1.86</v>
       </c>
       <c r="AT330">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU330">
         <v>1.47</v>
@@ -64790,7 +64814,7 @@
         <v>1.5</v>
       </c>
       <c r="AT331">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU331">
         <v>1.14</v>
@@ -64978,7 +65002,7 @@
         <v>1.08</v>
       </c>
       <c r="AS332">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT332">
         <v>1</v>
@@ -65172,7 +65196,7 @@
         <v>2</v>
       </c>
       <c r="AT333">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU333">
         <v>1.62</v>
@@ -65360,10 +65384,10 @@
         <v>0.92</v>
       </c>
       <c r="AS334">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT334">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU334">
         <v>1.5</v>
@@ -65655,7 +65679,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65936,7 +65960,7 @@
         <v>1.69</v>
       </c>
       <c r="AT337">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU337">
         <v>1.47</v>
@@ -66037,7 +66061,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -66228,7 +66252,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q339">
         <v>5</v>
@@ -66992,7 +67016,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67183,7 +67207,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67374,7 +67398,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67565,7 +67589,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -68138,7 +68162,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68225,7 +68249,7 @@
         <v>0.73</v>
       </c>
       <c r="AS349">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT349">
         <v>1</v>
@@ -68416,7 +68440,7 @@
         <v>1</v>
       </c>
       <c r="AS350">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT350">
         <v>1</v>
@@ -68607,7 +68631,7 @@
         <v>0.92</v>
       </c>
       <c r="AS351">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT351">
         <v>1.07</v>
@@ -68711,7 +68735,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -68798,10 +68822,10 @@
         <v>1</v>
       </c>
       <c r="AS352">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT352">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU352">
         <v>1.39</v>
@@ -68989,7 +69013,7 @@
         <v>1.08</v>
       </c>
       <c r="AS353">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT353">
         <v>1</v>
@@ -69093,7 +69117,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69183,7 +69207,7 @@
         <v>1.57</v>
       </c>
       <c r="AT354">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AU354">
         <v>1.38</v>
@@ -69666,7 +69690,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69857,7 +69881,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -69944,10 +69968,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS358">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT358">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU358">
         <v>1.54</v>
@@ -70138,7 +70162,7 @@
         <v>1.4</v>
       </c>
       <c r="AT359">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU359">
         <v>1.28</v>
@@ -71003,7 +71027,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71090,7 +71114,7 @@
         <v>1</v>
       </c>
       <c r="AS364">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT364">
         <v>1.07</v>
@@ -71284,7 +71308,7 @@
         <v>1.5</v>
       </c>
       <c r="AT365">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU365">
         <v>1.54</v>
@@ -71576,7 +71600,7 @@
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -72045,7 +72069,7 @@
         <v>2</v>
       </c>
       <c r="AS369">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT369">
         <v>2</v>
@@ -72239,7 +72263,7 @@
         <v>2.77</v>
       </c>
       <c r="AT370">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU370">
         <v>1.79</v>
@@ -72340,7 +72364,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72722,7 +72746,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -73000,7 +73024,7 @@
         <v>1.42</v>
       </c>
       <c r="AS374">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT374">
         <v>1.43</v>
@@ -73191,7 +73215,7 @@
         <v>0.75</v>
       </c>
       <c r="AS375">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT375">
         <v>0.86</v>
@@ -73868,7 +73892,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -74340,7 +74364,7 @@
         <v>1.29</v>
       </c>
       <c r="AT381">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU381">
         <v>1.6</v>
@@ -74823,7 +74847,7 @@
         <v>96</v>
       </c>
       <c r="P384" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q384">
         <v>4</v>
@@ -75292,7 +75316,7 @@
         <v>0.85</v>
       </c>
       <c r="AS386">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT386">
         <v>1</v>
@@ -75969,7 +75993,7 @@
         <v>307</v>
       </c>
       <c r="P390" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q390">
         <v>9</v>
@@ -76438,7 +76462,7 @@
         <v>0.92</v>
       </c>
       <c r="AS392">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT392">
         <v>0.86</v>
@@ -76493,6 +76517,1343 @@
       </c>
       <c r="BK392">
         <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:63">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>4554777</v>
+      </c>
+      <c r="C393" t="s">
+        <v>63</v>
+      </c>
+      <c r="D393" t="s">
+        <v>64</v>
+      </c>
+      <c r="E393" s="2">
+        <v>45163.79166666666</v>
+      </c>
+      <c r="F393">
+        <v>2</v>
+      </c>
+      <c r="G393" t="s">
+        <v>81</v>
+      </c>
+      <c r="H393" t="s">
+        <v>85</v>
+      </c>
+      <c r="I393">
+        <v>1</v>
+      </c>
+      <c r="J393">
+        <v>2</v>
+      </c>
+      <c r="K393">
+        <v>3</v>
+      </c>
+      <c r="L393">
+        <v>3</v>
+      </c>
+      <c r="M393">
+        <v>2</v>
+      </c>
+      <c r="N393">
+        <v>5</v>
+      </c>
+      <c r="O393" t="s">
+        <v>310</v>
+      </c>
+      <c r="P393" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q393">
+        <v>2</v>
+      </c>
+      <c r="R393">
+        <v>4</v>
+      </c>
+      <c r="S393">
+        <v>6</v>
+      </c>
+      <c r="T393">
+        <v>4.33</v>
+      </c>
+      <c r="U393">
+        <v>1.95</v>
+      </c>
+      <c r="V393">
+        <v>3</v>
+      </c>
+      <c r="W393">
+        <v>1.53</v>
+      </c>
+      <c r="X393">
+        <v>2.38</v>
+      </c>
+      <c r="Y393">
+        <v>3.75</v>
+      </c>
+      <c r="Z393">
+        <v>1.25</v>
+      </c>
+      <c r="AA393">
+        <v>11</v>
+      </c>
+      <c r="AB393">
+        <v>1.05</v>
+      </c>
+      <c r="AC393">
+        <v>3.25</v>
+      </c>
+      <c r="AD393">
+        <v>3.1</v>
+      </c>
+      <c r="AE393">
+        <v>2.15</v>
+      </c>
+      <c r="AF393">
+        <v>1.11</v>
+      </c>
+      <c r="AG393">
+        <v>6.86</v>
+      </c>
+      <c r="AH393">
+        <v>1.52</v>
+      </c>
+      <c r="AI393">
+        <v>2.56</v>
+      </c>
+      <c r="AJ393">
+        <v>2.5</v>
+      </c>
+      <c r="AK393">
+        <v>1.5</v>
+      </c>
+      <c r="AL393">
+        <v>2.1</v>
+      </c>
+      <c r="AM393">
+        <v>1.67</v>
+      </c>
+      <c r="AN393">
+        <v>1.71</v>
+      </c>
+      <c r="AO393">
+        <v>1.32</v>
+      </c>
+      <c r="AP393">
+        <v>1.25</v>
+      </c>
+      <c r="AQ393">
+        <v>1.14</v>
+      </c>
+      <c r="AR393">
+        <v>1.14</v>
+      </c>
+      <c r="AS393">
+        <v>1.27</v>
+      </c>
+      <c r="AT393">
+        <v>1.07</v>
+      </c>
+      <c r="AU393">
+        <v>1.17</v>
+      </c>
+      <c r="AV393">
+        <v>1.43</v>
+      </c>
+      <c r="AW393">
+        <v>2.6</v>
+      </c>
+      <c r="AX393">
+        <v>2.53</v>
+      </c>
+      <c r="AY393">
+        <v>7.5</v>
+      </c>
+      <c r="AZ393">
+        <v>1.75</v>
+      </c>
+      <c r="BA393">
+        <v>1.42</v>
+      </c>
+      <c r="BB393">
+        <v>1.93</v>
+      </c>
+      <c r="BC393">
+        <v>2.25</v>
+      </c>
+      <c r="BD393">
+        <v>2.9</v>
+      </c>
+      <c r="BE393">
+        <v>5.1</v>
+      </c>
+      <c r="BF393">
+        <v>9</v>
+      </c>
+      <c r="BG393">
+        <v>8</v>
+      </c>
+      <c r="BH393">
+        <v>2</v>
+      </c>
+      <c r="BI393">
+        <v>5</v>
+      </c>
+      <c r="BJ393">
+        <v>11</v>
+      </c>
+      <c r="BK393">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:63">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>4554774</v>
+      </c>
+      <c r="C394" t="s">
+        <v>63</v>
+      </c>
+      <c r="D394" t="s">
+        <v>64</v>
+      </c>
+      <c r="E394" s="2">
+        <v>45163.89583333334</v>
+      </c>
+      <c r="F394">
+        <v>2</v>
+      </c>
+      <c r="G394" t="s">
+        <v>73</v>
+      </c>
+      <c r="H394" t="s">
+        <v>90</v>
+      </c>
+      <c r="I394">
+        <v>2</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>2</v>
+      </c>
+      <c r="L394">
+        <v>2</v>
+      </c>
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>2</v>
+      </c>
+      <c r="O394" t="s">
+        <v>311</v>
+      </c>
+      <c r="P394" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q394">
+        <v>3</v>
+      </c>
+      <c r="R394">
+        <v>8</v>
+      </c>
+      <c r="S394">
+        <v>11</v>
+      </c>
+      <c r="T394">
+        <v>2.63</v>
+      </c>
+      <c r="U394">
+        <v>2.05</v>
+      </c>
+      <c r="V394">
+        <v>4.5</v>
+      </c>
+      <c r="W394">
+        <v>1.44</v>
+      </c>
+      <c r="X394">
+        <v>2.63</v>
+      </c>
+      <c r="Y394">
+        <v>3.25</v>
+      </c>
+      <c r="Z394">
+        <v>1.33</v>
+      </c>
+      <c r="AA394">
+        <v>10</v>
+      </c>
+      <c r="AB394">
+        <v>1.06</v>
+      </c>
+      <c r="AC394">
+        <v>1.91</v>
+      </c>
+      <c r="AD394">
+        <v>3</v>
+      </c>
+      <c r="AE394">
+        <v>4</v>
+      </c>
+      <c r="AF394">
+        <v>1.02</v>
+      </c>
+      <c r="AG394">
+        <v>8.75</v>
+      </c>
+      <c r="AH394">
+        <v>1.39</v>
+      </c>
+      <c r="AI394">
+        <v>2.99</v>
+      </c>
+      <c r="AJ394">
+        <v>2.15</v>
+      </c>
+      <c r="AK394">
+        <v>1.67</v>
+      </c>
+      <c r="AL394">
+        <v>1.91</v>
+      </c>
+      <c r="AM394">
+        <v>1.8</v>
+      </c>
+      <c r="AN394">
+        <v>1.22</v>
+      </c>
+      <c r="AO394">
+        <v>1.29</v>
+      </c>
+      <c r="AP394">
+        <v>1.76</v>
+      </c>
+      <c r="AQ394">
+        <v>1.14</v>
+      </c>
+      <c r="AR394">
+        <v>0.71</v>
+      </c>
+      <c r="AS394">
+        <v>1.27</v>
+      </c>
+      <c r="AT394">
+        <v>0.67</v>
+      </c>
+      <c r="AU394">
+        <v>1.47</v>
+      </c>
+      <c r="AV394">
+        <v>1.34</v>
+      </c>
+      <c r="AW394">
+        <v>2.81</v>
+      </c>
+      <c r="AX394">
+        <v>1.75</v>
+      </c>
+      <c r="AY394">
+        <v>8</v>
+      </c>
+      <c r="AZ394">
+        <v>2.44</v>
+      </c>
+      <c r="BA394">
+        <v>1.18</v>
+      </c>
+      <c r="BB394">
+        <v>1.39</v>
+      </c>
+      <c r="BC394">
+        <v>1.7</v>
+      </c>
+      <c r="BD394">
+        <v>2.12</v>
+      </c>
+      <c r="BE394">
+        <v>2.63</v>
+      </c>
+      <c r="BF394">
+        <v>7</v>
+      </c>
+      <c r="BG394">
+        <v>3</v>
+      </c>
+      <c r="BH394">
+        <v>5</v>
+      </c>
+      <c r="BI394">
+        <v>10</v>
+      </c>
+      <c r="BJ394">
+        <v>12</v>
+      </c>
+      <c r="BK394">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:63">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>4554781</v>
+      </c>
+      <c r="C395" t="s">
+        <v>63</v>
+      </c>
+      <c r="D395" t="s">
+        <v>64</v>
+      </c>
+      <c r="E395" s="2">
+        <v>45164.60416666666</v>
+      </c>
+      <c r="F395">
+        <v>2</v>
+      </c>
+      <c r="G395" t="s">
+        <v>67</v>
+      </c>
+      <c r="H395" t="s">
+        <v>83</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>1</v>
+      </c>
+      <c r="L395">
+        <v>2</v>
+      </c>
+      <c r="M395">
+        <v>2</v>
+      </c>
+      <c r="N395">
+        <v>4</v>
+      </c>
+      <c r="O395" t="s">
+        <v>312</v>
+      </c>
+      <c r="P395" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q395">
+        <v>-1</v>
+      </c>
+      <c r="R395">
+        <v>-1</v>
+      </c>
+      <c r="S395">
+        <v>-1</v>
+      </c>
+      <c r="T395">
+        <v>2.75</v>
+      </c>
+      <c r="U395">
+        <v>1.91</v>
+      </c>
+      <c r="V395">
+        <v>5.5</v>
+      </c>
+      <c r="W395">
+        <v>1.62</v>
+      </c>
+      <c r="X395">
+        <v>2.2</v>
+      </c>
+      <c r="Y395">
+        <v>4</v>
+      </c>
+      <c r="Z395">
+        <v>1.22</v>
+      </c>
+      <c r="AA395">
+        <v>13</v>
+      </c>
+      <c r="AB395">
+        <v>1.04</v>
+      </c>
+      <c r="AC395">
+        <v>1.91</v>
+      </c>
+      <c r="AD395">
+        <v>3.25</v>
+      </c>
+      <c r="AE395">
+        <v>3.75</v>
+      </c>
+      <c r="AF395">
+        <v>1.13</v>
+      </c>
+      <c r="AG395">
+        <v>6.12</v>
+      </c>
+      <c r="AH395">
+        <v>1.59</v>
+      </c>
+      <c r="AI395">
+        <v>2.39</v>
+      </c>
+      <c r="AJ395">
+        <v>2.88</v>
+      </c>
+      <c r="AK395">
+        <v>1.4</v>
+      </c>
+      <c r="AL395">
+        <v>2.5</v>
+      </c>
+      <c r="AM395">
+        <v>1.5</v>
+      </c>
+      <c r="AN395">
+        <v>1.2</v>
+      </c>
+      <c r="AO395">
+        <v>1.3</v>
+      </c>
+      <c r="AP395">
+        <v>1.83</v>
+      </c>
+      <c r="AQ395">
+        <v>2.07</v>
+      </c>
+      <c r="AR395">
+        <v>1</v>
+      </c>
+      <c r="AS395">
+        <v>2</v>
+      </c>
+      <c r="AT395">
+        <v>1</v>
+      </c>
+      <c r="AU395">
+        <v>1.38</v>
+      </c>
+      <c r="AV395">
+        <v>1.22</v>
+      </c>
+      <c r="AW395">
+        <v>2.6</v>
+      </c>
+      <c r="AX395">
+        <v>1.51</v>
+      </c>
+      <c r="AY395">
+        <v>8</v>
+      </c>
+      <c r="AZ395">
+        <v>3.17</v>
+      </c>
+      <c r="BA395">
+        <v>1.42</v>
+      </c>
+      <c r="BB395">
+        <v>1.85</v>
+      </c>
+      <c r="BC395">
+        <v>2.33</v>
+      </c>
+      <c r="BD395">
+        <v>3.2</v>
+      </c>
+      <c r="BE395">
+        <v>5.1</v>
+      </c>
+      <c r="BF395">
+        <v>-1</v>
+      </c>
+      <c r="BG395">
+        <v>-1</v>
+      </c>
+      <c r="BH395">
+        <v>-1</v>
+      </c>
+      <c r="BI395">
+        <v>-1</v>
+      </c>
+      <c r="BJ395">
+        <v>-1</v>
+      </c>
+      <c r="BK395">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:63">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>4554780</v>
+      </c>
+      <c r="C396" t="s">
+        <v>63</v>
+      </c>
+      <c r="D396" t="s">
+        <v>64</v>
+      </c>
+      <c r="E396" s="2">
+        <v>45164.6875</v>
+      </c>
+      <c r="F396">
+        <v>2</v>
+      </c>
+      <c r="G396" t="s">
+        <v>69</v>
+      </c>
+      <c r="H396" t="s">
+        <v>89</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396">
+        <v>3</v>
+      </c>
+      <c r="N396">
+        <v>4</v>
+      </c>
+      <c r="O396" t="s">
+        <v>200</v>
+      </c>
+      <c r="P396" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q396">
+        <v>0</v>
+      </c>
+      <c r="R396">
+        <v>6</v>
+      </c>
+      <c r="S396">
+        <v>6</v>
+      </c>
+      <c r="T396">
+        <v>2.38</v>
+      </c>
+      <c r="U396">
+        <v>2.05</v>
+      </c>
+      <c r="V396">
+        <v>6</v>
+      </c>
+      <c r="W396">
+        <v>1.5</v>
+      </c>
+      <c r="X396">
+        <v>2.5</v>
+      </c>
+      <c r="Y396">
+        <v>3.4</v>
+      </c>
+      <c r="Z396">
+        <v>1.3</v>
+      </c>
+      <c r="AA396">
+        <v>10</v>
+      </c>
+      <c r="AB396">
+        <v>1.06</v>
+      </c>
+      <c r="AC396">
+        <v>1.67</v>
+      </c>
+      <c r="AD396">
+        <v>3.3</v>
+      </c>
+      <c r="AE396">
+        <v>5.25</v>
+      </c>
+      <c r="AF396">
+        <v>1.08</v>
+      </c>
+      <c r="AG396">
+        <v>7</v>
+      </c>
+      <c r="AH396">
+        <v>1.4</v>
+      </c>
+      <c r="AI396">
+        <v>2.75</v>
+      </c>
+      <c r="AJ396">
+        <v>2.3</v>
+      </c>
+      <c r="AK396">
+        <v>1.6</v>
+      </c>
+      <c r="AL396">
+        <v>2.2</v>
+      </c>
+      <c r="AM396">
+        <v>1.62</v>
+      </c>
+      <c r="AN396">
+        <v>1.14</v>
+      </c>
+      <c r="AO396">
+        <v>1.29</v>
+      </c>
+      <c r="AP396">
+        <v>2.1</v>
+      </c>
+      <c r="AQ396">
+        <v>1.86</v>
+      </c>
+      <c r="AR396">
+        <v>0.93</v>
+      </c>
+      <c r="AS396">
+        <v>1.73</v>
+      </c>
+      <c r="AT396">
+        <v>1.07</v>
+      </c>
+      <c r="AU396">
+        <v>1.59</v>
+      </c>
+      <c r="AV396">
+        <v>1.06</v>
+      </c>
+      <c r="AW396">
+        <v>2.65</v>
+      </c>
+      <c r="AX396">
+        <v>1.64</v>
+      </c>
+      <c r="AY396">
+        <v>8</v>
+      </c>
+      <c r="AZ396">
+        <v>2.77</v>
+      </c>
+      <c r="BA396">
+        <v>1.3</v>
+      </c>
+      <c r="BB396">
+        <v>1.59</v>
+      </c>
+      <c r="BC396">
+        <v>2.02</v>
+      </c>
+      <c r="BD396">
+        <v>2.65</v>
+      </c>
+      <c r="BE396">
+        <v>3.85</v>
+      </c>
+      <c r="BF396">
+        <v>2</v>
+      </c>
+      <c r="BG396">
+        <v>6</v>
+      </c>
+      <c r="BH396">
+        <v>5</v>
+      </c>
+      <c r="BI396">
+        <v>9</v>
+      </c>
+      <c r="BJ396">
+        <v>7</v>
+      </c>
+      <c r="BK396">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:63">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>4554775</v>
+      </c>
+      <c r="C397" t="s">
+        <v>63</v>
+      </c>
+      <c r="D397" t="s">
+        <v>64</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45164.79166666666</v>
+      </c>
+      <c r="F397">
+        <v>2</v>
+      </c>
+      <c r="G397" t="s">
+        <v>68</v>
+      </c>
+      <c r="H397" t="s">
+        <v>91</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>1</v>
+      </c>
+      <c r="K397">
+        <v>2</v>
+      </c>
+      <c r="L397">
+        <v>2</v>
+      </c>
+      <c r="M397">
+        <v>1</v>
+      </c>
+      <c r="N397">
+        <v>3</v>
+      </c>
+      <c r="O397" t="s">
+        <v>313</v>
+      </c>
+      <c r="P397" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q397">
+        <v>4</v>
+      </c>
+      <c r="R397">
+        <v>1</v>
+      </c>
+      <c r="S397">
+        <v>5</v>
+      </c>
+      <c r="T397">
+        <v>2.5</v>
+      </c>
+      <c r="U397">
+        <v>2</v>
+      </c>
+      <c r="V397">
+        <v>5.5</v>
+      </c>
+      <c r="W397">
+        <v>1.53</v>
+      </c>
+      <c r="X397">
+        <v>2.38</v>
+      </c>
+      <c r="Y397">
+        <v>3.5</v>
+      </c>
+      <c r="Z397">
+        <v>1.29</v>
+      </c>
+      <c r="AA397">
+        <v>11</v>
+      </c>
+      <c r="AB397">
+        <v>1.05</v>
+      </c>
+      <c r="AC397">
+        <v>1.73</v>
+      </c>
+      <c r="AD397">
+        <v>3.2</v>
+      </c>
+      <c r="AE397">
+        <v>5</v>
+      </c>
+      <c r="AF397">
+        <v>1.08</v>
+      </c>
+      <c r="AG397">
+        <v>7.29</v>
+      </c>
+      <c r="AH397">
+        <v>1.48</v>
+      </c>
+      <c r="AI397">
+        <v>2.56</v>
+      </c>
+      <c r="AJ397">
+        <v>2.5</v>
+      </c>
+      <c r="AK397">
+        <v>1.5</v>
+      </c>
+      <c r="AL397">
+        <v>2.25</v>
+      </c>
+      <c r="AM397">
+        <v>1.57</v>
+      </c>
+      <c r="AN397">
+        <v>1.16</v>
+      </c>
+      <c r="AO397">
+        <v>1.25</v>
+      </c>
+      <c r="AP397">
+        <v>2.1</v>
+      </c>
+      <c r="AQ397">
+        <v>1.79</v>
+      </c>
+      <c r="AR397">
+        <v>0.64</v>
+      </c>
+      <c r="AS397">
+        <v>1.87</v>
+      </c>
+      <c r="AT397">
+        <v>0.6</v>
+      </c>
+      <c r="AU397">
+        <v>1.54</v>
+      </c>
+      <c r="AV397">
+        <v>1.23</v>
+      </c>
+      <c r="AW397">
+        <v>2.77</v>
+      </c>
+      <c r="AX397">
+        <v>1.69</v>
+      </c>
+      <c r="AY397">
+        <v>7.5</v>
+      </c>
+      <c r="AZ397">
+        <v>2.66</v>
+      </c>
+      <c r="BA397">
+        <v>1.42</v>
+      </c>
+      <c r="BB397">
+        <v>1.85</v>
+      </c>
+      <c r="BC397">
+        <v>2.35</v>
+      </c>
+      <c r="BD397">
+        <v>3.2</v>
+      </c>
+      <c r="BE397">
+        <v>4.7</v>
+      </c>
+      <c r="BF397">
+        <v>6</v>
+      </c>
+      <c r="BG397">
+        <v>5</v>
+      </c>
+      <c r="BH397">
+        <v>1</v>
+      </c>
+      <c r="BI397">
+        <v>3</v>
+      </c>
+      <c r="BJ397">
+        <v>7</v>
+      </c>
+      <c r="BK397">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:63">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>4554782</v>
+      </c>
+      <c r="C398" t="s">
+        <v>63</v>
+      </c>
+      <c r="D398" t="s">
+        <v>64</v>
+      </c>
+      <c r="E398" s="2">
+        <v>45164.79166666666</v>
+      </c>
+      <c r="F398">
+        <v>2</v>
+      </c>
+      <c r="G398" t="s">
+        <v>80</v>
+      </c>
+      <c r="H398" t="s">
+        <v>84</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>1</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>1</v>
+      </c>
+      <c r="O398" t="s">
+        <v>314</v>
+      </c>
+      <c r="P398" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q398">
+        <v>7</v>
+      </c>
+      <c r="R398">
+        <v>8</v>
+      </c>
+      <c r="S398">
+        <v>15</v>
+      </c>
+      <c r="T398">
+        <v>3.1</v>
+      </c>
+      <c r="U398">
+        <v>1.91</v>
+      </c>
+      <c r="V398">
+        <v>4.33</v>
+      </c>
+      <c r="W398">
+        <v>1.62</v>
+      </c>
+      <c r="X398">
+        <v>2.2</v>
+      </c>
+      <c r="Y398">
+        <v>4</v>
+      </c>
+      <c r="Z398">
+        <v>1.22</v>
+      </c>
+      <c r="AA398">
+        <v>13</v>
+      </c>
+      <c r="AB398">
+        <v>1.04</v>
+      </c>
+      <c r="AC398">
+        <v>2.2</v>
+      </c>
+      <c r="AD398">
+        <v>3.1</v>
+      </c>
+      <c r="AE398">
+        <v>3.1</v>
+      </c>
+      <c r="AF398">
+        <v>1.11</v>
+      </c>
+      <c r="AG398">
+        <v>6.28</v>
+      </c>
+      <c r="AH398">
+        <v>1.57</v>
+      </c>
+      <c r="AI398">
+        <v>2.42</v>
+      </c>
+      <c r="AJ398">
+        <v>2.7</v>
+      </c>
+      <c r="AK398">
+        <v>1.44</v>
+      </c>
+      <c r="AL398">
+        <v>2.25</v>
+      </c>
+      <c r="AM398">
+        <v>1.57</v>
+      </c>
+      <c r="AN398">
+        <v>1.3</v>
+      </c>
+      <c r="AO398">
+        <v>1.33</v>
+      </c>
+      <c r="AP398">
+        <v>1.65</v>
+      </c>
+      <c r="AQ398">
+        <v>1.93</v>
+      </c>
+      <c r="AR398">
+        <v>1.14</v>
+      </c>
+      <c r="AS398">
+        <v>2</v>
+      </c>
+      <c r="AT398">
+        <v>1.07</v>
+      </c>
+      <c r="AU398">
+        <v>1.28</v>
+      </c>
+      <c r="AV398">
+        <v>1.33</v>
+      </c>
+      <c r="AW398">
+        <v>2.61</v>
+      </c>
+      <c r="AX398">
+        <v>1.69</v>
+      </c>
+      <c r="AY398">
+        <v>7.5</v>
+      </c>
+      <c r="AZ398">
+        <v>2.64</v>
+      </c>
+      <c r="BA398">
+        <v>1.48</v>
+      </c>
+      <c r="BB398">
+        <v>2</v>
+      </c>
+      <c r="BC398">
+        <v>2.52</v>
+      </c>
+      <c r="BD398">
+        <v>2.9</v>
+      </c>
+      <c r="BE398">
+        <v>5.3</v>
+      </c>
+      <c r="BF398">
+        <v>4</v>
+      </c>
+      <c r="BG398">
+        <v>3</v>
+      </c>
+      <c r="BH398">
+        <v>3</v>
+      </c>
+      <c r="BI398">
+        <v>7</v>
+      </c>
+      <c r="BJ398">
+        <v>7</v>
+      </c>
+      <c r="BK398">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:63">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>4554779</v>
+      </c>
+      <c r="C399" t="s">
+        <v>63</v>
+      </c>
+      <c r="D399" t="s">
+        <v>64</v>
+      </c>
+      <c r="E399" s="2">
+        <v>45164.89583333334</v>
+      </c>
+      <c r="F399">
+        <v>2</v>
+      </c>
+      <c r="G399" t="s">
+        <v>79</v>
+      </c>
+      <c r="H399" t="s">
+        <v>74</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>2</v>
+      </c>
+      <c r="K399">
+        <v>3</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399">
+        <v>2</v>
+      </c>
+      <c r="N399">
+        <v>3</v>
+      </c>
+      <c r="O399" t="s">
+        <v>265</v>
+      </c>
+      <c r="P399" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q399">
+        <v>9</v>
+      </c>
+      <c r="R399">
+        <v>1</v>
+      </c>
+      <c r="S399">
+        <v>10</v>
+      </c>
+      <c r="T399">
+        <v>2.77</v>
+      </c>
+      <c r="U399">
+        <v>2.06</v>
+      </c>
+      <c r="V399">
+        <v>4.19</v>
+      </c>
+      <c r="W399">
+        <v>1.44</v>
+      </c>
+      <c r="X399">
+        <v>2.66</v>
+      </c>
+      <c r="Y399">
+        <v>3.1</v>
+      </c>
+      <c r="Z399">
+        <v>1.34</v>
+      </c>
+      <c r="AA399">
+        <v>7.7</v>
+      </c>
+      <c r="AB399">
+        <v>1.05</v>
+      </c>
+      <c r="AC399">
+        <v>2.21</v>
+      </c>
+      <c r="AD399">
+        <v>3.28</v>
+      </c>
+      <c r="AE399">
+        <v>3.48</v>
+      </c>
+      <c r="AF399">
+        <v>1.04</v>
+      </c>
+      <c r="AG399">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH399">
+        <v>1.37</v>
+      </c>
+      <c r="AI399">
+        <v>3.11</v>
+      </c>
+      <c r="AJ399">
+        <v>2.17</v>
+      </c>
+      <c r="AK399">
+        <v>1.7</v>
+      </c>
+      <c r="AL399">
+        <v>1.88</v>
+      </c>
+      <c r="AM399">
+        <v>1.88</v>
+      </c>
+      <c r="AN399">
+        <v>1.29</v>
+      </c>
+      <c r="AO399">
+        <v>1.32</v>
+      </c>
+      <c r="AP399">
+        <v>1.65</v>
+      </c>
+      <c r="AQ399">
+        <v>1.38</v>
+      </c>
+      <c r="AR399">
+        <v>1</v>
+      </c>
+      <c r="AS399">
+        <v>1.29</v>
+      </c>
+      <c r="AT399">
+        <v>1.13</v>
+      </c>
+      <c r="AU399">
+        <v>1.75</v>
+      </c>
+      <c r="AV399">
+        <v>1.32</v>
+      </c>
+      <c r="AW399">
+        <v>3.07</v>
+      </c>
+      <c r="AX399">
+        <v>1.75</v>
+      </c>
+      <c r="AY399">
+        <v>7.5</v>
+      </c>
+      <c r="AZ399">
+        <v>2.45</v>
+      </c>
+      <c r="BA399">
+        <v>1.41</v>
+      </c>
+      <c r="BB399">
+        <v>1.83</v>
+      </c>
+      <c r="BC399">
+        <v>2.3</v>
+      </c>
+      <c r="BD399">
+        <v>3.25</v>
+      </c>
+      <c r="BE399">
+        <v>4.8</v>
+      </c>
+      <c r="BF399">
+        <v>9</v>
+      </c>
+      <c r="BG399">
+        <v>4</v>
+      </c>
+      <c r="BH399">
+        <v>17</v>
+      </c>
+      <c r="BI399">
+        <v>3</v>
+      </c>
+      <c r="BJ399">
+        <v>26</v>
+      </c>
+      <c r="BK399">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="425">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -961,6 +961,15 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['51', '90+5']</t>
+  </si>
+  <si>
+    <t>['37', '48', '80', '85', '90']</t>
+  </si>
+  <si>
+    <t>['13', '70', '82']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1641,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK399"/>
+  <dimension ref="A1:BK406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2076,7 +2085,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2649,7 +2658,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2840,7 +2849,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3031,7 +3040,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3118,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT8">
         <v>0.79</v>
@@ -3413,7 +3422,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4177,7 +4186,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4455,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT15">
         <v>1.07</v>
@@ -4559,7 +4568,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4649,7 +4658,7 @@
         <v>1.29</v>
       </c>
       <c r="AT16">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4840,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5132,7 +5141,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5219,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5323,7 +5332,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5896,7 +5905,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5983,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT23">
         <v>0.86</v>
@@ -6177,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>1.71</v>
@@ -6365,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT25">
         <v>0.86</v>
@@ -6469,7 +6478,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6556,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
         <v>2</v>
@@ -6660,7 +6669,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6851,7 +6860,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6941,7 +6950,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7042,7 +7051,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7233,7 +7242,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7997,7 +8006,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8084,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT34">
         <v>1.07</v>
@@ -8188,7 +8197,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8278,7 +8287,7 @@
         <v>1.87</v>
       </c>
       <c r="AT35">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -8848,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT38">
         <v>0.67</v>
@@ -9039,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT39">
         <v>1.07</v>
@@ -9334,7 +9343,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9716,7 +9725,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -10098,7 +10107,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10379,7 +10388,7 @@
         <v>1.36</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU46">
         <v>2.16</v>
@@ -10570,7 +10579,7 @@
         <v>2.07</v>
       </c>
       <c r="AT47">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10671,7 +10680,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11140,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT50">
         <v>1.36</v>
@@ -11817,7 +11826,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11904,10 +11913,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT54">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU54">
         <v>1.63</v>
@@ -12098,7 +12107,7 @@
         <v>1.87</v>
       </c>
       <c r="AT55">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU55">
         <v>1.5</v>
@@ -12286,7 +12295,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT56">
         <v>1.43</v>
@@ -12390,7 +12399,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12477,10 +12486,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT57">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU57">
         <v>1.13</v>
@@ -12581,7 +12590,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -13345,7 +13354,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13432,7 +13441,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT62">
         <v>2</v>
@@ -13536,7 +13545,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13626,7 +13635,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -14109,7 +14118,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14196,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT66">
         <v>0.43</v>
@@ -14387,7 +14396,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT67">
         <v>0.86</v>
@@ -14491,7 +14500,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15446,7 +15455,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15533,10 +15542,10 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT73">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15724,10 +15733,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT74">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU74">
         <v>1.4</v>
@@ -16019,7 +16028,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16297,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT77">
         <v>0.71</v>
@@ -16491,7 +16500,7 @@
         <v>2</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU78">
         <v>0.82</v>
@@ -16679,7 +16688,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16783,7 +16792,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17165,7 +17174,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17255,7 +17264,7 @@
         <v>1.87</v>
       </c>
       <c r="AT82">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU82">
         <v>1.61</v>
@@ -17443,7 +17452,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -17547,7 +17556,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17828,7 +17837,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17929,7 +17938,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18693,7 +18702,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19544,7 +19553,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT94">
         <v>0.93</v>
@@ -19648,7 +19657,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19926,10 +19935,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT96">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU96">
         <v>2.03</v>
@@ -20221,7 +20230,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20603,7 +20612,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20985,7 +20994,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21072,7 +21081,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
         <v>0.86</v>
@@ -21263,10 +21272,10 @@
         <v>2.33</v>
       </c>
       <c r="AS103">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT103">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -21367,7 +21376,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21454,10 +21463,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU104">
         <v>1.17</v>
@@ -21645,7 +21654,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21749,7 +21758,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21940,7 +21949,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22322,7 +22331,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22409,7 +22418,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT109">
         <v>1.67</v>
@@ -22895,7 +22904,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22985,7 +22994,7 @@
         <v>1.36</v>
       </c>
       <c r="AT112">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU112">
         <v>1.67</v>
@@ -23176,7 +23185,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -23367,7 +23376,7 @@
         <v>1.86</v>
       </c>
       <c r="AT114">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -24128,7 +24137,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT118">
         <v>1.07</v>
@@ -24232,7 +24241,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24322,7 +24331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU119">
         <v>0.89</v>
@@ -24614,7 +24623,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24996,7 +25005,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25378,7 +25387,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25465,7 +25474,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT125">
         <v>0.86</v>
@@ -26038,7 +26047,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT128">
         <v>1</v>
@@ -26333,7 +26342,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26614,7 +26623,7 @@
         <v>1.87</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26802,7 +26811,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
         <v>1.07</v>
@@ -26906,7 +26915,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27097,7 +27106,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27288,7 +27297,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27375,7 +27384,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT135">
         <v>1.43</v>
@@ -27479,7 +27488,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27569,7 +27578,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27670,7 +27679,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27757,7 +27766,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT137">
         <v>1.36</v>
@@ -27861,7 +27870,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27948,7 +27957,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT138">
         <v>1.07</v>
@@ -28142,7 +28151,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU139">
         <v>1.19</v>
@@ -28243,7 +28252,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28434,7 +28443,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28816,7 +28825,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29097,7 +29106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -29198,7 +29207,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29285,10 +29294,10 @@
         <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT145">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU145">
         <v>1.78</v>
@@ -29670,7 +29679,7 @@
         <v>2</v>
       </c>
       <c r="AT147">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU147">
         <v>1.55</v>
@@ -30535,7 +30544,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30726,7 +30735,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31004,7 +31013,7 @@
         <v>0.2</v>
       </c>
       <c r="AS154">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT154">
         <v>0.67</v>
@@ -31872,7 +31881,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32344,7 +32353,7 @@
         <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32532,7 +32541,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT162">
         <v>1.13</v>
@@ -33105,7 +33114,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT165">
         <v>0.86</v>
@@ -33296,10 +33305,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT166">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU166">
         <v>1.67</v>
@@ -33487,7 +33496,7 @@
         <v>0.67</v>
       </c>
       <c r="AS167">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT167">
         <v>0.43</v>
@@ -33591,7 +33600,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33678,10 +33687,10 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT168">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU168">
         <v>1.48</v>
@@ -33782,7 +33791,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33869,7 +33878,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT169">
         <v>1.07</v>
@@ -33973,7 +33982,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34063,7 +34072,7 @@
         <v>1.27</v>
       </c>
       <c r="AT170">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU170">
         <v>1.69</v>
@@ -34355,7 +34364,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34737,7 +34746,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35119,7 +35128,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35209,7 +35218,7 @@
         <v>2.2</v>
       </c>
       <c r="AT176">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU176">
         <v>1.54</v>
@@ -35779,7 +35788,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT179">
         <v>0.86</v>
@@ -35883,7 +35892,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35973,7 +35982,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU180">
         <v>0.85</v>
@@ -36074,7 +36083,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36265,7 +36274,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36647,7 +36656,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36734,7 +36743,7 @@
         <v>1.67</v>
       </c>
       <c r="AS184">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT184">
         <v>1.36</v>
@@ -36925,7 +36934,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT185">
         <v>0.93</v>
@@ -37498,7 +37507,7 @@
         <v>2.57</v>
       </c>
       <c r="AS188">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT188">
         <v>1.67</v>
@@ -38071,10 +38080,10 @@
         <v>0.83</v>
       </c>
       <c r="AS191">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT191">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU191">
         <v>1.6</v>
@@ -38175,7 +38184,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38265,7 +38274,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU192">
         <v>1.43</v>
@@ -38835,7 +38844,7 @@
         <v>1.86</v>
       </c>
       <c r="AS195">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT195">
         <v>1</v>
@@ -39029,7 +39038,7 @@
         <v>1.87</v>
       </c>
       <c r="AT196">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU196">
         <v>1.52</v>
@@ -39408,7 +39417,7 @@
         <v>0.43</v>
       </c>
       <c r="AS198">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT198">
         <v>1.07</v>
@@ -40085,7 +40094,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40554,10 +40563,10 @@
         <v>1.17</v>
       </c>
       <c r="AS204">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT204">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU204">
         <v>1.86</v>
@@ -40748,7 +40757,7 @@
         <v>1.73</v>
       </c>
       <c r="AT205">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU205">
         <v>1.52</v>
@@ -40849,7 +40858,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41321,7 +41330,7 @@
         <v>2</v>
       </c>
       <c r="AT208">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU208">
         <v>1.4</v>
@@ -41422,7 +41431,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41995,7 +42004,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42082,7 +42091,7 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT212">
         <v>1.07</v>
@@ -42186,7 +42195,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42273,7 +42282,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT213">
         <v>1.07</v>
@@ -42377,7 +42386,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42464,7 +42473,7 @@
         <v>1.29</v>
       </c>
       <c r="AS214">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT214">
         <v>1.43</v>
@@ -43228,7 +43237,7 @@
         <v>1</v>
       </c>
       <c r="AS218">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT218">
         <v>1.13</v>
@@ -43523,7 +43532,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43714,7 +43723,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43905,7 +43914,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43995,7 +44004,7 @@
         <v>1.5</v>
       </c>
       <c r="AT222">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU222">
         <v>0.98</v>
@@ -44377,7 +44386,7 @@
         <v>1.4</v>
       </c>
       <c r="AT224">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU224">
         <v>1.26</v>
@@ -44756,7 +44765,7 @@
         <v>0.88</v>
       </c>
       <c r="AS226">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT226">
         <v>0.67</v>
@@ -44950,7 +44959,7 @@
         <v>2.2</v>
       </c>
       <c r="AT227">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU227">
         <v>1.49</v>
@@ -45523,7 +45532,7 @@
         <v>1.93</v>
       </c>
       <c r="AT230">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU230">
         <v>1.95</v>
@@ -46475,7 +46484,7 @@
         <v>0.63</v>
       </c>
       <c r="AS235">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT235">
         <v>0.6</v>
@@ -46669,7 +46678,7 @@
         <v>1.27</v>
       </c>
       <c r="AT236">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU236">
         <v>1.63</v>
@@ -46857,7 +46866,7 @@
         <v>1</v>
       </c>
       <c r="AS237">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT237">
         <v>0.86</v>
@@ -47048,7 +47057,7 @@
         <v>0.44</v>
       </c>
       <c r="AS238">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT238">
         <v>0.43</v>
@@ -47430,7 +47439,7 @@
         <v>1.44</v>
       </c>
       <c r="AS240">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT240">
         <v>1</v>
@@ -47621,7 +47630,7 @@
         <v>1.13</v>
       </c>
       <c r="AS241">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT241">
         <v>1.07</v>
@@ -48680,7 +48689,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48770,7 +48779,7 @@
         <v>1.27</v>
       </c>
       <c r="AT247">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU247">
         <v>1.61</v>
@@ -49149,10 +49158,10 @@
         <v>0.88</v>
       </c>
       <c r="AS249">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT249">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU249">
         <v>1.47</v>
@@ -49444,7 +49453,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49722,7 +49731,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT252">
         <v>0.79</v>
@@ -49916,7 +49925,7 @@
         <v>1.27</v>
       </c>
       <c r="AT253">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU253">
         <v>1.15</v>
@@ -50017,7 +50026,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50107,7 +50116,7 @@
         <v>1.73</v>
       </c>
       <c r="AT254">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU254">
         <v>1.5</v>
@@ -50399,7 +50408,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50680,7 +50689,7 @@
         <v>1.79</v>
       </c>
       <c r="AT257">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU257">
         <v>1.23</v>
@@ -50781,7 +50790,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -51823,7 +51832,7 @@
         <v>0.89</v>
       </c>
       <c r="AS263">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT263">
         <v>0.86</v>
@@ -52208,7 +52217,7 @@
         <v>1.5</v>
       </c>
       <c r="AT265">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU265">
         <v>1.15</v>
@@ -52396,7 +52405,7 @@
         <v>1.3</v>
       </c>
       <c r="AS266">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT266">
         <v>0.93</v>
@@ -52587,7 +52596,7 @@
         <v>1</v>
       </c>
       <c r="AS267">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT267">
         <v>1.07</v>
@@ -53354,7 +53363,7 @@
         <v>2</v>
       </c>
       <c r="AT271">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU271">
         <v>1.41</v>
@@ -53455,7 +53464,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53542,7 +53551,7 @@
         <v>2</v>
       </c>
       <c r="AS272">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT272">
         <v>1.67</v>
@@ -53837,7 +53846,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54601,7 +54610,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54688,7 +54697,7 @@
         <v>1.1</v>
       </c>
       <c r="AS278">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT278">
         <v>0.93</v>
@@ -55073,7 +55082,7 @@
         <v>1.64</v>
       </c>
       <c r="AT280">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU280">
         <v>1.71</v>
@@ -55261,10 +55270,10 @@
         <v>1.75</v>
       </c>
       <c r="AS281">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT281">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU281">
         <v>1.88</v>
@@ -55747,7 +55756,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55837,7 +55846,7 @@
         <v>1.29</v>
       </c>
       <c r="AT284">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU284">
         <v>1.68</v>
@@ -56028,7 +56037,7 @@
         <v>1.64</v>
       </c>
       <c r="AT285">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU285">
         <v>1.66</v>
@@ -56129,7 +56138,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56216,7 +56225,7 @@
         <v>0.78</v>
       </c>
       <c r="AS286">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT286">
         <v>1</v>
@@ -56407,10 +56416,10 @@
         <v>1.11</v>
       </c>
       <c r="AS287">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT287">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56792,7 +56801,7 @@
         <v>1.93</v>
       </c>
       <c r="AT289">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU289">
         <v>1.93</v>
@@ -57084,7 +57093,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57275,7 +57284,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57466,7 +57475,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57744,7 +57753,7 @@
         <v>0.8</v>
       </c>
       <c r="AS294">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT294">
         <v>1.07</v>
@@ -58039,7 +58048,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58126,7 +58135,7 @@
         <v>1.09</v>
       </c>
       <c r="AS296">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT296">
         <v>1.07</v>
@@ -58317,7 +58326,7 @@
         <v>1</v>
       </c>
       <c r="AS297">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT297">
         <v>1.07</v>
@@ -58612,7 +58621,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58893,7 +58902,7 @@
         <v>2</v>
       </c>
       <c r="AT300">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU300">
         <v>1.44</v>
@@ -59084,7 +59093,7 @@
         <v>1.73</v>
       </c>
       <c r="AT301">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU301">
         <v>1.49</v>
@@ -59185,7 +59194,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59463,7 +59472,7 @@
         <v>0.55</v>
       </c>
       <c r="AS303">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT303">
         <v>0.6</v>
@@ -59567,7 +59576,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60036,7 +60045,7 @@
         <v>1.09</v>
       </c>
       <c r="AS306">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT306">
         <v>1.07</v>
@@ -60522,7 +60531,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60803,7 +60812,7 @@
         <v>2.07</v>
       </c>
       <c r="AT310">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU310">
         <v>1.43</v>
@@ -60991,7 +61000,7 @@
         <v>1</v>
       </c>
       <c r="AS311">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT311">
         <v>0.86</v>
@@ -61755,7 +61764,7 @@
         <v>0.9</v>
       </c>
       <c r="AS315">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT315">
         <v>0.86</v>
@@ -61859,7 +61868,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -61949,7 +61958,7 @@
         <v>1.27</v>
       </c>
       <c r="AT316">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU316">
         <v>1.1</v>
@@ -62140,7 +62149,7 @@
         <v>1.29</v>
       </c>
       <c r="AT317">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU317">
         <v>1.59</v>
@@ -62328,7 +62337,7 @@
         <v>1.8</v>
       </c>
       <c r="AS318">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT318">
         <v>2</v>
@@ -62814,7 +62823,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -62904,7 +62913,7 @@
         <v>1.79</v>
       </c>
       <c r="AT321">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU321">
         <v>1.25</v>
@@ -64047,7 +64056,7 @@
         <v>1.08</v>
       </c>
       <c r="AS327">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT327">
         <v>0.93</v>
@@ -64429,7 +64438,7 @@
         <v>0.33</v>
       </c>
       <c r="AS329">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT329">
         <v>0.43</v>
@@ -64533,7 +64542,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -65578,7 +65587,7 @@
         <v>2.2</v>
       </c>
       <c r="AT335">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU335">
         <v>1.65</v>
@@ -65679,7 +65688,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -65766,7 +65775,7 @@
         <v>0.67</v>
       </c>
       <c r="AS336">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT336">
         <v>0.79</v>
@@ -65957,7 +65966,7 @@
         <v>0.75</v>
       </c>
       <c r="AS337">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT337">
         <v>0.67</v>
@@ -66061,7 +66070,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -66148,10 +66157,10 @@
         <v>0.73</v>
       </c>
       <c r="AS338">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT338">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU338">
         <v>1.58</v>
@@ -66252,7 +66261,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q339">
         <v>5</v>
@@ -66339,10 +66348,10 @@
         <v>1.55</v>
       </c>
       <c r="AS339">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT339">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU339">
         <v>1.54</v>
@@ -66915,7 +66924,7 @@
         <v>1.64</v>
       </c>
       <c r="AT342">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU342">
         <v>1.58</v>
@@ -67016,7 +67025,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67103,7 +67112,7 @@
         <v>1.45</v>
       </c>
       <c r="AS343">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT343">
         <v>1.36</v>
@@ -67207,7 +67216,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67398,7 +67407,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67488,7 +67497,7 @@
         <v>1.43</v>
       </c>
       <c r="AT345">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU345">
         <v>1.56</v>
@@ -67589,7 +67598,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -68162,7 +68171,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68443,7 +68452,7 @@
         <v>1.29</v>
       </c>
       <c r="AT350">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU350">
         <v>1.75</v>
@@ -68735,7 +68744,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69117,7 +69126,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69204,7 +69213,7 @@
         <v>0.46</v>
       </c>
       <c r="AS354">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT354">
         <v>0.6</v>
@@ -69395,7 +69404,7 @@
         <v>0.92</v>
       </c>
       <c r="AS355">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT355">
         <v>0.86</v>
@@ -69690,7 +69699,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69881,7 +69890,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70350,7 +70359,7 @@
         <v>1</v>
       </c>
       <c r="AS360">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT360">
         <v>0.93</v>
@@ -70544,7 +70553,7 @@
         <v>1.64</v>
       </c>
       <c r="AT361">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU361">
         <v>1.59</v>
@@ -71027,7 +71036,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71499,7 +71508,7 @@
         <v>1.29</v>
       </c>
       <c r="AT366">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU366">
         <v>1.6</v>
@@ -71600,7 +71609,7 @@
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -71881,7 +71890,7 @@
         <v>1.79</v>
       </c>
       <c r="AT368">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU368">
         <v>1.32</v>
@@ -72260,7 +72269,7 @@
         <v>1.08</v>
       </c>
       <c r="AS370">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AT370">
         <v>1.13</v>
@@ -72364,7 +72373,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72642,7 +72651,7 @@
         <v>0.75</v>
       </c>
       <c r="AS372">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT372">
         <v>0.71</v>
@@ -72746,7 +72755,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -72833,10 +72842,10 @@
         <v>1.17</v>
       </c>
       <c r="AS373">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT373">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU373">
         <v>1.4</v>
@@ -73409,7 +73418,7 @@
         <v>2.07</v>
       </c>
       <c r="AT376">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU376">
         <v>1.5</v>
@@ -73791,7 +73800,7 @@
         <v>1.36</v>
       </c>
       <c r="AT378">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU378">
         <v>1.49</v>
@@ -73892,7 +73901,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -73979,7 +73988,7 @@
         <v>0.92</v>
       </c>
       <c r="AS379">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT379">
         <v>1</v>
@@ -74743,7 +74752,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS383">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT383">
         <v>0.86</v>
@@ -74847,7 +74856,7 @@
         <v>96</v>
       </c>
       <c r="P384" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q384">
         <v>4</v>
@@ -75128,7 +75137,7 @@
         <v>1.4</v>
       </c>
       <c r="AT385">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU385">
         <v>1.22</v>
@@ -75507,7 +75516,7 @@
         <v>1.14</v>
       </c>
       <c r="AS387">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT387">
         <v>1.07</v>
@@ -75993,7 +76002,7 @@
         <v>307</v>
       </c>
       <c r="P390" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q390">
         <v>9</v>
@@ -76465,7 +76474,7 @@
         <v>2</v>
       </c>
       <c r="AT392">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU392">
         <v>1.26</v>
@@ -76566,7 +76575,7 @@
         <v>310</v>
       </c>
       <c r="P393" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q393">
         <v>2</v>
@@ -76948,16 +76957,16 @@
         <v>312</v>
       </c>
       <c r="P395" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q395">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R395">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S395">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T395">
         <v>2.75</v>
@@ -77074,22 +77083,22 @@
         <v>5.1</v>
       </c>
       <c r="BF395">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG395">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH395">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI395">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ395">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK395">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:63">
@@ -77139,7 +77148,7 @@
         <v>200</v>
       </c>
       <c r="P396" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q396">
         <v>0</v>
@@ -77712,7 +77721,7 @@
         <v>265</v>
       </c>
       <c r="P399" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q399">
         <v>9</v>
@@ -77853,6 +77862,1343 @@
         <v>26</v>
       </c>
       <c r="BK399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:63">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>4554784</v>
+      </c>
+      <c r="C400" t="s">
+        <v>63</v>
+      </c>
+      <c r="D400" t="s">
+        <v>64</v>
+      </c>
+      <c r="E400" s="2">
+        <v>45165.60416666666</v>
+      </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
+      <c r="G400" t="s">
+        <v>71</v>
+      </c>
+      <c r="H400" t="s">
+        <v>66</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400" t="s">
+        <v>96</v>
+      </c>
+      <c r="P400" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q400">
+        <v>7</v>
+      </c>
+      <c r="R400">
+        <v>4</v>
+      </c>
+      <c r="S400">
+        <v>11</v>
+      </c>
+      <c r="T400">
+        <v>3.4</v>
+      </c>
+      <c r="U400">
+        <v>1.95</v>
+      </c>
+      <c r="V400">
+        <v>3.75</v>
+      </c>
+      <c r="W400">
+        <v>1.52</v>
+      </c>
+      <c r="X400">
+        <v>2.39</v>
+      </c>
+      <c r="Y400">
+        <v>3.62</v>
+      </c>
+      <c r="Z400">
+        <v>1.25</v>
+      </c>
+      <c r="AA400">
+        <v>10</v>
+      </c>
+      <c r="AB400">
+        <v>1.04</v>
+      </c>
+      <c r="AC400">
+        <v>2.47</v>
+      </c>
+      <c r="AD400">
+        <v>3.17</v>
+      </c>
+      <c r="AE400">
+        <v>2.91</v>
+      </c>
+      <c r="AF400">
+        <v>1.08</v>
+      </c>
+      <c r="AG400">
+        <v>7.29</v>
+      </c>
+      <c r="AH400">
+        <v>1.47</v>
+      </c>
+      <c r="AI400">
+        <v>2.59</v>
+      </c>
+      <c r="AJ400">
+        <v>2.56</v>
+      </c>
+      <c r="AK400">
+        <v>1.52</v>
+      </c>
+      <c r="AL400">
+        <v>2.04</v>
+      </c>
+      <c r="AM400">
+        <v>1.71</v>
+      </c>
+      <c r="AN400">
+        <v>1.44</v>
+      </c>
+      <c r="AO400">
+        <v>1.3</v>
+      </c>
+      <c r="AP400">
+        <v>1.5</v>
+      </c>
+      <c r="AQ400">
+        <v>1.57</v>
+      </c>
+      <c r="AR400">
+        <v>1.38</v>
+      </c>
+      <c r="AS400">
+        <v>1.53</v>
+      </c>
+      <c r="AT400">
+        <v>1.36</v>
+      </c>
+      <c r="AU400">
+        <v>1.36</v>
+      </c>
+      <c r="AV400">
+        <v>1.32</v>
+      </c>
+      <c r="AW400">
+        <v>2.68</v>
+      </c>
+      <c r="AX400">
+        <v>1.54</v>
+      </c>
+      <c r="AY400">
+        <v>6</v>
+      </c>
+      <c r="AZ400">
+        <v>2.85</v>
+      </c>
+      <c r="BA400">
+        <v>1.25</v>
+      </c>
+      <c r="BB400">
+        <v>1.47</v>
+      </c>
+      <c r="BC400">
+        <v>1.88</v>
+      </c>
+      <c r="BD400">
+        <v>2.4</v>
+      </c>
+      <c r="BE400">
+        <v>3.4</v>
+      </c>
+      <c r="BF400">
+        <v>11</v>
+      </c>
+      <c r="BG400">
+        <v>2</v>
+      </c>
+      <c r="BH400">
+        <v>8</v>
+      </c>
+      <c r="BI400">
+        <v>4</v>
+      </c>
+      <c r="BJ400">
+        <v>19</v>
+      </c>
+      <c r="BK400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:63">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>4554783</v>
+      </c>
+      <c r="C401" t="s">
+        <v>63</v>
+      </c>
+      <c r="D401" t="s">
+        <v>64</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45165.60416666666</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+      <c r="G401" t="s">
+        <v>87</v>
+      </c>
+      <c r="H401" t="s">
+        <v>70</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>1</v>
+      </c>
+      <c r="O401" t="s">
+        <v>278</v>
+      </c>
+      <c r="P401" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q401">
+        <v>3</v>
+      </c>
+      <c r="R401">
+        <v>2</v>
+      </c>
+      <c r="S401">
+        <v>5</v>
+      </c>
+      <c r="T401">
+        <v>2.61</v>
+      </c>
+      <c r="U401">
+        <v>1.94</v>
+      </c>
+      <c r="V401">
+        <v>5.22</v>
+      </c>
+      <c r="W401">
+        <v>1.53</v>
+      </c>
+      <c r="X401">
+        <v>2.38</v>
+      </c>
+      <c r="Y401">
+        <v>3.75</v>
+      </c>
+      <c r="Z401">
+        <v>1.25</v>
+      </c>
+      <c r="AA401">
+        <v>11</v>
+      </c>
+      <c r="AB401">
+        <v>1.05</v>
+      </c>
+      <c r="AC401">
+        <v>1.86</v>
+      </c>
+      <c r="AD401">
+        <v>3.44</v>
+      </c>
+      <c r="AE401">
+        <v>4.19</v>
+      </c>
+      <c r="AF401">
+        <v>1.07</v>
+      </c>
+      <c r="AG401">
+        <v>6.65</v>
+      </c>
+      <c r="AH401">
+        <v>1.52</v>
+      </c>
+      <c r="AI401">
+        <v>2.55</v>
+      </c>
+      <c r="AJ401">
+        <v>2.38</v>
+      </c>
+      <c r="AK401">
+        <v>1.47</v>
+      </c>
+      <c r="AL401">
+        <v>2.18</v>
+      </c>
+      <c r="AM401">
+        <v>1.65</v>
+      </c>
+      <c r="AN401">
+        <v>1.22</v>
+      </c>
+      <c r="AO401">
+        <v>1.32</v>
+      </c>
+      <c r="AP401">
+        <v>1.86</v>
+      </c>
+      <c r="AQ401">
+        <v>2.15</v>
+      </c>
+      <c r="AR401">
+        <v>0.86</v>
+      </c>
+      <c r="AS401">
+        <v>2.21</v>
+      </c>
+      <c r="AT401">
+        <v>0.8</v>
+      </c>
+      <c r="AU401">
+        <v>1.59</v>
+      </c>
+      <c r="AV401">
+        <v>1.24</v>
+      </c>
+      <c r="AW401">
+        <v>2.83</v>
+      </c>
+      <c r="AX401">
+        <v>1.3</v>
+      </c>
+      <c r="AY401">
+        <v>6.5</v>
+      </c>
+      <c r="AZ401">
+        <v>4</v>
+      </c>
+      <c r="BA401">
+        <v>1.3</v>
+      </c>
+      <c r="BB401">
+        <v>1.57</v>
+      </c>
+      <c r="BC401">
+        <v>2</v>
+      </c>
+      <c r="BD401">
+        <v>2.7</v>
+      </c>
+      <c r="BE401">
+        <v>3.8</v>
+      </c>
+      <c r="BF401">
+        <v>4</v>
+      </c>
+      <c r="BG401">
+        <v>2</v>
+      </c>
+      <c r="BH401">
+        <v>11</v>
+      </c>
+      <c r="BI401">
+        <v>3</v>
+      </c>
+      <c r="BJ401">
+        <v>15</v>
+      </c>
+      <c r="BK401">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:63">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>5019540</v>
+      </c>
+      <c r="C402" t="s">
+        <v>63</v>
+      </c>
+      <c r="D402" t="s">
+        <v>64</v>
+      </c>
+      <c r="E402" s="2">
+        <v>45165.70833333334</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+      <c r="G402" t="s">
+        <v>82</v>
+      </c>
+      <c r="H402" t="s">
+        <v>75</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>1</v>
+      </c>
+      <c r="L402">
+        <v>1</v>
+      </c>
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402">
+        <v>1</v>
+      </c>
+      <c r="O402" t="s">
+        <v>182</v>
+      </c>
+      <c r="P402" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q402">
+        <v>1</v>
+      </c>
+      <c r="R402">
+        <v>7</v>
+      </c>
+      <c r="S402">
+        <v>8</v>
+      </c>
+      <c r="T402">
+        <v>4.5</v>
+      </c>
+      <c r="U402">
+        <v>1.91</v>
+      </c>
+      <c r="V402">
+        <v>3.1</v>
+      </c>
+      <c r="W402">
+        <v>1.62</v>
+      </c>
+      <c r="X402">
+        <v>2.2</v>
+      </c>
+      <c r="Y402">
+        <v>4</v>
+      </c>
+      <c r="Z402">
+        <v>1.22</v>
+      </c>
+      <c r="AA402">
+        <v>13</v>
+      </c>
+      <c r="AB402">
+        <v>1.04</v>
+      </c>
+      <c r="AC402">
+        <v>3.5</v>
+      </c>
+      <c r="AD402">
+        <v>3.1</v>
+      </c>
+      <c r="AE402">
+        <v>2.25</v>
+      </c>
+      <c r="AF402">
+        <v>1.09</v>
+      </c>
+      <c r="AG402">
+        <v>6.71</v>
+      </c>
+      <c r="AH402">
+        <v>1.57</v>
+      </c>
+      <c r="AI402">
+        <v>2.41</v>
+      </c>
+      <c r="AJ402">
+        <v>2.7</v>
+      </c>
+      <c r="AK402">
+        <v>1.44</v>
+      </c>
+      <c r="AL402">
+        <v>2.25</v>
+      </c>
+      <c r="AM402">
+        <v>1.57</v>
+      </c>
+      <c r="AN402">
+        <v>1.68</v>
+      </c>
+      <c r="AO402">
+        <v>1.3</v>
+      </c>
+      <c r="AP402">
+        <v>1.3</v>
+      </c>
+      <c r="AQ402">
+        <v>1.43</v>
+      </c>
+      <c r="AR402">
+        <v>1.31</v>
+      </c>
+      <c r="AS402">
+        <v>1.53</v>
+      </c>
+      <c r="AT402">
+        <v>1.21</v>
+      </c>
+      <c r="AU402">
+        <v>1.43</v>
+      </c>
+      <c r="AV402">
+        <v>1.04</v>
+      </c>
+      <c r="AW402">
+        <v>2.47</v>
+      </c>
+      <c r="AX402">
+        <v>2.63</v>
+      </c>
+      <c r="AY402">
+        <v>9.1</v>
+      </c>
+      <c r="AZ402">
+        <v>1.66</v>
+      </c>
+      <c r="BA402">
+        <v>1.25</v>
+      </c>
+      <c r="BB402">
+        <v>1.47</v>
+      </c>
+      <c r="BC402">
+        <v>1.9</v>
+      </c>
+      <c r="BD402">
+        <v>2.45</v>
+      </c>
+      <c r="BE402">
+        <v>3.4</v>
+      </c>
+      <c r="BF402">
+        <v>4</v>
+      </c>
+      <c r="BG402">
+        <v>4</v>
+      </c>
+      <c r="BH402">
+        <v>1</v>
+      </c>
+      <c r="BI402">
+        <v>4</v>
+      </c>
+      <c r="BJ402">
+        <v>5</v>
+      </c>
+      <c r="BK402">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:63">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>4554773</v>
+      </c>
+      <c r="C403" t="s">
+        <v>63</v>
+      </c>
+      <c r="D403" t="s">
+        <v>64</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45165.79166666666</v>
+      </c>
+      <c r="F403">
+        <v>2</v>
+      </c>
+      <c r="G403" t="s">
+        <v>86</v>
+      </c>
+      <c r="H403" t="s">
+        <v>77</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>2</v>
+      </c>
+      <c r="M403">
+        <v>1</v>
+      </c>
+      <c r="N403">
+        <v>3</v>
+      </c>
+      <c r="O403" t="s">
+        <v>315</v>
+      </c>
+      <c r="P403" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q403">
+        <v>4</v>
+      </c>
+      <c r="R403">
+        <v>9</v>
+      </c>
+      <c r="S403">
+        <v>13</v>
+      </c>
+      <c r="T403">
+        <v>3.26</v>
+      </c>
+      <c r="U403">
+        <v>1.83</v>
+      </c>
+      <c r="V403">
+        <v>4.31</v>
+      </c>
+      <c r="W403">
+        <v>1.61</v>
+      </c>
+      <c r="X403">
+        <v>2.21</v>
+      </c>
+      <c r="Y403">
+        <v>3.97</v>
+      </c>
+      <c r="Z403">
+        <v>1.21</v>
+      </c>
+      <c r="AA403">
+        <v>12</v>
+      </c>
+      <c r="AB403">
+        <v>1.02</v>
+      </c>
+      <c r="AC403">
+        <v>2.38</v>
+      </c>
+      <c r="AD403">
+        <v>2.87</v>
+      </c>
+      <c r="AE403">
+        <v>3.38</v>
+      </c>
+      <c r="AF403">
+        <v>1.11</v>
+      </c>
+      <c r="AG403">
+        <v>6.28</v>
+      </c>
+      <c r="AH403">
+        <v>1.61</v>
+      </c>
+      <c r="AI403">
+        <v>2.33</v>
+      </c>
+      <c r="AJ403">
+        <v>2.82</v>
+      </c>
+      <c r="AK403">
+        <v>1.34</v>
+      </c>
+      <c r="AL403">
+        <v>2.25</v>
+      </c>
+      <c r="AM403">
+        <v>1.61</v>
+      </c>
+      <c r="AN403">
+        <v>1.34</v>
+      </c>
+      <c r="AO403">
+        <v>1.4</v>
+      </c>
+      <c r="AP403">
+        <v>1.55</v>
+      </c>
+      <c r="AQ403">
+        <v>1.14</v>
+      </c>
+      <c r="AR403">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS403">
+        <v>1.27</v>
+      </c>
+      <c r="AT403">
+        <v>0.64</v>
+      </c>
+      <c r="AU403">
+        <v>1.39</v>
+      </c>
+      <c r="AV403">
+        <v>1.11</v>
+      </c>
+      <c r="AW403">
+        <v>2.5</v>
+      </c>
+      <c r="AX403">
+        <v>1.83</v>
+      </c>
+      <c r="AY403">
+        <v>6.5</v>
+      </c>
+      <c r="AZ403">
+        <v>2.5</v>
+      </c>
+      <c r="BA403">
+        <v>1.38</v>
+      </c>
+      <c r="BB403">
+        <v>1.71</v>
+      </c>
+      <c r="BC403">
+        <v>2.25</v>
+      </c>
+      <c r="BD403">
+        <v>3.1</v>
+      </c>
+      <c r="BE403">
+        <v>4.4</v>
+      </c>
+      <c r="BF403">
+        <v>6</v>
+      </c>
+      <c r="BG403">
+        <v>5</v>
+      </c>
+      <c r="BH403">
+        <v>4</v>
+      </c>
+      <c r="BI403">
+        <v>3</v>
+      </c>
+      <c r="BJ403">
+        <v>10</v>
+      </c>
+      <c r="BK403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:63">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>4554778</v>
+      </c>
+      <c r="C404" t="s">
+        <v>63</v>
+      </c>
+      <c r="D404" t="s">
+        <v>64</v>
+      </c>
+      <c r="E404" s="2">
+        <v>45165.875</v>
+      </c>
+      <c r="F404">
+        <v>2</v>
+      </c>
+      <c r="G404" t="s">
+        <v>92</v>
+      </c>
+      <c r="H404" t="s">
+        <v>76</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>1</v>
+      </c>
+      <c r="K404">
+        <v>2</v>
+      </c>
+      <c r="L404">
+        <v>5</v>
+      </c>
+      <c r="M404">
+        <v>1</v>
+      </c>
+      <c r="N404">
+        <v>6</v>
+      </c>
+      <c r="O404" t="s">
+        <v>316</v>
+      </c>
+      <c r="P404" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q404">
+        <v>6</v>
+      </c>
+      <c r="R404">
+        <v>8</v>
+      </c>
+      <c r="S404">
+        <v>14</v>
+      </c>
+      <c r="T404">
+        <v>1.8</v>
+      </c>
+      <c r="U404">
+        <v>2.38</v>
+      </c>
+      <c r="V404">
+        <v>10</v>
+      </c>
+      <c r="W404">
+        <v>1.36</v>
+      </c>
+      <c r="X404">
+        <v>3</v>
+      </c>
+      <c r="Y404">
+        <v>2.75</v>
+      </c>
+      <c r="Z404">
+        <v>1.4</v>
+      </c>
+      <c r="AA404">
+        <v>8</v>
+      </c>
+      <c r="AB404">
+        <v>1.08</v>
+      </c>
+      <c r="AC404">
+        <v>1.3</v>
+      </c>
+      <c r="AD404">
+        <v>5.5</v>
+      </c>
+      <c r="AE404">
+        <v>9.5</v>
+      </c>
+      <c r="AF404">
+        <v>1.05</v>
+      </c>
+      <c r="AG404">
+        <v>12</v>
+      </c>
+      <c r="AH404">
+        <v>1.31</v>
+      </c>
+      <c r="AI404">
+        <v>3.48</v>
+      </c>
+      <c r="AJ404">
+        <v>1.95</v>
+      </c>
+      <c r="AK404">
+        <v>1.85</v>
+      </c>
+      <c r="AL404">
+        <v>2.63</v>
+      </c>
+      <c r="AM404">
+        <v>1.44</v>
+      </c>
+      <c r="AN404">
+        <v>1.07</v>
+      </c>
+      <c r="AO404">
+        <v>1.17</v>
+      </c>
+      <c r="AP404">
+        <v>3.4</v>
+      </c>
+      <c r="AQ404">
+        <v>2.77</v>
+      </c>
+      <c r="AR404">
+        <v>1</v>
+      </c>
+      <c r="AS404">
+        <v>2.79</v>
+      </c>
+      <c r="AT404">
+        <v>0.93</v>
+      </c>
+      <c r="AU404">
+        <v>1.8</v>
+      </c>
+      <c r="AV404">
+        <v>1.12</v>
+      </c>
+      <c r="AW404">
+        <v>2.92</v>
+      </c>
+      <c r="AX404">
+        <v>1.15</v>
+      </c>
+      <c r="AY404">
+        <v>10</v>
+      </c>
+      <c r="AZ404">
+        <v>7.5</v>
+      </c>
+      <c r="BA404">
+        <v>1.21</v>
+      </c>
+      <c r="BB404">
+        <v>1.43</v>
+      </c>
+      <c r="BC404">
+        <v>1.98</v>
+      </c>
+      <c r="BD404">
+        <v>2.21</v>
+      </c>
+      <c r="BE404">
+        <v>2.85</v>
+      </c>
+      <c r="BF404">
+        <v>7</v>
+      </c>
+      <c r="BG404">
+        <v>3</v>
+      </c>
+      <c r="BH404">
+        <v>5</v>
+      </c>
+      <c r="BI404">
+        <v>2</v>
+      </c>
+      <c r="BJ404">
+        <v>12</v>
+      </c>
+      <c r="BK404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:63">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>4554776</v>
+      </c>
+      <c r="C405" t="s">
+        <v>63</v>
+      </c>
+      <c r="D405" t="s">
+        <v>64</v>
+      </c>
+      <c r="E405" s="2">
+        <v>45166.83333333334</v>
+      </c>
+      <c r="F405">
+        <v>2</v>
+      </c>
+      <c r="G405" t="s">
+        <v>78</v>
+      </c>
+      <c r="H405" t="s">
+        <v>65</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>1</v>
+      </c>
+      <c r="L405">
+        <v>3</v>
+      </c>
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405">
+        <v>3</v>
+      </c>
+      <c r="O405" t="s">
+        <v>317</v>
+      </c>
+      <c r="P405" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q405">
+        <v>5</v>
+      </c>
+      <c r="R405">
+        <v>3</v>
+      </c>
+      <c r="S405">
+        <v>8</v>
+      </c>
+      <c r="T405">
+        <v>3.1</v>
+      </c>
+      <c r="U405">
+        <v>1.91</v>
+      </c>
+      <c r="V405">
+        <v>4.33</v>
+      </c>
+      <c r="W405">
+        <v>1.57</v>
+      </c>
+      <c r="X405">
+        <v>2.25</v>
+      </c>
+      <c r="Y405">
+        <v>3.75</v>
+      </c>
+      <c r="Z405">
+        <v>1.25</v>
+      </c>
+      <c r="AA405">
+        <v>13</v>
+      </c>
+      <c r="AB405">
+        <v>1.04</v>
+      </c>
+      <c r="AC405">
+        <v>2.25</v>
+      </c>
+      <c r="AD405">
+        <v>3.2</v>
+      </c>
+      <c r="AE405">
+        <v>3.4</v>
+      </c>
+      <c r="AF405">
+        <v>1.1</v>
+      </c>
+      <c r="AG405">
+        <v>5.75</v>
+      </c>
+      <c r="AH405">
+        <v>1.54</v>
+      </c>
+      <c r="AI405">
+        <v>2.49</v>
+      </c>
+      <c r="AJ405">
+        <v>2.5</v>
+      </c>
+      <c r="AK405">
+        <v>1.5</v>
+      </c>
+      <c r="AL405">
+        <v>2.2</v>
+      </c>
+      <c r="AM405">
+        <v>1.62</v>
+      </c>
+      <c r="AN405">
+        <v>1.33</v>
+      </c>
+      <c r="AO405">
+        <v>1.3</v>
+      </c>
+      <c r="AP405">
+        <v>1.65</v>
+      </c>
+      <c r="AQ405">
+        <v>1.43</v>
+      </c>
+      <c r="AR405">
+        <v>0.77</v>
+      </c>
+      <c r="AS405">
+        <v>1.53</v>
+      </c>
+      <c r="AT405">
+        <v>0.71</v>
+      </c>
+      <c r="AU405">
+        <v>1.47</v>
+      </c>
+      <c r="AV405">
+        <v>1.24</v>
+      </c>
+      <c r="AW405">
+        <v>2.71</v>
+      </c>
+      <c r="AX405">
+        <v>1.66</v>
+      </c>
+      <c r="AY405">
+        <v>9</v>
+      </c>
+      <c r="AZ405">
+        <v>2.63</v>
+      </c>
+      <c r="BA405">
+        <v>1.29</v>
+      </c>
+      <c r="BB405">
+        <v>1.53</v>
+      </c>
+      <c r="BC405">
+        <v>1.9</v>
+      </c>
+      <c r="BD405">
+        <v>2.52</v>
+      </c>
+      <c r="BE405">
+        <v>3.4</v>
+      </c>
+      <c r="BF405">
+        <v>5</v>
+      </c>
+      <c r="BG405">
+        <v>5</v>
+      </c>
+      <c r="BH405">
+        <v>7</v>
+      </c>
+      <c r="BI405">
+        <v>4</v>
+      </c>
+      <c r="BJ405">
+        <v>12</v>
+      </c>
+      <c r="BK405">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:63">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>5019539</v>
+      </c>
+      <c r="C406" t="s">
+        <v>63</v>
+      </c>
+      <c r="D406" t="s">
+        <v>64</v>
+      </c>
+      <c r="E406" s="2">
+        <v>45166.89583333334</v>
+      </c>
+      <c r="F406">
+        <v>2</v>
+      </c>
+      <c r="G406" t="s">
+        <v>88</v>
+      </c>
+      <c r="H406" t="s">
+        <v>72</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+      <c r="O406" t="s">
+        <v>96</v>
+      </c>
+      <c r="P406" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q406">
+        <v>6</v>
+      </c>
+      <c r="R406">
+        <v>5</v>
+      </c>
+      <c r="S406">
+        <v>11</v>
+      </c>
+      <c r="T406">
+        <v>2.88</v>
+      </c>
+      <c r="U406">
+        <v>1.95</v>
+      </c>
+      <c r="V406">
+        <v>4.75</v>
+      </c>
+      <c r="W406">
+        <v>1.57</v>
+      </c>
+      <c r="X406">
+        <v>2.25</v>
+      </c>
+      <c r="Y406">
+        <v>3.75</v>
+      </c>
+      <c r="Z406">
+        <v>1.25</v>
+      </c>
+      <c r="AA406">
+        <v>11</v>
+      </c>
+      <c r="AB406">
+        <v>1.05</v>
+      </c>
+      <c r="AC406">
+        <v>2.05</v>
+      </c>
+      <c r="AD406">
+        <v>3.2</v>
+      </c>
+      <c r="AE406">
+        <v>3.8</v>
+      </c>
+      <c r="AF406">
+        <v>1.08</v>
+      </c>
+      <c r="AG406">
+        <v>7.15</v>
+      </c>
+      <c r="AH406">
+        <v>1.5</v>
+      </c>
+      <c r="AI406">
+        <v>2.45</v>
+      </c>
+      <c r="AJ406">
+        <v>2.5</v>
+      </c>
+      <c r="AK406">
+        <v>1.5</v>
+      </c>
+      <c r="AL406">
+        <v>2.2</v>
+      </c>
+      <c r="AM406">
+        <v>1.62</v>
+      </c>
+      <c r="AN406">
+        <v>1.28</v>
+      </c>
+      <c r="AO406">
+        <v>1.3</v>
+      </c>
+      <c r="AP406">
+        <v>1.75</v>
+      </c>
+      <c r="AQ406">
+        <v>1.69</v>
+      </c>
+      <c r="AR406">
+        <v>1</v>
+      </c>
+      <c r="AS406">
+        <v>1.64</v>
+      </c>
+      <c r="AT406">
+        <v>1</v>
+      </c>
+      <c r="AU406">
+        <v>1.42</v>
+      </c>
+      <c r="AV406">
+        <v>1.2</v>
+      </c>
+      <c r="AW406">
+        <v>2.62</v>
+      </c>
+      <c r="AX406">
+        <v>1.7</v>
+      </c>
+      <c r="AY406">
+        <v>8.6</v>
+      </c>
+      <c r="AZ406">
+        <v>2.57</v>
+      </c>
+      <c r="BA406">
+        <v>1.36</v>
+      </c>
+      <c r="BB406">
+        <v>1.67</v>
+      </c>
+      <c r="BC406">
+        <v>2</v>
+      </c>
+      <c r="BD406">
+        <v>2.9</v>
+      </c>
+      <c r="BE406">
+        <v>4.2</v>
+      </c>
+      <c r="BF406">
+        <v>4</v>
+      </c>
+      <c r="BG406">
+        <v>3</v>
+      </c>
+      <c r="BH406">
+        <v>6</v>
+      </c>
+      <c r="BI406">
+        <v>4</v>
+      </c>
+      <c r="BJ406">
+        <v>10</v>
+      </c>
+      <c r="BK406">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="436">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -979,6 +979,18 @@
     <t>['22', '60']</t>
   </si>
   <si>
+    <t>['34', '37']</t>
+  </si>
+  <si>
+    <t>['34', '39']</t>
+  </si>
+  <si>
+    <t>['36', '50']</t>
+  </si>
+  <si>
+    <t>['8', '55']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1307,6 +1319,9 @@
   </si>
   <si>
     <t>['45', '90+5']</t>
+  </si>
+  <si>
+    <t>['64', '65']</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK413"/>
+  <dimension ref="A1:BK420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1999,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT2">
         <v>1.07</v>
@@ -2103,7 +2118,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2384,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2676,7 +2691,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2766,7 +2781,7 @@
         <v>1.73</v>
       </c>
       <c r="AT6">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2867,7 +2882,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3058,7 +3073,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3336,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
         <v>0.93</v>
@@ -3440,7 +3455,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3718,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3909,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT12">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4100,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT13">
         <v>0.93</v>
@@ -4204,7 +4219,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4586,7 +4601,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -5058,7 +5073,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5159,7 +5174,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5350,7 +5365,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5631,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5819,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT22">
         <v>1.13</v>
@@ -5923,7 +5938,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6201,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT24">
         <v>0.8</v>
@@ -6496,7 +6511,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6586,7 +6601,7 @@
         <v>1.64</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6687,7 +6702,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6774,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6878,7 +6893,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7069,7 +7084,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7159,7 +7174,7 @@
         <v>1.47</v>
       </c>
       <c r="AT29">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7260,7 +7275,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -8024,7 +8039,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8114,7 +8129,7 @@
         <v>1.53</v>
       </c>
       <c r="AT34">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU34">
         <v>1.36</v>
@@ -8215,7 +8230,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8684,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -9257,7 +9272,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT40">
         <v>0.6</v>
@@ -9361,7 +9376,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9448,10 +9463,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT41">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9639,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
         <v>1.07</v>
@@ -9743,7 +9758,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -10125,7 +10140,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10698,7 +10713,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10976,7 +10991,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -11170,7 +11185,7 @@
         <v>2.21</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU50">
         <v>1.84</v>
@@ -11361,7 +11376,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU51">
         <v>0.67</v>
@@ -11549,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT52">
         <v>0.8</v>
@@ -11740,7 +11755,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT53">
         <v>0.8</v>
@@ -11844,7 +11859,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12316,7 +12331,7 @@
         <v>1.53</v>
       </c>
       <c r="AT56">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -12417,7 +12432,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12608,7 +12623,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12698,7 +12713,7 @@
         <v>1.73</v>
       </c>
       <c r="AT58">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU58">
         <v>0.67</v>
@@ -12886,7 +12901,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT59">
         <v>0.93</v>
@@ -13372,7 +13387,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13462,7 +13477,7 @@
         <v>1.53</v>
       </c>
       <c r="AT62">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU62">
         <v>1.14</v>
@@ -13563,7 +13578,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13844,7 +13859,7 @@
         <v>1.8</v>
       </c>
       <c r="AT64">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU64">
         <v>1.26</v>
@@ -14136,7 +14151,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14226,7 +14241,7 @@
         <v>2.79</v>
       </c>
       <c r="AT66">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU66">
         <v>1.25</v>
@@ -14518,7 +14533,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14605,7 +14620,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
         <v>0.8</v>
@@ -14796,7 +14811,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT69">
         <v>0.67</v>
@@ -14987,7 +15002,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT70">
         <v>1.07</v>
@@ -15369,10 +15384,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT72">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU72">
         <v>1.44</v>
@@ -15473,7 +15488,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -16046,7 +16061,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16327,7 +16342,7 @@
         <v>1.64</v>
       </c>
       <c r="AT77">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU77">
         <v>1.19</v>
@@ -16810,7 +16825,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16900,7 +16915,7 @@
         <v>1.47</v>
       </c>
       <c r="AT80">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU80">
         <v>1.91</v>
@@ -17192,7 +17207,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17574,7 +17589,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17852,7 +17867,7 @@
         <v>3</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT85">
         <v>1.36</v>
@@ -17956,7 +17971,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18043,7 +18058,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -18234,10 +18249,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT87">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18425,10 +18440,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18720,7 +18735,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18810,7 +18825,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -19001,7 +19016,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -19380,7 +19395,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT93">
         <v>0.93</v>
@@ -19675,7 +19690,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20144,7 +20159,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT97">
         <v>1.07</v>
@@ -20248,7 +20263,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20630,7 +20645,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20717,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT100">
         <v>1.13</v>
@@ -20911,7 +20926,7 @@
         <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU101">
         <v>1.12</v>
@@ -21012,7 +21027,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21394,7 +21409,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21776,7 +21791,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21866,7 +21881,7 @@
         <v>1.33</v>
       </c>
       <c r="AT106">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21967,7 +21982,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22054,7 +22069,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -22248,7 +22263,7 @@
         <v>1.87</v>
       </c>
       <c r="AT108">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU108">
         <v>1.46</v>
@@ -22349,7 +22364,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22630,7 +22645,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -22922,7 +22937,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23582,7 +23597,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT115">
         <v>0.93</v>
@@ -23773,7 +23788,7 @@
         <v>0.25</v>
       </c>
       <c r="AS116">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT116">
         <v>0.67</v>
@@ -24259,7 +24274,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24346,7 +24361,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
         <v>1.21</v>
@@ -24641,7 +24656,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24728,7 +24743,7 @@
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT121">
         <v>0.6</v>
@@ -25023,7 +25038,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25110,10 +25125,10 @@
         <v>2.33</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -25304,7 +25319,7 @@
         <v>1.27</v>
       </c>
       <c r="AT124">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU124">
         <v>1.76</v>
@@ -25405,7 +25420,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25877,7 +25892,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU127">
         <v>1.29</v>
@@ -26259,7 +26274,7 @@
         <v>2</v>
       </c>
       <c r="AT129">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU129">
         <v>1.27</v>
@@ -26360,7 +26375,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26450,7 +26465,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU130">
         <v>1.37</v>
@@ -26933,7 +26948,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27124,7 +27139,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27211,7 +27226,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -27315,7 +27330,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27405,7 +27420,7 @@
         <v>1.64</v>
       </c>
       <c r="AT135">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU135">
         <v>1.38</v>
@@ -27506,7 +27521,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27697,7 +27712,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27787,7 +27802,7 @@
         <v>1.27</v>
       </c>
       <c r="AT137">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27888,7 +27903,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27978,7 +27993,7 @@
         <v>2.21</v>
       </c>
       <c r="AT138">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU138">
         <v>1.49</v>
@@ -28270,7 +28285,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28461,7 +28476,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28548,7 +28563,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT141">
         <v>0.8</v>
@@ -28739,7 +28754,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT142">
         <v>0.8</v>
@@ -28843,7 +28858,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28930,7 +28945,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT143">
         <v>1.07</v>
@@ -29121,7 +29136,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT144">
         <v>0.64</v>
@@ -29225,7 +29240,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -30076,7 +30091,7 @@
         <v>0.4</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT149">
         <v>0.8</v>
@@ -30270,7 +30285,7 @@
         <v>1.73</v>
       </c>
       <c r="AT150">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU150">
         <v>1.74</v>
@@ -30458,7 +30473,7 @@
         <v>1.4</v>
       </c>
       <c r="AS151">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT151">
         <v>1</v>
@@ -30562,7 +30577,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30753,7 +30768,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30843,7 +30858,7 @@
         <v>1.27</v>
       </c>
       <c r="AT153">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU153">
         <v>1.75</v>
@@ -31604,10 +31619,10 @@
         <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT157">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31899,7 +31914,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32177,10 +32192,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT160">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU160">
         <v>1.48</v>
@@ -32944,7 +32959,7 @@
         <v>1.87</v>
       </c>
       <c r="AT164">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU164">
         <v>1.53</v>
@@ -33517,7 +33532,7 @@
         <v>1.53</v>
       </c>
       <c r="AT167">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU167">
         <v>1.79</v>
@@ -33618,7 +33633,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33809,7 +33824,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -34000,7 +34015,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34382,7 +34397,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34764,7 +34779,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35146,7 +35161,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35233,7 +35248,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT176">
         <v>1.21</v>
@@ -35424,10 +35439,10 @@
         <v>0.8</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT177">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35618,7 +35633,7 @@
         <v>1.73</v>
       </c>
       <c r="AT178">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU178">
         <v>1.61</v>
@@ -35910,7 +35925,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35997,7 +36012,7 @@
         <v>2</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT180">
         <v>1.36</v>
@@ -36101,7 +36116,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36188,10 +36203,10 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT181">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU181">
         <v>1.71</v>
@@ -36292,7 +36307,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36379,7 +36394,7 @@
         <v>0.17</v>
       </c>
       <c r="AS182">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT182">
         <v>0.67</v>
@@ -36674,7 +36689,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36764,7 +36779,7 @@
         <v>1.53</v>
       </c>
       <c r="AT184">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU184">
         <v>1.54</v>
@@ -37337,7 +37352,7 @@
         <v>1.47</v>
       </c>
       <c r="AT187">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU187">
         <v>1.32</v>
@@ -37719,7 +37734,7 @@
         <v>1.5</v>
       </c>
       <c r="AT189">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU189">
         <v>1.28</v>
@@ -37910,7 +37925,7 @@
         <v>1.33</v>
       </c>
       <c r="AT190">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -38202,7 +38217,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38289,7 +38304,7 @@
         <v>0.83</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT192">
         <v>0.8</v>
@@ -38480,7 +38495,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT193">
         <v>1.13</v>
@@ -39244,7 +39259,7 @@
         <v>1.17</v>
       </c>
       <c r="AS197">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT197">
         <v>1</v>
@@ -39820,7 +39835,7 @@
         <v>1.27</v>
       </c>
       <c r="AT200">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU200">
         <v>1.64</v>
@@ -40011,7 +40026,7 @@
         <v>1.73</v>
       </c>
       <c r="AT201">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU201">
         <v>1.17</v>
@@ -40112,7 +40127,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40199,7 +40214,7 @@
         <v>1</v>
       </c>
       <c r="AS202">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT202">
         <v>1</v>
@@ -40390,7 +40405,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT203">
         <v>0.8</v>
@@ -40876,7 +40891,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41449,7 +41464,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41536,10 +41551,10 @@
         <v>1.83</v>
       </c>
       <c r="AS209">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT209">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU209">
         <v>1.72</v>
@@ -42022,7 +42037,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42213,7 +42228,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42303,7 +42318,7 @@
         <v>1.27</v>
       </c>
       <c r="AT213">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU213">
         <v>1.42</v>
@@ -42404,7 +42419,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42494,7 +42509,7 @@
         <v>1.53</v>
       </c>
       <c r="AT214">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -42685,7 +42700,7 @@
         <v>2</v>
       </c>
       <c r="AT215">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU215">
         <v>1.1</v>
@@ -42873,7 +42888,7 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT216">
         <v>0.8</v>
@@ -43067,7 +43082,7 @@
         <v>1.8</v>
       </c>
       <c r="AT217">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU217">
         <v>1.48</v>
@@ -43446,7 +43461,7 @@
         <v>1.63</v>
       </c>
       <c r="AS219">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -43550,7 +43565,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43741,7 +43756,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43828,7 +43843,7 @@
         <v>1.13</v>
       </c>
       <c r="AS221">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT221">
         <v>0.93</v>
@@ -43932,7 +43947,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44019,7 +44034,7 @@
         <v>1.14</v>
       </c>
       <c r="AS222">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT222">
         <v>0.8</v>
@@ -44974,7 +44989,7 @@
         <v>2</v>
       </c>
       <c r="AS227">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT227">
         <v>1.36</v>
@@ -45168,7 +45183,7 @@
         <v>1.73</v>
       </c>
       <c r="AT228">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU228">
         <v>1.56</v>
@@ -45547,7 +45562,7 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT230">
         <v>1.21</v>
@@ -46123,7 +46138,7 @@
         <v>1.29</v>
       </c>
       <c r="AT233">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU233">
         <v>1.58</v>
@@ -46314,7 +46329,7 @@
         <v>1.73</v>
       </c>
       <c r="AT234">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU234">
         <v>1.19</v>
@@ -47078,7 +47093,7 @@
         <v>1.64</v>
       </c>
       <c r="AT238">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU238">
         <v>1.43</v>
@@ -47839,10 +47854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS242">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT242">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU242">
         <v>1.12</v>
@@ -48412,10 +48427,10 @@
         <v>1.11</v>
       </c>
       <c r="AS245">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT245">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU245">
         <v>1.67</v>
@@ -48707,7 +48722,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -49367,10 +49382,10 @@
         <v>1.75</v>
       </c>
       <c r="AS250">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT250">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU250">
         <v>1.55</v>
@@ -49471,7 +49486,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -50044,7 +50059,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50322,7 +50337,7 @@
         <v>0.88</v>
       </c>
       <c r="AS255">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT255">
         <v>0.8</v>
@@ -50426,7 +50441,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50516,7 +50531,7 @@
         <v>1.29</v>
       </c>
       <c r="AT256">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU256">
         <v>1.66</v>
@@ -50808,7 +50823,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -50895,7 +50910,7 @@
         <v>0.88</v>
       </c>
       <c r="AS258">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT258">
         <v>1</v>
@@ -51277,10 +51292,10 @@
         <v>0.63</v>
       </c>
       <c r="AS260">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT260">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU260">
         <v>1.77</v>
@@ -51468,7 +51483,7 @@
         <v>0.78</v>
       </c>
       <c r="AS261">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT261">
         <v>0.67</v>
@@ -52044,7 +52059,7 @@
         <v>2</v>
       </c>
       <c r="AT264">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU264">
         <v>1.31</v>
@@ -52232,7 +52247,7 @@
         <v>0.78</v>
       </c>
       <c r="AS265">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT265">
         <v>0.71</v>
@@ -52617,7 +52632,7 @@
         <v>1.53</v>
       </c>
       <c r="AT267">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU267">
         <v>1.48</v>
@@ -52805,7 +52820,7 @@
         <v>1.11</v>
       </c>
       <c r="AS268">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT268">
         <v>1.07</v>
@@ -52999,7 +53014,7 @@
         <v>1.87</v>
       </c>
       <c r="AT269">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU269">
         <v>1.51</v>
@@ -53482,7 +53497,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53864,7 +53879,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53951,7 +53966,7 @@
         <v>0.89</v>
       </c>
       <c r="AS274">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT274">
         <v>1.13</v>
@@ -54145,7 +54160,7 @@
         <v>1.27</v>
       </c>
       <c r="AT275">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU275">
         <v>1.6</v>
@@ -54628,7 +54643,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54906,7 +54921,7 @@
         <v>1.1</v>
       </c>
       <c r="AS279">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT279">
         <v>1.07</v>
@@ -55097,7 +55112,7 @@
         <v>0.63</v>
       </c>
       <c r="AS280">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT280">
         <v>0.64</v>
@@ -55482,7 +55497,7 @@
         <v>1.73</v>
       </c>
       <c r="AT282">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU282">
         <v>1.52</v>
@@ -55774,7 +55789,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -56052,7 +56067,7 @@
         <v>0.78</v>
       </c>
       <c r="AS285">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT285">
         <v>0.93</v>
@@ -56156,7 +56171,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56816,7 +56831,7 @@
         <v>1.56</v>
       </c>
       <c r="AS289">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT289">
         <v>1.36</v>
@@ -57007,7 +57022,7 @@
         <v>0.8</v>
       </c>
       <c r="AS290">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT290">
         <v>1</v>
@@ -57111,7 +57126,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57201,7 +57216,7 @@
         <v>2</v>
       </c>
       <c r="AT291">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU291">
         <v>1.43</v>
@@ -57302,7 +57317,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57493,7 +57508,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57580,7 +57595,7 @@
         <v>0.89</v>
       </c>
       <c r="AS293">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT293">
         <v>0.8</v>
@@ -57774,7 +57789,7 @@
         <v>1.53</v>
       </c>
       <c r="AT294">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU294">
         <v>1.58</v>
@@ -57965,7 +57980,7 @@
         <v>1.73</v>
       </c>
       <c r="AT295">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU295">
         <v>1.25</v>
@@ -58066,7 +58081,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58538,7 +58553,7 @@
         <v>1.5</v>
       </c>
       <c r="AT298">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU298">
         <v>1.29</v>
@@ -58639,7 +58654,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58726,7 +58741,7 @@
         <v>2.09</v>
       </c>
       <c r="AS299">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT299">
         <v>1.56</v>
@@ -59212,7 +59227,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59594,7 +59609,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59872,7 +59887,7 @@
         <v>1.18</v>
       </c>
       <c r="AS305">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT305">
         <v>1</v>
@@ -60257,7 +60272,7 @@
         <v>1.8</v>
       </c>
       <c r="AT307">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU307">
         <v>1.49</v>
@@ -60445,7 +60460,7 @@
         <v>1.18</v>
       </c>
       <c r="AS308">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT308">
         <v>0.93</v>
@@ -60549,7 +60564,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -61212,7 +61227,7 @@
         <v>1.29</v>
       </c>
       <c r="AT312">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU312">
         <v>1.69</v>
@@ -61400,10 +61415,10 @@
         <v>1.5</v>
       </c>
       <c r="AS313">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT313">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU313">
         <v>1.67</v>
@@ -61591,10 +61606,10 @@
         <v>1.3</v>
       </c>
       <c r="AS314">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT314">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU314">
         <v>1.64</v>
@@ -61886,7 +61901,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62164,7 +62179,7 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT317">
         <v>1.21</v>
@@ -62358,7 +62373,7 @@
         <v>1.53</v>
       </c>
       <c r="AT318">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU318">
         <v>1.59</v>
@@ -62546,7 +62561,7 @@
         <v>0.7</v>
       </c>
       <c r="AS319">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT319">
         <v>1</v>
@@ -62740,7 +62755,7 @@
         <v>1.47</v>
       </c>
       <c r="AT320">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU320">
         <v>1.49</v>
@@ -62841,7 +62856,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -63883,10 +63898,10 @@
         <v>0.83</v>
       </c>
       <c r="AS326">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT326">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU326">
         <v>1.53</v>
@@ -64459,7 +64474,7 @@
         <v>1.53</v>
       </c>
       <c r="AT329">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU329">
         <v>1.5</v>
@@ -64560,7 +64575,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -64838,7 +64853,7 @@
         <v>1</v>
       </c>
       <c r="AS331">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT331">
         <v>1.07</v>
@@ -65220,7 +65235,7 @@
         <v>0.5</v>
       </c>
       <c r="AS333">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT333">
         <v>0.6</v>
@@ -65602,7 +65617,7 @@
         <v>1.09</v>
       </c>
       <c r="AS335">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT335">
         <v>0.8</v>
@@ -65706,7 +65721,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -66088,7 +66103,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -66279,7 +66294,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q339">
         <v>5</v>
@@ -66560,7 +66575,7 @@
         <v>1.47</v>
       </c>
       <c r="AT340">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU340">
         <v>1.56</v>
@@ -66748,7 +66763,7 @@
         <v>0.91</v>
       </c>
       <c r="AS341">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT341">
         <v>0.8</v>
@@ -66939,7 +66954,7 @@
         <v>0.73</v>
       </c>
       <c r="AS342">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT342">
         <v>0.71</v>
@@ -67043,7 +67058,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67133,7 +67148,7 @@
         <v>2.79</v>
       </c>
       <c r="AT343">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU343">
         <v>1.83</v>
@@ -67234,7 +67249,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67324,7 +67339,7 @@
         <v>1.73</v>
       </c>
       <c r="AT344">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU344">
         <v>1.24</v>
@@ -67425,7 +67440,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67616,7 +67631,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -67706,7 +67721,7 @@
         <v>2</v>
       </c>
       <c r="AT346">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU346">
         <v>1.46</v>
@@ -67894,7 +67909,7 @@
         <v>0.82</v>
       </c>
       <c r="AS347">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT347">
         <v>0.8</v>
@@ -68189,7 +68204,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68661,7 +68676,7 @@
         <v>2</v>
       </c>
       <c r="AT351">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU351">
         <v>1.19</v>
@@ -68762,7 +68777,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69144,7 +69159,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69717,7 +69732,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69804,7 +69819,7 @@
         <v>1.85</v>
       </c>
       <c r="AS357">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT357">
         <v>1.56</v>
@@ -69908,7 +69923,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70568,7 +70583,7 @@
         <v>1</v>
       </c>
       <c r="AS361">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT361">
         <v>0.8</v>
@@ -70759,7 +70774,7 @@
         <v>0.85</v>
       </c>
       <c r="AS362">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT362">
         <v>0.8</v>
@@ -70950,10 +70965,10 @@
         <v>0.38</v>
       </c>
       <c r="AS363">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT363">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AU363">
         <v>1.13</v>
@@ -71054,7 +71069,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71144,7 +71159,7 @@
         <v>1.27</v>
       </c>
       <c r="AT364">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU364">
         <v>1.49</v>
@@ -71332,7 +71347,7 @@
         <v>1.23</v>
       </c>
       <c r="AS365">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT365">
         <v>1.07</v>
@@ -71523,7 +71538,7 @@
         <v>1.5</v>
       </c>
       <c r="AS366">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT366">
         <v>1.36</v>
@@ -71627,7 +71642,7 @@
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -71714,10 +71729,10 @@
         <v>1.33</v>
       </c>
       <c r="AS367">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT367">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU367">
         <v>1.85</v>
@@ -72099,7 +72114,7 @@
         <v>2</v>
       </c>
       <c r="AT369">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU369">
         <v>1.22</v>
@@ -72391,7 +72406,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72481,7 +72496,7 @@
         <v>1.33</v>
       </c>
       <c r="AT371">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU371">
         <v>1.47</v>
@@ -72672,7 +72687,7 @@
         <v>1.53</v>
       </c>
       <c r="AT372">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU372">
         <v>1.5</v>
@@ -72773,7 +72788,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -73054,7 +73069,7 @@
         <v>1.29</v>
       </c>
       <c r="AT374">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU374">
         <v>1.73</v>
@@ -73919,7 +73934,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -74200,7 +74215,7 @@
         <v>1.73</v>
       </c>
       <c r="AT380">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU380">
         <v>1.34</v>
@@ -74388,7 +74403,7 @@
         <v>1</v>
       </c>
       <c r="AS381">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT381">
         <v>1.13</v>
@@ -74579,7 +74594,7 @@
         <v>0.92</v>
       </c>
       <c r="AS382">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT382">
         <v>0.8</v>
@@ -74874,7 +74889,7 @@
         <v>96</v>
       </c>
       <c r="P384" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q384">
         <v>4</v>
@@ -74964,7 +74979,7 @@
         <v>1.33</v>
       </c>
       <c r="AT384">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AU384">
         <v>1.57</v>
@@ -75537,7 +75552,7 @@
         <v>1.53</v>
       </c>
       <c r="AT387">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU387">
         <v>1.48</v>
@@ -75725,10 +75740,10 @@
         <v>1.07</v>
       </c>
       <c r="AS388">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT388">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU388">
         <v>1.63</v>
@@ -75919,7 +75934,7 @@
         <v>2</v>
       </c>
       <c r="AT389">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU389">
         <v>1.47</v>
@@ -76020,7 +76035,7 @@
         <v>307</v>
       </c>
       <c r="P390" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q390">
         <v>9</v>
@@ -76107,7 +76122,7 @@
         <v>1.79</v>
       </c>
       <c r="AS390">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT390">
         <v>1.56</v>
@@ -76301,7 +76316,7 @@
         <v>1.47</v>
       </c>
       <c r="AT391">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU391">
         <v>1.48</v>
@@ -76593,7 +76608,7 @@
         <v>310</v>
       </c>
       <c r="P393" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q393">
         <v>2</v>
@@ -76975,7 +76990,7 @@
         <v>312</v>
       </c>
       <c r="P395" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q395">
         <v>7</v>
@@ -77166,7 +77181,7 @@
         <v>200</v>
       </c>
       <c r="P396" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q396">
         <v>0</v>
@@ -77739,7 +77754,7 @@
         <v>265</v>
       </c>
       <c r="P399" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q399">
         <v>9</v>
@@ -78503,7 +78518,7 @@
         <v>315</v>
       </c>
       <c r="P403" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q403">
         <v>4</v>
@@ -79267,7 +79282,7 @@
         <v>318</v>
       </c>
       <c r="P407" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q407">
         <v>4</v>
@@ -79458,16 +79473,16 @@
         <v>124</v>
       </c>
       <c r="P408" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q408">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R408">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S408">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T408">
         <v>3.4</v>
@@ -79584,22 +79599,22 @@
         <v>2.6</v>
       </c>
       <c r="BF408">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG408">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH408">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI408">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ408">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK408">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="409" spans="1:63">
@@ -79649,7 +79664,7 @@
         <v>319</v>
       </c>
       <c r="P409" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q409">
         <v>4</v>
@@ -80416,13 +80431,13 @@
         <v>255</v>
       </c>
       <c r="Q413">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R413">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S413">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T413">
         <v>2.4</v>
@@ -80539,22 +80554,1359 @@
         <v>2</v>
       </c>
       <c r="BF413">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG413">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH413">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI413">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ413">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK413">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:63">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>5019541</v>
+      </c>
+      <c r="C414" t="s">
+        <v>63</v>
+      </c>
+      <c r="D414" t="s">
+        <v>64</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45172.58333333334</v>
+      </c>
+      <c r="F414">
+        <v>3</v>
+      </c>
+      <c r="G414" t="s">
+        <v>72</v>
+      </c>
+      <c r="H414" t="s">
+        <v>78</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>1</v>
+      </c>
+      <c r="N414">
+        <v>1</v>
+      </c>
+      <c r="O414" t="s">
+        <v>96</v>
+      </c>
+      <c r="P414" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q414">
+        <v>10</v>
+      </c>
+      <c r="R414">
+        <v>3</v>
+      </c>
+      <c r="S414">
+        <v>13</v>
+      </c>
+      <c r="T414">
+        <v>3.25</v>
+      </c>
+      <c r="U414">
+        <v>1.83</v>
+      </c>
+      <c r="V414">
+        <v>4.33</v>
+      </c>
+      <c r="W414">
+        <v>1.62</v>
+      </c>
+      <c r="X414">
+        <v>2.2</v>
+      </c>
+      <c r="Y414">
+        <v>4</v>
+      </c>
+      <c r="Z414">
+        <v>1.22</v>
+      </c>
+      <c r="AA414">
+        <v>13</v>
+      </c>
+      <c r="AB414">
+        <v>1.04</v>
+      </c>
+      <c r="AC414">
+        <v>2.34</v>
+      </c>
+      <c r="AD414">
+        <v>2.87</v>
+      </c>
+      <c r="AE414">
+        <v>3.48</v>
+      </c>
+      <c r="AF414">
+        <v>1.12</v>
+      </c>
+      <c r="AG414">
+        <v>6.75</v>
+      </c>
+      <c r="AH414">
+        <v>1.58</v>
+      </c>
+      <c r="AI414">
+        <v>2.39</v>
+      </c>
+      <c r="AJ414">
+        <v>2.88</v>
+      </c>
+      <c r="AK414">
+        <v>1.4</v>
+      </c>
+      <c r="AL414">
+        <v>2.2</v>
+      </c>
+      <c r="AM414">
+        <v>1.62</v>
+      </c>
+      <c r="AN414">
+        <v>1.3</v>
+      </c>
+      <c r="AO414">
+        <v>1.36</v>
+      </c>
+      <c r="AP414">
+        <v>1.61</v>
+      </c>
+      <c r="AQ414">
+        <v>1.5</v>
+      </c>
+      <c r="AR414">
+        <v>0.71</v>
+      </c>
+      <c r="AS414">
+        <v>1.4</v>
+      </c>
+      <c r="AT414">
+        <v>0.87</v>
+      </c>
+      <c r="AU414">
+        <v>1.53</v>
+      </c>
+      <c r="AV414">
+        <v>1.18</v>
+      </c>
+      <c r="AW414">
+        <v>2.71</v>
+      </c>
+      <c r="AX414">
+        <v>1.59</v>
+      </c>
+      <c r="AY414">
+        <v>8</v>
+      </c>
+      <c r="AZ414">
+        <v>2.8</v>
+      </c>
+      <c r="BA414">
+        <v>1.38</v>
+      </c>
+      <c r="BB414">
+        <v>1.7</v>
+      </c>
+      <c r="BC414">
+        <v>2.2</v>
+      </c>
+      <c r="BD414">
+        <v>3.1</v>
+      </c>
+      <c r="BE414">
+        <v>4.4</v>
+      </c>
+      <c r="BF414">
+        <v>8</v>
+      </c>
+      <c r="BG414">
+        <v>5</v>
+      </c>
+      <c r="BH414">
+        <v>6</v>
+      </c>
+      <c r="BI414">
+        <v>1</v>
+      </c>
+      <c r="BJ414">
+        <v>14</v>
+      </c>
+      <c r="BK414">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:63">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>4554788</v>
+      </c>
+      <c r="C415" t="s">
+        <v>63</v>
+      </c>
+      <c r="D415" t="s">
+        <v>64</v>
+      </c>
+      <c r="E415" s="2">
+        <v>45172.67708333334</v>
+      </c>
+      <c r="F415">
+        <v>3</v>
+      </c>
+      <c r="G415" t="s">
+        <v>65</v>
+      </c>
+      <c r="H415" t="s">
+        <v>68</v>
+      </c>
+      <c r="I415">
+        <v>2</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>2</v>
+      </c>
+      <c r="L415">
+        <v>2</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>2</v>
+      </c>
+      <c r="O415" t="s">
+        <v>321</v>
+      </c>
+      <c r="P415" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q415">
+        <v>8</v>
+      </c>
+      <c r="R415">
+        <v>2</v>
+      </c>
+      <c r="S415">
+        <v>10</v>
+      </c>
+      <c r="T415">
+        <v>3.4</v>
+      </c>
+      <c r="U415">
+        <v>2.05</v>
+      </c>
+      <c r="V415">
+        <v>3.5</v>
+      </c>
+      <c r="W415">
+        <v>1.5</v>
+      </c>
+      <c r="X415">
+        <v>2.5</v>
+      </c>
+      <c r="Y415">
+        <v>3.4</v>
+      </c>
+      <c r="Z415">
+        <v>1.3</v>
+      </c>
+      <c r="AA415">
+        <v>10</v>
+      </c>
+      <c r="AB415">
+        <v>1.06</v>
+      </c>
+      <c r="AC415">
+        <v>2.55</v>
+      </c>
+      <c r="AD415">
+        <v>3.2</v>
+      </c>
+      <c r="AE415">
+        <v>2.79</v>
+      </c>
+      <c r="AF415">
+        <v>1.07</v>
+      </c>
+      <c r="AG415">
+        <v>7</v>
+      </c>
+      <c r="AH415">
+        <v>1.38</v>
+      </c>
+      <c r="AI415">
+        <v>2.8</v>
+      </c>
+      <c r="AJ415">
+        <v>2.2</v>
+      </c>
+      <c r="AK415">
+        <v>1.65</v>
+      </c>
+      <c r="AL415">
+        <v>1.83</v>
+      </c>
+      <c r="AM415">
+        <v>1.83</v>
+      </c>
+      <c r="AN415">
+        <v>1.44</v>
+      </c>
+      <c r="AO415">
+        <v>1.35</v>
+      </c>
+      <c r="AP415">
+        <v>1.5</v>
+      </c>
+      <c r="AQ415">
+        <v>2.2</v>
+      </c>
+      <c r="AR415">
+        <v>2</v>
+      </c>
+      <c r="AS415">
+        <v>2.25</v>
+      </c>
+      <c r="AT415">
+        <v>1.87</v>
+      </c>
+      <c r="AU415">
+        <v>1.62</v>
+      </c>
+      <c r="AV415">
+        <v>1.31</v>
+      </c>
+      <c r="AW415">
+        <v>2.93</v>
+      </c>
+      <c r="AX415">
+        <v>1.91</v>
+      </c>
+      <c r="AY415">
+        <v>8</v>
+      </c>
+      <c r="AZ415">
+        <v>2.2</v>
+      </c>
+      <c r="BA415">
+        <v>1.2</v>
+      </c>
+      <c r="BB415">
+        <v>1.33</v>
+      </c>
+      <c r="BC415">
+        <v>1.6</v>
+      </c>
+      <c r="BD415">
+        <v>2</v>
+      </c>
+      <c r="BE415">
+        <v>2.7</v>
+      </c>
+      <c r="BF415">
+        <v>10</v>
+      </c>
+      <c r="BG415">
+        <v>8</v>
+      </c>
+      <c r="BH415">
+        <v>4</v>
+      </c>
+      <c r="BI415">
+        <v>7</v>
+      </c>
+      <c r="BJ415">
+        <v>14</v>
+      </c>
+      <c r="BK415">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416" spans="1:63">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>4554787</v>
+      </c>
+      <c r="C416" t="s">
+        <v>63</v>
+      </c>
+      <c r="D416" t="s">
+        <v>64</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45172.67708333334</v>
+      </c>
+      <c r="F416">
+        <v>3</v>
+      </c>
+      <c r="G416" t="s">
+        <v>85</v>
+      </c>
+      <c r="H416" t="s">
+        <v>88</v>
+      </c>
+      <c r="I416">
+        <v>2</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>2</v>
+      </c>
+      <c r="L416">
+        <v>2</v>
+      </c>
+      <c r="M416">
+        <v>2</v>
+      </c>
+      <c r="N416">
+        <v>4</v>
+      </c>
+      <c r="O416" t="s">
+        <v>322</v>
+      </c>
+      <c r="P416" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q416">
+        <v>9</v>
+      </c>
+      <c r="R416">
+        <v>3</v>
+      </c>
+      <c r="S416">
+        <v>12</v>
+      </c>
+      <c r="T416">
+        <v>2.4</v>
+      </c>
+      <c r="U416">
+        <v>2</v>
+      </c>
+      <c r="V416">
+        <v>5.5</v>
+      </c>
+      <c r="W416">
+        <v>1.5</v>
+      </c>
+      <c r="X416">
+        <v>2.5</v>
+      </c>
+      <c r="Y416">
+        <v>3.5</v>
+      </c>
+      <c r="Z416">
+        <v>1.29</v>
+      </c>
+      <c r="AA416">
+        <v>11</v>
+      </c>
+      <c r="AB416">
+        <v>1.05</v>
+      </c>
+      <c r="AC416">
+        <v>1.83</v>
+      </c>
+      <c r="AD416">
+        <v>3.24</v>
+      </c>
+      <c r="AE416">
+        <v>4.76</v>
+      </c>
+      <c r="AF416">
+        <v>1.09</v>
+      </c>
+      <c r="AG416">
+        <v>8.5</v>
+      </c>
+      <c r="AH416">
+        <v>1.45</v>
+      </c>
+      <c r="AI416">
+        <v>2.8</v>
+      </c>
+      <c r="AJ416">
+        <v>2.4</v>
+      </c>
+      <c r="AK416">
+        <v>1.53</v>
+      </c>
+      <c r="AL416">
+        <v>2.2</v>
+      </c>
+      <c r="AM416">
+        <v>1.62</v>
+      </c>
+      <c r="AN416">
+        <v>1.17</v>
+      </c>
+      <c r="AO416">
+        <v>1.25</v>
+      </c>
+      <c r="AP416">
+        <v>2.05</v>
+      </c>
+      <c r="AQ416">
+        <v>1.93</v>
+      </c>
+      <c r="AR416">
+        <v>1.07</v>
+      </c>
+      <c r="AS416">
+        <v>1.87</v>
+      </c>
+      <c r="AT416">
+        <v>1.06</v>
+      </c>
+      <c r="AU416">
+        <v>1.82</v>
+      </c>
+      <c r="AV416">
+        <v>1.23</v>
+      </c>
+      <c r="AW416">
+        <v>3.05</v>
+      </c>
+      <c r="AX416">
+        <v>1.34</v>
+      </c>
+      <c r="AY416">
+        <v>9</v>
+      </c>
+      <c r="AZ416">
+        <v>4.09</v>
+      </c>
+      <c r="BA416">
+        <v>1.4</v>
+      </c>
+      <c r="BB416">
+        <v>1.83</v>
+      </c>
+      <c r="BC416">
+        <v>2.3</v>
+      </c>
+      <c r="BD416">
+        <v>3.2</v>
+      </c>
+      <c r="BE416">
+        <v>4.8</v>
+      </c>
+      <c r="BF416">
+        <v>6</v>
+      </c>
+      <c r="BG416">
+        <v>6</v>
+      </c>
+      <c r="BH416">
+        <v>6</v>
+      </c>
+      <c r="BI416">
+        <v>7</v>
+      </c>
+      <c r="BJ416">
+        <v>12</v>
+      </c>
+      <c r="BK416">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:63">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>4554791</v>
+      </c>
+      <c r="C417" t="s">
+        <v>63</v>
+      </c>
+      <c r="D417" t="s">
+        <v>64</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45172.77083333334</v>
+      </c>
+      <c r="F417">
+        <v>3</v>
+      </c>
+      <c r="G417" t="s">
+        <v>75</v>
+      </c>
+      <c r="H417" t="s">
+        <v>79</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>1</v>
+      </c>
+      <c r="K417">
+        <v>1</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+      <c r="M417">
+        <v>1</v>
+      </c>
+      <c r="N417">
+        <v>1</v>
+      </c>
+      <c r="O417" t="s">
+        <v>96</v>
+      </c>
+      <c r="P417" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q417">
+        <v>4</v>
+      </c>
+      <c r="R417">
+        <v>5</v>
+      </c>
+      <c r="S417">
+        <v>9</v>
+      </c>
+      <c r="T417">
+        <v>2.6</v>
+      </c>
+      <c r="U417">
+        <v>2.05</v>
+      </c>
+      <c r="V417">
+        <v>5</v>
+      </c>
+      <c r="W417">
+        <v>1.5</v>
+      </c>
+      <c r="X417">
+        <v>2.5</v>
+      </c>
+      <c r="Y417">
+        <v>3.4</v>
+      </c>
+      <c r="Z417">
+        <v>1.3</v>
+      </c>
+      <c r="AA417">
+        <v>10</v>
+      </c>
+      <c r="AB417">
+        <v>1.06</v>
+      </c>
+      <c r="AC417">
+        <v>1.83</v>
+      </c>
+      <c r="AD417">
+        <v>3.37</v>
+      </c>
+      <c r="AE417">
+        <v>4.48</v>
+      </c>
+      <c r="AF417">
+        <v>1.07</v>
+      </c>
+      <c r="AG417">
+        <v>7.77</v>
+      </c>
+      <c r="AH417">
+        <v>1.43</v>
+      </c>
+      <c r="AI417">
+        <v>2.73</v>
+      </c>
+      <c r="AJ417">
+        <v>2.25</v>
+      </c>
+      <c r="AK417">
+        <v>1.62</v>
+      </c>
+      <c r="AL417">
+        <v>2</v>
+      </c>
+      <c r="AM417">
+        <v>1.73</v>
+      </c>
+      <c r="AN417">
+        <v>1.21</v>
+      </c>
+      <c r="AO417">
+        <v>1.32</v>
+      </c>
+      <c r="AP417">
+        <v>1.85</v>
+      </c>
+      <c r="AQ417">
+        <v>2</v>
+      </c>
+      <c r="AR417">
+        <v>1.07</v>
+      </c>
+      <c r="AS417">
+        <v>1.88</v>
+      </c>
+      <c r="AT417">
+        <v>1.19</v>
+      </c>
+      <c r="AU417">
+        <v>1.53</v>
+      </c>
+      <c r="AV417">
+        <v>1.5</v>
+      </c>
+      <c r="AW417">
+        <v>3.03</v>
+      </c>
+      <c r="AX417">
+        <v>1.69</v>
+      </c>
+      <c r="AY417">
+        <v>7.5</v>
+      </c>
+      <c r="AZ417">
+        <v>2.66</v>
+      </c>
+      <c r="BA417">
+        <v>1.46</v>
+      </c>
+      <c r="BB417">
+        <v>1.9</v>
+      </c>
+      <c r="BC417">
+        <v>2.45</v>
+      </c>
+      <c r="BD417">
+        <v>3.5</v>
+      </c>
+      <c r="BE417">
+        <v>4.8</v>
+      </c>
+      <c r="BF417">
+        <v>5</v>
+      </c>
+      <c r="BG417">
+        <v>6</v>
+      </c>
+      <c r="BH417">
+        <v>4</v>
+      </c>
+      <c r="BI417">
+        <v>8</v>
+      </c>
+      <c r="BJ417">
+        <v>9</v>
+      </c>
+      <c r="BK417">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="1:63">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>4554796</v>
+      </c>
+      <c r="C418" t="s">
+        <v>63</v>
+      </c>
+      <c r="D418" t="s">
+        <v>64</v>
+      </c>
+      <c r="E418" s="2">
+        <v>45172.85416666666</v>
+      </c>
+      <c r="F418">
+        <v>3</v>
+      </c>
+      <c r="G418" t="s">
+        <v>74</v>
+      </c>
+      <c r="H418" t="s">
+        <v>69</v>
+      </c>
+      <c r="I418">
+        <v>1</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>1</v>
+      </c>
+      <c r="L418">
+        <v>2</v>
+      </c>
+      <c r="M418">
+        <v>1</v>
+      </c>
+      <c r="N418">
+        <v>3</v>
+      </c>
+      <c r="O418" t="s">
+        <v>323</v>
+      </c>
+      <c r="P418" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q418">
+        <v>4</v>
+      </c>
+      <c r="R418">
+        <v>6</v>
+      </c>
+      <c r="S418">
+        <v>10</v>
+      </c>
+      <c r="T418">
+        <v>3.2</v>
+      </c>
+      <c r="U418">
+        <v>2</v>
+      </c>
+      <c r="V418">
+        <v>3.75</v>
+      </c>
+      <c r="W418">
+        <v>1.5</v>
+      </c>
+      <c r="X418">
+        <v>2.5</v>
+      </c>
+      <c r="Y418">
+        <v>3.5</v>
+      </c>
+      <c r="Z418">
+        <v>1.29</v>
+      </c>
+      <c r="AA418">
+        <v>11</v>
+      </c>
+      <c r="AB418">
+        <v>1.05</v>
+      </c>
+      <c r="AC418">
+        <v>2.4</v>
+      </c>
+      <c r="AD418">
+        <v>3.02</v>
+      </c>
+      <c r="AE418">
+        <v>3.16</v>
+      </c>
+      <c r="AF418">
+        <v>1.06</v>
+      </c>
+      <c r="AG418">
+        <v>8.09</v>
+      </c>
+      <c r="AH418">
+        <v>1.43</v>
+      </c>
+      <c r="AI418">
+        <v>2.73</v>
+      </c>
+      <c r="AJ418">
+        <v>2.35</v>
+      </c>
+      <c r="AK418">
+        <v>1.57</v>
+      </c>
+      <c r="AL418">
+        <v>2</v>
+      </c>
+      <c r="AM418">
+        <v>1.73</v>
+      </c>
+      <c r="AN418">
+        <v>1.35</v>
+      </c>
+      <c r="AO418">
+        <v>1.34</v>
+      </c>
+      <c r="AP418">
+        <v>1.57</v>
+      </c>
+      <c r="AQ418">
+        <v>1.64</v>
+      </c>
+      <c r="AR418">
+        <v>1.36</v>
+      </c>
+      <c r="AS418">
+        <v>1.73</v>
+      </c>
+      <c r="AT418">
+        <v>1.27</v>
+      </c>
+      <c r="AU418">
+        <v>1.58</v>
+      </c>
+      <c r="AV418">
+        <v>1.44</v>
+      </c>
+      <c r="AW418">
+        <v>3.02</v>
+      </c>
+      <c r="AX418">
+        <v>1.75</v>
+      </c>
+      <c r="AY418">
+        <v>7.5</v>
+      </c>
+      <c r="AZ418">
+        <v>2.45</v>
+      </c>
+      <c r="BA418">
+        <v>1.46</v>
+      </c>
+      <c r="BB418">
+        <v>1.88</v>
+      </c>
+      <c r="BC418">
+        <v>2.45</v>
+      </c>
+      <c r="BD418">
+        <v>3.5</v>
+      </c>
+      <c r="BE418">
+        <v>5.1</v>
+      </c>
+      <c r="BF418">
+        <v>7</v>
+      </c>
+      <c r="BG418">
+        <v>9</v>
+      </c>
+      <c r="BH418">
+        <v>3</v>
+      </c>
+      <c r="BI418">
+        <v>6</v>
+      </c>
+      <c r="BJ418">
+        <v>10</v>
+      </c>
+      <c r="BK418">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419" spans="1:63">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>4554786</v>
+      </c>
+      <c r="C419" t="s">
+        <v>63</v>
+      </c>
+      <c r="D419" t="s">
+        <v>64</v>
+      </c>
+      <c r="E419" s="2">
+        <v>45173.75</v>
+      </c>
+      <c r="F419">
+        <v>3</v>
+      </c>
+      <c r="G419" t="s">
+        <v>76</v>
+      </c>
+      <c r="H419" t="s">
+        <v>81</v>
+      </c>
+      <c r="I419">
+        <v>1</v>
+      </c>
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419">
+        <v>2</v>
+      </c>
+      <c r="L419">
+        <v>2</v>
+      </c>
+      <c r="M419">
+        <v>1</v>
+      </c>
+      <c r="N419">
+        <v>3</v>
+      </c>
+      <c r="O419" t="s">
+        <v>324</v>
+      </c>
+      <c r="P419" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q419">
+        <v>3</v>
+      </c>
+      <c r="R419">
+        <v>9</v>
+      </c>
+      <c r="S419">
+        <v>12</v>
+      </c>
+      <c r="T419">
+        <v>2.5</v>
+      </c>
+      <c r="U419">
+        <v>1.95</v>
+      </c>
+      <c r="V419">
+        <v>5.5</v>
+      </c>
+      <c r="W419">
+        <v>1.53</v>
+      </c>
+      <c r="X419">
+        <v>2.38</v>
+      </c>
+      <c r="Y419">
+        <v>3.75</v>
+      </c>
+      <c r="Z419">
+        <v>1.25</v>
+      </c>
+      <c r="AA419">
+        <v>11</v>
+      </c>
+      <c r="AB419">
+        <v>1.05</v>
+      </c>
+      <c r="AC419">
+        <v>1.76</v>
+      </c>
+      <c r="AD419">
+        <v>3.14</v>
+      </c>
+      <c r="AE419">
+        <v>3.95</v>
+      </c>
+      <c r="AF419">
+        <v>1.1</v>
+      </c>
+      <c r="AG419">
+        <v>5.8</v>
+      </c>
+      <c r="AH419">
+        <v>1.47</v>
+      </c>
+      <c r="AI419">
+        <v>2.5</v>
+      </c>
+      <c r="AJ419">
+        <v>2.5</v>
+      </c>
+      <c r="AK419">
+        <v>1.5</v>
+      </c>
+      <c r="AL419">
+        <v>2.38</v>
+      </c>
+      <c r="AM419">
+        <v>1.53</v>
+      </c>
+      <c r="AN419">
+        <v>1.2</v>
+      </c>
+      <c r="AO419">
+        <v>1.33</v>
+      </c>
+      <c r="AP419">
+        <v>1.85</v>
+      </c>
+      <c r="AQ419">
+        <v>1.5</v>
+      </c>
+      <c r="AR419">
+        <v>0.43</v>
+      </c>
+      <c r="AS419">
+        <v>1.6</v>
+      </c>
+      <c r="AT419">
+        <v>0.4</v>
+      </c>
+      <c r="AU419">
+        <v>1.15</v>
+      </c>
+      <c r="AV419">
+        <v>1.13</v>
+      </c>
+      <c r="AW419">
+        <v>2.28</v>
+      </c>
+      <c r="AX419">
+        <v>1.75</v>
+      </c>
+      <c r="AY419">
+        <v>7.5</v>
+      </c>
+      <c r="AZ419">
+        <v>2.45</v>
+      </c>
+      <c r="BA419">
+        <v>1.32</v>
+      </c>
+      <c r="BB419">
+        <v>1.58</v>
+      </c>
+      <c r="BC419">
+        <v>2.05</v>
+      </c>
+      <c r="BD419">
+        <v>2.75</v>
+      </c>
+      <c r="BE419">
+        <v>4</v>
+      </c>
+      <c r="BF419">
+        <v>6</v>
+      </c>
+      <c r="BG419">
+        <v>4</v>
+      </c>
+      <c r="BH419">
+        <v>2</v>
+      </c>
+      <c r="BI419">
+        <v>3</v>
+      </c>
+      <c r="BJ419">
+        <v>8</v>
+      </c>
+      <c r="BK419">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:63">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>4554795</v>
+      </c>
+      <c r="C420" t="s">
+        <v>63</v>
+      </c>
+      <c r="D420" t="s">
+        <v>64</v>
+      </c>
+      <c r="E420" s="2">
+        <v>45173.83333333334</v>
+      </c>
+      <c r="F420">
+        <v>3</v>
+      </c>
+      <c r="G420" t="s">
+        <v>89</v>
+      </c>
+      <c r="H420" t="s">
+        <v>67</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420">
+        <v>1</v>
+      </c>
+      <c r="L420">
+        <v>1</v>
+      </c>
+      <c r="M420">
+        <v>1</v>
+      </c>
+      <c r="N420">
+        <v>2</v>
+      </c>
+      <c r="O420" t="s">
+        <v>163</v>
+      </c>
+      <c r="P420" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q420">
+        <v>12</v>
+      </c>
+      <c r="R420">
+        <v>1</v>
+      </c>
+      <c r="S420">
+        <v>13</v>
+      </c>
+      <c r="T420">
+        <v>3.4</v>
+      </c>
+      <c r="U420">
+        <v>1.83</v>
+      </c>
+      <c r="V420">
+        <v>4</v>
+      </c>
+      <c r="W420">
+        <v>1.67</v>
+      </c>
+      <c r="X420">
+        <v>2.1</v>
+      </c>
+      <c r="Y420">
+        <v>4</v>
+      </c>
+      <c r="Z420">
+        <v>1.22</v>
+      </c>
+      <c r="AA420">
+        <v>15</v>
+      </c>
+      <c r="AB420">
+        <v>1.03</v>
+      </c>
+      <c r="AC420">
+        <v>2.56</v>
+      </c>
+      <c r="AD420">
+        <v>2.81</v>
+      </c>
+      <c r="AE420">
+        <v>3.15</v>
+      </c>
+      <c r="AF420">
+        <v>1.11</v>
+      </c>
+      <c r="AG420">
+        <v>5.5</v>
+      </c>
+      <c r="AH420">
+        <v>1.62</v>
+      </c>
+      <c r="AI420">
+        <v>2.31</v>
+      </c>
+      <c r="AJ420">
+        <v>2.88</v>
+      </c>
+      <c r="AK420">
+        <v>1.4</v>
+      </c>
+      <c r="AL420">
+        <v>2.25</v>
+      </c>
+      <c r="AM420">
+        <v>1.57</v>
+      </c>
+      <c r="AN420">
+        <v>1.36</v>
+      </c>
+      <c r="AO420">
+        <v>1.4</v>
+      </c>
+      <c r="AP420">
+        <v>1.53</v>
+      </c>
+      <c r="AQ420">
+        <v>1.29</v>
+      </c>
+      <c r="AR420">
+        <v>1.43</v>
+      </c>
+      <c r="AS420">
+        <v>1.27</v>
+      </c>
+      <c r="AT420">
+        <v>1.4</v>
+      </c>
+      <c r="AU420">
+        <v>1.63</v>
+      </c>
+      <c r="AV420">
+        <v>1.23</v>
+      </c>
+      <c r="AW420">
+        <v>2.86</v>
+      </c>
+      <c r="AX420">
+        <v>1.64</v>
+      </c>
+      <c r="AY420">
+        <v>8</v>
+      </c>
+      <c r="AZ420">
+        <v>2.77</v>
+      </c>
+      <c r="BA420">
+        <v>1.34</v>
+      </c>
+      <c r="BB420">
+        <v>1.62</v>
+      </c>
+      <c r="BC420">
+        <v>2.1</v>
+      </c>
+      <c r="BD420">
+        <v>2.87</v>
+      </c>
+      <c r="BE420">
+        <v>4.1</v>
+      </c>
+      <c r="BF420">
+        <v>5</v>
+      </c>
+      <c r="BG420">
+        <v>3</v>
+      </c>
+      <c r="BH420">
+        <v>9</v>
+      </c>
+      <c r="BI420">
+        <v>2</v>
+      </c>
+      <c r="BJ420">
+        <v>14</v>
+      </c>
+      <c r="BK420">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="438">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -991,6 +991,9 @@
     <t>['8', '55']</t>
   </si>
   <si>
+    <t>['86', '90+2']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1322,6 +1325,9 @@
   </si>
   <si>
     <t>['64', '65']</t>
+  </si>
+  <si>
+    <t>['44', '55']</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK420"/>
+  <dimension ref="A1:BK421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2118,7 +2124,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2205,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>0.6</v>
@@ -2691,7 +2697,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2882,7 +2888,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3073,7 +3079,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3455,7 +3461,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -4118,7 +4124,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4219,7 +4225,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4601,7 +4607,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -5174,7 +5180,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5365,7 +5371,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5938,7 +5944,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6511,7 +6517,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6702,7 +6708,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6893,7 +6899,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -7084,7 +7090,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7275,7 +7281,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7747,7 +7753,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU32">
         <v>1.4</v>
@@ -7935,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
         <v>0.8</v>
@@ -8039,7 +8045,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8230,7 +8236,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -9376,7 +9382,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9758,7 +9764,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -10140,7 +10146,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10713,7 +10719,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11859,7 +11865,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12432,7 +12438,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12623,7 +12629,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12904,7 +12910,7 @@
         <v>2.25</v>
       </c>
       <c r="AT59">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU59">
         <v>2.03</v>
@@ -13387,7 +13393,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13578,7 +13584,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13856,7 +13862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT64">
         <v>1.06</v>
@@ -14151,7 +14157,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14533,7 +14539,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15488,7 +15494,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -16061,7 +16067,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16825,7 +16831,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -17207,7 +17213,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17589,7 +17595,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17971,7 +17977,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18735,7 +18741,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18822,7 +18828,7 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT90">
         <v>1.87</v>
@@ -19589,7 +19595,7 @@
         <v>2.79</v>
       </c>
       <c r="AT94">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU94">
         <v>1.81</v>
@@ -19690,7 +19696,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -20263,7 +20269,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20645,7 +20651,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -21027,7 +21033,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21409,7 +21415,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21791,7 +21797,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21982,7 +21988,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22364,7 +22370,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22937,7 +22943,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23406,7 +23412,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
         <v>0.64</v>
@@ -23600,7 +23606,7 @@
         <v>1.87</v>
       </c>
       <c r="AT115">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU115">
         <v>1.94</v>
@@ -24274,7 +24280,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24656,7 +24662,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -25038,7 +25044,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25420,7 +25426,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26375,7 +26381,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26948,7 +26954,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27139,7 +27145,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27330,7 +27336,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27521,7 +27527,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27608,7 +27614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT136">
         <v>0.8</v>
@@ -27712,7 +27718,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27903,7 +27909,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -28285,7 +28291,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28476,7 +28482,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28858,7 +28864,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29240,7 +29246,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -30577,7 +30583,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30667,7 +30673,7 @@
         <v>1.27</v>
       </c>
       <c r="AT152">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU152">
         <v>1.17</v>
@@ -30768,7 +30774,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31428,7 +31434,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT156">
         <v>1</v>
@@ -31914,7 +31920,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -33633,7 +33639,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33824,7 +33830,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -34015,7 +34021,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -34397,7 +34403,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34779,7 +34785,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34869,7 +34875,7 @@
         <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -35161,7 +35167,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35925,7 +35931,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36116,7 +36122,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36307,7 +36313,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36689,7 +36695,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36970,7 +36976,7 @@
         <v>1.53</v>
       </c>
       <c r="AT185">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU185">
         <v>1.75</v>
@@ -38217,7 +38223,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38686,7 +38692,7 @@
         <v>1.17</v>
       </c>
       <c r="AS194">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT194">
         <v>0.8</v>
@@ -40127,7 +40133,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40891,7 +40897,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41464,7 +41470,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41936,7 +41942,7 @@
         <v>1.47</v>
       </c>
       <c r="AT211">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU211">
         <v>1.32</v>
@@ -42037,7 +42043,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42228,7 +42234,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42419,7 +42425,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -43079,7 +43085,7 @@
         <v>1.86</v>
       </c>
       <c r="AS217">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT217">
         <v>1.27</v>
@@ -43565,7 +43571,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43756,7 +43762,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43947,7 +43953,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -48045,7 +48051,7 @@
         <v>0.88</v>
       </c>
       <c r="AS243">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT243">
         <v>1.13</v>
@@ -48621,7 +48627,7 @@
         <v>2</v>
       </c>
       <c r="AT246">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU246">
         <v>1.2</v>
@@ -48722,7 +48728,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -49486,7 +49492,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -50059,7 +50065,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50441,7 +50447,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50823,7 +50829,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -53497,7 +53503,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53879,7 +53885,7 @@
         <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54348,7 +54354,7 @@
         <v>1.3</v>
       </c>
       <c r="AS276">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT276">
         <v>1</v>
@@ -54643,7 +54649,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54733,7 +54739,7 @@
         <v>1.64</v>
       </c>
       <c r="AT278">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU278">
         <v>1.51</v>
@@ -55789,7 +55795,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -56171,7 +56177,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -57126,7 +57132,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57317,7 +57323,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57508,7 +57514,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -58081,7 +58087,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58654,7 +58660,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -59227,7 +59233,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59317,7 +59323,7 @@
         <v>1.87</v>
       </c>
       <c r="AT302">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU302">
         <v>1.48</v>
@@ -59609,7 +59615,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -60269,7 +60275,7 @@
         <v>0.91</v>
       </c>
       <c r="AS307">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT307">
         <v>1.19</v>
@@ -60564,7 +60570,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -61901,7 +61907,7 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62856,7 +62862,7 @@
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q321">
         <v>1</v>
@@ -64283,7 +64289,7 @@
         <v>1.5</v>
       </c>
       <c r="AT328">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU328">
         <v>1.26</v>
@@ -64575,7 +64581,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q330">
         <v>3</v>
@@ -64662,7 +64668,7 @@
         <v>1.25</v>
       </c>
       <c r="AS330">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT330">
         <v>1.07</v>
@@ -65721,7 +65727,7 @@
         <v>96</v>
       </c>
       <c r="P336" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -66103,7 +66109,7 @@
         <v>282</v>
       </c>
       <c r="P338" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -66294,7 +66300,7 @@
         <v>283</v>
       </c>
       <c r="P339" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q339">
         <v>5</v>
@@ -67058,7 +67064,7 @@
         <v>285</v>
       </c>
       <c r="P343" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q343">
         <v>2</v>
@@ -67249,7 +67255,7 @@
         <v>96</v>
       </c>
       <c r="P344" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q344">
         <v>9</v>
@@ -67440,7 +67446,7 @@
         <v>286</v>
       </c>
       <c r="P345" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q345">
         <v>11</v>
@@ -67631,7 +67637,7 @@
         <v>287</v>
       </c>
       <c r="P346" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -68204,7 +68210,7 @@
         <v>96</v>
       </c>
       <c r="P349" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q349">
         <v>4</v>
@@ -68777,7 +68783,7 @@
         <v>96</v>
       </c>
       <c r="P352" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69159,7 +69165,7 @@
         <v>96</v>
       </c>
       <c r="P354" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q354">
         <v>4</v>
@@ -69628,7 +69634,7 @@
         <v>1</v>
       </c>
       <c r="AS356">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT356">
         <v>0.93</v>
@@ -69732,7 +69738,7 @@
         <v>290</v>
       </c>
       <c r="P357" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q357">
         <v>4</v>
@@ -69923,7 +69929,7 @@
         <v>291</v>
       </c>
       <c r="P358" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q358">
         <v>6</v>
@@ -70395,7 +70401,7 @@
         <v>1.53</v>
       </c>
       <c r="AT360">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU360">
         <v>1.47</v>
@@ -71069,7 +71075,7 @@
         <v>109</v>
       </c>
       <c r="P364" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q364">
         <v>3</v>
@@ -71642,7 +71648,7 @@
         <v>297</v>
       </c>
       <c r="P367" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q367">
         <v>6</v>
@@ -72406,7 +72412,7 @@
         <v>96</v>
       </c>
       <c r="P371" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72788,7 +72794,7 @@
         <v>96</v>
       </c>
       <c r="P373" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q373">
         <v>5</v>
@@ -73934,7 +73940,7 @@
         <v>302</v>
       </c>
       <c r="P379" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q379">
         <v>5</v>
@@ -74889,7 +74895,7 @@
         <v>96</v>
       </c>
       <c r="P384" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q384">
         <v>4</v>
@@ -76035,7 +76041,7 @@
         <v>307</v>
       </c>
       <c r="P390" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q390">
         <v>9</v>
@@ -76608,7 +76614,7 @@
         <v>310</v>
       </c>
       <c r="P393" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q393">
         <v>2</v>
@@ -76990,7 +76996,7 @@
         <v>312</v>
       </c>
       <c r="P395" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q395">
         <v>7</v>
@@ -77181,7 +77187,7 @@
         <v>200</v>
       </c>
       <c r="P396" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q396">
         <v>0</v>
@@ -77754,7 +77760,7 @@
         <v>265</v>
       </c>
       <c r="P399" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q399">
         <v>9</v>
@@ -78518,7 +78524,7 @@
         <v>315</v>
       </c>
       <c r="P403" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q403">
         <v>4</v>
@@ -79282,7 +79288,7 @@
         <v>318</v>
       </c>
       <c r="P407" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q407">
         <v>4</v>
@@ -79473,7 +79479,7 @@
         <v>124</v>
       </c>
       <c r="P408" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q408">
         <v>4</v>
@@ -79664,7 +79670,7 @@
         <v>319</v>
       </c>
       <c r="P409" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q409">
         <v>4</v>
@@ -79754,7 +79760,7 @@
         <v>2</v>
       </c>
       <c r="AT409">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU409">
         <v>1.49</v>
@@ -80515,7 +80521,7 @@
         <v>0.93</v>
       </c>
       <c r="AS413">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT413">
         <v>0.93</v>
@@ -81001,7 +81007,7 @@
         <v>322</v>
       </c>
       <c r="P416" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q416">
         <v>9</v>
@@ -81907,6 +81913,197 @@
       </c>
       <c r="BK420">
         <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:63">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>4554768</v>
+      </c>
+      <c r="C421" t="s">
+        <v>63</v>
+      </c>
+      <c r="D421" t="s">
+        <v>64</v>
+      </c>
+      <c r="E421" s="2">
+        <v>45180.83333333334</v>
+      </c>
+      <c r="F421">
+        <v>1</v>
+      </c>
+      <c r="G421" t="s">
+        <v>66</v>
+      </c>
+      <c r="H421" t="s">
+        <v>87</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421">
+        <v>1</v>
+      </c>
+      <c r="L421">
+        <v>2</v>
+      </c>
+      <c r="M421">
+        <v>2</v>
+      </c>
+      <c r="N421">
+        <v>4</v>
+      </c>
+      <c r="O421" t="s">
+        <v>325</v>
+      </c>
+      <c r="P421" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q421">
+        <v>4</v>
+      </c>
+      <c r="R421">
+        <v>6</v>
+      </c>
+      <c r="S421">
+        <v>10</v>
+      </c>
+      <c r="T421">
+        <v>2.88</v>
+      </c>
+      <c r="U421">
+        <v>2.05</v>
+      </c>
+      <c r="V421">
+        <v>4</v>
+      </c>
+      <c r="W421">
+        <v>1.44</v>
+      </c>
+      <c r="X421">
+        <v>2.63</v>
+      </c>
+      <c r="Y421">
+        <v>3.25</v>
+      </c>
+      <c r="Z421">
+        <v>1.33</v>
+      </c>
+      <c r="AA421">
+        <v>9</v>
+      </c>
+      <c r="AB421">
+        <v>1.07</v>
+      </c>
+      <c r="AC421">
+        <v>2.2</v>
+      </c>
+      <c r="AD421">
+        <v>3.2</v>
+      </c>
+      <c r="AE421">
+        <v>3.4</v>
+      </c>
+      <c r="AF421">
+        <v>1.07</v>
+      </c>
+      <c r="AG421">
+        <v>7</v>
+      </c>
+      <c r="AH421">
+        <v>1.37</v>
+      </c>
+      <c r="AI421">
+        <v>2.79</v>
+      </c>
+      <c r="AJ421">
+        <v>2.1</v>
+      </c>
+      <c r="AK421">
+        <v>1.7</v>
+      </c>
+      <c r="AL421">
+        <v>1.83</v>
+      </c>
+      <c r="AM421">
+        <v>1.83</v>
+      </c>
+      <c r="AN421">
+        <v>1.31</v>
+      </c>
+      <c r="AO421">
+        <v>1.33</v>
+      </c>
+      <c r="AP421">
+        <v>1.73</v>
+      </c>
+      <c r="AQ421">
+        <v>1.8</v>
+      </c>
+      <c r="AR421">
+        <v>0.93</v>
+      </c>
+      <c r="AS421">
+        <v>1.75</v>
+      </c>
+      <c r="AT421">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU421">
+        <v>1.55</v>
+      </c>
+      <c r="AV421">
+        <v>1.31</v>
+      </c>
+      <c r="AW421">
+        <v>2.86</v>
+      </c>
+      <c r="AX421">
+        <v>1.95</v>
+      </c>
+      <c r="AY421">
+        <v>7</v>
+      </c>
+      <c r="AZ421">
+        <v>2.25</v>
+      </c>
+      <c r="BA421">
+        <v>1.25</v>
+      </c>
+      <c r="BB421">
+        <v>1.53</v>
+      </c>
+      <c r="BC421">
+        <v>1.84</v>
+      </c>
+      <c r="BD421">
+        <v>2.27</v>
+      </c>
+      <c r="BE421">
+        <v>3.25</v>
+      </c>
+      <c r="BF421">
+        <v>5</v>
+      </c>
+      <c r="BG421">
+        <v>3</v>
+      </c>
+      <c r="BH421">
+        <v>4</v>
+      </c>
+      <c r="BI421">
+        <v>7</v>
+      </c>
+      <c r="BJ421">
+        <v>9</v>
+      </c>
+      <c r="BK421">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK445"/>
+  <dimension ref="A1:BK449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT20" t="n">
         <v>1.56</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT22" t="n">
         <v>1.13</v>
@@ -5166,7 +5166,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.73</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT39" t="n">
         <v>1.19</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11256,7 +11256,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.66</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT58" t="n">
         <v>1.12</v>
@@ -13083,7 +13083,7 @@
         <v>1.63</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.14</v>
@@ -13489,7 +13489,7 @@
         <v>1.89</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.26</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT66" t="n">
         <v>0.35</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT72" t="n">
         <v>1.25</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT87" t="n">
         <v>0.35</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -18767,7 +18767,7 @@
         <v>1.89</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT92" t="n">
         <v>1</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT94" t="n">
         <v>0.9399999999999999</v>
@@ -20391,7 +20391,7 @@
         <v>1.59</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT100" t="n">
         <v>1.13</v>
@@ -23839,7 +23839,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT115" t="n">
         <v>0.9399999999999999</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT118" t="n">
         <v>1.06</v>
@@ -25466,7 +25466,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25669,7 +25669,7 @@
         <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.76</v>
@@ -25872,7 +25872,7 @@
         <v>1.44</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU125" t="n">
         <v>1.92</v>
@@ -26072,7 +26072,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT126" t="n">
         <v>0.9399999999999999</v>
@@ -27696,7 +27696,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -29323,7 +29323,7 @@
         <v>1.69</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU142" t="n">
         <v>0.85</v>
@@ -29523,7 +29523,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT143" t="n">
         <v>1.06</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT148" t="n">
         <v>0.5600000000000001</v>
@@ -30947,7 +30947,7 @@
         <v>1.69</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.74</v>
@@ -31556,7 +31556,7 @@
         <v>1.38</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU153" t="n">
         <v>1.75</v>
@@ -31756,7 +31756,7 @@
         <v>0.2</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT154" t="n">
         <v>0.63</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT160" t="n">
         <v>1.12</v>
@@ -35613,7 +35613,7 @@
         <v>0.83</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT173" t="n">
         <v>0.75</v>
@@ -36022,7 +36022,7 @@
         <v>1.94</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU175" t="n">
         <v>1.44</v>
@@ -36631,7 +36631,7 @@
         <v>1.69</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU178" t="n">
         <v>1.61</v>
@@ -36831,7 +36831,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37240,7 +37240,7 @@
         <v>1.81</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.71</v>
@@ -37440,7 +37440,7 @@
         <v>0.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT182" t="n">
         <v>0.63</v>
@@ -41297,10 +41297,10 @@
         <v>1</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU201" t="n">
         <v>1.17</v>
@@ -41500,7 +41500,7 @@
         <v>1</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -41706,7 +41706,7 @@
         <v>2.18</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU203" t="n">
         <v>1.48</v>
@@ -41906,7 +41906,7 @@
         <v>1.17</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT204" t="n">
         <v>1.25</v>
@@ -42924,7 +42924,7 @@
         <v>1.81</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU209" t="n">
         <v>1.72</v>
@@ -45357,7 +45357,7 @@
         <v>1.13</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT221" t="n">
         <v>0.9399999999999999</v>
@@ -47184,7 +47184,7 @@
         <v>1</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT230" t="n">
         <v>1.25</v>
@@ -47796,7 +47796,7 @@
         <v>1.27</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU233" t="n">
         <v>1.58</v>
@@ -47996,10 +47996,10 @@
         <v>2</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU234" t="n">
         <v>1.19</v>
@@ -48605,10 +48605,10 @@
         <v>1</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU237" t="n">
         <v>1.86</v>
@@ -52259,10 +52259,10 @@
         <v>0.88</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU255" t="n">
         <v>1.95</v>
@@ -52465,7 +52465,7 @@
         <v>1.27</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU256" t="n">
         <v>1.66</v>
@@ -52665,7 +52665,7 @@
         <v>0.71</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT257" t="n">
         <v>0.6</v>
@@ -53477,7 +53477,7 @@
         <v>0.78</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT261" t="n">
         <v>0.63</v>
@@ -54089,7 +54089,7 @@
         <v>1.94</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU264" t="n">
         <v>1.31</v>
@@ -57131,7 +57131,7 @@
         <v>1.1</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT279" t="n">
         <v>1</v>
@@ -57537,7 +57537,7 @@
         <v>1.75</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT281" t="n">
         <v>1.36</v>
@@ -58552,7 +58552,7 @@
         <v>0.78</v>
       </c>
       <c r="AS286" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT286" t="n">
         <v>1</v>
@@ -59161,7 +59161,7 @@
         <v>1.56</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT289" t="n">
         <v>1.36</v>
@@ -59364,7 +59364,7 @@
         <v>0.8</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT290" t="n">
         <v>1</v>
@@ -59570,7 +59570,7 @@
         <v>1.94</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU291" t="n">
         <v>1.43</v>
@@ -59773,7 +59773,7 @@
         <v>1.27</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU292" t="n">
         <v>1.11</v>
@@ -60179,7 +60179,7 @@
         <v>1.44</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU294" t="n">
         <v>1.58</v>
@@ -60379,7 +60379,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT295" t="n">
         <v>0.8100000000000001</v>
@@ -63630,7 +63630,7 @@
         <v>2.13</v>
       </c>
       <c r="AT311" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU311" t="n">
         <v>1.56</v>
@@ -64439,7 +64439,7 @@
         <v>0.9</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT315" t="n">
         <v>0.75</v>
@@ -64845,7 +64845,7 @@
         <v>1</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT317" t="n">
         <v>1.25</v>
@@ -65051,7 +65051,7 @@
         <v>1.44</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU318" t="n">
         <v>1.59</v>
@@ -65251,7 +65251,7 @@
         <v>0.7</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT319" t="n">
         <v>1</v>
@@ -65457,7 +65457,7 @@
         <v>1.56</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU320" t="n">
         <v>1.49</v>
@@ -65657,7 +65657,7 @@
         <v>0.8</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT321" t="n">
         <v>0.88</v>
@@ -69517,7 +69517,7 @@
         <v>1.56</v>
       </c>
       <c r="AT340" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU340" t="n">
         <v>1.56</v>
@@ -69717,10 +69717,10 @@
         <v>0.91</v>
       </c>
       <c r="AS341" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT341" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU341" t="n">
         <v>1.61</v>
@@ -70123,7 +70123,7 @@
         <v>1.45</v>
       </c>
       <c r="AS343" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT343" t="n">
         <v>1.25</v>
@@ -70326,7 +70326,7 @@
         <v>1.27</v>
       </c>
       <c r="AS344" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT344" t="n">
         <v>1.38</v>
@@ -70935,7 +70935,7 @@
         <v>0.82</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT347" t="n">
         <v>0.75</v>
@@ -71750,7 +71750,7 @@
         <v>1.94</v>
       </c>
       <c r="AT351" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU351" t="n">
         <v>1.19</v>
@@ -74792,7 +74792,7 @@
         <v>1.5</v>
       </c>
       <c r="AS366" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT366" t="n">
         <v>1.36</v>
@@ -74995,7 +74995,7 @@
         <v>1.33</v>
       </c>
       <c r="AS367" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT367" t="n">
         <v>1.25</v>
@@ -75198,7 +75198,7 @@
         <v>0.75</v>
       </c>
       <c r="AS368" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT368" t="n">
         <v>0.67</v>
@@ -75404,7 +75404,7 @@
         <v>1.94</v>
       </c>
       <c r="AT369" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU369" t="n">
         <v>1.22</v>
@@ -75604,7 +75604,7 @@
         <v>1.08</v>
       </c>
       <c r="AS370" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT370" t="n">
         <v>1.13</v>
@@ -75810,7 +75810,7 @@
         <v>1.25</v>
       </c>
       <c r="AT371" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU371" t="n">
         <v>1.47</v>
@@ -77028,7 +77028,7 @@
         <v>1.44</v>
       </c>
       <c r="AT377" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU377" t="n">
         <v>1.59</v>
@@ -77634,7 +77634,7 @@
         <v>1.46</v>
       </c>
       <c r="AS380" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT380" t="n">
         <v>1.25</v>
@@ -77837,7 +77837,7 @@
         <v>1</v>
       </c>
       <c r="AS381" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT381" t="n">
         <v>1.13</v>
@@ -78043,7 +78043,7 @@
         <v>1.88</v>
       </c>
       <c r="AT382" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU382" t="n">
         <v>1.56</v>
@@ -78449,7 +78449,7 @@
         <v>1.44</v>
       </c>
       <c r="AT384" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU384" t="n">
         <v>1.57</v>
@@ -79261,7 +79261,7 @@
         <v>2.18</v>
       </c>
       <c r="AT388" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU388" t="n">
         <v>1.63</v>
@@ -79664,7 +79664,7 @@
         <v>1.79</v>
       </c>
       <c r="AS390" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT390" t="n">
         <v>1.56</v>
@@ -82506,7 +82506,7 @@
         <v>1</v>
       </c>
       <c r="AS404" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT404" t="n">
         <v>0.88</v>
@@ -83118,7 +83118,7 @@
         <v>1.25</v>
       </c>
       <c r="AT407" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU407" t="n">
         <v>1.45</v>
@@ -83927,7 +83927,7 @@
         <v>0.79</v>
       </c>
       <c r="AS411" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT411" t="n">
         <v>0.75</v>
@@ -84742,7 +84742,7 @@
         <v>2.18</v>
       </c>
       <c r="AT415" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AU415" t="n">
         <v>1.62</v>
@@ -84942,10 +84942,10 @@
         <v>1.07</v>
       </c>
       <c r="AS416" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT416" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU416" t="n">
         <v>1.82</v>
@@ -85754,7 +85754,7 @@
         <v>1.43</v>
       </c>
       <c r="AS420" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT420" t="n">
         <v>1.38</v>
@@ -88799,7 +88799,7 @@
         <v>0.4</v>
       </c>
       <c r="AS435" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AT435" t="n">
         <v>0.35</v>
@@ -90884,6 +90884,818 @@
       </c>
       <c r="BK445" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="n">
+        <v>4554817</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E446" s="2" t="n">
+        <v>45190.70833333334</v>
+      </c>
+      <c r="F446" t="n">
+        <v>5</v>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>3</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>3</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>['51', '64', '90+2']</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q446" t="n">
+        <v>5</v>
+      </c>
+      <c r="R446" t="n">
+        <v>6</v>
+      </c>
+      <c r="S446" t="n">
+        <v>11</v>
+      </c>
+      <c r="T446" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U446" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V446" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W446" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X446" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB446" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC446" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD446" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE446" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AF446" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG446" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH446" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI446" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ446" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK446" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL446" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AM446" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN446" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO446" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP446" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ446" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR446" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS446" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT446" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU446" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV446" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW446" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX446" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY446" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ446" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA446" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB446" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC446" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD446" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE446" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF446" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG446" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH446" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI446" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ446" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK446" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="n">
+        <v>4554818</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E447" s="2" t="n">
+        <v>45190.77083333334</v>
+      </c>
+      <c r="F447" t="n">
+        <v>5</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q447" t="n">
+        <v>7</v>
+      </c>
+      <c r="R447" t="n">
+        <v>4</v>
+      </c>
+      <c r="S447" t="n">
+        <v>11</v>
+      </c>
+      <c r="T447" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U447" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V447" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W447" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X447" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB447" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC447" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD447" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE447" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF447" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG447" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH447" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI447" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AJ447" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK447" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL447" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM447" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN447" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO447" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP447" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ447" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR447" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS447" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT447" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU447" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV447" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW447" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX447" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY447" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ447" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA447" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB447" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC447" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD447" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE447" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF447" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG447" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH447" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI447" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ447" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK447" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="n">
+        <v>4554812</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E448" s="2" t="n">
+        <v>45190.80208333334</v>
+      </c>
+      <c r="F448" t="n">
+        <v>5</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="n">
+        <v>1</v>
+      </c>
+      <c r="L448" t="n">
+        <v>3</v>
+      </c>
+      <c r="M448" t="n">
+        <v>1</v>
+      </c>
+      <c r="N448" t="n">
+        <v>4</v>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>['45', '48', '76']</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q448" t="n">
+        <v>10</v>
+      </c>
+      <c r="R448" t="n">
+        <v>4</v>
+      </c>
+      <c r="S448" t="n">
+        <v>14</v>
+      </c>
+      <c r="T448" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U448" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V448" t="n">
+        <v>4</v>
+      </c>
+      <c r="W448" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X448" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB448" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC448" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD448" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE448" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF448" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG448" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH448" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI448" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ448" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK448" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL448" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM448" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN448" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO448" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP448" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ448" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR448" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS448" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT448" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU448" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV448" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW448" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX448" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY448" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ448" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA448" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB448" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC448" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD448" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE448" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF448" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG448" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH448" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI448" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ448" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK448" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="n">
+        <v>4554810</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E449" s="2" t="n">
+        <v>45190.875</v>
+      </c>
+      <c r="F449" t="n">
+        <v>5</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N449" t="n">
+        <v>1</v>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q449" t="n">
+        <v>7</v>
+      </c>
+      <c r="R449" t="n">
+        <v>9</v>
+      </c>
+      <c r="S449" t="n">
+        <v>16</v>
+      </c>
+      <c r="T449" t="n">
+        <v>2</v>
+      </c>
+      <c r="U449" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V449" t="n">
+        <v>7</v>
+      </c>
+      <c r="W449" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X449" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z449" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA449" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB449" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC449" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD449" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE449" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF449" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG449" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH449" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI449" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AJ449" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK449" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL449" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM449" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN449" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO449" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP449" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ449" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AR449" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS449" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AT449" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU449" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV449" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW449" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX449" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY449" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ449" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA449" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB449" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC449" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD449" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE449" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF449" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG449" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH449" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI449" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ449" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK449" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK449"/>
+  <dimension ref="A1:BK457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT15" t="n">
         <v>1.06</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.81</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.94</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT24" t="n">
         <v>0.9399999999999999</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8100000000000001</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT38" t="n">
         <v>0.63</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT46" t="n">
         <v>0.88</v>
@@ -10038,7 +10038,7 @@
         <v>1.94</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU48" t="n">
         <v>2.98</v>
@@ -10647,7 +10647,7 @@
         <v>2.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU50" t="n">
         <v>1.84</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT51" t="n">
         <v>0.8100000000000001</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -11456,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU54" t="n">
         <v>1.63</v>
@@ -11865,7 +11865,7 @@
         <v>1.44</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12068,7 +12068,7 @@
         <v>1.73</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU57" t="n">
         <v>1.13</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT71" t="n">
         <v>1.19</v>
@@ -15113,7 +15113,7 @@
         <v>1.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU72" t="n">
         <v>1.44</v>
@@ -15316,7 +15316,7 @@
         <v>1.44</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT75" t="n">
         <v>0.75</v>
@@ -15925,7 +15925,7 @@
         <v>1.94</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT81" t="n">
         <v>1.19</v>
@@ -17143,7 +17143,7 @@
         <v>1.81</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82" t="n">
         <v>1.61</v>
@@ -17749,10 +17749,10 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT91" t="n">
         <v>1.12</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT96" t="n">
         <v>1.25</v>
@@ -21200,7 +21200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT102" t="n">
         <v>0.75</v>
@@ -21406,7 +21406,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22215,7 +22215,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>1.44</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU110" t="n">
         <v>1.2</v>
@@ -23230,10 +23230,10 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU112" t="n">
         <v>1.67</v>
@@ -23639,7 +23639,7 @@
         <v>1.89</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU114" t="n">
         <v>1.42</v>
@@ -25260,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT125" t="n">
         <v>0.75</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT127" t="n">
         <v>0.35</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
         <v>1.13</v>
@@ -27902,7 +27902,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU135" t="n">
         <v>1.38</v>
@@ -28305,10 +28305,10 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU137" t="n">
         <v>1.61</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU139" t="n">
         <v>1.19</v>
@@ -28914,10 +28914,10 @@
         <v>2.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU140" t="n">
         <v>1.52</v>
@@ -29117,7 +29117,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT141" t="n">
         <v>0.75</v>
@@ -29729,7 +29729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -29929,10 +29929,10 @@
         <v>1.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU145" t="n">
         <v>1.78</v>
@@ -30132,7 +30132,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -31959,7 +31959,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32365,10 +32365,10 @@
         <v>1.4</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU157" t="n">
         <v>1.74</v>
@@ -32568,7 +32568,7 @@
         <v>0.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT158" t="n">
         <v>1.19</v>
@@ -32771,7 +32771,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT159" t="n">
         <v>1</v>
@@ -33380,7 +33380,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT162" t="n">
         <v>1.13</v>
@@ -33583,10 +33583,10 @@
         <v>2.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU163" t="n">
         <v>1.07</v>
@@ -33789,7 +33789,7 @@
         <v>1.81</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU164" t="n">
         <v>1.53</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT166" t="n">
         <v>0.9399999999999999</v>
@@ -34601,7 +34601,7 @@
         <v>1.73</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU168" t="n">
         <v>1.48</v>
@@ -35007,7 +35007,7 @@
         <v>1.38</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU170" t="n">
         <v>1.69</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT174" t="n">
         <v>0.9399999999999999</v>
@@ -37037,7 +37037,7 @@
         <v>1.69</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU180" t="n">
         <v>0.85</v>
@@ -37643,7 +37643,7 @@
         <v>0.83</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT183" t="n">
         <v>0.5600000000000001</v>
@@ -37849,7 +37849,7 @@
         <v>1.63</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU184" t="n">
         <v>1.54</v>
@@ -38252,7 +38252,7 @@
         <v>0.71</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT186" t="n">
         <v>1.19</v>
@@ -38455,7 +38455,7 @@
         <v>0.57</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT187" t="n">
         <v>0.35</v>
@@ -38661,7 +38661,7 @@
         <v>1.73</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU188" t="n">
         <v>1.5</v>
@@ -38864,7 +38864,7 @@
         <v>1.59</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU189" t="n">
         <v>1.28</v>
@@ -39064,7 +39064,7 @@
         <v>1.29</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT190" t="n">
         <v>1.12</v>
@@ -39267,7 +39267,7 @@
         <v>0.83</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT191" t="n">
         <v>0.88</v>
@@ -39673,7 +39673,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT193" t="n">
         <v>1.13</v>
@@ -40079,7 +40079,7 @@
         <v>1.86</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT195" t="n">
         <v>1</v>
@@ -40285,7 +40285,7 @@
         <v>1.81</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU196" t="n">
         <v>1.52</v>
@@ -42112,7 +42112,7 @@
         <v>1.69</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU205" t="n">
         <v>1.52</v>
@@ -42312,7 +42312,7 @@
         <v>0.71</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT206" t="n">
         <v>0.75</v>
@@ -42721,7 +42721,7 @@
         <v>1.94</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU208" t="n">
         <v>1.4</v>
@@ -43124,7 +43124,7 @@
         <v>0.86</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT210" t="n">
         <v>0.9399999999999999</v>
@@ -43327,7 +43327,7 @@
         <v>1.25</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT211" t="n">
         <v>0.9399999999999999</v>
@@ -43733,7 +43733,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT213" t="n">
         <v>1.12</v>
@@ -43936,10 +43936,10 @@
         <v>1.29</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU214" t="n">
         <v>1.49</v>
@@ -44139,7 +44139,7 @@
         <v>0.5</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT215" t="n">
         <v>0.35</v>
@@ -44548,7 +44548,7 @@
         <v>1.89</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU217" t="n">
         <v>1.48</v>
@@ -44951,7 +44951,7 @@
         <v>1.63</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT219" t="n">
         <v>1</v>
@@ -45157,7 +45157,7 @@
         <v>1.81</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU220" t="n">
         <v>1.55</v>
@@ -45763,7 +45763,7 @@
         <v>1.29</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT223" t="n">
         <v>1</v>
@@ -45969,7 +45969,7 @@
         <v>1.59</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU224" t="n">
         <v>1.26</v>
@@ -46578,7 +46578,7 @@
         <v>2.18</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU227" t="n">
         <v>1.49</v>
@@ -46981,7 +46981,7 @@
         <v>0.5</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT229" t="n">
         <v>1.06</v>
@@ -47793,7 +47793,7 @@
         <v>0.88</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT233" t="n">
         <v>1</v>
@@ -49011,7 +49011,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT239" t="n">
         <v>0.9399999999999999</v>
@@ -49417,7 +49417,7 @@
         <v>1.13</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT241" t="n">
         <v>1</v>
@@ -49623,7 +49623,7 @@
         <v>1.69</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU242" t="n">
         <v>1.12</v>
@@ -50229,7 +50229,7 @@
         <v>1.11</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT245" t="n">
         <v>1.12</v>
@@ -50432,7 +50432,7 @@
         <v>1.22</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT246" t="n">
         <v>0.9399999999999999</v>
@@ -50838,7 +50838,7 @@
         <v>0.78</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT248" t="n">
         <v>1.06</v>
@@ -51041,10 +51041,10 @@
         <v>0.88</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU249" t="n">
         <v>1.47</v>
@@ -51247,7 +51247,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU250" t="n">
         <v>1.55</v>
@@ -51450,7 +51450,7 @@
         <v>1.59</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU251" t="n">
         <v>1.3</v>
@@ -52462,7 +52462,7 @@
         <v>1.88</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT256" t="n">
         <v>1.75</v>
@@ -52668,7 +52668,7 @@
         <v>1.81</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU257" t="n">
         <v>1.23</v>
@@ -53071,7 +53071,7 @@
         <v>0.67</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT259" t="n">
         <v>0.5600000000000001</v>
@@ -54292,7 +54292,7 @@
         <v>1.69</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU265" t="n">
         <v>1.15</v>
@@ -54492,7 +54492,7 @@
         <v>1.3</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT266" t="n">
         <v>0.9399999999999999</v>
@@ -54898,7 +54898,7 @@
         <v>1.11</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT268" t="n">
         <v>1</v>
@@ -55304,7 +55304,7 @@
         <v>1</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT270" t="n">
         <v>1.06</v>
@@ -55710,10 +55710,10 @@
         <v>2</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU272" t="n">
         <v>1.55</v>
@@ -56322,7 +56322,7 @@
         <v>1.38</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU275" t="n">
         <v>1.6</v>
@@ -56725,7 +56725,7 @@
         <v>0.6</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT277" t="n">
         <v>0.5600000000000001</v>
@@ -57337,7 +57337,7 @@
         <v>1.81</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU280" t="n">
         <v>1.71</v>
@@ -57540,7 +57540,7 @@
         <v>2.81</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU281" t="n">
         <v>1.88</v>
@@ -57743,7 +57743,7 @@
         <v>1.69</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU282" t="n">
         <v>1.52</v>
@@ -57943,7 +57943,7 @@
         <v>0.7</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT283" t="n">
         <v>0.63</v>
@@ -58146,10 +58146,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU284" t="n">
         <v>1.68</v>
@@ -58958,7 +58958,7 @@
         <v>0.7</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT288" t="n">
         <v>0.75</v>
@@ -59164,7 +59164,7 @@
         <v>1.94</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU289" t="n">
         <v>1.93</v>
@@ -61194,7 +61194,7 @@
         <v>1.69</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU299" t="n">
         <v>1.15</v>
@@ -61397,7 +61397,7 @@
         <v>1.94</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU300" t="n">
         <v>1.44</v>
@@ -62003,7 +62003,7 @@
         <v>0.55</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT303" t="n">
         <v>0.5600000000000001</v>
@@ -62612,7 +62612,7 @@
         <v>1.09</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT306" t="n">
         <v>1.19</v>
@@ -63018,7 +63018,7 @@
         <v>1.18</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT308" t="n">
         <v>0.9399999999999999</v>
@@ -63221,7 +63221,7 @@
         <v>0.73</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT309" t="n">
         <v>0.63</v>
@@ -63427,7 +63427,7 @@
         <v>1.94</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU310" t="n">
         <v>1.43</v>
@@ -63830,7 +63830,7 @@
         <v>0.5</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT312" t="n">
         <v>0.8100000000000001</v>
@@ -64036,7 +64036,7 @@
         <v>2.18</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU313" t="n">
         <v>1.67</v>
@@ -64239,7 +64239,7 @@
         <v>1.81</v>
       </c>
       <c r="AT314" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU314" t="n">
         <v>1.64</v>
@@ -64645,7 +64645,7 @@
         <v>1.27</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU316" t="n">
         <v>1.1</v>
@@ -65454,7 +65454,7 @@
         <v>0.73</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -65860,7 +65860,7 @@
         <v>0.73</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT322" t="n">
         <v>1</v>
@@ -66063,7 +66063,7 @@
         <v>0.73</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT323" t="n">
         <v>0.75</v>
@@ -66472,7 +66472,7 @@
         <v>1.94</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU325" t="n">
         <v>1.41</v>
@@ -67281,7 +67281,7 @@
         <v>0.33</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT329" t="n">
         <v>0.35</v>
@@ -68093,7 +68093,7 @@
         <v>0.5</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT333" t="n">
         <v>0.5600000000000001</v>
@@ -68702,7 +68702,7 @@
         <v>0.67</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT336" t="n">
         <v>0.75</v>
@@ -69111,7 +69111,7 @@
         <v>1.44</v>
       </c>
       <c r="AT338" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU338" t="n">
         <v>1.58</v>
@@ -69314,7 +69314,7 @@
         <v>2.13</v>
       </c>
       <c r="AT339" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU339" t="n">
         <v>1.54</v>
@@ -69514,7 +69514,7 @@
         <v>1.91</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT340" t="n">
         <v>1.75</v>
@@ -69923,7 +69923,7 @@
         <v>1.81</v>
       </c>
       <c r="AT342" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU342" t="n">
         <v>1.58</v>
@@ -70126,7 +70126,7 @@
         <v>2.81</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU343" t="n">
         <v>1.83</v>
@@ -70329,7 +70329,7 @@
         <v>1.81</v>
       </c>
       <c r="AT344" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU344" t="n">
         <v>1.24</v>
@@ -70529,7 +70529,7 @@
         <v>1</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT345" t="n">
         <v>1.25</v>
@@ -71138,7 +71138,7 @@
         <v>0.75</v>
       </c>
       <c r="AS348" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT348" t="n">
         <v>1</v>
@@ -71544,7 +71544,7 @@
         <v>1</v>
       </c>
       <c r="AS350" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT350" t="n">
         <v>0.88</v>
@@ -71747,7 +71747,7 @@
         <v>0.92</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT351" t="n">
         <v>1</v>
@@ -72968,7 +72968,7 @@
         <v>2.18</v>
       </c>
       <c r="AT357" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU357" t="n">
         <v>1.64</v>
@@ -73574,7 +73574,7 @@
         <v>1</v>
       </c>
       <c r="AS360" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT360" t="n">
         <v>0.9399999999999999</v>
@@ -73980,7 +73980,7 @@
         <v>0.85</v>
       </c>
       <c r="AS362" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT362" t="n">
         <v>0.75</v>
@@ -74795,7 +74795,7 @@
         <v>1.25</v>
       </c>
       <c r="AT366" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU366" t="n">
         <v>1.6</v>
@@ -74998,7 +74998,7 @@
         <v>1.94</v>
       </c>
       <c r="AT367" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU367" t="n">
         <v>1.85</v>
@@ -75201,7 +75201,7 @@
         <v>1.81</v>
       </c>
       <c r="AT368" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU368" t="n">
         <v>1.32</v>
@@ -75401,7 +75401,7 @@
         <v>2</v>
       </c>
       <c r="AS369" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT369" t="n">
         <v>1.75</v>
@@ -75807,7 +75807,7 @@
         <v>0.92</v>
       </c>
       <c r="AS371" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT371" t="n">
         <v>1</v>
@@ -76213,7 +76213,7 @@
         <v>1.17</v>
       </c>
       <c r="AS373" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT373" t="n">
         <v>1.25</v>
@@ -76416,10 +76416,10 @@
         <v>1.42</v>
       </c>
       <c r="AS374" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT374" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU374" t="n">
         <v>1.73</v>
@@ -77025,7 +77025,7 @@
         <v>0.92</v>
       </c>
       <c r="AS377" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT377" t="n">
         <v>0.75</v>
@@ -77228,10 +77228,10 @@
         <v>0.75</v>
       </c>
       <c r="AS378" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT378" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU378" t="n">
         <v>1.49</v>
@@ -77637,7 +77637,7 @@
         <v>1.81</v>
       </c>
       <c r="AT380" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU380" t="n">
         <v>1.34</v>
@@ -78040,7 +78040,7 @@
         <v>0.92</v>
       </c>
       <c r="AS382" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT382" t="n">
         <v>0.75</v>
@@ -78243,7 +78243,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS383" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT383" t="n">
         <v>0.75</v>
@@ -78446,7 +78446,7 @@
         <v>1.92</v>
       </c>
       <c r="AS384" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT384" t="n">
         <v>1.75</v>
@@ -79464,7 +79464,7 @@
         <v>1.94</v>
       </c>
       <c r="AT389" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU389" t="n">
         <v>1.47</v>
@@ -79667,7 +79667,7 @@
         <v>1.94</v>
       </c>
       <c r="AT390" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU390" t="n">
         <v>1.85</v>
@@ -79867,7 +79867,7 @@
         <v>0.77</v>
       </c>
       <c r="AS391" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT391" t="n">
         <v>0.8100000000000001</v>
@@ -80070,7 +80070,7 @@
         <v>0.92</v>
       </c>
       <c r="AS392" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT392" t="n">
         <v>0.9399999999999999</v>
@@ -81288,7 +81288,7 @@
         <v>1.14</v>
       </c>
       <c r="AS398" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT398" t="n">
         <v>1</v>
@@ -81491,7 +81491,7 @@
         <v>1</v>
       </c>
       <c r="AS399" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT399" t="n">
         <v>1.13</v>
@@ -81697,7 +81697,7 @@
         <v>1.63</v>
       </c>
       <c r="AT400" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU400" t="n">
         <v>1.36</v>
@@ -82303,10 +82303,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS403" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT403" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU403" t="n">
         <v>1.39</v>
@@ -82709,10 +82709,10 @@
         <v>0.77</v>
       </c>
       <c r="AS405" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT405" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU405" t="n">
         <v>1.47</v>
@@ -83115,7 +83115,7 @@
         <v>0.86</v>
       </c>
       <c r="AS407" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT407" t="n">
         <v>0.75</v>
@@ -83318,7 +83318,7 @@
         <v>0.86</v>
       </c>
       <c r="AS408" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT408" t="n">
         <v>1</v>
@@ -83724,7 +83724,7 @@
         <v>0.86</v>
       </c>
       <c r="AS410" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT410" t="n">
         <v>0.75</v>
@@ -84133,7 +84133,7 @@
         <v>1.59</v>
       </c>
       <c r="AT412" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU412" t="n">
         <v>1.22</v>
@@ -85145,7 +85145,7 @@
         <v>1.07</v>
       </c>
       <c r="AS417" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT417" t="n">
         <v>1.12</v>
@@ -85351,7 +85351,7 @@
         <v>1.81</v>
       </c>
       <c r="AT418" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU418" t="n">
         <v>1.58</v>
@@ -85757,7 +85757,7 @@
         <v>1.25</v>
       </c>
       <c r="AT420" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU420" t="n">
         <v>1.63</v>
@@ -86160,10 +86160,10 @@
         <v>0.64</v>
       </c>
       <c r="AS422" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT422" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU422" t="n">
         <v>1.52</v>
@@ -86769,7 +86769,7 @@
         <v>0.6</v>
       </c>
       <c r="AS425" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT425" t="n">
         <v>0.5600000000000001</v>
@@ -86972,10 +86972,10 @@
         <v>1.27</v>
       </c>
       <c r="AS426" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT426" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU426" t="n">
         <v>1.84</v>
@@ -87381,7 +87381,7 @@
         <v>1.38</v>
       </c>
       <c r="AT428" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU428" t="n">
         <v>1.47</v>
@@ -87581,7 +87581,7 @@
         <v>1.07</v>
       </c>
       <c r="AS429" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT429" t="n">
         <v>1.19</v>
@@ -87784,7 +87784,7 @@
         <v>1.07</v>
       </c>
       <c r="AS430" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT430" t="n">
         <v>1.06</v>
@@ -89205,7 +89205,7 @@
         <v>1.13</v>
       </c>
       <c r="AS437" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT437" t="n">
         <v>1.25</v>
@@ -89408,7 +89408,7 @@
         <v>0.67</v>
       </c>
       <c r="AS438" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT438" t="n">
         <v>0.63</v>
@@ -90426,7 +90426,7 @@
         <v>1.69</v>
       </c>
       <c r="AT443" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU443" t="n">
         <v>1.52</v>
@@ -91696,6 +91696,1630 @@
       </c>
       <c r="BK449" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="n">
+        <v>4554822</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E450" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F450" t="n">
+        <v>6</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>1</v>
+      </c>
+      <c r="J450" t="n">
+        <v>1</v>
+      </c>
+      <c r="K450" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" t="n">
+        <v>2</v>
+      </c>
+      <c r="M450" t="n">
+        <v>1</v>
+      </c>
+      <c r="N450" t="n">
+        <v>3</v>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>['44', '55']</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q450" t="n">
+        <v>7</v>
+      </c>
+      <c r="R450" t="n">
+        <v>1</v>
+      </c>
+      <c r="S450" t="n">
+        <v>8</v>
+      </c>
+      <c r="T450" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U450" t="n">
+        <v>2</v>
+      </c>
+      <c r="V450" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W450" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X450" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y450" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z450" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA450" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB450" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC450" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD450" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE450" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF450" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG450" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AH450" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI450" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ450" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK450" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL450" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM450" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN450" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO450" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP450" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ450" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR450" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS450" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT450" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU450" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV450" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW450" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX450" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY450" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ450" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA450" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB450" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC450" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD450" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE450" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF450" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG450" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH450" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI450" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ450" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK450" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="n">
+        <v>4554831</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E451" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F451" t="n">
+        <v>6</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>1</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="n">
+        <v>1</v>
+      </c>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="n">
+        <v>1</v>
+      </c>
+      <c r="N451" t="n">
+        <v>2</v>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q451" t="n">
+        <v>6</v>
+      </c>
+      <c r="R451" t="n">
+        <v>3</v>
+      </c>
+      <c r="S451" t="n">
+        <v>9</v>
+      </c>
+      <c r="T451" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U451" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V451" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W451" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X451" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z451" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA451" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB451" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC451" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD451" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE451" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF451" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG451" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH451" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI451" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ451" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK451" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL451" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM451" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN451" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO451" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP451" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ451" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR451" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS451" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT451" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU451" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV451" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW451" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX451" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY451" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ451" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA451" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB451" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC451" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD451" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE451" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF451" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG451" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH451" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI451" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ451" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK451" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="n">
+        <v>4554821</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E452" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F452" t="n">
+        <v>6</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>1</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
+      <c r="K452" t="n">
+        <v>1</v>
+      </c>
+      <c r="L452" t="n">
+        <v>3</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" t="n">
+        <v>3</v>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>['3', '47', '90+4']</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q452" t="n">
+        <v>6</v>
+      </c>
+      <c r="R452" t="n">
+        <v>1</v>
+      </c>
+      <c r="S452" t="n">
+        <v>7</v>
+      </c>
+      <c r="T452" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U452" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V452" t="n">
+        <v>4</v>
+      </c>
+      <c r="W452" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X452" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z452" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA452" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB452" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC452" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD452" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE452" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF452" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG452" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH452" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI452" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ452" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK452" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL452" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM452" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN452" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO452" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP452" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ452" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR452" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS452" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT452" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU452" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV452" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW452" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX452" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY452" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ452" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA452" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB452" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC452" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD452" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE452" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF452" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG452" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH452" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI452" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ452" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK452" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="n">
+        <v>4554832</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E453" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F453" t="n">
+        <v>6</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I453" t="n">
+        <v>2</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" t="n">
+        <v>2</v>
+      </c>
+      <c r="L453" t="n">
+        <v>2</v>
+      </c>
+      <c r="M453" t="n">
+        <v>1</v>
+      </c>
+      <c r="N453" t="n">
+        <v>3</v>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>['30', '39']</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q453" t="n">
+        <v>5</v>
+      </c>
+      <c r="R453" t="n">
+        <v>4</v>
+      </c>
+      <c r="S453" t="n">
+        <v>9</v>
+      </c>
+      <c r="T453" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U453" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V453" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W453" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X453" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y453" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z453" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA453" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB453" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC453" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD453" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE453" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF453" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG453" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH453" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI453" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ453" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK453" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL453" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM453" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN453" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO453" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP453" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ453" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR453" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS453" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT453" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU453" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV453" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW453" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX453" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY453" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ453" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA453" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB453" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC453" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD453" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE453" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF453" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG453" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH453" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI453" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ453" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK453" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="n">
+        <v>5019547</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E454" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F454" t="n">
+        <v>6</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>0</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N454" t="n">
+        <v>0</v>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q454" t="n">
+        <v>4</v>
+      </c>
+      <c r="R454" t="n">
+        <v>5</v>
+      </c>
+      <c r="S454" t="n">
+        <v>9</v>
+      </c>
+      <c r="T454" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U454" t="n">
+        <v>2</v>
+      </c>
+      <c r="V454" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W454" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X454" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y454" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z454" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA454" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB454" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC454" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD454" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE454" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF454" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG454" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="AH454" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI454" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ454" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK454" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL454" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM454" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN454" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO454" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP454" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ454" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR454" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS454" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT454" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU454" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV454" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW454" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX454" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY454" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ454" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA454" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB454" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC454" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD454" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE454" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF454" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG454" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH454" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI454" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ454" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="n">
+        <v>4554828</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E455" s="2" t="n">
+        <v>45193.73958333334</v>
+      </c>
+      <c r="F455" t="n">
+        <v>6</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>1</v>
+      </c>
+      <c r="N455" t="n">
+        <v>1</v>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q455" t="n">
+        <v>7</v>
+      </c>
+      <c r="R455" t="n">
+        <v>7</v>
+      </c>
+      <c r="S455" t="n">
+        <v>14</v>
+      </c>
+      <c r="T455" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U455" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V455" t="n">
+        <v>4</v>
+      </c>
+      <c r="W455" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X455" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y455" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z455" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA455" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB455" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC455" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD455" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE455" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF455" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG455" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH455" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI455" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AJ455" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK455" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL455" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM455" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN455" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO455" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP455" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ455" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR455" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS455" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT455" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU455" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV455" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW455" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX455" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY455" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ455" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA455" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB455" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC455" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD455" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE455" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF455" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG455" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH455" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI455" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ455" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK455" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="n">
+        <v>4554827</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E456" s="2" t="n">
+        <v>45193.79166666666</v>
+      </c>
+      <c r="F456" t="n">
+        <v>6</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N456" t="n">
+        <v>0</v>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q456" t="n">
+        <v>6</v>
+      </c>
+      <c r="R456" t="n">
+        <v>4</v>
+      </c>
+      <c r="S456" t="n">
+        <v>10</v>
+      </c>
+      <c r="T456" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U456" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V456" t="n">
+        <v>4</v>
+      </c>
+      <c r="W456" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X456" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y456" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z456" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA456" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB456" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC456" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD456" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE456" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF456" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG456" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH456" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI456" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ456" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK456" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL456" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM456" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN456" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO456" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP456" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ456" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR456" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS456" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT456" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU456" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV456" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW456" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX456" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY456" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ456" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA456" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB456" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC456" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD456" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE456" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF456" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG456" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH456" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI456" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ456" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK456" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="n">
+        <v>4554825</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E457" s="2" t="n">
+        <v>45193.875</v>
+      </c>
+      <c r="F457" t="n">
+        <v>6</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>1</v>
+      </c>
+      <c r="K457" t="n">
+        <v>1</v>
+      </c>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="n">
+        <v>1</v>
+      </c>
+      <c r="N457" t="n">
+        <v>2</v>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q457" t="n">
+        <v>15</v>
+      </c>
+      <c r="R457" t="n">
+        <v>3</v>
+      </c>
+      <c r="S457" t="n">
+        <v>18</v>
+      </c>
+      <c r="T457" t="n">
+        <v>4</v>
+      </c>
+      <c r="U457" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V457" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W457" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X457" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y457" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z457" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA457" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB457" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC457" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AD457" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE457" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF457" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG457" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH457" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI457" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ457" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK457" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL457" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM457" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN457" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO457" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP457" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ457" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR457" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS457" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT457" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU457" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV457" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW457" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX457" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY457" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ457" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA457" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB457" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC457" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD457" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE457" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF457" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG457" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH457" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI457" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ457" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK457" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK457"/>
+  <dimension ref="A1:BK463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.18</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.94</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.41</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.94</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT25" t="n">
         <v>0.75</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT26" t="n">
         <v>1.75</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT30" t="n">
         <v>0.9399999999999999</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
         <v>1.25</v>
@@ -8008,7 +8008,7 @@
         <v>2.18</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>2.81</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>1.69</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>0.67</v>
@@ -9632,7 +9632,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9835,7 +9835,7 @@
         <v>1.65</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU46" t="n">
         <v>2.16</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT50" t="n">
         <v>1.35</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT55" t="n">
         <v>0.9399999999999999</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT56" t="n">
         <v>1.35</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5600000000000001</v>
@@ -12677,7 +12677,7 @@
         <v>1.94</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.46</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT62" t="n">
         <v>1.75</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5600000000000001</v>
@@ -13895,7 +13895,7 @@
         <v>2.81</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -14910,7 +14910,7 @@
         <v>1.35</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU71" t="n">
         <v>1.42</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT73" t="n">
         <v>0.63</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT74" t="n">
         <v>0.9399999999999999</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT77" t="n">
         <v>0.8100000000000001</v>
@@ -16331,7 +16331,7 @@
         <v>1.82</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU78" t="n">
         <v>0.82</v>
@@ -16940,7 +16940,7 @@
         <v>1.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU81" t="n">
         <v>2.17</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5600000000000001</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -18158,7 +18158,7 @@
         <v>1.94</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -20188,7 +20188,7 @@
         <v>2.18</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20591,7 +20591,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT99" t="n">
         <v>0.75</v>
@@ -20797,7 +20797,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21403,7 +21403,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT103" t="n">
         <v>1.27</v>
@@ -21606,10 +21606,10 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU104" t="n">
         <v>1.17</v>
@@ -21809,7 +21809,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8100000000000001</v>
@@ -22621,7 +22621,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT109" t="n">
         <v>1.53</v>
@@ -23030,7 +23030,7 @@
         <v>1.94</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU111" t="n">
         <v>1.37</v>
@@ -24451,7 +24451,7 @@
         <v>2.81</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -25666,7 +25666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -26278,7 +26278,7 @@
         <v>1.35</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU127" t="n">
         <v>1.29</v>
@@ -26478,7 +26478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.94</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -27087,10 +27087,10 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU131" t="n">
         <v>1.55</v>
@@ -27290,10 +27290,10 @@
         <v>0.8</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27496,7 +27496,7 @@
         <v>1.53</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT135" t="n">
         <v>1.35</v>
@@ -28508,7 +28508,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT138" t="n">
         <v>1.12</v>
@@ -29526,7 +29526,7 @@
         <v>1.94</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.86</v>
@@ -31553,7 +31553,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
         <v>1.75</v>
@@ -32571,7 +32571,7 @@
         <v>1.65</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU158" t="n">
         <v>1.37</v>
@@ -33180,7 +33180,7 @@
         <v>1.59</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>1.35</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33786,7 +33786,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT164" t="n">
         <v>1.35</v>
@@ -33989,7 +33989,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT165" t="n">
         <v>0.75</v>
@@ -34395,10 +34395,10 @@
         <v>0.67</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU167" t="n">
         <v>1.79</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT168" t="n">
         <v>0.63</v>
@@ -34801,7 +34801,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT170" t="n">
         <v>0.5600000000000001</v>
@@ -35413,7 +35413,7 @@
         <v>1.27</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.13</v>
@@ -37846,7 +37846,7 @@
         <v>1.67</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT184" t="n">
         <v>1.35</v>
@@ -38049,7 +38049,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT185" t="n">
         <v>0.9399999999999999</v>
@@ -38255,7 +38255,7 @@
         <v>1.82</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU186" t="n">
         <v>1.09</v>
@@ -38458,7 +38458,7 @@
         <v>1.65</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU187" t="n">
         <v>1.32</v>
@@ -38658,7 +38658,7 @@
         <v>2.57</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT188" t="n">
         <v>1.53</v>
@@ -39270,7 +39270,7 @@
         <v>1.41</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU191" t="n">
         <v>1.6</v>
@@ -39676,7 +39676,7 @@
         <v>1.82</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU193" t="n">
         <v>1.62</v>
@@ -40282,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT196" t="n">
         <v>0.63</v>
@@ -40688,10 +40688,10 @@
         <v>0.43</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU198" t="n">
         <v>1.41</v>
@@ -41094,7 +41094,7 @@
         <v>0.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT200" t="n">
         <v>0.8100000000000001</v>
@@ -43530,10 +43530,10 @@
         <v>0.75</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU212" t="n">
         <v>1.45</v>
@@ -44142,7 +44142,7 @@
         <v>1.82</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU215" t="n">
         <v>1.1</v>
@@ -44748,10 +44748,10 @@
         <v>1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU218" t="n">
         <v>1.48</v>
@@ -45154,7 +45154,7 @@
         <v>2.38</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT220" t="n">
         <v>1.53</v>
@@ -46372,7 +46372,7 @@
         <v>0.88</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT226" t="n">
         <v>0.63</v>
@@ -46984,7 +46984,7 @@
         <v>1.35</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU229" t="n">
         <v>1.45</v>
@@ -48199,7 +48199,7 @@
         <v>0.63</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT235" t="n">
         <v>0.5600000000000001</v>
@@ -48402,10 +48402,10 @@
         <v>0.86</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU236" t="n">
         <v>1.63</v>
@@ -48808,10 +48808,10 @@
         <v>0.44</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU238" t="n">
         <v>1.43</v>
@@ -49214,7 +49214,7 @@
         <v>1.44</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT240" t="n">
         <v>1</v>
@@ -49826,7 +49826,7 @@
         <v>1.89</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU243" t="n">
         <v>1.42</v>
@@ -50026,10 +50026,10 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU244" t="n">
         <v>1.52</v>
@@ -50635,7 +50635,7 @@
         <v>1.13</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT247" t="n">
         <v>0.9399999999999999</v>
@@ -50841,7 +50841,7 @@
         <v>1.65</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU248" t="n">
         <v>1.3</v>
@@ -51650,7 +51650,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT252" t="n">
         <v>0.75</v>
@@ -52059,7 +52059,7 @@
         <v>1.69</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU254" t="n">
         <v>1.5</v>
@@ -53883,7 +53883,7 @@
         <v>0.89</v>
       </c>
       <c r="AS263" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT263" t="n">
         <v>1</v>
@@ -54695,7 +54695,7 @@
         <v>1</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT267" t="n">
         <v>1.12</v>
@@ -55101,10 +55101,10 @@
         <v>0.4</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU269" t="n">
         <v>1.51</v>
@@ -55307,7 +55307,7 @@
         <v>1.82</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU270" t="n">
         <v>1.16</v>
@@ -55916,7 +55916,7 @@
         <v>1.59</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU273" t="n">
         <v>1.32</v>
@@ -56119,7 +56119,7 @@
         <v>1.5</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU274" t="n">
         <v>1.56</v>
@@ -56319,7 +56319,7 @@
         <v>1.67</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT275" t="n">
         <v>1.35</v>
@@ -56928,7 +56928,7 @@
         <v>1.1</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT278" t="n">
         <v>0.9399999999999999</v>
@@ -58352,7 +58352,7 @@
         <v>1.81</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU285" t="n">
         <v>1.66</v>
@@ -58755,7 +58755,7 @@
         <v>1.11</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT287" t="n">
         <v>1.25</v>
@@ -60176,7 +60176,7 @@
         <v>0.8</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT294" t="n">
         <v>1</v>
@@ -60582,7 +60582,7 @@
         <v>1.09</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT296" t="n">
         <v>1</v>
@@ -60785,10 +60785,10 @@
         <v>1</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU297" t="n">
         <v>1.5</v>
@@ -60991,7 +60991,7 @@
         <v>1.59</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU298" t="n">
         <v>1.29</v>
@@ -61800,7 +61800,7 @@
         <v>1</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT302" t="n">
         <v>0.9399999999999999</v>
@@ -62206,10 +62206,10 @@
         <v>0.9</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU304" t="n">
         <v>1.55</v>
@@ -62615,7 +62615,7 @@
         <v>1.41</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU306" t="n">
         <v>1.51</v>
@@ -63627,7 +63627,7 @@
         <v>1</v>
       </c>
       <c r="AS311" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT311" t="n">
         <v>0.75</v>
@@ -65048,7 +65048,7 @@
         <v>1.8</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT318" t="n">
         <v>1.75</v>
@@ -65660,7 +65660,7 @@
         <v>1.81</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU321" t="n">
         <v>1.25</v>
@@ -66269,7 +66269,7 @@
         <v>1.69</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU324" t="n">
         <v>1.57</v>
@@ -66875,7 +66875,7 @@
         <v>1.08</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT327" t="n">
         <v>0.9399999999999999</v>
@@ -67284,7 +67284,7 @@
         <v>1.41</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU329" t="n">
         <v>1.5</v>
@@ -67690,7 +67690,7 @@
         <v>1.69</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU331" t="n">
         <v>1.14</v>
@@ -67890,7 +67890,7 @@
         <v>1.08</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT332" t="n">
         <v>1</v>
@@ -68296,10 +68296,10 @@
         <v>0.92</v>
       </c>
       <c r="AS334" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT334" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU334" t="n">
         <v>1.5</v>
@@ -68905,7 +68905,7 @@
         <v>0.75</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT337" t="n">
         <v>0.63</v>
@@ -69108,7 +69108,7 @@
         <v>0.73</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT338" t="n">
         <v>0.5600000000000001</v>
@@ -69311,7 +69311,7 @@
         <v>1.55</v>
       </c>
       <c r="AS339" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT339" t="n">
         <v>1.27</v>
@@ -71547,7 +71547,7 @@
         <v>1.25</v>
       </c>
       <c r="AT350" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU350" t="n">
         <v>1.75</v>
@@ -71953,7 +71953,7 @@
         <v>1.94</v>
       </c>
       <c r="AT352" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU352" t="n">
         <v>1.39</v>
@@ -72356,7 +72356,7 @@
         <v>0.46</v>
       </c>
       <c r="AS354" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT354" t="n">
         <v>0.5600000000000001</v>
@@ -72559,7 +72559,7 @@
         <v>0.92</v>
       </c>
       <c r="AS355" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT355" t="n">
         <v>1</v>
@@ -73168,7 +73168,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS358" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT358" t="n">
         <v>0.63</v>
@@ -73374,7 +73374,7 @@
         <v>1.59</v>
       </c>
       <c r="AT359" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU359" t="n">
         <v>1.28</v>
@@ -74186,7 +74186,7 @@
         <v>1.69</v>
       </c>
       <c r="AT363" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU363" t="n">
         <v>1.13</v>
@@ -74386,7 +74386,7 @@
         <v>1</v>
       </c>
       <c r="AS364" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT364" t="n">
         <v>1.12</v>
@@ -75607,7 +75607,7 @@
         <v>2.81</v>
       </c>
       <c r="AT370" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU370" t="n">
         <v>1.79</v>
@@ -76010,7 +76010,7 @@
         <v>0.75</v>
       </c>
       <c r="AS372" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT372" t="n">
         <v>0.8100000000000001</v>
@@ -76825,7 +76825,7 @@
         <v>1.94</v>
       </c>
       <c r="AT376" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU376" t="n">
         <v>1.5</v>
@@ -77431,7 +77431,7 @@
         <v>0.92</v>
       </c>
       <c r="AS379" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT379" t="n">
         <v>1</v>
@@ -77840,7 +77840,7 @@
         <v>1.25</v>
       </c>
       <c r="AT381" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU381" t="n">
         <v>1.6</v>
@@ -78652,7 +78652,7 @@
         <v>1.59</v>
       </c>
       <c r="AT385" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU385" t="n">
         <v>1.22</v>
@@ -79055,7 +79055,7 @@
         <v>1.14</v>
       </c>
       <c r="AS387" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT387" t="n">
         <v>1.12</v>
@@ -80276,7 +80276,7 @@
         <v>1.27</v>
       </c>
       <c r="AT393" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU393" t="n">
         <v>1.17</v>
@@ -80476,7 +80476,7 @@
         <v>0.71</v>
       </c>
       <c r="AS394" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT394" t="n">
         <v>0.63</v>
@@ -80885,7 +80885,7 @@
         <v>1.69</v>
       </c>
       <c r="AT396" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU396" t="n">
         <v>1.59</v>
@@ -81085,7 +81085,7 @@
         <v>0.64</v>
       </c>
       <c r="AS397" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT397" t="n">
         <v>0.5600000000000001</v>
@@ -81494,7 +81494,7 @@
         <v>1.25</v>
       </c>
       <c r="AT399" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU399" t="n">
         <v>1.75</v>
@@ -81694,7 +81694,7 @@
         <v>1.38</v>
       </c>
       <c r="AS400" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT400" t="n">
         <v>1.27</v>
@@ -81897,7 +81897,7 @@
         <v>0.86</v>
       </c>
       <c r="AS401" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT401" t="n">
         <v>0.9399999999999999</v>
@@ -82100,7 +82100,7 @@
         <v>1.31</v>
       </c>
       <c r="AS402" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT402" t="n">
         <v>1.25</v>
@@ -82509,7 +82509,7 @@
         <v>2.81</v>
       </c>
       <c r="AT404" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU404" t="n">
         <v>1.8</v>
@@ -82912,7 +82912,7 @@
         <v>1</v>
       </c>
       <c r="AS406" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT406" t="n">
         <v>1</v>
@@ -85554,7 +85554,7 @@
         <v>1.69</v>
       </c>
       <c r="AT419" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU419" t="n">
         <v>1.15</v>
@@ -86363,7 +86363,7 @@
         <v>0.8</v>
       </c>
       <c r="AS423" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT423" t="n">
         <v>0.9399999999999999</v>
@@ -86566,7 +86566,7 @@
         <v>1.07</v>
       </c>
       <c r="AS424" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT424" t="n">
         <v>1</v>
@@ -87378,7 +87378,7 @@
         <v>0.71</v>
       </c>
       <c r="AS428" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT428" t="n">
         <v>0.63</v>
@@ -87584,7 +87584,7 @@
         <v>1.41</v>
       </c>
       <c r="AT429" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU429" t="n">
         <v>1.48</v>
@@ -87787,7 +87787,7 @@
         <v>1.82</v>
       </c>
       <c r="AT430" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU430" t="n">
         <v>1.26</v>
@@ -87990,7 +87990,7 @@
         <v>1.94</v>
       </c>
       <c r="AT431" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU431" t="n">
         <v>1.39</v>
@@ -88190,10 +88190,10 @@
         <v>0.93</v>
       </c>
       <c r="AS432" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT432" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU432" t="n">
         <v>1.41</v>
@@ -88393,7 +88393,7 @@
         <v>1</v>
       </c>
       <c r="AS433" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AT433" t="n">
         <v>1</v>
@@ -88596,7 +88596,7 @@
         <v>1</v>
       </c>
       <c r="AS434" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AT434" t="n">
         <v>1</v>
@@ -88802,7 +88802,7 @@
         <v>2.81</v>
       </c>
       <c r="AT435" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU435" t="n">
         <v>1.78</v>
@@ -90223,7 +90223,7 @@
         <v>1.59</v>
       </c>
       <c r="AT442" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AU442" t="n">
         <v>1.25</v>
@@ -93319,6 +93319,1224 @@
         <v>16</v>
       </c>
       <c r="BK457" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="n">
+        <v>5019548</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E458" s="2" t="n">
+        <v>45194.66666666666</v>
+      </c>
+      <c r="F458" t="n">
+        <v>6</v>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0</v>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q458" t="n">
+        <v>4</v>
+      </c>
+      <c r="R458" t="n">
+        <v>2</v>
+      </c>
+      <c r="S458" t="n">
+        <v>6</v>
+      </c>
+      <c r="T458" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U458" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V458" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W458" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X458" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y458" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z458" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA458" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB458" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC458" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD458" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AE458" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AF458" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG458" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH458" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI458" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AJ458" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK458" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL458" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM458" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN458" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO458" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP458" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ458" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR458" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS458" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT458" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU458" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV458" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW458" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX458" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY458" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ458" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA458" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB458" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC458" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD458" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE458" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF458" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG458" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH458" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI458" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ458" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK458" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="n">
+        <v>4554830</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E459" s="2" t="n">
+        <v>45194.66666666666</v>
+      </c>
+      <c r="F459" t="n">
+        <v>6</v>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>1</v>
+      </c>
+      <c r="O459" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q459" t="n">
+        <v>10</v>
+      </c>
+      <c r="R459" t="n">
+        <v>3</v>
+      </c>
+      <c r="S459" t="n">
+        <v>13</v>
+      </c>
+      <c r="T459" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U459" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V459" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W459" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X459" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y459" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z459" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA459" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB459" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC459" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD459" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE459" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF459" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG459" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="AH459" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI459" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ459" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK459" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL459" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM459" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN459" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO459" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP459" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ459" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR459" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS459" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT459" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU459" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV459" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW459" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX459" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY459" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ459" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA459" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB459" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC459" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD459" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE459" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF459" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG459" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH459" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI459" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ459" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK459" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="n">
+        <v>4554823</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E460" s="2" t="n">
+        <v>45194.77083333334</v>
+      </c>
+      <c r="F460" t="n">
+        <v>6</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
+      <c r="J460" t="n">
+        <v>1</v>
+      </c>
+      <c r="K460" t="n">
+        <v>1</v>
+      </c>
+      <c r="L460" t="n">
+        <v>3</v>
+      </c>
+      <c r="M460" t="n">
+        <v>1</v>
+      </c>
+      <c r="N460" t="n">
+        <v>4</v>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>['46', '54', '67']</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q460" t="n">
+        <v>3</v>
+      </c>
+      <c r="R460" t="n">
+        <v>6</v>
+      </c>
+      <c r="S460" t="n">
+        <v>9</v>
+      </c>
+      <c r="T460" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U460" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V460" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W460" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X460" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y460" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z460" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA460" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB460" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC460" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AD460" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE460" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF460" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG460" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH460" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI460" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ460" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK460" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL460" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM460" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN460" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO460" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP460" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ460" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR460" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS460" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT460" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU460" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV460" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW460" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX460" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY460" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ460" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA460" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB460" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC460" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD460" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE460" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF460" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG460" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH460" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI460" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ460" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK460" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="n">
+        <v>4554829</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E461" s="2" t="n">
+        <v>45194.77083333334</v>
+      </c>
+      <c r="F461" t="n">
+        <v>6</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="n">
+        <v>1</v>
+      </c>
+      <c r="N461" t="n">
+        <v>2</v>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q461" t="n">
+        <v>3</v>
+      </c>
+      <c r="R461" t="n">
+        <v>4</v>
+      </c>
+      <c r="S461" t="n">
+        <v>7</v>
+      </c>
+      <c r="T461" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U461" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V461" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W461" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X461" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y461" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z461" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA461" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB461" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC461" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD461" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE461" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF461" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG461" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH461" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI461" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ461" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK461" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL461" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM461" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN461" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO461" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP461" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ461" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR461" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS461" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT461" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU461" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV461" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW461" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX461" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY461" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ461" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA461" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB461" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC461" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD461" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE461" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF461" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG461" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH461" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI461" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ461" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK461" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="n">
+        <v>4554826</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E462" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F462" t="n">
+        <v>6</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>1</v>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q462" t="n">
+        <v>5</v>
+      </c>
+      <c r="R462" t="n">
+        <v>6</v>
+      </c>
+      <c r="S462" t="n">
+        <v>11</v>
+      </c>
+      <c r="T462" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U462" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V462" t="n">
+        <v>6</v>
+      </c>
+      <c r="W462" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X462" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y462" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z462" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA462" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB462" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC462" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD462" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE462" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF462" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG462" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AH462" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI462" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ462" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK462" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL462" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM462" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN462" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO462" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP462" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ462" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR462" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AS462" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT462" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU462" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV462" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW462" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX462" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY462" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ462" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA462" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB462" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC462" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD462" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE462" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF462" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG462" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH462" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI462" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ462" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK462" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="n">
+        <v>4554824</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E463" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F463" t="n">
+        <v>6</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>3</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="n">
+        <v>3</v>
+      </c>
+      <c r="L463" t="n">
+        <v>4</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="n">
+        <v>4</v>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>['17', '22', '45+2', '90+2']</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q463" t="n">
+        <v>5</v>
+      </c>
+      <c r="R463" t="n">
+        <v>2</v>
+      </c>
+      <c r="S463" t="n">
+        <v>7</v>
+      </c>
+      <c r="T463" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U463" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V463" t="n">
+        <v>7</v>
+      </c>
+      <c r="W463" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X463" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y463" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z463" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA463" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB463" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC463" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD463" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE463" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="AF463" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG463" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AH463" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI463" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ463" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK463" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL463" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM463" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN463" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO463" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP463" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ463" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR463" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS463" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT463" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU463" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV463" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW463" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX463" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY463" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ463" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BA463" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB463" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC463" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD463" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE463" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF463" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG463" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH463" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI463" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ463" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK463" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ463"/>
+  <dimension ref="A1:AZ465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.63</v>
@@ -3389,7 +3389,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.35</v>
@@ -5259,7 +5259,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.12</v>
@@ -8656,7 +8656,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.53</v>
@@ -9679,7 +9679,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR54" t="n">
         <v>1.63</v>
@@ -10189,7 +10189,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR57" t="n">
         <v>1.13</v>
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.12</v>
@@ -14439,7 +14439,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR82" t="n">
         <v>1.61</v>
@@ -14776,7 +14776,7 @@
         <v>1.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -17666,7 +17666,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.12</v>
@@ -18009,7 +18009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR103" t="n">
         <v>1.53</v>
@@ -19879,7 +19879,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -21236,7 +21236,7 @@
         <v>1.75</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ122" t="n">
         <v>1</v>
@@ -24979,7 +24979,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR144" t="n">
         <v>1.49</v>
@@ -25149,7 +25149,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR145" t="n">
         <v>1.78</v>
@@ -26336,7 +26336,7 @@
         <v>0.6</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.9399999999999999</v>
@@ -26846,7 +26846,7 @@
         <v>1.2</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155" t="n">
         <v>0.9399999999999999</v>
@@ -29399,7 +29399,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR170" t="n">
         <v>1.69</v>
@@ -29736,7 +29736,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ172" t="n">
         <v>1</v>
@@ -31099,7 +31099,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR180" t="n">
         <v>0.85</v>
@@ -31606,7 +31606,7 @@
         <v>0.83</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.5600000000000001</v>
@@ -35349,7 +35349,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR205" t="n">
         <v>1.52</v>
@@ -35516,7 +35516,7 @@
         <v>0.71</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.75</v>
@@ -35686,7 +35686,7 @@
         <v>0.57</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.63</v>
@@ -35859,7 +35859,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR208" t="n">
         <v>1.4</v>
@@ -38746,7 +38746,7 @@
         <v>1</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ225" t="n">
         <v>1</v>
@@ -39089,7 +39089,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR227" t="n">
         <v>1.49</v>
@@ -40106,7 +40106,7 @@
         <v>0.88</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ233" t="n">
         <v>1</v>
@@ -43506,7 +43506,7 @@
         <v>1.25</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.25</v>
@@ -44016,7 +44016,7 @@
         <v>1.88</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.75</v>
@@ -44189,7 +44189,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR257" t="n">
         <v>1.23</v>
@@ -48099,7 +48099,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ280" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR280" t="n">
         <v>1.71</v>
@@ -48269,7 +48269,7 @@
         <v>2.81</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR281" t="n">
         <v>1.88</v>
@@ -48776,10 +48776,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ284" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR284" t="n">
         <v>1.68</v>
@@ -49629,7 +49629,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR289" t="n">
         <v>1.93</v>
@@ -50136,7 +50136,7 @@
         <v>0.78</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ292" t="n">
         <v>0.75</v>
@@ -53199,7 +53199,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ310" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR310" t="n">
         <v>1.43</v>
@@ -53536,7 +53536,7 @@
         <v>0.5</v>
       </c>
       <c r="AP312" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ312" t="n">
         <v>0.8100000000000001</v>
@@ -54216,10 +54216,10 @@
         <v>1.4</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ316" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR316" t="n">
         <v>1.1</v>
@@ -57959,7 +57959,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ338" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR338" t="n">
         <v>1.58</v>
@@ -58129,7 +58129,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ339" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR339" t="n">
         <v>1.54</v>
@@ -59826,7 +59826,7 @@
         <v>0.73</v>
       </c>
       <c r="AP349" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ349" t="n">
         <v>1</v>
@@ -59996,7 +59996,7 @@
         <v>1</v>
       </c>
       <c r="AP350" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ350" t="n">
         <v>0.82</v>
@@ -62719,7 +62719,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ366" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR366" t="n">
         <v>1.6</v>
@@ -64076,7 +64076,7 @@
         <v>1.42</v>
       </c>
       <c r="AP374" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ374" t="n">
         <v>1.35</v>
@@ -64246,7 +64246,7 @@
         <v>0.75</v>
       </c>
       <c r="AP375" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ375" t="n">
         <v>0.75</v>
@@ -64759,7 +64759,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ378" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR378" t="n">
         <v>1.49</v>
@@ -66116,7 +66116,7 @@
         <v>0.85</v>
       </c>
       <c r="AP386" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ386" t="n">
         <v>1</v>
@@ -67306,7 +67306,7 @@
         <v>1.14</v>
       </c>
       <c r="AP393" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ393" t="n">
         <v>1.12</v>
@@ -68326,7 +68326,7 @@
         <v>1</v>
       </c>
       <c r="AP399" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ399" t="n">
         <v>1.12</v>
@@ -68499,7 +68499,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ400" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR400" t="n">
         <v>1.36</v>
@@ -69009,7 +69009,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ403" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR403" t="n">
         <v>1.39</v>
@@ -72239,7 +72239,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ422" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR422" t="n">
         <v>1.52</v>
@@ -72916,7 +72916,7 @@
         <v>1.27</v>
       </c>
       <c r="AP426" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ426" t="n">
         <v>1.35</v>
@@ -77339,7 +77339,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ452" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR452" t="n">
         <v>1.46</v>
@@ -77509,7 +77509,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ453" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR453" t="n">
         <v>1.4</v>
@@ -78016,7 +78016,7 @@
         <v>1.38</v>
       </c>
       <c r="AP456" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ456" t="n">
         <v>1.35</v>
@@ -79237,6 +79237,346 @@
       </c>
       <c r="AZ463" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="n">
+        <v>4554841</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E464" s="2" t="n">
+        <v>45198.83333333334</v>
+      </c>
+      <c r="F464" t="n">
+        <v>7</v>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0</v>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q464" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R464" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S464" t="n">
+        <v>4</v>
+      </c>
+      <c r="T464" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U464" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V464" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W464" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X464" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y464" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z464" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA464" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB464" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AC464" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD464" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="AE464" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF464" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG464" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH464" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI464" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ464" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK464" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL464" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM464" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN464" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO464" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP464" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ464" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR464" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS464" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT464" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU464" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV464" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW464" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX464" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY464" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ464" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="n">
+        <v>4554842</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E465" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F465" t="n">
+        <v>7</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>1</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0</v>
+      </c>
+      <c r="K465" t="n">
+        <v>1</v>
+      </c>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N465" t="n">
+        <v>1</v>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>['45+8']</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q465" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R465" t="n">
+        <v>2</v>
+      </c>
+      <c r="S465" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T465" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U465" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V465" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W465" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X465" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y465" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z465" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA465" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB465" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC465" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD465" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE465" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF465" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG465" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH465" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI465" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ465" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK465" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL465" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM465" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN465" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO465" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP465" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ465" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR465" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS465" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT465" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU465" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV465" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW465" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX465" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY465" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ465" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ465"/>
+  <dimension ref="A1:AZ470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.12</v>
@@ -1009,7 +1009,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.33</v>
@@ -1349,7 +1349,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.9399999999999999</v>
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.9399999999999999</v>
@@ -6109,7 +6109,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR33" t="n">
         <v>1.74</v>
@@ -6619,7 +6619,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR36" t="n">
         <v>1.26</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.33</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.63</v>
@@ -7299,7 +7299,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR40" t="n">
         <v>1.76</v>
@@ -7466,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.12</v>
@@ -7809,7 +7809,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR43" t="n">
         <v>1.92</v>
@@ -8659,7 +8659,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR48" t="n">
         <v>2.98</v>
@@ -9506,7 +9506,7 @@
         <v>3</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.75</v>
@@ -10526,7 +10526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.9399999999999999</v>
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60" t="n">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR65" t="n">
         <v>2.06</v>
@@ -11886,10 +11886,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR67" t="n">
         <v>2.03</v>
@@ -12059,7 +12059,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR68" t="n">
         <v>1.49</v>
@@ -12396,10 +12396,10 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR70" t="n">
         <v>1.87</v>
@@ -13419,7 +13419,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR76" t="n">
         <v>1.43</v>
@@ -14946,7 +14946,7 @@
         <v>3</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.19</v>
@@ -15119,7 +15119,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR86" t="n">
         <v>0.74</v>
@@ -15626,7 +15626,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.63</v>
@@ -16139,7 +16139,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92" t="n">
         <v>0.97</v>
@@ -16306,7 +16306,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.9399999999999999</v>
@@ -16649,7 +16649,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR95" t="n">
         <v>1.86</v>
@@ -16816,7 +16816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.25</v>
@@ -16986,7 +16986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -17329,7 +17329,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR99" t="n">
         <v>1.88</v>
@@ -18686,7 +18686,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ107" t="n">
         <v>1</v>
@@ -19029,7 +19029,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR109" t="n">
         <v>1.99</v>
@@ -20216,7 +20216,7 @@
         <v>0.25</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.63</v>
@@ -20389,7 +20389,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR117" t="n">
         <v>1.81</v>
@@ -20896,10 +20896,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR120" t="n">
         <v>1.52</v>
@@ -21066,10 +21066,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR121" t="n">
         <v>1.76</v>
@@ -21239,7 +21239,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122" t="n">
         <v>1.77</v>
@@ -21746,7 +21746,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.75</v>
@@ -24299,7 +24299,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR140" t="n">
         <v>1.52</v>
@@ -24466,7 +24466,7 @@
         <v>0.75</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.75</v>
@@ -25146,7 +25146,7 @@
         <v>1.75</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.19</v>
@@ -25319,7 +25319,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146" t="n">
         <v>1.4</v>
@@ -25486,7 +25486,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.25</v>
@@ -25659,7 +25659,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR148" t="n">
         <v>1.09</v>
@@ -25826,10 +25826,10 @@
         <v>0.4</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR149" t="n">
         <v>1.77</v>
@@ -26166,10 +26166,10 @@
         <v>1.4</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR151" t="n">
         <v>1.65</v>
@@ -27186,7 +27186,7 @@
         <v>1.4</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.35</v>
@@ -28209,7 +28209,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR163" t="n">
         <v>1.07</v>
@@ -28716,7 +28716,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.9399999999999999</v>
@@ -29229,7 +29229,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR169" t="n">
         <v>1.4</v>
@@ -29909,7 +29909,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR173" t="n">
         <v>1.19</v>
@@ -30246,7 +30246,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.75</v>
@@ -30416,7 +30416,7 @@
         <v>1.2</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.25</v>
@@ -30929,7 +30929,7 @@
         <v>2.81</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR179" t="n">
         <v>1.8</v>
@@ -31266,7 +31266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ181" t="n">
         <v>1</v>
@@ -31609,7 +31609,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR183" t="n">
         <v>1.74</v>
@@ -32459,7 +32459,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR188" t="n">
         <v>1.5</v>
@@ -32966,7 +32966,7 @@
         <v>0.83</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.82</v>
@@ -33306,7 +33306,7 @@
         <v>1.17</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.12</v>
@@ -34329,7 +34329,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR199" t="n">
         <v>1.23</v>
@@ -34839,7 +34839,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR202" t="n">
         <v>1.92</v>
@@ -35006,7 +35006,7 @@
         <v>1.17</v>
       </c>
       <c r="AP203" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ203" t="n">
         <v>0.75</v>
@@ -35519,7 +35519,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR206" t="n">
         <v>1.66</v>
@@ -35856,7 +35856,7 @@
         <v>2.17</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.19</v>
@@ -36026,7 +36026,7 @@
         <v>1.83</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.75</v>
@@ -36876,7 +36876,7 @@
         <v>1.29</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.35</v>
@@ -37726,7 +37726,7 @@
         <v>1.63</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ219" t="n">
         <v>1</v>
@@ -37899,7 +37899,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR220" t="n">
         <v>1.55</v>
@@ -38409,7 +38409,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR223" t="n">
         <v>1.53</v>
@@ -38749,7 +38749,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR225" t="n">
         <v>1.15</v>
@@ -39086,7 +39086,7 @@
         <v>2</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.19</v>
@@ -39766,7 +39766,7 @@
         <v>1</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ231" t="n">
         <v>1</v>
@@ -39939,7 +39939,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR232" t="n">
         <v>1.28</v>
@@ -40449,7 +40449,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR235" t="n">
         <v>1.66</v>
@@ -41469,7 +41469,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR241" t="n">
         <v>1.44</v>
@@ -42146,7 +42146,7 @@
         <v>1.11</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ245" t="n">
         <v>1.12</v>
@@ -42826,7 +42826,7 @@
         <v>0.88</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.63</v>
@@ -43169,7 +43169,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR251" t="n">
         <v>1.3</v>
@@ -43339,7 +43339,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR252" t="n">
         <v>1.68</v>
@@ -44356,7 +44356,7 @@
         <v>0.88</v>
       </c>
       <c r="AP258" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ258" t="n">
         <v>1</v>
@@ -44529,7 +44529,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR259" t="n">
         <v>1.58</v>
@@ -44696,7 +44696,7 @@
         <v>0.63</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.8100000000000001</v>
@@ -45036,7 +45036,7 @@
         <v>0.88</v>
       </c>
       <c r="AP262" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ262" t="n">
         <v>0.75</v>
@@ -45209,7 +45209,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR263" t="n">
         <v>1.56</v>
@@ -46056,10 +46056,10 @@
         <v>1.11</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR268" t="n">
         <v>1.63</v>
@@ -46566,7 +46566,7 @@
         <v>1.11</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ271" t="n">
         <v>0.9399999999999999</v>
@@ -46736,10 +46736,10 @@
         <v>2</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR272" t="n">
         <v>1.55</v>
@@ -47589,7 +47589,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR277" t="n">
         <v>1.61</v>
@@ -47929,7 +47929,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR279" t="n">
         <v>1.64</v>
@@ -48096,7 +48096,7 @@
         <v>0.63</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ280" t="n">
         <v>0.59</v>
@@ -48946,7 +48946,7 @@
         <v>0.78</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ285" t="n">
         <v>0.82</v>
@@ -49459,7 +49459,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ288" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR288" t="n">
         <v>1.44</v>
@@ -49799,7 +49799,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ290" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR290" t="n">
         <v>1.6</v>
@@ -50306,7 +50306,7 @@
         <v>0.89</v>
       </c>
       <c r="AP293" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ293" t="n">
         <v>0.75</v>
@@ -50819,7 +50819,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR296" t="n">
         <v>1.43</v>
@@ -51329,7 +51329,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR299" t="n">
         <v>1.15</v>
@@ -51496,7 +51496,7 @@
         <v>0.8</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ300" t="n">
         <v>0.63</v>
@@ -52009,7 +52009,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ303" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR303" t="n">
         <v>1.48</v>
@@ -52516,7 +52516,7 @@
         <v>1.09</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ306" t="n">
         <v>1.12</v>
@@ -52856,7 +52856,7 @@
         <v>1.18</v>
       </c>
       <c r="AP308" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ308" t="n">
         <v>0.9399999999999999</v>
@@ -53706,7 +53706,7 @@
         <v>1.5</v>
       </c>
       <c r="AP313" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ313" t="n">
         <v>1.35</v>
@@ -53876,7 +53876,7 @@
         <v>1.3</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ314" t="n">
         <v>1.35</v>
@@ -55239,7 +55239,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ322" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR322" t="n">
         <v>1.58</v>
@@ -55409,7 +55409,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ323" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR323" t="n">
         <v>1.54</v>
@@ -55746,10 +55746,10 @@
         <v>1.92</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR325" t="n">
         <v>1.41</v>
@@ -56426,7 +56426,7 @@
         <v>0.33</v>
       </c>
       <c r="AP329" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ329" t="n">
         <v>0.33</v>
@@ -56599,7 +56599,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ330" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR330" t="n">
         <v>1.47</v>
@@ -57106,10 +57106,10 @@
         <v>0.5</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ333" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR333" t="n">
         <v>1.62</v>
@@ -57446,7 +57446,7 @@
         <v>1.09</v>
       </c>
       <c r="AP335" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ335" t="n">
         <v>0.9399999999999999</v>
@@ -57619,7 +57619,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR336" t="n">
         <v>1.42</v>
@@ -58636,7 +58636,7 @@
         <v>0.73</v>
       </c>
       <c r="AP342" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ342" t="n">
         <v>0.63</v>
@@ -59659,7 +59659,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ348" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR348" t="n">
         <v>1.52</v>
@@ -60336,7 +60336,7 @@
         <v>1</v>
       </c>
       <c r="AP352" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ352" t="n">
         <v>1.12</v>
@@ -60679,7 +60679,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ354" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR354" t="n">
         <v>1.38</v>
@@ -60849,7 +60849,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ355" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR355" t="n">
         <v>1.48</v>
@@ -61186,10 +61186,10 @@
         <v>1.85</v>
       </c>
       <c r="AP357" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ357" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR357" t="n">
         <v>1.64</v>
@@ -61696,7 +61696,7 @@
         <v>1</v>
       </c>
       <c r="AP360" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ360" t="n">
         <v>0.9399999999999999</v>
@@ -61866,7 +61866,7 @@
         <v>1</v>
       </c>
       <c r="AP361" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ361" t="n">
         <v>0.9399999999999999</v>
@@ -62036,10 +62036,10 @@
         <v>0.85</v>
       </c>
       <c r="AP362" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ362" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR362" t="n">
         <v>1.63</v>
@@ -62549,7 +62549,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ365" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR365" t="n">
         <v>1.54</v>
@@ -65436,7 +65436,7 @@
         <v>0.92</v>
       </c>
       <c r="AP382" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ382" t="n">
         <v>0.75</v>
@@ -66456,7 +66456,7 @@
         <v>1.07</v>
       </c>
       <c r="AP388" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ388" t="n">
         <v>1</v>
@@ -66799,7 +66799,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ390" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR390" t="n">
         <v>1.85</v>
@@ -67646,7 +67646,7 @@
         <v>1</v>
       </c>
       <c r="AP395" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ395" t="n">
         <v>1</v>
@@ -67989,7 +67989,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ397" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR397" t="n">
         <v>1.54</v>
@@ -68159,7 +68159,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ398" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR398" t="n">
         <v>1.28</v>
@@ -69346,7 +69346,7 @@
         <v>0.77</v>
       </c>
       <c r="AP405" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ405" t="n">
         <v>0.63</v>
@@ -69859,7 +69859,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ408" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR408" t="n">
         <v>1.52</v>
@@ -70369,7 +70369,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ411" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR411" t="n">
         <v>1.36</v>
@@ -70539,7 +70539,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ412" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR412" t="n">
         <v>1.22</v>
@@ -71046,7 +71046,7 @@
         <v>2</v>
       </c>
       <c r="AP415" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ415" t="n">
         <v>1.75</v>
@@ -71386,7 +71386,7 @@
         <v>1.07</v>
       </c>
       <c r="AP417" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ417" t="n">
         <v>1.12</v>
@@ -71556,7 +71556,7 @@
         <v>1.36</v>
       </c>
       <c r="AP418" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ418" t="n">
         <v>1.35</v>
@@ -72579,7 +72579,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ424" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR424" t="n">
         <v>1.43</v>
@@ -72749,7 +72749,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ425" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AR425" t="n">
         <v>1.38</v>
@@ -73426,7 +73426,7 @@
         <v>1.07</v>
       </c>
       <c r="AP429" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ429" t="n">
         <v>1.12</v>
@@ -73766,7 +73766,7 @@
         <v>1.13</v>
       </c>
       <c r="AP431" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ431" t="n">
         <v>1.12</v>
@@ -75126,10 +75126,10 @@
         <v>1</v>
       </c>
       <c r="AP439" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ439" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AR439" t="n">
         <v>1.65</v>
@@ -76146,10 +76146,10 @@
         <v>0.8</v>
       </c>
       <c r="AP445" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ445" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR445" t="n">
         <v>1.58</v>
@@ -77166,10 +77166,10 @@
         <v>1</v>
       </c>
       <c r="AP451" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ451" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR451" t="n">
         <v>1.51</v>
@@ -78186,10 +78186,10 @@
         <v>1.56</v>
       </c>
       <c r="AP457" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ457" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR457" t="n">
         <v>1.48</v>
@@ -79577,6 +79577,856 @@
       </c>
       <c r="AZ465" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="n">
+        <v>4554834</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E466" s="2" t="n">
+        <v>45199.66666666666</v>
+      </c>
+      <c r="F466" t="n">
+        <v>7</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>0</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="n">
+        <v>1</v>
+      </c>
+      <c r="N466" t="n">
+        <v>2</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q466" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R466" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S466" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T466" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U466" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V466" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W466" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X466" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB466" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AC466" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD466" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AE466" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF466" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AG466" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH466" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI466" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ466" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK466" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL466" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM466" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN466" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO466" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP466" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ466" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AR466" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS466" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT466" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ466" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="n">
+        <v>4554836</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E467" s="2" t="n">
+        <v>45199.6875</v>
+      </c>
+      <c r="F467" t="n">
+        <v>7</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N467" t="n">
+        <v>1</v>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q467" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R467" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S467" t="n">
+        <v>4</v>
+      </c>
+      <c r="T467" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U467" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V467" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W467" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X467" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z467" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB467" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC467" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD467" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE467" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF467" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AG467" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH467" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI467" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ467" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK467" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL467" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM467" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN467" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO467" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP467" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ467" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR467" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS467" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT467" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU467" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV467" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW467" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX467" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY467" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ467" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="n">
+        <v>4554837</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E468" s="2" t="n">
+        <v>45199.79166666666</v>
+      </c>
+      <c r="F468" t="n">
+        <v>7</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>0</v>
+      </c>
+      <c r="J468" t="n">
+        <v>1</v>
+      </c>
+      <c r="K468" t="n">
+        <v>1</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>2</v>
+      </c>
+      <c r="N468" t="n">
+        <v>2</v>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>['4', '86']</t>
+        </is>
+      </c>
+      <c r="Q468" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R468" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S468" t="n">
+        <v>4</v>
+      </c>
+      <c r="T468" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U468" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V468" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W468" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X468" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z468" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB468" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC468" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD468" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE468" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF468" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG468" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH468" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI468" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ468" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK468" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL468" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM468" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN468" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO468" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP468" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ468" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR468" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS468" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT468" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU468" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV468" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW468" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX468" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY468" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ468" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="n">
+        <v>4554843</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E469" s="2" t="n">
+        <v>45199.89583333334</v>
+      </c>
+      <c r="F469" t="n">
+        <v>7</v>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I469" t="n">
+        <v>1</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="n">
+        <v>1</v>
+      </c>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" t="n">
+        <v>1</v>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q469" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R469" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S469" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T469" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U469" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V469" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W469" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X469" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z469" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB469" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC469" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD469" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE469" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF469" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AG469" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AH469" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI469" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ469" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK469" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL469" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM469" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN469" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO469" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP469" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ469" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR469" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS469" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT469" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU469" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV469" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW469" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY469" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ469" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="n">
+        <v>4554838</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E470" s="2" t="n">
+        <v>45200.58333333334</v>
+      </c>
+      <c r="F470" t="n">
+        <v>7</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I470" t="n">
+        <v>0</v>
+      </c>
+      <c r="J470" t="n">
+        <v>1</v>
+      </c>
+      <c r="K470" t="n">
+        <v>1</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M470" t="n">
+        <v>2</v>
+      </c>
+      <c r="N470" t="n">
+        <v>2</v>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>['41', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q470" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R470" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S470" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T470" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U470" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V470" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W470" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X470" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y470" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z470" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA470" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB470" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC470" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD470" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE470" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF470" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG470" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH470" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI470" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ470" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK470" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL470" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM470" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN470" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO470" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP470" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ470" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR470" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS470" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT470" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ470" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
